--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,76 +441,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0026-2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/470.jpg,https://oleks-netizen.github.io/product-images/0026-2/471.jpg,https://oleks-netizen.github.io/product-images/0026-2/472.jpg,https://oleks-netizen.github.io/product-images/0026-2/473.jpg,https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0026-3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4648.jpg,https://oleks-netizen.github.io/product-images/0026-3/4649.jpg,https://oleks-netizen.github.io/product-images/0026-3/4650.jpg,https://oleks-netizen.github.io/product-images/0026-3/4651.jpg,https://oleks-netizen.github.io/product-images/0026-3/4652.jpg,https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>005</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2506.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C2" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg,https://oleks-netizen.github.io/product-images/009-2/1145.jpg,https://oleks-netizen.github.io/product-images/009-2/1146.jpg,https://oleks-netizen.github.io/product-images/009-2/1147.jpg,https://oleks-netizen.github.io/product-images/009-2/1148.jpg,https://oleks-netizen.github.io/product-images/009-2/1149.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg,https://oleks-netizen.github.io/product-images/009-4/1770.jpg,https://oleks-netizen.github.io/product-images/009-4/1771.jpg,https://oleks-netizen.github.io/product-images/009-4/1772.jpg,https://oleks-netizen.github.io/product-images/009-4/1773.jpg,https://oleks-netizen.github.io/product-images/009-4/1774.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Посилання на фото</t>
+          <t>Посилання</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,33 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Артикул</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Посилання</t>
+          <t>Links</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Кількість фото</t>
+          <t>Count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2506.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5081.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5082.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5083.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5084.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5085.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5086.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5087.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5088.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5089.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5090.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4183.jpg,https://oleks-netizen.github.io/product-images/7683-black/4185.jpg,https://oleks-netizen.github.io/product-images/7683-black/4186.jpg,https://oleks-netizen.github.io/product-images/7683-black/4187.jpg,https://oleks-netizen.github.io/product-images/7683-black/4188.jpg,https://oleks-netizen.github.io/product-images/7683-black/4189.jpg,https://oleks-netizen.github.io/product-images/7683-black/4190.jpg,https://oleks-netizen.github.io/product-images/7683-black/4191.jpg,https://oleks-netizen.github.io/product-images/7683-black/4192.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1044.jpg,https://oleks-netizen.github.io/product-images/7687-black/1046.jpg,https://oleks-netizen.github.io/product-images/7687-black/1047.jpg,https://oleks-netizen.github.io/product-images/7687-black/1048.jpg,https://oleks-netizen.github.io/product-images/7687-black/1049.jpg,https://oleks-netizen.github.io/product-images/7687-black/1050.jpg,https://oleks-netizen.github.io/product-images/7687-black/1051.jpg,https://oleks-netizen.github.io/product-images/7687-black/1052.jpg,https://oleks-netizen.github.io/product-images/7687-black/1053.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,63 +424,903 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Артикул</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Links</t>
+          <t>Посилання</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>Кількість фото</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7631-grey</t>
+          <t>3141A Вишнева</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-grey/5081.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5082.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5083.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5084.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5085.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5086.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5087.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5088.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5089.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5090.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141A Вишнева/407.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/408.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/409.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/411.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/412.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7683-black</t>
+          <t>3141A Пурпурна</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7683-black/4183.jpg,https://oleks-netizen.github.io/product-images/7683-black/4185.jpg,https://oleks-netizen.github.io/product-images/7683-black/4186.jpg,https://oleks-netizen.github.io/product-images/7683-black/4187.jpg,https://oleks-netizen.github.io/product-images/7683-black/4188.jpg,https://oleks-netizen.github.io/product-images/7683-black/4189.jpg,https://oleks-netizen.github.io/product-images/7683-black/4190.jpg,https://oleks-netizen.github.io/product-images/7683-black/4191.jpg,https://oleks-netizen.github.io/product-images/7683-black/4192.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141A Пурпурна/750.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/751.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/752.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/754.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/755.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7687-black</t>
+          <t>3141A-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7687-black/1044.jpg,https://oleks-netizen.github.io/product-images/7687-black/1046.jpg,https://oleks-netizen.github.io/product-images/7687-black/1047.jpg,https://oleks-netizen.github.io/product-images/7687-black/1048.jpg,https://oleks-netizen.github.io/product-images/7687-black/1049.jpg,https://oleks-netizen.github.io/product-images/7687-black/1050.jpg,https://oleks-netizen.github.io/product-images/7687-black/1051.jpg,https://oleks-netizen.github.io/product-images/7687-black/1052.jpg,https://oleks-netizen.github.io/product-images/7687-black/1053.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141A-1/5257.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5258.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5259.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5261.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5262.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5265.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5266.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3148 Бордова</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148 Бордова/1011.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1012.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1013.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1015.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1016.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3148 Бузкова</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148 Бузкова/174.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/175.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/176.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/178.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/179.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3148 Жовта</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148 Жовта/5894.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5895.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5896.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5897.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5898.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5899.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5900.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5901.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5902.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5903.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3148 Синя</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148 Синя/6116.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6117.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6118.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6119.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6120.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6121.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6122.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6123.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6124.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6125.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3148 Чорна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148 Чорна/3271.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3272.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3273.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3274.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3275.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3276.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3277.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3278.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3279.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3280.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3148-1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3148-1/1412.jpg,https://oleks-netizen.github.io/product-images/3148-1/1413.jpg,https://oleks-netizen.github.io/product-images/3148-1/1414.jpg,https://oleks-netizen.github.io/product-images/3148-1/1415.jpg,https://oleks-netizen.github.io/product-images/3148-1/1416.jpg,https://oleks-netizen.github.io/product-images/3148-1/1417.jpg,https://oleks-netizen.github.io/product-images/3148-1/1418.jpg,https://oleks-netizen.github.io/product-images/3148-1/1419.jpg,https://oleks-netizen.github.io/product-images/3148-1/1420.jpg,https://oleks-netizen.github.io/product-images/3148-1/1421.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149 Paris</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149 Paris/3008.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3009.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3010.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3011.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3012.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3013.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3014.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3015.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3016.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3149 Ейфелева Вежа</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4878.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4879.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4880.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4881.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4882.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4883.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4884.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4885.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3149 Кіт</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149 Кіт/640.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/641.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/642.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/643.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/644.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/645.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/646.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/647.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/648.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3149 Кава в Парижі</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5019.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5020.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5021.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5022.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5023.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5024.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5025.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5026.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5027.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3149 Слід</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149 Слід/5808.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5809.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5810.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5811.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5812.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5813.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5814.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5815.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3149-1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3149-1/2024.jpg,https://oleks-netizen.github.io/product-images/3149-1/2025.jpg,https://oleks-netizen.github.io/product-images/3149-1/2026.jpg,https://oleks-netizen.github.io/product-images/3149-1/2027.jpg,https://oleks-netizen.github.io/product-images/3149-1/2028.jpg,https://oleks-netizen.github.io/product-images/3149-1/2029.jpg,https://oleks-netizen.github.io/product-images/3149-1/2030.jpg,https://oleks-netizen.github.io/product-images/3149-1/2031.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3150 France</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3150 France/6150.jpg,https://oleks-netizen.github.io/product-images/3150 France/6151.jpg,https://oleks-netizen.github.io/product-images/3150 France/6152.jpg,https://oleks-netizen.github.io/product-images/3150 France/6153.jpg,https://oleks-netizen.github.io/product-images/3150 France/6154.jpg,https://oleks-netizen.github.io/product-images/3150 France/6155.jpg,https://oleks-netizen.github.io/product-images/3150 France/6156.jpg,https://oleks-netizen.github.io/product-images/3150 France/6157.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3150 Paris</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3150 Paris/2825.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2826.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2827.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2828.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2829.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2830.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2831.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2832.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2833.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3150 Прогулянка в Парижі</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2015.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2016.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2017.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2018.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2019.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2020.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2021.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2022.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2023.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3150 Сліди</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3150 Сліди/521.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/522.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/523.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/524.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/525.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/526.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/527.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/528.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/529.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3150-1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3150-1/4812.jpg,https://oleks-netizen.github.io/product-images/3150-1/4813.jpg,https://oleks-netizen.github.io/product-images/3150-1/4814.jpg,https://oleks-netizen.github.io/product-images/3150-1/4815.jpg,https://oleks-netizen.github.io/product-images/3150-1/4816.jpg,https://oleks-netizen.github.io/product-images/3150-1/4817.jpg,https://oleks-netizen.github.io/product-images/3150-1/4818.jpg,https://oleks-netizen.github.io/product-images/3150-1/4819.jpg,https://oleks-netizen.github.io/product-images/3150-1/4820.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3225 Біла</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Біла/1193.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1194.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1195.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1196.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1197.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1198.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1199.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1200.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1201.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3225 Коралова</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Коралова/669.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/670.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/671.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/672.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/673.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/674.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/675.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/676.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/677.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3225 Кремова</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Кремова/2692.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2693.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2694.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2695.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2696.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2697.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2698.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2699.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2700.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3225 Сіро-блакитна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5120.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5121.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5122.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5123.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5124.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5125.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5126.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5127.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5128.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3225 Синя</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Синя/5867.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5868.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5869.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5870.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5871.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5872.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5873.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5874.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5875.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3225 Фіолетова</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3225 Фіолетова/3700.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3701.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3702.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3703.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3704.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3705.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3706.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3707.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3708.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3226 Paris</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Paris/1974.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1975.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1976.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1977.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1978.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1979.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1980.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1981.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1982.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3226 Зірки</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Зірки/5825.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5826.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5827.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5828.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5829.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5830.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5831.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5832.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5833.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3226 Кіт</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Кіт/879.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/880.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/881.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/882.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/883.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/884.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/885.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/886.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3226 Місто</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Місто/2006.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2007.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2008.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2009.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2010.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2011.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2012.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2013.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2014.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3226 Сніг</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Сніг/1711.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1712.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1713.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1714.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1715.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1716.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1717.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1718.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1719.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3226 Сяйво</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3226 Сяйво/5668.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5669.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5670.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5671.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5672.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5673.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5674.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5675.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5676.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3305 Бордова</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3305 Бордова/4511.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4512.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4513.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4514.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4515.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3305 Вишнева</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3305 Вишнева/2756.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2757.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2758.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2759.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2760.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3305 Червона</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3305 Червона/4483.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4484.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4485.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4486.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4487.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3306A Біла</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Біла/2544.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2545.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2546.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2547.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2548.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2549.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2550.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2551.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2552.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3306A Бордова</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Бордова/4622.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4623.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4624.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4625.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4626.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4627.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4628.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4629.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4630.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3306A Сіра</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Сіра/5215.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5216.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5217.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5218.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5219.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5220.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5221.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5222.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5223.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3306A Синя</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Синя/4206.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4207.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4208.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4209.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4210.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4211.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4212.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4213.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3306A Червона</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Червона/832.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/833.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/834.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/835.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/836.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/837.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/838.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/839.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/840.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3306A Чорний</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/3306A Чорний/5134.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5135.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5136.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5137.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5138.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5139.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5140.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5141.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5142.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5302A Біла</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Біла/92.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/93.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/94.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/95.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/96.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/97.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/98.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/99.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5302A Бежева</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Бежева/1644.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1645.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1646.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1647.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1648.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1649.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1650.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1651.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1652.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5302A Кольорова</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Кольорова/3662.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3663.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3664.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3665.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3666.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3667.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3668.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3669.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3670.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5302A Синя</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Синя/3723.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3724.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3725.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3726.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3727.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3728.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3729.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3730.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3731.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5302A Чорна</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Чорна/5241.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5242.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5243.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5244.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5245.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5246.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5247.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5248.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5249.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5302A Чорно-біла</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/5302A Чорно-біла/849.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/850.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/851.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/852.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/853.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/854.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/855.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/856.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BV38171-1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1396.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1397.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1398.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1399.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1400.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1401.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1402.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1403.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BV38319-143</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1165.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1166.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1167.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1168.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1169.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1170.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BV38321-1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38321-1/3655.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3656.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3657.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3658.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3659.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3660.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3661.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BV38345-150</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-150/655.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/656.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/657.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/658.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/659.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/660.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BV38345-210</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1745.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1746.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1747.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1748.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1749.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1750.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1751.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BV38348-1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38348-1/207.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/208.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/209.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/210.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/211.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/212.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/213.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BV38363-100</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-100/810.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/811.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/812.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/813.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/814.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/815.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BV38363-143</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-143/5955.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5956.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5957.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5958.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5959.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5960.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5961.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BV38601-153</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-153/5649.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5650.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5651.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5652.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5653.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5654.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BV38601-2803</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/2790.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2791.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2792.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2793.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2794.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2795.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BV38629-100</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1829.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1830.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1831.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1832.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1833.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1834.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1835.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1836.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BV38643-1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BV38643-1/6005.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6006.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6007.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6008.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6009.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6010.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6011.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3141A Вишнева</t>
+          <t>0026-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141A Вишнева/407.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/408.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/409.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/411.jpg,https://oleks-netizen.github.io/product-images/3141A Вишнева/412.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-2/470.jpg,https://oleks-netizen.github.io/product-images/0026-2/471.jpg,https://oleks-netizen.github.io/product-images/0026-2/472.jpg,https://oleks-netizen.github.io/product-images/0026-2/473.jpg,https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -456,147 +456,147 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3141A Пурпурна</t>
+          <t>0026-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141A Пурпурна/750.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/751.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/752.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/754.jpg,https://oleks-netizen.github.io/product-images/3141A Пурпурна/755.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-3/4648.jpg,https://oleks-netizen.github.io/product-images/0026-3/4649.jpg,https://oleks-netizen.github.io/product-images/0026-3/4650.jpg,https://oleks-netizen.github.io/product-images/0026-3/4651.jpg,https://oleks-netizen.github.io/product-images/0026-3/4652.jpg,https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3141A-1</t>
+          <t>0026-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141A-1/5257.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5258.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5259.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5261.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5262.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5265.jpg,https://oleks-netizen.github.io/product-images/3141A-1/5266.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-4/2038.jpg,https://oleks-netizen.github.io/product-images/0026-4/2039.jpg,https://oleks-netizen.github.io/product-images/0026-4/2040.jpg,https://oleks-netizen.github.io/product-images/0026-4/2041.jpg,https://oleks-netizen.github.io/product-images/0026-4/2042.jpg,https://oleks-netizen.github.io/product-images/0026-4/2043.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3148 Бордова</t>
+          <t>0026-5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148 Бордова/1011.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1012.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1013.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1015.jpg,https://oleks-netizen.github.io/product-images/3148 Бордова/1016.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-5/4516.jpg,https://oleks-netizen.github.io/product-images/0026-5/4517.jpg,https://oleks-netizen.github.io/product-images/0026-5/4518.jpg,https://oleks-netizen.github.io/product-images/0026-5/4519.jpg,https://oleks-netizen.github.io/product-images/0026-5/4520.jpg,https://oleks-netizen.github.io/product-images/0026-5/4521.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3148 Бузкова</t>
+          <t>0026-6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148 Бузкова/174.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/175.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/176.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/178.jpg,https://oleks-netizen.github.io/product-images/3148 Бузкова/179.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-6/3717.jpg,https://oleks-netizen.github.io/product-images/0026-6/3718.jpg,https://oleks-netizen.github.io/product-images/0026-6/3719.jpg,https://oleks-netizen.github.io/product-images/0026-6/3720.jpg,https://oleks-netizen.github.io/product-images/0026-6/3721.jpg,https://oleks-netizen.github.io/product-images/0026-6/3722.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3148 Жовта</t>
+          <t>0026-7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148 Жовта/5894.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5895.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5896.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5897.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5898.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5899.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5900.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5901.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5902.jpg,https://oleks-netizen.github.io/product-images/3148 Жовта/5903.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-7/543.jpg,https://oleks-netizen.github.io/product-images/0026-7/544.jpg,https://oleks-netizen.github.io/product-images/0026-7/545.jpg,https://oleks-netizen.github.io/product-images/0026-7/546.jpg,https://oleks-netizen.github.io/product-images/0026-7/547.jpg,https://oleks-netizen.github.io/product-images/0026-7/548.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3148 Синя</t>
+          <t>0039-3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148 Синя/6116.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6117.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6118.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6119.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6120.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6121.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6122.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6123.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6124.jpg,https://oleks-netizen.github.io/product-images/3148 Синя/6125.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0039-3/5398.jpg,https://oleks-netizen.github.io/product-images/0039-3/5399.jpg,https://oleks-netizen.github.io/product-images/0039-3/5400.jpg,https://oleks-netizen.github.io/product-images/0039-3/5401.jpg,https://oleks-netizen.github.io/product-images/0039-3/5402.jpg,https://oleks-netizen.github.io/product-images/0039-3/5403.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3148 Чорна</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148 Чорна/3271.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3272.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3273.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3274.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3275.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3276.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3277.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3278.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3279.jpg,https://oleks-netizen.github.io/product-images/3148 Чорна/3280.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2506.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3148-1</t>
+          <t>009-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3148-1/1412.jpg,https://oleks-netizen.github.io/product-images/3148-1/1413.jpg,https://oleks-netizen.github.io/product-images/3148-1/1414.jpg,https://oleks-netizen.github.io/product-images/3148-1/1415.jpg,https://oleks-netizen.github.io/product-images/3148-1/1416.jpg,https://oleks-netizen.github.io/product-images/3148-1/1417.jpg,https://oleks-netizen.github.io/product-images/3148-1/1418.jpg,https://oleks-netizen.github.io/product-images/3148-1/1419.jpg,https://oleks-netizen.github.io/product-images/3148-1/1420.jpg,https://oleks-netizen.github.io/product-images/3148-1/1421.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg,https://oleks-netizen.github.io/product-images/009-2/1145.jpg,https://oleks-netizen.github.io/product-images/009-2/1146.jpg,https://oleks-netizen.github.io/product-images/009-2/1147.jpg,https://oleks-netizen.github.io/product-images/009-2/1148.jpg,https://oleks-netizen.github.io/product-images/009-2/1149.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3149 Paris</t>
+          <t>009-4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149 Paris/3008.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3009.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3010.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3011.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3012.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3013.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3014.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3015.jpg,https://oleks-netizen.github.io/product-images/3149 Paris/3016.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg,https://oleks-netizen.github.io/product-images/009-4/1770.jpg,https://oleks-netizen.github.io/product-images/009-4/1771.jpg,https://oleks-netizen.github.io/product-images/009-4/1772.jpg,https://oleks-netizen.github.io/product-images/009-4/1773.jpg,https://oleks-netizen.github.io/product-images/009-4/1774.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3149 Ейфелева Вежа</t>
+          <t>1809-black</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4878.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4879.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4880.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4881.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4882.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4883.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4884.jpg,https://oleks-netizen.github.io/product-images/3149 Ейфелева Вежа/4885.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-black/5770.jpg,https://oleks-netizen.github.io/product-images/1809-black/5771.jpg,https://oleks-netizen.github.io/product-images/1809-black/5772.jpg,https://oleks-netizen.github.io/product-images/1809-black/5773.jpg,https://oleks-netizen.github.io/product-images/1809-black/5774.jpg,https://oleks-netizen.github.io/product-images/1809-black/5775.jpg,https://oleks-netizen.github.io/product-images/1809-black/5776.jpg,https://oleks-netizen.github.io/product-images/1809-black/5777.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -606,57 +606,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3149 Кіт</t>
+          <t>1809-grey</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149 Кіт/640.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/641.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/642.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/643.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/644.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/645.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/646.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/647.jpg,https://oleks-netizen.github.io/product-images/3149 Кіт/648.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-grey/5152.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5153.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5154.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5155.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5156.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5157.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5158.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5159.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3149 Кава в Парижі</t>
+          <t>509-black</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5019.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5020.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5021.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5022.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5023.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5024.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5025.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5026.jpg,https://oleks-netizen.github.io/product-images/3149 Кава в Парижі/5027.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-black/791.jpg,https://oleks-netizen.github.io/product-images/509-black/792.jpg,https://oleks-netizen.github.io/product-images/509-black/793.jpg,https://oleks-netizen.github.io/product-images/509-black/794.jpg,https://oleks-netizen.github.io/product-images/509-black/795.jpg,https://oleks-netizen.github.io/product-images/509-black/796.jpg,https://oleks-netizen.github.io/product-images/509-black/797.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3149 Слід</t>
+          <t>509-green</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149 Слід/5808.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5809.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5810.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5811.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5812.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5813.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5814.jpg,https://oleks-netizen.github.io/product-images/3149 Слід/5815.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-green/4476.jpg,https://oleks-netizen.github.io/product-images/509-green/4477.jpg,https://oleks-netizen.github.io/product-images/509-green/4478.jpg,https://oleks-netizen.github.io/product-images/509-green/4479.jpg,https://oleks-netizen.github.io/product-images/509-green/4480.jpg,https://oleks-netizen.github.io/product-images/509-green/4481.jpg,https://oleks-netizen.github.io/product-images/509-green/4482.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3149-1</t>
+          <t>6098-black</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3149-1/2024.jpg,https://oleks-netizen.github.io/product-images/3149-1/2025.jpg,https://oleks-netizen.github.io/product-images/3149-1/2026.jpg,https://oleks-netizen.github.io/product-images/3149-1/2027.jpg,https://oleks-netizen.github.io/product-images/3149-1/2028.jpg,https://oleks-netizen.github.io/product-images/3149-1/2029.jpg,https://oleks-netizen.github.io/product-images/3149-1/2030.jpg,https://oleks-netizen.github.io/product-images/3149-1/2031.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-black/4843.jpg,https://oleks-netizen.github.io/product-images/6098-black/4844.jpg,https://oleks-netizen.github.io/product-images/6098-black/4845.jpg,https://oleks-netizen.github.io/product-images/6098-black/4846.jpg,https://oleks-netizen.github.io/product-images/6098-black/4847.jpg,https://oleks-netizen.github.io/product-images/6098-black/4848.jpg,https://oleks-netizen.github.io/product-images/6098-black/4849.jpg,https://oleks-netizen.github.io/product-images/6098-black/4850.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -666,12 +666,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3150 France</t>
+          <t>6098-green-kam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3150 France/6150.jpg,https://oleks-netizen.github.io/product-images/3150 France/6151.jpg,https://oleks-netizen.github.io/product-images/3150 France/6152.jpg,https://oleks-netizen.github.io/product-images/3150 France/6153.jpg,https://oleks-netizen.github.io/product-images/3150 France/6154.jpg,https://oleks-netizen.github.io/product-images/3150 France/6155.jpg,https://oleks-netizen.github.io/product-images/3150 France/6156.jpg,https://oleks-netizen.github.io/product-images/3150 France/6157.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/3909.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3910.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3911.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3912.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3913.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3914.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3915.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3916.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -681,12 +681,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3150 Paris</t>
+          <t>6836-black</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3150 Paris/2825.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2826.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2827.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2828.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2829.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2830.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2831.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2832.jpg,https://oleks-netizen.github.io/product-images/3150 Paris/2833.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6836-black/5143.jpg,https://oleks-netizen.github.io/product-images/6836-black/5144.jpg,https://oleks-netizen.github.io/product-images/6836-black/5145.jpg,https://oleks-netizen.github.io/product-images/6836-black/5146.jpg,https://oleks-netizen.github.io/product-images/6836-black/5147.jpg,https://oleks-netizen.github.io/product-images/6836-black/5148.jpg,https://oleks-netizen.github.io/product-images/6836-black/5149.jpg,https://oleks-netizen.github.io/product-images/6836-black/5150.jpg,https://oleks-netizen.github.io/product-images/6836-black/5151.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -696,12 +696,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3150 Прогулянка в Парижі</t>
+          <t>7631-black</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2015.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2016.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2017.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2018.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2019.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2020.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2021.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2022.jpg,https://oleks-netizen.github.io/product-images/3150 Прогулянка в Парижі/2023.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-black/2368.jpg,https://oleks-netizen.github.io/product-images/7631-black/2369.jpg,https://oleks-netizen.github.io/product-images/7631-black/2370.jpg,https://oleks-netizen.github.io/product-images/7631-black/2371.jpg,https://oleks-netizen.github.io/product-images/7631-black/2372.jpg,https://oleks-netizen.github.io/product-images/7631-black/2373.jpg,https://oleks-netizen.github.io/product-images/7631-black/2374.jpg,https://oleks-netizen.github.io/product-images/7631-black/2375.jpg,https://oleks-netizen.github.io/product-images/7631-black/2376.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -711,207 +711,207 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3150 Сліди</t>
+          <t>C-8460A-grey</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3150 Сліди/521.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/522.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/523.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/524.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/525.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/526.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/527.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/528.jpg,https://oleks-netizen.github.io/product-images/3150 Сліди/529.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/4594.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4595.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4596.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4597.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4598.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4599.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3150-1</t>
+          <t>C-8460A-pink</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3150-1/4812.jpg,https://oleks-netizen.github.io/product-images/3150-1/4813.jpg,https://oleks-netizen.github.io/product-images/3150-1/4814.jpg,https://oleks-netizen.github.io/product-images/3150-1/4815.jpg,https://oleks-netizen.github.io/product-images/3150-1/4816.jpg,https://oleks-netizen.github.io/product-images/3150-1/4817.jpg,https://oleks-netizen.github.io/product-images/3150-1/4818.jpg,https://oleks-netizen.github.io/product-images/3150-1/4819.jpg,https://oleks-netizen.github.io/product-images/3150-1/4820.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/5728.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5729.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5730.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5731.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5732.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5733.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3225 Біла</t>
+          <t>C-8460A-silvery-grey</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Біла/1193.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1194.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1195.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1196.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1197.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1198.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1199.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1200.jpg,https://oleks-netizen.github.io/product-images/3225 Біла/1201.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2183.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2184.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2185.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2186.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2187.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2188.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3225 Коралова</t>
+          <t>C-8460B-black</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Коралова/669.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/670.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/671.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/672.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/673.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/674.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/675.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/676.jpg,https://oleks-netizen.github.io/product-images/3225 Коралова/677.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1627.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1628.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1629.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1630.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1631.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1632.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3225 Кремова</t>
+          <t>C-8460B-green</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Кремова/2692.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2693.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2694.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2695.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2696.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2697.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2698.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2699.jpg,https://oleks-netizen.github.io/product-images/3225 Кремова/2700.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/3881.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3882.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3883.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3884.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3885.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3886.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3225 Сіро-блакитна</t>
+          <t>C-8460B-grey</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5120.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5121.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5122.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5123.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5124.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5125.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5126.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5127.jpg,https://oleks-netizen.github.io/product-images/3225 Сіро-блакитна/5128.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/5445.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5446.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5447.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5448.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5449.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5450.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3225 Синя</t>
+          <t>C-8460B-khaki</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Синя/5867.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5868.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5869.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5870.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5871.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5872.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5873.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5874.jpg,https://oleks-netizen.github.io/product-images/3225 Синя/5875.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/4282.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4283.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4284.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4285.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4286.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4287.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3225 Фіолетова</t>
+          <t>C-8460B-red</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3225 Фіолетова/3700.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3701.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3702.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3703.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3704.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3705.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3706.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3707.jpg,https://oleks-netizen.github.io/product-images/3225 Фіолетова/3708.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/2231.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2232.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2233.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2234.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2235.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2236.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3226 Paris</t>
+          <t>C-8998-black</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Paris/1974.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1975.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1976.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1977.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1978.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1979.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1980.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1981.jpg,https://oleks-netizen.github.io/product-images/3226 Paris/1982.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-black/3443.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3444.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3445.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3446.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3447.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3226 Зірки</t>
+          <t>C-8998-dark-green</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Зірки/5825.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5826.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5827.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5828.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5829.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5830.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5831.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5832.jpg,https://oleks-netizen.github.io/product-images/3226 Зірки/5833.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/4886.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4887.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4888.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4889.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4890.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4891.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3226 Кіт</t>
+          <t>C-8998-lime green</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Кіт/879.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/880.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/881.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/882.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/883.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/884.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/885.jpg,https://oleks-netizen.github.io/product-images/3226 Кіт/886.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1313.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1314.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1315.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1316.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1317.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3226 Місто</t>
+          <t>C-8998-pink</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Місто/2006.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2007.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2008.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2009.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2010.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2011.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2012.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2013.jpg,https://oleks-netizen.github.io/product-images/3226 Місто/2014.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/5274.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5275.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5276.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5277.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5278.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5279.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3226 Сніг</t>
+          <t>DRL19001-1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Сніг/1711.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1712.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1713.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1714.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1715.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1716.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1717.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1718.jpg,https://oleks-netizen.github.io/product-images/3226 Сніг/1719.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/2864.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2865.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2866.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2867.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2868.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2869.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2870.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2871.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3226 Сяйво</t>
+          <t>DRL19012-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3226 Сяйво/5668.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5669.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5670.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5671.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5672.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5673.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5674.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5675.jpg,https://oleks-netizen.github.io/product-images/3226 Сяйво/5676.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/5981.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5982.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5983.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5984.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5985.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5986.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5987.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5988.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5989.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -921,102 +921,102 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3305 Бордова</t>
+          <t>DRL19077-1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3305 Бордова/4511.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4512.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4513.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4514.jpg,https://oleks-netizen.github.io/product-images/3305 Бордова/4515.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/4120.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4121.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4122.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4123.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4124.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4125.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4126.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4127.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3305 Вишнева</t>
+          <t>DRL19092-1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3305 Вишнева/2756.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2757.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2758.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2759.jpg,https://oleks-netizen.github.io/product-images/3305 Вишнева/2760.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/4796.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4797.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4798.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4799.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4800.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4801.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4802.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4803.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3305 Червона</t>
+          <t>DRL19120-1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3305 Червона/4483.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4484.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4485.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4486.jpg,https://oleks-netizen.github.io/product-images/3305 Червона/4487.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/4710.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4711.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4712.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4713.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4714.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4715.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4716.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4717.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4718.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3306A Біла</t>
+          <t>DRL19122-1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Біла/2544.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2545.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2546.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2547.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2548.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2549.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2550.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2551.jpg,https://oleks-netizen.github.io/product-images/3306A Біла/2552.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/5841.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5842.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5843.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5844.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5845.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5846.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5847.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5848.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3306A Бордова</t>
+          <t>DRL19253-1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Бордова/4622.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4623.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4624.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4625.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4626.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4627.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4628.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4629.jpg,https://oleks-netizen.github.io/product-images/3306A Бордова/4630.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/4719.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4720.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4721.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4722.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4723.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4724.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4725.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4726.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3306A Сіра</t>
+          <t>DRL19520-1B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Сіра/5215.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5216.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5217.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5218.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5219.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5220.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5221.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5222.jpg,https://oleks-netizen.github.io/product-images/3306A Сіра/5223.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1447.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1448.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1449.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1450.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1451.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1452.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1453.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1454.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3306A Синя</t>
+          <t>DRL19601-1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Синя/4206.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4207.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4208.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4209.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4210.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4211.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4212.jpg,https://oleks-netizen.github.io/product-images/3306A Синя/4213.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1021.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1022.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1023.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1024.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1025.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1026.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1027.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1028.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1026,12 +1026,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3306A Червона</t>
+          <t>DRL19712-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Червона/832.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/833.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/834.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/835.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/836.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/837.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/838.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/839.jpg,https://oleks-netizen.github.io/product-images/3306A Червона/840.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/2535.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2536.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2537.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2538.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2539.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2540.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2541.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2542.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2543.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1041,237 +1041,237 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3306A Чорний</t>
+          <t>DRL19818A-A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306A Чорний/5134.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5135.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5136.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5137.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5138.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5139.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5140.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5141.jpg,https://oleks-netizen.github.io/product-images/3306A Чорний/5142.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1404.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1405.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1406.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1407.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1408.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1409.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1410.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1411.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5302A Біла</t>
+          <t>DRL19941-1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Біла/92.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/93.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/94.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/95.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/96.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/97.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/98.jpg,https://oleks-netizen.github.io/product-images/5302A Біла/99.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/741.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/742.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/743.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/744.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/745.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/746.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/747.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/748.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/749.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5302A Бежева</t>
+          <t>DRL6601-1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Бежева/1644.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1645.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1646.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1647.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1648.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1649.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1650.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1651.jpg,https://oleks-netizen.github.io/product-images/5302A Бежева/1652.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/816.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/817.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/818.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/819.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/820.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/821.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/822.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/823.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5302A Кольорова</t>
+          <t>DRS16059-1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Кольорова/3662.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3663.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3664.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3665.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3666.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3667.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3668.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3669.jpg,https://oleks-netizen.github.io/product-images/5302A Кольорова/3670.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1854.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1855.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1856.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1857.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1858.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1859.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1860.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1861.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1862.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1863.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5302A Синя</t>
+          <t>DRS16975-1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Синя/3723.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3724.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3725.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3726.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3727.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3728.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3729.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3730.jpg,https://oleks-netizen.github.io/product-images/5302A Синя/3731.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/3087.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3088.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3089.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3090.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3091.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3092.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5302A Чорна</t>
+          <t>DRS17116-3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Чорна/5241.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5242.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5243.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5244.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5245.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5246.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5247.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5248.jpg,https://oleks-netizen.github.io/product-images/5302A Чорна/5249.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/2032.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2033.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2034.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2035.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2036.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2037.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5302A Чорно-біла</t>
+          <t>DRS17131-2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302A Чорно-біла/849.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/850.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/851.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/852.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/853.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/854.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/855.jpg,https://oleks-netizen.github.io/product-images/5302A Чорно-біла/856.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1936.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1937.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1938.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1939.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1940.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1941.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1942.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BV38171-1</t>
+          <t>DRS17132-1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1396.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1397.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1398.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1399.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1400.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1401.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1402.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/1403.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/4550.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4551.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4552.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4553.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4554.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4555.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4556.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BV38319-143</t>
+          <t>DRS17203-1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1165.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1166.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1167.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1168.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1169.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/1170.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/963.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/964.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/965.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/966.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/967.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/968.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/969.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/970.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BV38321-1</t>
+          <t>DRS19023-2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38321-1/3655.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3656.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3657.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3658.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3659.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3660.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/3661.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/2966.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2967.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2968.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2969.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2970.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2971.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BV38345-150</t>
+          <t>DRS19353-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-150/655.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/656.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/657.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/658.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/659.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/660.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1892.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1893.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1894.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1895.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1896.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1897.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1898.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1899.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BV38345-210</t>
+          <t>DRS19800-1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1745.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1746.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1747.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1748.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1749.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1750.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/1751.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/6032.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6033.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6034.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6035.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6036.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6037.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BV38348-1</t>
+          <t>DRS19802-1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38348-1/207.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/208.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/209.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/210.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/211.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/212.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/213.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/5802.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5803.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5804.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5805.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5806.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5807.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BV38363-100</t>
+          <t>DS30002-023</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-100/810.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/811.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/812.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/813.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/814.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/815.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-023/2441.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2442.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2443.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2444.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2445.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2446.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2448.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BV38363-143</t>
+          <t>DS30002-025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-143/5955.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5956.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5957.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5958.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5959.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5960.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5961.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-025/4055.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4056.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4057.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4058.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4059.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4062.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BV38601-153</t>
+          <t>DS30002-112</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-153/5649.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5650.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5651.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5652.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5653.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5654.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-112/711.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/712.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/713.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/714.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/715.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/718.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1281,27 +1281,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BV38601-2803</t>
+          <t>DS30002-132</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/2790.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2791.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2792.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2793.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2794.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/2795.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-132/5381.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5382.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5383.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5384.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5385.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5386.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5387.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5388.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BV38629-100</t>
+          <t>DS30002-162</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1829.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1830.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1831.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1832.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1833.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1834.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1835.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/1836.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-162/6176.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6177.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6178.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6179.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6180.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6181.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6182.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6183.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1311,16 +1311,1501 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BV38643-1</t>
+          <t>DS30002-287</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38643-1/6005.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6006.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6007.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6008.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6009.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6010.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6011.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1738.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1739.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1740.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1741.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1742.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1743.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1744.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DS30002-288</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-288/4198.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4199.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4200.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4201.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4202.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4205.jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>F20218-black</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/F20218-black/2169.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2170.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2171.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2172.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2173.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FW-A2106-black</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/2673.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2674.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2675.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2676.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2677.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FW-A648-black</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1543.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1544.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1545.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1546.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1547.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1548.jpg</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FW-A648-blue</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/493.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/494.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/495.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/496.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/497.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/498.jpg</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FW-A648-green</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/6165.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6166.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6167.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6168.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6169.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6170.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FW-A648-purple</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/2066.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2067.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2068.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2069.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2070.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2071.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FW-A648-red</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1241.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1242.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1243.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1244.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1245.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1246.jpg</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>G2568-black</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/G2568-black/1298.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1299.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1300.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1301.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1302.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1303.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1304.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1305.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>G2568-grey</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1752.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1753.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1754.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1755.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1756.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1757.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1758.jpg</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>H-2908-black</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-black/5423.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5424.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5425.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5426.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5427.jpg</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>H-2908-red</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-red/3159.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3160.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3161.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3162.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3163.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>L20001-22</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20001-22/955.jpg,https://oleks-netizen.github.io/product-images/L20001-22/956.jpg,https://oleks-netizen.github.io/product-images/L20001-22/957.jpg,https://oleks-netizen.github.io/product-images/L20001-22/958.jpg,https://oleks-netizen.github.io/product-images/L20001-22/959.jpg,https://oleks-netizen.github.io/product-images/L20001-22/960.jpg,https://oleks-netizen.github.io/product-images/L20001-22/961.jpg,https://oleks-netizen.github.io/product-images/L20001-22/962.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>L20011-1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-1/3500.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3501.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3502.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3503.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3504.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3505.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3506.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3507.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>L20011-22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-22/6081.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6082.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6083.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6084.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6085.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6086.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6087.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6088.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>L20011-56</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-56/5785.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5786.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5787.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5788.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5789.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5790.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5791.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5792.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>L20030-1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20030-1/4702.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4703.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4704.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4705.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4706.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4707.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4708.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4709.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>L20030-56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20030-56/3774.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3775.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3776.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3777.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3778.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3779.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3780.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3781.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>L20036-1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20036-1/3838.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3839.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3840.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3841.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3842.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3843.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3844.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3845.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3846.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>L20036-8</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20036-8/53.jpg,https://oleks-netizen.github.io/product-images/L20036-8/54.jpg,https://oleks-netizen.github.io/product-images/L20036-8/55.jpg,https://oleks-netizen.github.io/product-images/L20036-8/57.jpg,https://oleks-netizen.github.io/product-images/L20036-8/58.jpg,https://oleks-netizen.github.io/product-images/L20036-8/59.jpg,https://oleks-netizen.github.io/product-images/L20036-8/60.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>L20063-1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20063-1/3093.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3094.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3095.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3096.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3097.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3098.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3099.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3100.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3101.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>L20063-8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20063-8/896.jpg,https://oleks-netizen.github.io/product-images/L20063-8/897.jpg,https://oleks-netizen.github.io/product-images/L20063-8/898.jpg,https://oleks-netizen.github.io/product-images/L20063-8/899.jpg,https://oleks-netizen.github.io/product-images/L20063-8/900.jpg,https://oleks-netizen.github.io/product-images/L20063-8/901.jpg,https://oleks-netizen.github.io/product-images/L20063-8/902.jpg,https://oleks-netizen.github.io/product-images/L20063-8/903.jpg,https://oleks-netizen.github.io/product-images/L20063-8/904.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>L20633-78</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20633-78/1983.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1984.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1985.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1986.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1987.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1988.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1989.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1990.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>L20633-90</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20633-90/3421.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3422.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3423.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3424.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3425.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3426.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3427.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3428.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>L20680-1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-1/3946.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3947.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3948.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3949.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3950.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3951.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3952.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3953.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3954.jpg</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>L20680-56</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-56/3017.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3018.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3019.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3020.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3021.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3022.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3023.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3024.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3025.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>L20680-58</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-58/5518.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5519.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5520.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5521.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5522.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5523.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5524.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5525.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5526.jpg</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>L20682-1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20682-1/3026.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3027.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3028.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3029.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3030.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3031.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3032.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3033.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>L20683-1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20683-1/2684.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2685.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2686.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2687.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2688.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2689.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2690.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2691.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>L20683-2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20683-2/1370.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1371.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1372.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1373.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1374.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1375.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1376.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1377.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>L20713-1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20713-1/499.jpg,https://oleks-netizen.github.io/product-images/L20713-1/500.jpg,https://oleks-netizen.github.io/product-images/L20713-1/501.jpg,https://oleks-netizen.github.io/product-images/L20713-1/502.jpg,https://oleks-netizen.github.io/product-images/L20713-1/503.jpg,https://oleks-netizen.github.io/product-images/L20713-1/504.jpg,https://oleks-netizen.github.io/product-images/L20713-1/505.jpg,https://oleks-netizen.github.io/product-images/L20713-1/506.jpg,https://oleks-netizen.github.io/product-images/L20713-1/507.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>L20713-8</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20713-8/971.jpg,https://oleks-netizen.github.io/product-images/L20713-8/972.jpg,https://oleks-netizen.github.io/product-images/L20713-8/973.jpg,https://oleks-netizen.github.io/product-images/L20713-8/974.jpg,https://oleks-netizen.github.io/product-images/L20713-8/975.jpg,https://oleks-netizen.github.io/product-images/L20713-8/976.jpg,https://oleks-netizen.github.io/product-images/L20713-8/977.jpg,https://oleks-netizen.github.io/product-images/L20713-8/978.jpg,https://oleks-netizen.github.io/product-images/L20713-8/979.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>L20812-1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-1/5035.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5036.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5037.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5038.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5039.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5040.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5041.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5042.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5043.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>L20812-10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-10/2722.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2723.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2724.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2725.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2726.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2727.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2728.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2729.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2730.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>L20812-15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-15/423.jpg,https://oleks-netizen.github.io/product-images/L20812-15/424.jpg,https://oleks-netizen.github.io/product-images/L20812-15/425.jpg,https://oleks-netizen.github.io/product-images/L20812-15/426.jpg,https://oleks-netizen.github.io/product-images/L20812-15/427.jpg,https://oleks-netizen.github.io/product-images/L20812-15/428.jpg,https://oleks-netizen.github.io/product-images/L20812-15/429.jpg,https://oleks-netizen.github.io/product-images/L20812-15/430.jpg,https://oleks-netizen.github.io/product-images/L20812-15/431.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>L20812-56</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-56/2102.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2103.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2104.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2105.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2106.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2107.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2109.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2110.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>L20841-58</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20841-58/4355.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4356.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4357.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4358.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4359.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4360.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4361.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4362.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>L20849-1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-1/2311.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2312.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2313.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2314.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2315.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2316.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2317.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2318.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>L20849-701</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-701/4239.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4240.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4241.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4242.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4243.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4244.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4245.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4246.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>L20849-720</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-720/2360.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2361.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2362.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2364.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>L20849-811</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-811/2606.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2607.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2608.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2609.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2610.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2611.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2612.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2613.jpg</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>L20853-1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20853-1/2927.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2928.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2929.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2930.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2931.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2932.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2933.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2934.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2935.jpg</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>L20993-1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20993-1/2913.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2914.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2915.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2916.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2917.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2918.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2920.jpg</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>L21019-1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21019-1/2834.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2835.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2836.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2837.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2838.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2839.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2840.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2841.jpg</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>L21019-142</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21019-142/4411.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4412.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4413.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4414.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4415.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4416.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4417.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4418.jpg</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>L21035-101</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21035-101/166.jpg,https://oleks-netizen.github.io/product-images/L21035-101/167.jpg,https://oleks-netizen.github.io/product-images/L21035-101/168.jpg,https://oleks-netizen.github.io/product-images/L21035-101/169.jpg,https://oleks-netizen.github.io/product-images/L21035-101/170.jpg,https://oleks-netizen.github.io/product-images/L21035-101/171.jpg,https://oleks-netizen.github.io/product-images/L21035-101/172.jpg</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>L21075-1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21075-1/4522.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4523.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4524.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4525.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4526.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4527.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4528.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4529.jpg</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>L21209-1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21209-1/3247.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3248.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3249.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3250.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3251.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3252.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3253.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3254.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3255.jpg</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>L21209-25</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21209-25/4488.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4489.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4490.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4491.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4492.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4493.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4494.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4495.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4496.jpg</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>L21511-101</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21511-101/2804.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2805.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2806.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2807.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2808.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2809.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2810.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2811.jpg</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>L21529-43</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21529-43/1431.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1432.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1433.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1434.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1435.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1436.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1437.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1438.jpg</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>L21531-1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21531-1/2951.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2952.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2953.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2954.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2955.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2956.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2957.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2958.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>L21531-11</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21531-11/2153.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2154.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2155.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2156.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2157.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2158.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2159.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2160.jpg</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>L21545-1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21545-1/5389.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5390.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5391.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5392.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5393.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5394.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5395.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5396.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5397.jpg</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>L21545-175</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21545-175/5996.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5997.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5998.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5999.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6000.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6001.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6002.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6003.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6004.jpg</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>L21547-64</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21547-64/4631.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4632.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4633.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4634.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4635.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4636.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4637.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4638.jpg</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>L21549-1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21549-1/4564.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4565.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4566.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4567.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4568.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4569.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4570.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4571.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4572.jpg</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>L21549-22</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21549-22/2079.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2080.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2081.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2082.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2083.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2084.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2085.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2086.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2087.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>L21557-1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21557-1/3864.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3865.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3866.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3867.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3868.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3869.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3870.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3871.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3872.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3873.jpg</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>L21557-173</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21557-173/3476.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3477.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3478.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3479.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3480.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3481.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3482.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3483.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3484.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3485.jpg</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>L21561-1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21561-1/2782.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2783.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2784.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2785.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2786.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2787.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2788.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2789.jpg</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>L21561-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21561-25/438.jpg,https://oleks-netizen.github.io/product-images/L21561-25/439.jpg,https://oleks-netizen.github.io/product-images/L21561-25/440.jpg,https://oleks-netizen.github.io/product-images/L21561-25/441.jpg,https://oleks-netizen.github.io/product-images/L21561-25/442.jpg,https://oleks-netizen.github.io/product-images/L21561-25/443.jpg,https://oleks-netizen.github.io/product-images/L21561-25/444.jpg,https://oleks-netizen.github.io/product-images/L21561-25/445.jpg</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>L22007-1K</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22007-1K/4694.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4695.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4696.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4697.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4698.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4699.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4700.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4701.jpg</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>L22007-3K</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1998.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1999.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2000.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2001.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2002.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2003.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2004.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2005.jpg</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>L22008-1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-1/5288.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5289.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5290.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5291.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5292.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5293.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5294.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5295.jpg</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>L22008-12</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-12/315.jpg,https://oleks-netizen.github.io/product-images/L22008-12/316.jpg,https://oleks-netizen.github.io/product-images/L22008-12/317.jpg,https://oleks-netizen.github.io/product-images/L22008-12/318.jpg,https://oleks-netizen.github.io/product-images/L22008-12/319.jpg,https://oleks-netizen.github.io/product-images/L22008-12/320.jpg,https://oleks-netizen.github.io/product-images/L22008-12/321.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>L22008-8</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-8/5347.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5348.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5349.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5350.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5351.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5352.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5353.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5354.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>L22009-1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22009-1/5232.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5233.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5234.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5235.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5236.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5237.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5238.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5239.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5240.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>L22009-35</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22009-35/2222.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2223.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2224.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2225.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2226.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2227.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2228.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2229.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2230.jpg</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>L22018-2W</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22018-2W/3764.jpg,https://oleks-netizen.github.io/product-images/L22018-2W/3765.jpg</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>L22098-1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22098-1/2899.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2900.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2901.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2902.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2903.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2904.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2905.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>L22125-1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22125-1/3847.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3848.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3849.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3850.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3851.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3852.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3853.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3854.jpg</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>L22125-8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22125-8/1000.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1001.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1002.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1003.jpg,https://oleks-netizen.github.io/product-images/L22125-8/996.jpg,https://oleks-netizen.github.io/product-images/L22125-8/997.jpg,https://oleks-netizen.github.io/product-images/L22125-8/998.jpg,https://oleks-netizen.github.io/product-images/L22125-8/999.jpg</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>L22162-1W</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22162-1W/3944.jpg,https://oleks-netizen.github.io/product-images/L22162-1W/3945.jpg</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>L22187-1W</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1W/2487.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2488.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2489.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2490.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2491.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2492.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2493.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2494.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2495.jpg</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>L22187-1X</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1184.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1185.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1186.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1187.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1188.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1189.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1190.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1191.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1192.jpg</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>L22322-01</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-01/2936.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2937.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2938.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2939.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2940.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2941.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2942.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2943.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2944.jpg</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>L22322-02</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-02/5568.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5569.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5570.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5571.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5572.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5573.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5574.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5575.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5576.jpg</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>L22322-1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-1/2650.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2651.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2652.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2653.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2654.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2655.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2656.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2657.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2658.jpg</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>L22322-4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-4/2244.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2245.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2246.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2247.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2248.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2249.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2250.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2251.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2252.jpg</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>L22532-01</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22532-01/760.jpg,https://oleks-netizen.github.io/product-images/L22532-01/761.jpg,https://oleks-netizen.github.io/product-images/L22532-01/762.jpg,https://oleks-netizen.github.io/product-images/L22532-01/763.jpg,https://oleks-netizen.github.io/product-images/L22532-01/764.jpg,https://oleks-netizen.github.io/product-images/L22532-01/765.jpg,https://oleks-netizen.github.io/product-images/L22532-01/766.jpg</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>L22532-03</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22532-03/4339.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4340.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4341.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4342.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4343.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4344.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4345.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4346.jpg</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>L22537-179</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22537-179/4308.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4310.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4311.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4312.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4313.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4314.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4315.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>L22613-1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22613-1/5577.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5579.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5580.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5581.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5582.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5583.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5584.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>L22613-2S</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22613-2S/5699.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5701.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5702.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5703.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5704.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5705.jpg</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>L22619-1X</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1422.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1424.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1425.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1426.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1427.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1428.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1429.jpg</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>L22661-1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22661-1/573.jpg,https://oleks-netizen.github.io/product-images/L22661-1/575.jpg,https://oleks-netizen.github.io/product-images/L22661-1/576.jpg,https://oleks-netizen.github.io/product-images/L22661-1/577.jpg,https://oleks-netizen.github.io/product-images/L22661-1/578.jpg,https://oleks-netizen.github.io/product-images/L22661-1/579.jpg</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>L22808-1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1/145.jpg,https://oleks-netizen.github.io/product-images/L22808-1/147.jpg,https://oleks-netizen.github.io/product-images/L22808-1/148.jpg,https://oleks-netizen.github.io/product-images/L22808-1/149.jpg,https://oleks-netizen.github.io/product-images/L22808-1/150.jpg,https://oleks-netizen.github.io/product-images/L22808-1/151.jpg</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>L22808-1W</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1W/5535.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5537.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5538.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5539.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5540.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5541.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>L22813-04S</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1952.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1954.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1955.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1956.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1957.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1958.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1959.jpg</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>L22813-05S</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22813-05S/2519.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2521.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2522.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2523.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2524.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2525.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2526.jpg</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>L22902-1C</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22902-1C/5543.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5545.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5546.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5547.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5548.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5549.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5550.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5551.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5552.jpg</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>L22916-5W</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22916-5W/5707.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5710.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5711.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5712.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5713.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5714.jpg</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>L26003-1</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26003-1/5192.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5194.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5195.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5196.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5197.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5198.jpg</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>L26018-1</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26018-1/4039.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4041.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4042.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4043.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4044.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4045.jpg</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>L26290-005</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26290-005/5655.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5657.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5658.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5659.jpg</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>L26309-005</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26309-005/4804.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4806.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4807.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4808.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4809.jpg</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>L26321-1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26321-1/4175.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4177.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4178.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4179.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4180.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4181.jpg</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>L9902-3C</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L9902-3C/930.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/931.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/932.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/933.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/934.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/935.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/936.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/937.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/938.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/939.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/940.jpg</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/470.jpg,https://oleks-netizen.github.io/product-images/0026-2/471.jpg,https://oleks-netizen.github.io/product-images/0026-2/472.jpg,https://oleks-netizen.github.io/product-images/0026-2/473.jpg,https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/470.jpg,https://oleks-netizen.github.io/product-images/0026-2/471.jpg,https://oleks-netizen.github.io/product-images/0026-2/473.jpg,https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4648.jpg,https://oleks-netizen.github.io/product-images/0026-3/4649.jpg,https://oleks-netizen.github.io/product-images/0026-3/4650.jpg,https://oleks-netizen.github.io/product-images/0026-3/4651.jpg,https://oleks-netizen.github.io/product-images/0026-3/4652.jpg,https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/4648.jpg,https://oleks-netizen.github.io/product-images/0026-3/4649.jpg,https://oleks-netizen.github.io/product-images/0026-3/4651.jpg,https://oleks-netizen.github.io/product-images/0026-3/4652.jpg,https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-4/2038.jpg,https://oleks-netizen.github.io/product-images/0026-4/2039.jpg,https://oleks-netizen.github.io/product-images/0026-4/2040.jpg,https://oleks-netizen.github.io/product-images/0026-4/2041.jpg,https://oleks-netizen.github.io/product-images/0026-4/2042.jpg,https://oleks-netizen.github.io/product-images/0026-4/2043.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2038.jpg,https://oleks-netizen.github.io/product-images/0026-4/2039.jpg,https://oleks-netizen.github.io/product-images/0026-4/2041.jpg,https://oleks-netizen.github.io/product-images/0026-4/2042.jpg,https://oleks-netizen.github.io/product-images/0026-4/2043.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-5/4516.jpg,https://oleks-netizen.github.io/product-images/0026-5/4517.jpg,https://oleks-netizen.github.io/product-images/0026-5/4518.jpg,https://oleks-netizen.github.io/product-images/0026-5/4519.jpg,https://oleks-netizen.github.io/product-images/0026-5/4520.jpg,https://oleks-netizen.github.io/product-images/0026-5/4521.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/4516.jpg,https://oleks-netizen.github.io/product-images/0026-5/4517.jpg,https://oleks-netizen.github.io/product-images/0026-5/4519.jpg,https://oleks-netizen.github.io/product-images/0026-5/4520.jpg,https://oleks-netizen.github.io/product-images/0026-5/4521.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -506,7 +506,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-6/3717.jpg,https://oleks-netizen.github.io/product-images/0026-6/3718.jpg,https://oleks-netizen.github.io/product-images/0026-6/3719.jpg,https://oleks-netizen.github.io/product-images/0026-6/3720.jpg,https://oleks-netizen.github.io/product-images/0026-6/3721.jpg,https://oleks-netizen.github.io/product-images/0026-6/3722.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/3717.jpg,https://oleks-netizen.github.io/product-images/0026-6/3718.jpg,https://oleks-netizen.github.io/product-images/0026-6/3720.jpg,https://oleks-netizen.github.io/product-images/0026-6/3721.jpg,https://oleks-netizen.github.io/product-images/0026-6/3722.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-7/543.jpg,https://oleks-netizen.github.io/product-images/0026-7/544.jpg,https://oleks-netizen.github.io/product-images/0026-7/545.jpg,https://oleks-netizen.github.io/product-images/0026-7/546.jpg,https://oleks-netizen.github.io/product-images/0026-7/547.jpg,https://oleks-netizen.github.io/product-images/0026-7/548.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/543.jpg,https://oleks-netizen.github.io/product-images/0026-7/544.jpg,https://oleks-netizen.github.io/product-images/0026-7/546.jpg,https://oleks-netizen.github.io/product-images/0026-7/547.jpg,https://oleks-netizen.github.io/product-images/0026-7/548.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0039-3/5398.jpg,https://oleks-netizen.github.io/product-images/0039-3/5399.jpg,https://oleks-netizen.github.io/product-images/0039-3/5400.jpg,https://oleks-netizen.github.io/product-images/0039-3/5401.jpg,https://oleks-netizen.github.io/product-images/0039-3/5402.jpg,https://oleks-netizen.github.io/product-images/0039-3/5403.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/5398.jpg,https://oleks-netizen.github.io/product-images/0039-3/5399.jpg,https://oleks-netizen.github.io/product-images/0039-3/5401.jpg,https://oleks-netizen.github.io/product-images/0039-3/5402.jpg,https://oleks-netizen.github.io/product-images/0039-3/5403.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2506.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg,https://oleks-netizen.github.io/product-images/009-2/1145.jpg,https://oleks-netizen.github.io/product-images/009-2/1146.jpg,https://oleks-netizen.github.io/product-images/009-2/1147.jpg,https://oleks-netizen.github.io/product-images/009-2/1148.jpg,https://oleks-netizen.github.io/product-images/009-2/1149.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg,https://oleks-netizen.github.io/product-images/009-2/1145.jpg,https://oleks-netizen.github.io/product-images/009-2/1147.jpg,https://oleks-netizen.github.io/product-images/009-2/1148.jpg,https://oleks-netizen.github.io/product-images/009-2/1149.jpg,https://oleks-netizen.github.io/product-images/009-2/1.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg,https://oleks-netizen.github.io/product-images/009-4/1770.jpg,https://oleks-netizen.github.io/product-images/009-4/1771.jpg,https://oleks-netizen.github.io/product-images/009-4/1772.jpg,https://oleks-netizen.github.io/product-images/009-4/1773.jpg,https://oleks-netizen.github.io/product-images/009-4/1774.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg,https://oleks-netizen.github.io/product-images/009-4/1770.jpg,https://oleks-netizen.github.io/product-images/009-4/1772.jpg,https://oleks-netizen.github.io/product-images/009-4/1773.jpg,https://oleks-netizen.github.io/product-images/009-4/1774.jpg,https://oleks-netizen.github.io/product-images/009-4/1.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-black/5770.jpg,https://oleks-netizen.github.io/product-images/1809-black/5771.jpg,https://oleks-netizen.github.io/product-images/1809-black/5772.jpg,https://oleks-netizen.github.io/product-images/1809-black/5773.jpg,https://oleks-netizen.github.io/product-images/1809-black/5774.jpg,https://oleks-netizen.github.io/product-images/1809-black/5775.jpg,https://oleks-netizen.github.io/product-images/1809-black/5776.jpg,https://oleks-netizen.github.io/product-images/1809-black/5777.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-black/1.jpg,https://oleks-netizen.github.io/product-images/1809-black/5770.jpg,https://oleks-netizen.github.io/product-images/1809-black/5771.jpg,https://oleks-netizen.github.io/product-images/1809-black/5773.jpg,https://oleks-netizen.github.io/product-images/1809-black/5774.jpg,https://oleks-netizen.github.io/product-images/1809-black/5775.jpg,https://oleks-netizen.github.io/product-images/1809-black/5776.jpg,https://oleks-netizen.github.io/product-images/1809-black/5777.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-grey/5152.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5153.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5154.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5155.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5156.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5157.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5158.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5159.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-grey/1.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5152.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5153.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5155.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5156.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5157.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5158.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5159.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-black/791.jpg,https://oleks-netizen.github.io/product-images/509-black/792.jpg,https://oleks-netizen.github.io/product-images/509-black/793.jpg,https://oleks-netizen.github.io/product-images/509-black/794.jpg,https://oleks-netizen.github.io/product-images/509-black/795.jpg,https://oleks-netizen.github.io/product-images/509-black/796.jpg,https://oleks-netizen.github.io/product-images/509-black/797.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-black/1.jpg,https://oleks-netizen.github.io/product-images/509-black/791.jpg,https://oleks-netizen.github.io/product-images/509-black/792.jpg,https://oleks-netizen.github.io/product-images/509-black/794.jpg,https://oleks-netizen.github.io/product-images/509-black/795.jpg,https://oleks-netizen.github.io/product-images/509-black/796.jpg,https://oleks-netizen.github.io/product-images/509-black/797.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-green/4476.jpg,https://oleks-netizen.github.io/product-images/509-green/4477.jpg,https://oleks-netizen.github.io/product-images/509-green/4478.jpg,https://oleks-netizen.github.io/product-images/509-green/4479.jpg,https://oleks-netizen.github.io/product-images/509-green/4480.jpg,https://oleks-netizen.github.io/product-images/509-green/4481.jpg,https://oleks-netizen.github.io/product-images/509-green/4482.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-green/1.jpg,https://oleks-netizen.github.io/product-images/509-green/4476.jpg,https://oleks-netizen.github.io/product-images/509-green/4477.jpg,https://oleks-netizen.github.io/product-images/509-green/4479.jpg,https://oleks-netizen.github.io/product-images/509-green/4480.jpg,https://oleks-netizen.github.io/product-images/509-green/4481.jpg,https://oleks-netizen.github.io/product-images/509-green/4482.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-black/4843.jpg,https://oleks-netizen.github.io/product-images/6098-black/4844.jpg,https://oleks-netizen.github.io/product-images/6098-black/4845.jpg,https://oleks-netizen.github.io/product-images/6098-black/4846.jpg,https://oleks-netizen.github.io/product-images/6098-black/4847.jpg,https://oleks-netizen.github.io/product-images/6098-black/4848.jpg,https://oleks-netizen.github.io/product-images/6098-black/4849.jpg,https://oleks-netizen.github.io/product-images/6098-black/4850.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-black/1.jpg,https://oleks-netizen.github.io/product-images/6098-black/4843.jpg,https://oleks-netizen.github.io/product-images/6098-black/4844.jpg,https://oleks-netizen.github.io/product-images/6098-black/4846.jpg,https://oleks-netizen.github.io/product-images/6098-black/4847.jpg,https://oleks-netizen.github.io/product-images/6098-black/4848.jpg,https://oleks-netizen.github.io/product-images/6098-black/4849.jpg,https://oleks-netizen.github.io/product-images/6098-black/4850.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/3909.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3910.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3911.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3912.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3913.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3914.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3915.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3916.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3909.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3910.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3912.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3913.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3914.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3915.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3916.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6836-black/5143.jpg,https://oleks-netizen.github.io/product-images/6836-black/5144.jpg,https://oleks-netizen.github.io/product-images/6836-black/5145.jpg,https://oleks-netizen.github.io/product-images/6836-black/5146.jpg,https://oleks-netizen.github.io/product-images/6836-black/5147.jpg,https://oleks-netizen.github.io/product-images/6836-black/5148.jpg,https://oleks-netizen.github.io/product-images/6836-black/5149.jpg,https://oleks-netizen.github.io/product-images/6836-black/5150.jpg,https://oleks-netizen.github.io/product-images/6836-black/5151.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/5143.jpg,https://oleks-netizen.github.io/product-images/6836-black/5144.jpg,https://oleks-netizen.github.io/product-images/6836-black/5146.jpg,https://oleks-netizen.github.io/product-images/6836-black/5147.jpg,https://oleks-netizen.github.io/product-images/6836-black/5148.jpg,https://oleks-netizen.github.io/product-images/6836-black/5149.jpg,https://oleks-netizen.github.io/product-images/6836-black/5150.jpg,https://oleks-netizen.github.io/product-images/6836-black/5151.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-black/2368.jpg,https://oleks-netizen.github.io/product-images/7631-black/2369.jpg,https://oleks-netizen.github.io/product-images/7631-black/2370.jpg,https://oleks-netizen.github.io/product-images/7631-black/2371.jpg,https://oleks-netizen.github.io/product-images/7631-black/2372.jpg,https://oleks-netizen.github.io/product-images/7631-black/2373.jpg,https://oleks-netizen.github.io/product-images/7631-black/2374.jpg,https://oleks-netizen.github.io/product-images/7631-black/2375.jpg,https://oleks-netizen.github.io/product-images/7631-black/2376.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2368.jpg,https://oleks-netizen.github.io/product-images/7631-black/2369.jpg,https://oleks-netizen.github.io/product-images/7631-black/2371.jpg,https://oleks-netizen.github.io/product-images/7631-black/2372.jpg,https://oleks-netizen.github.io/product-images/7631-black/2373.jpg,https://oleks-netizen.github.io/product-images/7631-black/2374.jpg,https://oleks-netizen.github.io/product-images/7631-black/2375.jpg,https://oleks-netizen.github.io/product-images/7631-black/2376.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/4594.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4595.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4596.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4597.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4598.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4599.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4594.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4596.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4597.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4598.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4599.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/5728.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5729.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5730.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5731.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5732.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5733.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5728.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5730.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5731.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5732.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5733.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2183.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2184.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2185.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2186.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2187.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2188.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2183.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2185.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2186.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2187.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2188.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1627.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1628.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1629.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1630.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1631.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1632.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1627.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1629.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1630.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1631.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1632.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/3881.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3882.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3883.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3884.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3885.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3886.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3881.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3883.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3884.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3885.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3886.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -791,7 +791,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/5445.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5446.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5447.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5448.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5449.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5450.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5445.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5447.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5448.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5449.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5450.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/4282.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4283.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4284.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4285.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4286.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4287.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4282.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4284.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4285.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4286.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4287.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/2231.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2232.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2233.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2234.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2235.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2236.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2231.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2233.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2234.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2235.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2236.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-black/3443.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3444.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3445.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3446.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3447.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3444.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3445.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3446.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3447.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/4886.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4887.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4888.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4889.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4890.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4891.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4886.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4888.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4889.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4890.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4891.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1313.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1314.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1315.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1316.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1317.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1313.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1315.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1316.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1317.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/5274.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5275.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5276.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5277.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5278.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5279.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5275.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5276.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5277.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5278.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5279.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/2864.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2865.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2866.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2867.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2868.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2869.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2870.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2871.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2864.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2865.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2867.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2868.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2869.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2870.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2871.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/5981.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5982.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5983.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5984.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5985.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5986.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5987.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5988.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5989.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5981.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5982.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5984.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5985.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5986.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5987.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5988.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5989.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/4120.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4121.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4122.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4123.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4124.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4125.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4126.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4127.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4120.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4121.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4123.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4124.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4125.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4126.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4127.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/4796.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4797.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4798.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4799.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4800.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4801.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4802.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4803.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4796.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4797.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4799.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4800.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4801.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4802.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4803.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/4710.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4711.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4712.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4713.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4714.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4715.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4716.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4717.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4718.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4710.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4711.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4713.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4714.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4715.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4716.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4717.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4718.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/5841.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5842.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5843.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5844.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5845.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5846.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5847.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5848.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5841.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5842.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5844.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5845.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5846.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5847.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5848.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/4719.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4720.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4721.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4722.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4723.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4724.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4725.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4726.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4719.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4720.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4722.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4723.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4724.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4725.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4726.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1447.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1448.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1449.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1450.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1451.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1452.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1453.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1454.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1447.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1448.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1450.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1451.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1452.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1453.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1454.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1021.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1022.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1023.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1024.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1025.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1026.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1027.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1028.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1021.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1022.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1024.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1025.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1026.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1027.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1028.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/2535.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2536.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2537.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2538.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2539.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2540.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2541.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2542.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2543.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2535.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2536.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2538.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2539.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2540.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2541.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2542.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2543.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1404.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1405.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1406.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1407.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1408.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1409.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1410.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1411.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1404.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1405.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1407.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1408.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1409.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1410.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1411.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/741.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/742.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/743.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/744.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/745.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/746.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/747.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/748.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/749.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/741.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/742.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/744.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/745.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/746.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/747.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/748.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/749.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/816.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/817.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/818.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/819.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/820.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/821.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/822.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/823.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/816.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/817.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/819.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/820.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/821.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/822.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/823.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1854.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1855.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1856.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1857.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1858.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1859.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1860.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1861.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1862.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1863.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1854.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1855.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1857.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1858.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1859.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1860.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1861.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1862.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1863.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/3087.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3088.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3089.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3090.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3091.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3092.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3087.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3088.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3090.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3091.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3092.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/2032.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2033.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2034.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2035.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2036.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2037.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2032.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2033.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2035.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2036.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2037.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1936.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1937.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1938.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1939.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1940.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1941.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1942.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1936.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1937.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1938.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1940.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1941.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1942.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/4550.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4551.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4552.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4553.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4554.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4555.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4556.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4550.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4551.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4552.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4554.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4555.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4556.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/963.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/964.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/965.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/966.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/967.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/968.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/969.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/970.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/963.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/964.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/965.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/967.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/968.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/969.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/970.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/2966.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2967.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2968.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2969.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2970.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2971.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2966.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2967.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2969.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2970.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2971.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1892.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1893.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1894.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1895.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1896.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1897.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1898.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1899.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1892.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1893.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1895.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1896.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1897.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1898.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1899.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/6032.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6033.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6034.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6035.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6036.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6037.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6032.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6033.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6035.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6036.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6037.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/5802.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5803.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5804.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5805.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5806.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5807.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5802.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5803.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5805.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5806.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5807.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-023/2441.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2442.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2443.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2444.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2445.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2446.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2448.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2441.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2442.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2444.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2445.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2446.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2448.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-025/4055.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4056.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4057.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4058.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4059.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4062.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4055.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4056.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4058.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4059.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4062.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-112/711.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/712.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/713.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/714.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/715.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/718.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/711.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/712.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/714.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/715.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/718.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-132/5381.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5382.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5383.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5384.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5385.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5386.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5387.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5388.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5381.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5382.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5384.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5385.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5386.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5387.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5388.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-162/6176.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6177.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6178.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6179.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6180.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6181.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6182.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6183.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6176.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6177.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6179.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6180.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6181.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6182.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6183.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1738.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1739.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1740.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1741.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1742.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1743.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1744.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1738.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1739.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1741.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1742.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1743.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1744.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-288/4198.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4199.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4200.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4201.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4202.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4205.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4198.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4199.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4201.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4202.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4205.jpg</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/F20218-black/2169.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2170.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2171.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2172.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2173.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2169.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2171.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2172.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2173.jpg</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/2673.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2674.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2675.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2676.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2677.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2674.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2675.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2676.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2677.jpg</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1543.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1544.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1545.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1546.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1547.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1548.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1543.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1545.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1546.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1547.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1548.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/493.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/494.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/495.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/496.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/497.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/498.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/493.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/495.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/496.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/497.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/498.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/6165.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6166.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6167.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6168.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6169.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6170.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6165.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6167.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6168.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6169.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6170.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/2066.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2067.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2068.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2069.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2070.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2071.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2066.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2068.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2069.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2070.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2071.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1241.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1242.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1243.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1244.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1245.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1246.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1241.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1243.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1244.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1245.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1246.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-black/1298.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1299.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1300.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1301.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1302.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1303.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1304.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1305.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/G2568-black/1298.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1299.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1301.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1302.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1303.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1304.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1305.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1752.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1753.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1754.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1755.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1756.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1757.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1758.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1752.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1753.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1755.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1756.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1757.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1758.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-black/5423.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5424.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5425.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5426.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5427.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5423.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5425.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5426.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5427.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-red/3159.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3160.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3161.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3162.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3163.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3159.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3161.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3162.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3163.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20001-22/955.jpg,https://oleks-netizen.github.io/product-images/L20001-22/956.jpg,https://oleks-netizen.github.io/product-images/L20001-22/957.jpg,https://oleks-netizen.github.io/product-images/L20001-22/958.jpg,https://oleks-netizen.github.io/product-images/L20001-22/959.jpg,https://oleks-netizen.github.io/product-images/L20001-22/960.jpg,https://oleks-netizen.github.io/product-images/L20001-22/961.jpg,https://oleks-netizen.github.io/product-images/L20001-22/962.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/955.jpg,https://oleks-netizen.github.io/product-images/L20001-22/956.jpg,https://oleks-netizen.github.io/product-images/L20001-22/958.jpg,https://oleks-netizen.github.io/product-images/L20001-22/959.jpg,https://oleks-netizen.github.io/product-images/L20001-22/960.jpg,https://oleks-netizen.github.io/product-images/L20001-22/961.jpg,https://oleks-netizen.github.io/product-images/L20001-22/962.jpg</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-1/3500.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3501.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3502.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3503.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3504.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3505.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3506.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3507.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3500.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3501.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3503.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3504.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3505.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3506.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3507.jpg</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-22/6081.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6082.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6083.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6084.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6085.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6086.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6087.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6088.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6081.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6082.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6084.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6085.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6086.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6087.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6088.jpg</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-56/5785.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5786.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5787.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5788.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5789.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5790.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5791.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5792.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5785.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5786.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5788.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5789.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5790.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5791.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5792.jpg</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-1/4702.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4703.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4704.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4705.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4706.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4707.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4708.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4709.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4702.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4703.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4704.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4706.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4707.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4708.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4709.jpg</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-56/3774.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3775.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3776.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3777.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3778.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3779.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3780.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3781.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3774.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3775.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3776.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3778.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3779.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3780.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3781.jpg</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-1/3838.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3839.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3840.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3841.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3842.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3843.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3844.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3845.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3846.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3838.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3839.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3841.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3842.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3843.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3844.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3845.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3846.jpg</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-8/53.jpg,https://oleks-netizen.github.io/product-images/L20036-8/54.jpg,https://oleks-netizen.github.io/product-images/L20036-8/55.jpg,https://oleks-netizen.github.io/product-images/L20036-8/57.jpg,https://oleks-netizen.github.io/product-images/L20036-8/58.jpg,https://oleks-netizen.github.io/product-images/L20036-8/59.jpg,https://oleks-netizen.github.io/product-images/L20036-8/60.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/53.jpg,https://oleks-netizen.github.io/product-images/L20036-8/54.jpg,https://oleks-netizen.github.io/product-images/L20036-8/57.jpg,https://oleks-netizen.github.io/product-images/L20036-8/58.jpg,https://oleks-netizen.github.io/product-images/L20036-8/59.jpg,https://oleks-netizen.github.io/product-images/L20036-8/60.jpg</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-1/3093.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3094.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3095.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3096.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3097.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3098.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3099.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3100.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3101.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3093.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3094.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3096.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3097.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3098.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3099.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3100.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3101.jpg</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-8/896.jpg,https://oleks-netizen.github.io/product-images/L20063-8/897.jpg,https://oleks-netizen.github.io/product-images/L20063-8/898.jpg,https://oleks-netizen.github.io/product-images/L20063-8/899.jpg,https://oleks-netizen.github.io/product-images/L20063-8/900.jpg,https://oleks-netizen.github.io/product-images/L20063-8/901.jpg,https://oleks-netizen.github.io/product-images/L20063-8/902.jpg,https://oleks-netizen.github.io/product-images/L20063-8/903.jpg,https://oleks-netizen.github.io/product-images/L20063-8/904.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/896.jpg,https://oleks-netizen.github.io/product-images/L20063-8/897.jpg,https://oleks-netizen.github.io/product-images/L20063-8/899.jpg,https://oleks-netizen.github.io/product-images/L20063-8/900.jpg,https://oleks-netizen.github.io/product-images/L20063-8/901.jpg,https://oleks-netizen.github.io/product-images/L20063-8/902.jpg,https://oleks-netizen.github.io/product-images/L20063-8/903.jpg,https://oleks-netizen.github.io/product-images/L20063-8/904.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-78/1983.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1984.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1985.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1986.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1987.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1988.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1989.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1990.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20633-78/1983.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1984.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1986.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1987.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1988.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1989.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1990.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-90/3421.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3422.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3423.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3424.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3425.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3426.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3427.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3428.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3421.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3422.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3424.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3425.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3426.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3427.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3428.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-1/3946.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3947.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3948.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3949.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3950.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3951.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3952.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3953.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3954.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3946.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3947.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3949.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3950.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3951.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3952.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3953.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3954.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-56/3017.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3018.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3019.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3020.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3021.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3022.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3023.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3024.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3025.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3017.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3018.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3020.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3021.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3022.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3023.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3024.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3025.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-58/5518.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5519.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5520.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5521.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5522.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5523.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5524.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5525.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5526.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5518.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5519.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5521.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5522.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5523.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5524.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5525.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5526.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20682-1/3026.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3027.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3028.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3029.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3030.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3031.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3032.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3033.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3026.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3027.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3029.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3030.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3031.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3032.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3033.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-1/2684.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2685.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2686.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2687.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2688.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2689.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2690.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2691.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2684.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2685.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2687.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2688.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2689.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2690.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2691.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-2/1370.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1371.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1372.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1373.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1374.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1375.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1376.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1377.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20683-2/1370.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1371.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1373.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1374.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1375.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1376.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1377.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-1/499.jpg,https://oleks-netizen.github.io/product-images/L20713-1/500.jpg,https://oleks-netizen.github.io/product-images/L20713-1/501.jpg,https://oleks-netizen.github.io/product-images/L20713-1/502.jpg,https://oleks-netizen.github.io/product-images/L20713-1/503.jpg,https://oleks-netizen.github.io/product-images/L20713-1/504.jpg,https://oleks-netizen.github.io/product-images/L20713-1/505.jpg,https://oleks-netizen.github.io/product-images/L20713-1/506.jpg,https://oleks-netizen.github.io/product-images/L20713-1/507.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/499.jpg,https://oleks-netizen.github.io/product-images/L20713-1/500.jpg,https://oleks-netizen.github.io/product-images/L20713-1/502.jpg,https://oleks-netizen.github.io/product-images/L20713-1/503.jpg,https://oleks-netizen.github.io/product-images/L20713-1/504.jpg,https://oleks-netizen.github.io/product-images/L20713-1/505.jpg,https://oleks-netizen.github.io/product-images/L20713-1/506.jpg,https://oleks-netizen.github.io/product-images/L20713-1/507.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-8/971.jpg,https://oleks-netizen.github.io/product-images/L20713-8/972.jpg,https://oleks-netizen.github.io/product-images/L20713-8/973.jpg,https://oleks-netizen.github.io/product-images/L20713-8/974.jpg,https://oleks-netizen.github.io/product-images/L20713-8/975.jpg,https://oleks-netizen.github.io/product-images/L20713-8/976.jpg,https://oleks-netizen.github.io/product-images/L20713-8/977.jpg,https://oleks-netizen.github.io/product-images/L20713-8/978.jpg,https://oleks-netizen.github.io/product-images/L20713-8/979.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/971.jpg,https://oleks-netizen.github.io/product-images/L20713-8/972.jpg,https://oleks-netizen.github.io/product-images/L20713-8/974.jpg,https://oleks-netizen.github.io/product-images/L20713-8/975.jpg,https://oleks-netizen.github.io/product-images/L20713-8/976.jpg,https://oleks-netizen.github.io/product-images/L20713-8/977.jpg,https://oleks-netizen.github.io/product-images/L20713-8/978.jpg,https://oleks-netizen.github.io/product-images/L20713-8/979.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-1/5035.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5036.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5037.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5038.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5039.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5040.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5041.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5042.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5043.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5035.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5036.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5038.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5039.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5040.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5041.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5042.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5043.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-10/2722.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2723.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2724.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2725.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2726.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2727.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2728.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2729.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2730.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2722.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2723.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2725.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2726.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2727.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2728.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2729.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2730.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-15/423.jpg,https://oleks-netizen.github.io/product-images/L20812-15/424.jpg,https://oleks-netizen.github.io/product-images/L20812-15/425.jpg,https://oleks-netizen.github.io/product-images/L20812-15/426.jpg,https://oleks-netizen.github.io/product-images/L20812-15/427.jpg,https://oleks-netizen.github.io/product-images/L20812-15/428.jpg,https://oleks-netizen.github.io/product-images/L20812-15/429.jpg,https://oleks-netizen.github.io/product-images/L20812-15/430.jpg,https://oleks-netizen.github.io/product-images/L20812-15/431.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/423.jpg,https://oleks-netizen.github.io/product-images/L20812-15/424.jpg,https://oleks-netizen.github.io/product-images/L20812-15/426.jpg,https://oleks-netizen.github.io/product-images/L20812-15/427.jpg,https://oleks-netizen.github.io/product-images/L20812-15/428.jpg,https://oleks-netizen.github.io/product-images/L20812-15/429.jpg,https://oleks-netizen.github.io/product-images/L20812-15/430.jpg,https://oleks-netizen.github.io/product-images/L20812-15/431.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-56/2102.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2103.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2104.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2105.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2106.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2107.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2109.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2110.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2102.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2103.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2105.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2106.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2107.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2109.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2110.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20841-58/4355.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4356.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4357.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4358.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4359.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4360.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4361.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4362.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4355.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4356.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4358.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4359.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4360.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4361.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4362.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-1/2311.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2312.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2313.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2314.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2315.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2316.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2317.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2318.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2311.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2312.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2314.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2315.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2316.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2317.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2318.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-701/4239.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4240.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4241.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4242.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4243.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4244.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4245.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4246.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4239.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4240.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4242.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4243.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4244.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4245.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4246.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-720/2360.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2361.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2362.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2364.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2360.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2361.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2364.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-811/2606.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2607.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2608.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2609.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2610.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2611.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2612.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2613.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2606.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2607.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2609.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2610.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2611.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2612.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2613.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20853-1/2927.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2928.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2929.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2930.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2931.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2932.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2933.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2934.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2935.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2927.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2928.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2929.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2931.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2932.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2933.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2934.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2935.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20993-1/2913.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2914.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2915.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2916.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2917.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2918.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2920.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2913.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2914.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2916.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2917.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2918.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2920.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-1/2834.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2835.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2836.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2837.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2838.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2839.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2840.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2841.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2834.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2835.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2837.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2838.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2839.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2840.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2841.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-142/4411.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4412.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4413.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4414.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4415.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4416.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4417.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4418.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4411.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4412.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4414.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4415.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4416.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4417.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4418.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21035-101/166.jpg,https://oleks-netizen.github.io/product-images/L21035-101/167.jpg,https://oleks-netizen.github.io/product-images/L21035-101/168.jpg,https://oleks-netizen.github.io/product-images/L21035-101/169.jpg,https://oleks-netizen.github.io/product-images/L21035-101/170.jpg,https://oleks-netizen.github.io/product-images/L21035-101/171.jpg,https://oleks-netizen.github.io/product-images/L21035-101/172.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21035-101/166.jpg,https://oleks-netizen.github.io/product-images/L21035-101/167.jpg,https://oleks-netizen.github.io/product-images/L21035-101/169.jpg,https://oleks-netizen.github.io/product-images/L21035-101/170.jpg,https://oleks-netizen.github.io/product-images/L21035-101/171.jpg,https://oleks-netizen.github.io/product-images/L21035-101/172.jpg,https://oleks-netizen.github.io/product-images/L21035-101/1.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21075-1/4522.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4523.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4524.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4525.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4526.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4527.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4528.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4529.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4522.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4523.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4525.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4526.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4527.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4528.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4529.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-1/3247.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3248.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3249.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3250.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3251.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3252.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3253.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3254.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3255.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3247.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3248.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3250.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3251.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3252.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3253.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3254.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3255.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-25/4488.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4489.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4490.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4491.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4492.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4493.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4494.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4495.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4496.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4488.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4489.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4491.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4492.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4493.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4494.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4495.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4496.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21511-101/2804.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2805.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2806.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2807.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2808.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2809.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2810.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2811.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2804.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2805.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2807.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2808.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2809.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2810.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2811.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21529-43/1431.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1432.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1433.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1434.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1435.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1436.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1437.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1438.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21529-43/1431.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1432.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1434.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1435.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1436.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1437.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1438.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-1/2951.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2952.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2953.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2954.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2955.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2956.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2957.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2958.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2951.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2952.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2954.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2955.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2956.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2957.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2958.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-11/2153.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2154.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2155.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2156.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2157.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2158.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2159.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2160.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2153.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2154.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2156.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2157.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2158.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2159.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2160.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-1/5389.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5390.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5391.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5392.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5393.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5394.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5395.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5396.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5397.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5389.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5390.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5392.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5393.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5394.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5395.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5396.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5397.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-175/5996.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5997.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5998.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5999.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6000.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6001.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6002.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6003.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6004.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5996.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5997.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5999.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6000.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6001.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6002.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6003.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6004.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21547-64/4631.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4632.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4633.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4634.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4635.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4636.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4637.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4638.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4631.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4632.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4634.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4635.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4636.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4637.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4638.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-1/4564.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4565.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4566.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4567.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4568.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4569.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4570.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4571.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4572.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4564.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4565.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4566.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4568.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4569.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4570.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4571.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4572.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-22/2079.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2080.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2081.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2082.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2083.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2084.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2085.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2086.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2087.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2079.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2080.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2081.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2083.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2084.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2085.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2086.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2087.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-1/3864.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3865.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3866.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3867.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3868.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3869.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3870.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3871.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3872.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3873.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3864.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3865.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3866.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3868.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3869.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3870.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3871.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3872.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3873.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-173/3476.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3477.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3478.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3479.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3480.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3481.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3482.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3483.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3484.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3485.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3476.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3477.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3478.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3480.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3481.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3482.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3483.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3484.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3485.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-1/2782.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2783.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2784.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2785.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2786.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2787.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2788.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2789.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2782.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2783.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2785.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2786.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2787.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2788.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2789.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-25/438.jpg,https://oleks-netizen.github.io/product-images/L21561-25/439.jpg,https://oleks-netizen.github.io/product-images/L21561-25/440.jpg,https://oleks-netizen.github.io/product-images/L21561-25/441.jpg,https://oleks-netizen.github.io/product-images/L21561-25/442.jpg,https://oleks-netizen.github.io/product-images/L21561-25/443.jpg,https://oleks-netizen.github.io/product-images/L21561-25/444.jpg,https://oleks-netizen.github.io/product-images/L21561-25/445.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/438.jpg,https://oleks-netizen.github.io/product-images/L21561-25/439.jpg,https://oleks-netizen.github.io/product-images/L21561-25/441.jpg,https://oleks-netizen.github.io/product-images/L21561-25/442.jpg,https://oleks-netizen.github.io/product-images/L21561-25/443.jpg,https://oleks-netizen.github.io/product-images/L21561-25/444.jpg,https://oleks-netizen.github.io/product-images/L21561-25/445.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-1K/4694.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4695.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4696.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4697.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4698.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4699.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4700.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4701.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4694.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4695.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4697.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4698.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4699.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4700.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4701.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1998.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1999.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2000.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2001.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2002.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2003.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2004.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2005.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1998.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1999.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2001.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2002.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2003.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2004.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2005.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-1/5288.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5289.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5290.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5291.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5292.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5293.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5294.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5295.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5288.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5289.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5291.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5292.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5293.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5294.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5295.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-12/315.jpg,https://oleks-netizen.github.io/product-images/L22008-12/316.jpg,https://oleks-netizen.github.io/product-images/L22008-12/317.jpg,https://oleks-netizen.github.io/product-images/L22008-12/318.jpg,https://oleks-netizen.github.io/product-images/L22008-12/319.jpg,https://oleks-netizen.github.io/product-images/L22008-12/320.jpg,https://oleks-netizen.github.io/product-images/L22008-12/321.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/315.jpg,https://oleks-netizen.github.io/product-images/L22008-12/316.jpg,https://oleks-netizen.github.io/product-images/L22008-12/318.jpg,https://oleks-netizen.github.io/product-images/L22008-12/319.jpg,https://oleks-netizen.github.io/product-images/L22008-12/320.jpg,https://oleks-netizen.github.io/product-images/L22008-12/321.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-8/5347.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5348.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5349.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5350.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5351.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5352.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5353.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5354.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5347.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5348.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5350.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5351.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5352.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5353.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5354.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-1/5232.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5233.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5234.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5235.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5236.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5237.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5238.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5239.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5240.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5232.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5233.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5235.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5236.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5237.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5238.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5239.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5240.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-35/2222.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2223.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2224.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2225.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2226.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2227.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2228.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2229.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2230.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2222.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2223.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2225.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2226.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2227.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2228.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2229.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2230.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22018-2W/3764.jpg,https://oleks-netizen.github.io/product-images/L22018-2W/3765.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22018-2W/1.jpg,https://oleks-netizen.github.io/product-images/L22018-2W/3764.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22098-1/2899.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2900.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2901.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2902.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2903.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2904.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2905.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2899.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2901.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2902.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2903.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2904.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2905.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-1/3847.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3848.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3849.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3850.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3851.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3852.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3853.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3854.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3847.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3848.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3850.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3851.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3852.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3853.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3854.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-8/1000.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1001.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1002.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1003.jpg,https://oleks-netizen.github.io/product-images/L22125-8/996.jpg,https://oleks-netizen.github.io/product-images/L22125-8/997.jpg,https://oleks-netizen.github.io/product-images/L22125-8/998.jpg,https://oleks-netizen.github.io/product-images/L22125-8/999.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22125-8/1000.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1001.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1002.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1003.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/996.jpg,https://oleks-netizen.github.io/product-images/L22125-8/997.jpg,https://oleks-netizen.github.io/product-images/L22125-8/999.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22162-1W/3944.jpg,https://oleks-netizen.github.io/product-images/L22162-1W/3945.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22162-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22162-1W/3944.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1W/2487.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2488.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2489.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2490.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2491.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2492.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2493.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2494.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2495.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2487.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2488.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2490.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2491.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2492.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2493.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2494.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2495.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1184.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1185.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1186.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1187.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1188.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1189.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1190.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1191.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1192.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1184.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1185.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1187.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1188.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1189.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1190.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1191.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1192.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-01/2936.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2937.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2938.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2939.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2940.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2941.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2942.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2943.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2944.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2936.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2937.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2939.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2940.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2941.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2942.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2943.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2944.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-02/5568.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5569.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5570.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5571.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5572.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5573.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5574.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5575.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5576.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5568.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5569.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5571.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5572.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5573.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5574.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5575.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5576.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-1/2650.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2651.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2652.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2653.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2654.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2655.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2656.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2657.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2658.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2650.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2651.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2653.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2654.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2655.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2656.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2657.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2658.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-4/2244.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2245.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2246.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2247.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2248.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2249.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2250.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2251.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2252.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2244.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2245.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2247.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2248.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2249.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2250.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2251.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2252.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-01/760.jpg,https://oleks-netizen.github.io/product-images/L22532-01/761.jpg,https://oleks-netizen.github.io/product-images/L22532-01/762.jpg,https://oleks-netizen.github.io/product-images/L22532-01/763.jpg,https://oleks-netizen.github.io/product-images/L22532-01/764.jpg,https://oleks-netizen.github.io/product-images/L22532-01/765.jpg,https://oleks-netizen.github.io/product-images/L22532-01/766.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/760.jpg,https://oleks-netizen.github.io/product-images/L22532-01/762.jpg,https://oleks-netizen.github.io/product-images/L22532-01/763.jpg,https://oleks-netizen.github.io/product-images/L22532-01/764.jpg,https://oleks-netizen.github.io/product-images/L22532-01/765.jpg,https://oleks-netizen.github.io/product-images/L22532-01/766.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-03/4339.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4340.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4341.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4342.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4343.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4344.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4345.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4346.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4339.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4341.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4342.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4343.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4344.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4345.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4346.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22537-179/4308.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4310.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4311.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4312.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4313.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4314.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4315.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4308.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4311.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4312.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4313.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4314.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4315.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-1/5577.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5579.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5580.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5581.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5582.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5583.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5584.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5577.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5580.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5581.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5582.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5583.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5584.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-2S/5699.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5701.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5702.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5703.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5704.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5705.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5699.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5702.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5703.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5704.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5705.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1422.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1424.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1425.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1426.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1427.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1428.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1429.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1422.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1425.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1426.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1427.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1428.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1429.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22661-1/573.jpg,https://oleks-netizen.github.io/product-images/L22661-1/575.jpg,https://oleks-netizen.github.io/product-images/L22661-1/576.jpg,https://oleks-netizen.github.io/product-images/L22661-1/577.jpg,https://oleks-netizen.github.io/product-images/L22661-1/578.jpg,https://oleks-netizen.github.io/product-images/L22661-1/579.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/573.jpg,https://oleks-netizen.github.io/product-images/L22661-1/576.jpg,https://oleks-netizen.github.io/product-images/L22661-1/577.jpg,https://oleks-netizen.github.io/product-images/L22661-1/578.jpg,https://oleks-netizen.github.io/product-images/L22661-1/579.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1/145.jpg,https://oleks-netizen.github.io/product-images/L22808-1/147.jpg,https://oleks-netizen.github.io/product-images/L22808-1/148.jpg,https://oleks-netizen.github.io/product-images/L22808-1/149.jpg,https://oleks-netizen.github.io/product-images/L22808-1/150.jpg,https://oleks-netizen.github.io/product-images/L22808-1/151.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1/145.jpg,https://oleks-netizen.github.io/product-images/L22808-1/148.jpg,https://oleks-netizen.github.io/product-images/L22808-1/149.jpg,https://oleks-netizen.github.io/product-images/L22808-1/150.jpg,https://oleks-netizen.github.io/product-images/L22808-1/151.jpg,https://oleks-netizen.github.io/product-images/L22808-1/1.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1W/5535.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5537.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5538.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5539.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5540.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5541.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5535.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5538.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5539.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5540.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5541.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1952.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1954.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1955.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1956.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1957.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1958.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1959.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1952.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1955.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1956.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1957.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1958.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1959.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-05S/2519.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2521.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2522.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2523.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2524.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2525.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2526.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2519.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2522.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2523.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2524.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2525.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2526.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22902-1C/5543.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5545.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5546.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5547.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5548.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5549.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5550.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5551.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5552.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5543.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5546.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5547.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5548.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5549.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5550.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5551.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5552.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22916-5W/5707.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5710.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5711.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5712.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5713.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5714.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5707.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5711.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5712.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5713.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5714.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26003-1/5192.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5194.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5195.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5196.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5197.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5198.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5192.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5195.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5196.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5197.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5198.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26018-1/4039.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4041.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4042.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4043.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4044.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4045.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4039.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4042.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4043.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4044.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4045.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26290-005/5655.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5657.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5658.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5659.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5655.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5658.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5659.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26309-005/4804.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4806.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4807.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4808.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4809.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4804.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4807.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4808.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4809.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26321-1/4175.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4177.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4178.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4179.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4180.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4181.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4175.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4178.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4179.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4180.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4181.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L9902-3C/930.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/931.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/932.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/933.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/934.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/935.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/936.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/937.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/938.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/939.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/940.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/930.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/931.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/933.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/934.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/935.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/936.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/937.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/938.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/939.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/940.jpg</t>
         </is>
       </c>
       <c r="C159" t="n">

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/470.jpg,https://oleks-netizen.github.io/product-images/0026-2/471.jpg,https://oleks-netizen.github.io/product-images/0026-2/473.jpg,https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/2.jpg,https://oleks-netizen.github.io/product-images/0026-2/4.jpg,https://oleks-netizen.github.io/product-images/0026-2/5.jpg,https://oleks-netizen.github.io/product-images/0026-2/6.jpg,https://oleks-netizen.github.io/product-images/0026-2/7.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/4648.jpg,https://oleks-netizen.github.io/product-images/0026-3/4649.jpg,https://oleks-netizen.github.io/product-images/0026-3/4651.jpg,https://oleks-netizen.github.io/product-images/0026-3/4652.jpg,https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/2.jpg,https://oleks-netizen.github.io/product-images/0026-3/4.jpg,https://oleks-netizen.github.io/product-images/0026-3/5.jpg,https://oleks-netizen.github.io/product-images/0026-3/6.jpg,https://oleks-netizen.github.io/product-images/0026-3/7.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2038.jpg,https://oleks-netizen.github.io/product-images/0026-4/2039.jpg,https://oleks-netizen.github.io/product-images/0026-4/2041.jpg,https://oleks-netizen.github.io/product-images/0026-4/2042.jpg,https://oleks-netizen.github.io/product-images/0026-4/2043.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2.jpg,https://oleks-netizen.github.io/product-images/0026-4/4.jpg,https://oleks-netizen.github.io/product-images/0026-4/5.jpg,https://oleks-netizen.github.io/product-images/0026-4/6.jpg,https://oleks-netizen.github.io/product-images/0026-4/7.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/4516.jpg,https://oleks-netizen.github.io/product-images/0026-5/4517.jpg,https://oleks-netizen.github.io/product-images/0026-5/4519.jpg,https://oleks-netizen.github.io/product-images/0026-5/4520.jpg,https://oleks-netizen.github.io/product-images/0026-5/4521.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/2.jpg,https://oleks-netizen.github.io/product-images/0026-5/4.jpg,https://oleks-netizen.github.io/product-images/0026-5/5.jpg,https://oleks-netizen.github.io/product-images/0026-5/6.jpg,https://oleks-netizen.github.io/product-images/0026-5/7.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -506,7 +506,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/3717.jpg,https://oleks-netizen.github.io/product-images/0026-6/3718.jpg,https://oleks-netizen.github.io/product-images/0026-6/3720.jpg,https://oleks-netizen.github.io/product-images/0026-6/3721.jpg,https://oleks-netizen.github.io/product-images/0026-6/3722.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/2.jpg,https://oleks-netizen.github.io/product-images/0026-6/4.jpg,https://oleks-netizen.github.io/product-images/0026-6/5.jpg,https://oleks-netizen.github.io/product-images/0026-6/6.jpg,https://oleks-netizen.github.io/product-images/0026-6/7.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/543.jpg,https://oleks-netizen.github.io/product-images/0026-7/544.jpg,https://oleks-netizen.github.io/product-images/0026-7/546.jpg,https://oleks-netizen.github.io/product-images/0026-7/547.jpg,https://oleks-netizen.github.io/product-images/0026-7/548.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/2.jpg,https://oleks-netizen.github.io/product-images/0026-7/4.jpg,https://oleks-netizen.github.io/product-images/0026-7/5.jpg,https://oleks-netizen.github.io/product-images/0026-7/6.jpg,https://oleks-netizen.github.io/product-images/0026-7/7.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/5398.jpg,https://oleks-netizen.github.io/product-images/0039-3/5399.jpg,https://oleks-netizen.github.io/product-images/0039-3/5401.jpg,https://oleks-netizen.github.io/product-images/0039-3/5402.jpg,https://oleks-netizen.github.io/product-images/0039-3/5403.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/2.jpg,https://oleks-netizen.github.io/product-images/0039-3/4.jpg,https://oleks-netizen.github.io/product-images/0039-3/5.jpg,https://oleks-netizen.github.io/product-images/0039-3/6.jpg,https://oleks-netizen.github.io/product-images/0039-3/7.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/2504.jpg,https://oleks-netizen.github.io/product-images/005/2505.jpg,https://oleks-netizen.github.io/product-images/005/2507.jpg,https://oleks-netizen.github.io/product-images/005/2508.jpg,https://oleks-netizen.github.io/product-images/005/2509.jpg,https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/2.jpg,https://oleks-netizen.github.io/product-images/005/4.jpg,https://oleks-netizen.github.io/product-images/005/5.jpg,https://oleks-netizen.github.io/product-images/005/6.jpg,https://oleks-netizen.github.io/product-images/005/7.jpg,https://oleks-netizen.github.io/product-images/005/8.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg,https://oleks-netizen.github.io/product-images/009-2/1145.jpg,https://oleks-netizen.github.io/product-images/009-2/1147.jpg,https://oleks-netizen.github.io/product-images/009-2/1148.jpg,https://oleks-netizen.github.io/product-images/009-2/1149.jpg,https://oleks-netizen.github.io/product-images/009-2/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-2/1.jpg,https://oleks-netizen.github.io/product-images/009-2/2.jpg,https://oleks-netizen.github.io/product-images/009-2/4.jpg,https://oleks-netizen.github.io/product-images/009-2/5.jpg,https://oleks-netizen.github.io/product-images/009-2/6.jpg,https://oleks-netizen.github.io/product-images/009-2/7.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg,https://oleks-netizen.github.io/product-images/009-4/1770.jpg,https://oleks-netizen.github.io/product-images/009-4/1772.jpg,https://oleks-netizen.github.io/product-images/009-4/1773.jpg,https://oleks-netizen.github.io/product-images/009-4/1774.jpg,https://oleks-netizen.github.io/product-images/009-4/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-4/1.jpg,https://oleks-netizen.github.io/product-images/009-4/2.jpg,https://oleks-netizen.github.io/product-images/009-4/4.jpg,https://oleks-netizen.github.io/product-images/009-4/5.jpg,https://oleks-netizen.github.io/product-images/009-4/6.jpg,https://oleks-netizen.github.io/product-images/009-4/7.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -591,72 +591,72 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1809-black</t>
+          <t>1203A Сіра</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-black/1.jpg,https://oleks-netizen.github.io/product-images/1809-black/5770.jpg,https://oleks-netizen.github.io/product-images/1809-black/5771.jpg,https://oleks-netizen.github.io/product-images/1809-black/5773.jpg,https://oleks-netizen.github.io/product-images/1809-black/5774.jpg,https://oleks-netizen.github.io/product-images/1809-black/5775.jpg,https://oleks-netizen.github.io/product-images/1809-black/5776.jpg,https://oleks-netizen.github.io/product-images/1809-black/5777.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Сіра/1.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/3.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/4.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/5.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/6.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1809-grey</t>
+          <t>1203A Синя</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-grey/1.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5152.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5153.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5155.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5156.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5157.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5158.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5159.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Синя/1.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/3.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/4.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/5.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/6.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/7.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/8.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>509-black</t>
+          <t>1203A Чорна</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-black/1.jpg,https://oleks-netizen.github.io/product-images/509-black/791.jpg,https://oleks-netizen.github.io/product-images/509-black/792.jpg,https://oleks-netizen.github.io/product-images/509-black/794.jpg,https://oleks-netizen.github.io/product-images/509-black/795.jpg,https://oleks-netizen.github.io/product-images/509-black/796.jpg,https://oleks-netizen.github.io/product-images/509-black/797.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Чорна/1.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/3.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/4.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/5.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/6.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>509-green</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-green/1.jpg,https://oleks-netizen.github.io/product-images/509-green/4476.jpg,https://oleks-netizen.github.io/product-images/509-green/4477.jpg,https://oleks-netizen.github.io/product-images/509-green/4479.jpg,https://oleks-netizen.github.io/product-images/509-green/4480.jpg,https://oleks-netizen.github.io/product-images/509-green/4481.jpg,https://oleks-netizen.github.io/product-images/509-green/4482.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1204/10.jpg,https://oleks-netizen.github.io/product-images/1204/11.jpg,https://oleks-netizen.github.io/product-images/1204/12.jpg,https://oleks-netizen.github.io/product-images/1204/1.jpg,https://oleks-netizen.github.io/product-images/1204/3.jpg,https://oleks-netizen.github.io/product-images/1204/4.jpg,https://oleks-netizen.github.io/product-images/1204/5.jpg,https://oleks-netizen.github.io/product-images/1204/6.jpg,https://oleks-netizen.github.io/product-images/1204/7.jpg,https://oleks-netizen.github.io/product-images/1204/8.jpg,https://oleks-netizen.github.io/product-images/1204/9.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6098-black</t>
+          <t>1809-black</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-black/1.jpg,https://oleks-netizen.github.io/product-images/6098-black/4843.jpg,https://oleks-netizen.github.io/product-images/6098-black/4844.jpg,https://oleks-netizen.github.io/product-images/6098-black/4846.jpg,https://oleks-netizen.github.io/product-images/6098-black/4847.jpg,https://oleks-netizen.github.io/product-images/6098-black/4848.jpg,https://oleks-netizen.github.io/product-images/6098-black/4849.jpg,https://oleks-netizen.github.io/product-images/6098-black/4850.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-black/1.jpg,https://oleks-netizen.github.io/product-images/1809-black/2.jpg,https://oleks-netizen.github.io/product-images/1809-black/4.jpg,https://oleks-netizen.github.io/product-images/1809-black/5.jpg,https://oleks-netizen.github.io/product-images/1809-black/6.jpg,https://oleks-netizen.github.io/product-images/1809-black/7.jpg,https://oleks-netizen.github.io/product-images/1809-black/8.jpg,https://oleks-netizen.github.io/product-images/1809-black/9.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -666,12 +666,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6098-green-kam</t>
+          <t>1809-grey</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3909.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3910.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3912.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3913.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3914.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3915.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/3916.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1809-grey/1.jpg,https://oleks-netizen.github.io/product-images/1809-grey/2.jpg,https://oleks-netizen.github.io/product-images/1809-grey/4.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5.jpg,https://oleks-netizen.github.io/product-images/1809-grey/6.jpg,https://oleks-netizen.github.io/product-images/1809-grey/7.jpg,https://oleks-netizen.github.io/product-images/1809-grey/8.jpg,https://oleks-netizen.github.io/product-images/1809-grey/9.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -681,87 +681,87 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6836-black</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/5143.jpg,https://oleks-netizen.github.io/product-images/6836-black/5144.jpg,https://oleks-netizen.github.io/product-images/6836-black/5146.jpg,https://oleks-netizen.github.io/product-images/6836-black/5147.jpg,https://oleks-netizen.github.io/product-images/6836-black/5148.jpg,https://oleks-netizen.github.io/product-images/6836-black/5149.jpg,https://oleks-netizen.github.io/product-images/6836-black/5150.jpg,https://oleks-netizen.github.io/product-images/6836-black/5151.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3114/1.jpg,https://oleks-netizen.github.io/product-images/3114/2.jpg,https://oleks-netizen.github.io/product-images/3114/4.jpg,https://oleks-netizen.github.io/product-images/3114/5.jpg,https://oleks-netizen.github.io/product-images/3114/6.jpg,https://oleks-netizen.github.io/product-images/3114/7.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7631-black</t>
+          <t>3122 Танго</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2368.jpg,https://oleks-netizen.github.io/product-images/7631-black/2369.jpg,https://oleks-netizen.github.io/product-images/7631-black/2371.jpg,https://oleks-netizen.github.io/product-images/7631-black/2372.jpg,https://oleks-netizen.github.io/product-images/7631-black/2373.jpg,https://oleks-netizen.github.io/product-images/7631-black/2374.jpg,https://oleks-netizen.github.io/product-images/7631-black/2375.jpg,https://oleks-netizen.github.io/product-images/7631-black/2376.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3122 Танго/1.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/2.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/3.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/4.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/5.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C-8460A-grey</t>
+          <t>3130-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4594.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4596.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4597.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4598.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4599.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3130-1/1.jpg,https://oleks-netizen.github.io/product-images/3130-1/2.jpg,https://oleks-netizen.github.io/product-images/3130-1/3.jpg,https://oleks-netizen.github.io/product-images/3130-1/4.jpg,https://oleks-netizen.github.io/product-images/3130-1/5.jpg,https://oleks-netizen.github.io/product-images/3130-1/6.jpg,https://oleks-netizen.github.io/product-images/3130-1/7.jpg,https://oleks-netizen.github.io/product-images/3130-1/8.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C-8460A-pink</t>
+          <t>3130-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5728.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5730.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5731.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5732.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5733.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3130-2/1.jpg,https://oleks-netizen.github.io/product-images/3130-2/2.jpg,https://oleks-netizen.github.io/product-images/3130-2/3.jpg,https://oleks-netizen.github.io/product-images/3130-2/4.jpg,https://oleks-netizen.github.io/product-images/3130-2/5.jpg,https://oleks-netizen.github.io/product-images/3130-2/6.jpg,https://oleks-netizen.github.io/product-images/3130-2/7.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C-8460A-silvery-grey</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2183.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2185.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2186.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2187.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/2188.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3131/1.jpg,https://oleks-netizen.github.io/product-images/3131/2.jpg,https://oleks-netizen.github.io/product-images/3131/4.jpg,https://oleks-netizen.github.io/product-images/3131/5.jpg,https://oleks-netizen.github.io/product-images/3131/6.jpg,https://oleks-netizen.github.io/product-images/3131/7.jpg,https://oleks-netizen.github.io/product-images/3131/8.jpg,https://oleks-netizen.github.io/product-images/3131/9.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C-8460B-black</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1627.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1629.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1630.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1631.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1632.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3134/1.jpg,https://oleks-netizen.github.io/product-images/3134/2.jpg,https://oleks-netizen.github.io/product-images/3134/3.jpg,https://oleks-netizen.github.io/product-images/3134/4.jpg,https://oleks-netizen.github.io/product-images/3134/5.jpg,https://oleks-netizen.github.io/product-images/3134/6.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -771,27 +771,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C-8460B-green</t>
+          <t>3134 Good Shopping</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3881.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3883.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3884.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3885.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3886.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3134 Good Shopping/1.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/2.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/3.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/4.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/5.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/6.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/7.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/8.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C-8460B-grey</t>
+          <t>3134 Чашки</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5445.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5447.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5448.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5449.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5450.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3134 Чашки/1.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/2.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/3.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/4.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/5.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/6.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -801,12 +801,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C-8460B-khaki</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4282.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4284.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4285.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4286.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4287.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3135/1.jpg,https://oleks-netizen.github.io/product-images/3135/3.jpg,https://oleks-netizen.github.io/product-images/3135/4.jpg,https://oleks-netizen.github.io/product-images/3135/5.jpg,https://oleks-netizen.github.io/product-images/3135/6.jpg,https://oleks-netizen.github.io/product-images/3135/7.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -816,237 +816,237 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C-8460B-red</t>
+          <t>3137-Yoga-style</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2231.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2233.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2234.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2235.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/2236.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3137-Yoga-style/1.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/2.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/3.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/4.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/5.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/6.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/7.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/8.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/9.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C-8998-black</t>
+          <t>3141 Бузкова</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3444.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3445.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3446.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3447.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141 Бузкова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/3.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/9.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C-8998-dark-green</t>
+          <t>3141 Коралова</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4886.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4888.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4889.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4890.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4891.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141 Коралова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/3.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/9.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C-8998-lime green</t>
+          <t>3141 Рожева</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1313.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1315.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1316.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1317.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141 Рожева/1.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/2.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/3.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/4.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/5.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/6.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/7.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/8.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/9.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C-8998-pink</t>
+          <t>3142-2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5275.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5276.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5277.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5278.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5279.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3142-2/10.jpg,https://oleks-netizen.github.io/product-images/3142-2/1.jpg,https://oleks-netizen.github.io/product-images/3142-2/2.jpg,https://oleks-netizen.github.io/product-images/3142-2/3.jpg,https://oleks-netizen.github.io/product-images/3142-2/4.jpg,https://oleks-netizen.github.io/product-images/3142-2/5.jpg,https://oleks-netizen.github.io/product-images/3142-2/6.jpg,https://oleks-netizen.github.io/product-images/3142-2/7.jpg,https://oleks-netizen.github.io/product-images/3142-2/8.jpg,https://oleks-netizen.github.io/product-images/3142-2/9.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DRL19001-1</t>
+          <t>3145 Hello, Paris</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2864.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2865.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2867.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2868.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2869.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2870.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2871.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145 Hello, Paris/10.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/1.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/2.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/3.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/4.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/5.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/6.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/7.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/8.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/9.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DRL19012-1</t>
+          <t>3145-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5981.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5982.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5984.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5985.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5986.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5987.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5988.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5989.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145-1/10.jpg,https://oleks-netizen.github.io/product-images/3145-1/1.jpg,https://oleks-netizen.github.io/product-images/3145-1/2.jpg,https://oleks-netizen.github.io/product-images/3145-1/3.jpg,https://oleks-netizen.github.io/product-images/3145-1/4.jpg,https://oleks-netizen.github.io/product-images/3145-1/5.jpg,https://oleks-netizen.github.io/product-images/3145-1/6.jpg,https://oleks-netizen.github.io/product-images/3145-1/7.jpg,https://oleks-netizen.github.io/product-images/3145-1/8.jpg,https://oleks-netizen.github.io/product-images/3145-1/9.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DRL19077-1</t>
+          <t>3145-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4120.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4121.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4123.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4124.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4125.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4126.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4127.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145-2/10.jpg,https://oleks-netizen.github.io/product-images/3145-2/1.jpg,https://oleks-netizen.github.io/product-images/3145-2/2.jpg,https://oleks-netizen.github.io/product-images/3145-2/3.jpg,https://oleks-netizen.github.io/product-images/3145-2/4.jpg,https://oleks-netizen.github.io/product-images/3145-2/5.jpg,https://oleks-netizen.github.io/product-images/3145-2/6.jpg,https://oleks-netizen.github.io/product-images/3145-2/7.jpg,https://oleks-netizen.github.io/product-images/3145-2/8.jpg,https://oleks-netizen.github.io/product-images/3145-2/9.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DRL19092-1</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4796.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4797.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4799.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4800.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4801.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4802.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4803.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3146/10.jpg,https://oleks-netizen.github.io/product-images/3146/1.jpg,https://oleks-netizen.github.io/product-images/3146/2.jpg,https://oleks-netizen.github.io/product-images/3146/4.jpg,https://oleks-netizen.github.io/product-images/3146/5.jpg,https://oleks-netizen.github.io/product-images/3146/6.jpg,https://oleks-netizen.github.io/product-images/3146/7.jpg,https://oleks-netizen.github.io/product-images/3146/8.jpg,https://oleks-netizen.github.io/product-images/3146/9.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DRL19120-1</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4710.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4711.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4713.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4714.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4715.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4716.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4717.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4718.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3210/1.jpg,https://oleks-netizen.github.io/product-images/3210/3.jpg,https://oleks-netizen.github.io/product-images/3210/4.jpg,https://oleks-netizen.github.io/product-images/3210/5.jpg,https://oleks-netizen.github.io/product-images/3210/6.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DRL19122-1</t>
+          <t>3219 Квіти</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5841.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5842.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5844.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5845.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5846.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5847.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5848.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3219 Квіти/10.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/1.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/2.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/3.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/4.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/5.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/6.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/7.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/8.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/9.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DRL19253-1</t>
+          <t>3220 Синя</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4719.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4720.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4722.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4723.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4724.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4725.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4726.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3220 Синя/10.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/9.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DRL19520-1B</t>
+          <t>3220 Червона</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1447.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1448.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1450.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1451.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1452.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1453.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1454.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3220 Червона/10.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/11.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/8.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/9.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DRL19601-1</t>
+          <t>3221 Горошок</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1021.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1022.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1024.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1025.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1026.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1027.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1028.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3221 Горошок/1.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/2.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/3.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/4.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/5.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/6.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/7.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/8.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/9.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DRL19712-1</t>
+          <t>3221 Місто</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2535.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2536.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2538.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2539.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2540.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2541.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2542.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2543.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3221 Місто/1.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/2.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/3.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/4.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/5.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/6.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/7.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/8.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DRL19818A-A</t>
+          <t>3221 Осенний Листопад</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1404.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1405.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1407.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1408.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1409.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1410.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1411.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/1.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/2.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/3.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/4.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/5.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/6.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/7.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/8.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1056,282 +1056,282 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DRL19941-1</t>
+          <t>3222-1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/741.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/742.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/744.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/745.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/746.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/747.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/748.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/749.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3222-1/1.jpg,https://oleks-netizen.github.io/product-images/3222-1/2.jpg,https://oleks-netizen.github.io/product-images/3222-1/3.jpg,https://oleks-netizen.github.io/product-images/3222-1/4.jpg,https://oleks-netizen.github.io/product-images/3222-1/5.jpg,https://oleks-netizen.github.io/product-images/3222-1/6.jpg,https://oleks-netizen.github.io/product-images/3222-1/7.jpg,https://oleks-netizen.github.io/product-images/3222-1/8.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DRL6601-1</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/816.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/817.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/819.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/820.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/821.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/822.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/823.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3224/10.jpg,https://oleks-netizen.github.io/product-images/3224/1.jpg,https://oleks-netizen.github.io/product-images/3224/2.jpg,https://oleks-netizen.github.io/product-images/3224/4.jpg,https://oleks-netizen.github.io/product-images/3224/5.jpg,https://oleks-netizen.github.io/product-images/3224/6.jpg,https://oleks-netizen.github.io/product-images/3224/7.jpg,https://oleks-netizen.github.io/product-images/3224/8.jpg,https://oleks-netizen.github.io/product-images/3224/9.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DRS16059-1</t>
+          <t>3306 Бордова</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1854.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1855.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1857.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1858.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1859.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1860.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1861.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1862.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1863.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Бордова/1.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/2.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/3.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/4.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/5.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/6.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/7.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/8.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/9.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DRS16975-1</t>
+          <t>3306 Мокрий асфальт</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3087.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3088.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3090.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3091.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/3092.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/1.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/2.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/3.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/4.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/5.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/6.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/7.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/8.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/9.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DRS17116-3</t>
+          <t>3306 Сіра</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2032.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2033.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2035.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2036.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2037.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Сіра/1.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/2.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/3.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/4.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/5.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/6.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/7.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/8.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/9.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DRS17131-2</t>
+          <t>3306 Синя</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1936.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1937.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1938.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1940.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1941.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1942.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/9.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DRS17132-1</t>
+          <t>3306 Червона</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4550.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4551.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4552.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4554.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4555.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/4556.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/8.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DRS17203-1</t>
+          <t>3306 Чорна</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/963.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/964.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/965.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/967.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/968.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/969.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/970.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3306 Чорна/1.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/2.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/3.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/4.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/5.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/6.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/7.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/8.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/9.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DRS19023-2</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2966.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2967.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2969.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2970.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2971.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3307/10.jpg,https://oleks-netizen.github.io/product-images/3307/11.jpg,https://oleks-netizen.github.io/product-images/3307/1.jpg,https://oleks-netizen.github.io/product-images/3307/2.jpg,https://oleks-netizen.github.io/product-images/3307/4.jpg,https://oleks-netizen.github.io/product-images/3307/5.jpg,https://oleks-netizen.github.io/product-images/3307/6.jpg,https://oleks-netizen.github.io/product-images/3307/7.jpg,https://oleks-netizen.github.io/product-images/3307/8.jpg,https://oleks-netizen.github.io/product-images/3307/9.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DRS19353-1</t>
+          <t>509-black</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1892.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1893.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1895.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1896.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1897.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1898.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1899.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-black/1.jpg,https://oleks-netizen.github.io/product-images/509-black/2.jpg,https://oleks-netizen.github.io/product-images/509-black/4.jpg,https://oleks-netizen.github.io/product-images/509-black/5.jpg,https://oleks-netizen.github.io/product-images/509-black/6.jpg,https://oleks-netizen.github.io/product-images/509-black/7.jpg,https://oleks-netizen.github.io/product-images/509-black/8.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DRS19800-1</t>
+          <t>509-green</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6032.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6033.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6035.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6036.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6037.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/509-green/1.jpg,https://oleks-netizen.github.io/product-images/509-green/2.jpg,https://oleks-netizen.github.io/product-images/509-green/4.jpg,https://oleks-netizen.github.io/product-images/509-green/5.jpg,https://oleks-netizen.github.io/product-images/509-green/6.jpg,https://oleks-netizen.github.io/product-images/509-green/7.jpg,https://oleks-netizen.github.io/product-images/509-green/8.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DRS19802-1</t>
+          <t>5302 Бордова</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5802.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5803.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5805.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5806.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5807.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Бордова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/9.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS30002-023</t>
+          <t>5302 Бузкова</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2441.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2442.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2444.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2445.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2446.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2448.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Бузкова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/9.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS30002-025</t>
+          <t>5302 Синя</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4055.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4056.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4058.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4059.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4062.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Синя/1.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/2.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/3.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/4.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/5.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/6.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/7.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/8.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/9.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS30002-112</t>
+          <t>5302 Фіолетова</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/711.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/712.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/714.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/715.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/718.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Фіолетова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/9.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS30002-132</t>
+          <t>5302 Червона</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5381.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5382.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5384.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5385.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5386.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5387.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5388.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Червона/10.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/1.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/2.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/3.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/4.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/5.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/6.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/7.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/8.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/9.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS30002-162</t>
+          <t>5302 Чорна</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6176.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6177.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6179.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6180.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6181.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6182.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6183.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Чорна/1.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/2.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/3.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/4.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/5.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/6.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/7.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/8.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/9.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS30002-287</t>
+          <t>60418-black</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1738.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1739.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1741.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1742.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1743.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1744.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/60418-black/1.jpg,https://oleks-netizen.github.io/product-images/60418-black/2.jpg,https://oleks-netizen.github.io/product-images/60418-black/4.jpg,https://oleks-netizen.github.io/product-images/60418-black/5.jpg,https://oleks-netizen.github.io/product-images/60418-black/6.jpg,https://oleks-netizen.github.io/product-images/60418-black/7.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS30002-288</t>
+          <t>60418-blue</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4198.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4199.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4201.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4202.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4205.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/60418-blue/1.jpg,https://oleks-netizen.github.io/product-images/60418-blue/2.jpg,https://oleks-netizen.github.io/product-images/60418-blue/4.jpg,https://oleks-netizen.github.io/product-images/60418-blue/5.jpg,https://oleks-netizen.github.io/product-images/60418-blue/6.jpg,https://oleks-netizen.github.io/product-images/60418-blue/7.jpg</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1341,387 +1341,387 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>F20218-black</t>
+          <t>6098-black</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2169.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2171.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2172.jpg,https://oleks-netizen.github.io/product-images/F20218-black/2173.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-black/1.jpg,https://oleks-netizen.github.io/product-images/6098-black/2.jpg,https://oleks-netizen.github.io/product-images/6098-black/4.jpg,https://oleks-netizen.github.io/product-images/6098-black/5.jpg,https://oleks-netizen.github.io/product-images/6098-black/6.jpg,https://oleks-netizen.github.io/product-images/6098-black/7.jpg,https://oleks-netizen.github.io/product-images/6098-black/8.jpg,https://oleks-netizen.github.io/product-images/6098-black/9.jpg</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FW-A2106-black</t>
+          <t>6098-green-kam</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2674.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2675.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2676.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2677.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/2.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/8.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/9.jpg</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FW-A648-black</t>
+          <t>62142-black</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1543.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1545.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1546.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1547.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1548.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/62142-black/1.jpg,https://oleks-netizen.github.io/product-images/62142-black/2.jpg,https://oleks-netizen.github.io/product-images/62142-black/4.jpg,https://oleks-netizen.github.io/product-images/62142-black/5.jpg,https://oleks-netizen.github.io/product-images/62142-black/6.jpg,https://oleks-netizen.github.io/product-images/62142-black/7.jpg,https://oleks-netizen.github.io/product-images/62142-black/8.jpg,https://oleks-netizen.github.io/product-images/62142-black/9.jpg</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FW-A648-blue</t>
+          <t>6836-black</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/493.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/495.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/496.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/497.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/498.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6836-black/10.jpg,https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/2.jpg,https://oleks-netizen.github.io/product-images/6836-black/4.jpg,https://oleks-netizen.github.io/product-images/6836-black/5.jpg,https://oleks-netizen.github.io/product-images/6836-black/6.jpg,https://oleks-netizen.github.io/product-images/6836-black/7.jpg,https://oleks-netizen.github.io/product-images/6836-black/8.jpg,https://oleks-netizen.github.io/product-images/6836-black/9.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FW-A648-green</t>
+          <t>7631-black</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6165.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6167.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6168.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6169.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6170.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-black/10.jpg,https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2.jpg,https://oleks-netizen.github.io/product-images/7631-black/4.jpg,https://oleks-netizen.github.io/product-images/7631-black/5.jpg,https://oleks-netizen.github.io/product-images/7631-black/6.jpg,https://oleks-netizen.github.io/product-images/7631-black/7.jpg,https://oleks-netizen.github.io/product-images/7631-black/8.jpg,https://oleks-netizen.github.io/product-images/7631-black/9.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FW-A648-purple</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2066.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2068.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2069.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2070.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/2071.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/10.jpg,https://oleks-netizen.github.io/product-images/7631-grey/11.jpg,https://oleks-netizen.github.io/product-images/7631-grey/1.jpg,https://oleks-netizen.github.io/product-images/7631-grey/2.jpg,https://oleks-netizen.github.io/product-images/7631-grey/4.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5.jpg,https://oleks-netizen.github.io/product-images/7631-grey/6.jpg,https://oleks-netizen.github.io/product-images/7631-grey/7.jpg,https://oleks-netizen.github.io/product-images/7631-grey/8.jpg,https://oleks-netizen.github.io/product-images/7631-grey/9.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FW-A648-red</t>
+          <t>7683-black</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1241.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1243.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1244.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1245.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1246.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/10.jpg,https://oleks-netizen.github.io/product-images/7683-black/1.jpg,https://oleks-netizen.github.io/product-images/7683-black/3.jpg,https://oleks-netizen.github.io/product-images/7683-black/4.jpg,https://oleks-netizen.github.io/product-images/7683-black/5.jpg,https://oleks-netizen.github.io/product-images/7683-black/6.jpg,https://oleks-netizen.github.io/product-images/7683-black/7.jpg,https://oleks-netizen.github.io/product-images/7683-black/8.jpg,https://oleks-netizen.github.io/product-images/7683-black/9.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>G2568-black</t>
+          <t>7687-black</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-black/1298.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1299.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1301.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1302.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1303.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1304.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1305.jpg,https://oleks-netizen.github.io/product-images/G2568-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/10.jpg,https://oleks-netizen.github.io/product-images/7687-black/1.jpg,https://oleks-netizen.github.io/product-images/7687-black/3.jpg,https://oleks-netizen.github.io/product-images/7687-black/4.jpg,https://oleks-netizen.github.io/product-images/7687-black/5.jpg,https://oleks-netizen.github.io/product-images/7687-black/6.jpg,https://oleks-netizen.github.io/product-images/7687-black/7.jpg,https://oleks-netizen.github.io/product-images/7687-black/8.jpg,https://oleks-netizen.github.io/product-images/7687-black/9.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>G2568-grey</t>
+          <t>7687-grey</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1752.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1753.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1755.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1756.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1757.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1758.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7687-grey/10.jpg,https://oleks-netizen.github.io/product-images/7687-grey/1.jpg,https://oleks-netizen.github.io/product-images/7687-grey/3.jpg,https://oleks-netizen.github.io/product-images/7687-grey/4.jpg,https://oleks-netizen.github.io/product-images/7687-grey/5.jpg,https://oleks-netizen.github.io/product-images/7687-grey/6.jpg,https://oleks-netizen.github.io/product-images/7687-grey/7.jpg,https://oleks-netizen.github.io/product-images/7687-grey/8.jpg,https://oleks-netizen.github.io/product-images/7687-grey/9.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>H-2908-black</t>
+          <t>7688-black</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5423.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5425.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5426.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5427.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7688-black/10.jpg,https://oleks-netizen.github.io/product-images/7688-black/1.jpg,https://oleks-netizen.github.io/product-images/7688-black/3.jpg,https://oleks-netizen.github.io/product-images/7688-black/4.jpg,https://oleks-netizen.github.io/product-images/7688-black/5.jpg,https://oleks-netizen.github.io/product-images/7688-black/6.jpg,https://oleks-netizen.github.io/product-images/7688-black/7.jpg,https://oleks-netizen.github.io/product-images/7688-black/8.jpg,https://oleks-netizen.github.io/product-images/7688-black/9.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>H-2908-red</t>
+          <t>7688-grey</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3159.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3161.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3162.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3163.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7688-grey/10.jpg,https://oleks-netizen.github.io/product-images/7688-grey/1.jpg,https://oleks-netizen.github.io/product-images/7688-grey/3.jpg,https://oleks-netizen.github.io/product-images/7688-grey/4.jpg,https://oleks-netizen.github.io/product-images/7688-grey/5.jpg,https://oleks-netizen.github.io/product-images/7688-grey/6.jpg,https://oleks-netizen.github.io/product-images/7688-grey/7.jpg,https://oleks-netizen.github.io/product-images/7688-grey/8.jpg,https://oleks-netizen.github.io/product-images/7688-grey/9.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>L20001-22</t>
+          <t>8029-black</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/955.jpg,https://oleks-netizen.github.io/product-images/L20001-22/956.jpg,https://oleks-netizen.github.io/product-images/L20001-22/958.jpg,https://oleks-netizen.github.io/product-images/L20001-22/959.jpg,https://oleks-netizen.github.io/product-images/L20001-22/960.jpg,https://oleks-netizen.github.io/product-images/L20001-22/961.jpg,https://oleks-netizen.github.io/product-images/L20001-22/962.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8029-black/1.jpg,https://oleks-netizen.github.io/product-images/8029-black/3.jpg,https://oleks-netizen.github.io/product-images/8029-black/4.jpg,https://oleks-netizen.github.io/product-images/8029-black/5.jpg,https://oleks-netizen.github.io/product-images/8029-black/6.jpg,https://oleks-netizen.github.io/product-images/8029-black/7.jpg,https://oleks-netizen.github.io/product-images/8029-black/8.jpg</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>L20011-1</t>
+          <t>8029-green-kam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3500.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3501.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3503.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3504.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3505.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3506.jpg,https://oleks-netizen.github.io/product-images/L20011-1/3507.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8029-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/3.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/8.jpg</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>L20011-22</t>
+          <t>8055-black</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6081.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6082.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6084.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6085.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6086.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6087.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6088.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8055-black/1.jpg,https://oleks-netizen.github.io/product-images/8055-black/3.jpg,https://oleks-netizen.github.io/product-images/8055-black/4.jpg,https://oleks-netizen.github.io/product-images/8055-black/5.jpg,https://oleks-netizen.github.io/product-images/8055-black/6.jpg,https://oleks-netizen.github.io/product-images/8055-black/7.jpg</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>L20011-56</t>
+          <t>8055-green-kam</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5785.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5786.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5788.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5789.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5790.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5791.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5792.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8055-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/2.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/8.jpg</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>L20030-1</t>
+          <t>8055-khakі</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4702.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4703.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4704.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4706.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4707.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4708.jpg,https://oleks-netizen.github.io/product-images/L20030-1/4709.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8055-khakі/1.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/3.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/4.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/5.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/6.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/7.jpg</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>L20030-56</t>
+          <t>8055-pesok-pixel</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3774.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3775.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3776.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3778.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3779.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3780.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3781.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8055-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/8.jpg</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>L20036-1</t>
+          <t>8058-black</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3838.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3839.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3841.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3842.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3843.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3844.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3845.jpg,https://oleks-netizen.github.io/product-images/L20036-1/3846.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8058-black/1.jpg,https://oleks-netizen.github.io/product-images/8058-black/2.jpg,https://oleks-netizen.github.io/product-images/8058-black/4.jpg,https://oleks-netizen.github.io/product-images/8058-black/5.jpg,https://oleks-netizen.github.io/product-images/8058-black/6.jpg,https://oleks-netizen.github.io/product-images/8058-black/7.jpg,https://oleks-netizen.github.io/product-images/8058-black/8.jpg,https://oleks-netizen.github.io/product-images/8058-black/9.jpg</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>L20036-8</t>
+          <t>8058-khaki</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/53.jpg,https://oleks-netizen.github.io/product-images/L20036-8/54.jpg,https://oleks-netizen.github.io/product-images/L20036-8/57.jpg,https://oleks-netizen.github.io/product-images/L20036-8/58.jpg,https://oleks-netizen.github.io/product-images/L20036-8/59.jpg,https://oleks-netizen.github.io/product-images/L20036-8/60.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8058-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/4.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>L20063-1</t>
+          <t>8062-green</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3093.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3094.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3096.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3097.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3098.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3099.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3100.jpg,https://oleks-netizen.github.io/product-images/L20063-1/3101.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green/1.jpg,https://oleks-netizen.github.io/product-images/8062-green/2.jpg,https://oleks-netizen.github.io/product-images/8062-green/4.jpg,https://oleks-netizen.github.io/product-images/8062-green/5.jpg,https://oleks-netizen.github.io/product-images/8062-green/6.jpg,https://oleks-netizen.github.io/product-images/8062-green/7.jpg</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>L20063-8</t>
+          <t>8062-green-pixel_1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/896.jpg,https://oleks-netizen.github.io/product-images/L20063-8/897.jpg,https://oleks-netizen.github.io/product-images/L20063-8/899.jpg,https://oleks-netizen.github.io/product-images/L20063-8/900.jpg,https://oleks-netizen.github.io/product-images/L20063-8/901.jpg,https://oleks-netizen.github.io/product-images/L20063-8/902.jpg,https://oleks-netizen.github.io/product-images/L20063-8/903.jpg,https://oleks-netizen.github.io/product-images/L20063-8/904.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel_1/1.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel_1/2.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>L20633-78</t>
+          <t>8062-green-pixel</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-78/1983.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1984.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1986.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1987.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1988.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1989.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1990.jpg,https://oleks-netizen.github.io/product-images/L20633-78/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>L20633-90</t>
+          <t>8825-green-pixel</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3421.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3422.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3424.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3425.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3426.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3427.jpg,https://oleks-netizen.github.io/product-images/L20633-90/3428.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>L20680-1</t>
+          <t>8825-khaki</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3946.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3947.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3949.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3950.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3951.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3952.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3953.jpg,https://oleks-netizen.github.io/product-images/L20680-1/3954.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>L20680-56</t>
+          <t>8825-pesok-pixel</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3017.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3018.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3020.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3021.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3022.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3023.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3024.jpg,https://oleks-netizen.github.io/product-images/L20680-56/3025.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>L20680-58</t>
+          <t>9065-black</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5518.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5519.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5521.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5522.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5523.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5524.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5525.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5526.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1731,72 +1731,72 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>L20682-1</t>
+          <t>9065-green</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3026.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3027.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3029.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3030.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3031.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3032.jpg,https://oleks-netizen.github.io/product-images/L20682-1/3033.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>L20683-1</t>
+          <t>9065-grey-kam</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2684.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2685.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2687.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2688.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2689.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2690.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2691.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>L20683-2</t>
+          <t>BV05803-1-18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-2/1370.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1371.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1373.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1374.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1375.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1376.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1377.jpg,https://oleks-netizen.github.io/product-images/L20683-2/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV05803-1-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/4.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/6.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>L20713-1</t>
+          <t>BV05803-2-18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/499.jpg,https://oleks-netizen.github.io/product-images/L20713-1/500.jpg,https://oleks-netizen.github.io/product-images/L20713-1/502.jpg,https://oleks-netizen.github.io/product-images/L20713-1/503.jpg,https://oleks-netizen.github.io/product-images/L20713-1/504.jpg,https://oleks-netizen.github.io/product-images/L20713-1/505.jpg,https://oleks-netizen.github.io/product-images/L20713-1/506.jpg,https://oleks-netizen.github.io/product-images/L20713-1/507.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV05803-2-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/3.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/6.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>L20713-8</t>
+          <t>BV12138-19-104</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/971.jpg,https://oleks-netizen.github.io/product-images/L20713-8/972.jpg,https://oleks-netizen.github.io/product-images/L20713-8/974.jpg,https://oleks-netizen.github.io/product-images/L20713-8/975.jpg,https://oleks-netizen.github.io/product-images/L20713-8/976.jpg,https://oleks-netizen.github.io/product-images/L20713-8/977.jpg,https://oleks-netizen.github.io/product-images/L20713-8/978.jpg,https://oleks-netizen.github.io/product-images/L20713-8/979.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12138-19-104/1.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/2.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/3.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/4.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/5.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/6.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/7.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/8.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/9.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1806,132 +1806,132 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>L20812-1</t>
+          <t>BV12374-011-24</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5035.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5036.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5038.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5039.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5040.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5041.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5042.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5043.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>L20812-10</t>
+          <t>BV12374-011-28</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2722.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2723.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2725.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2726.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2727.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2728.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2729.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2730.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>L20812-15</t>
+          <t>BV12374-012-24</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/423.jpg,https://oleks-netizen.github.io/product-images/L20812-15/424.jpg,https://oleks-netizen.github.io/product-images/L20812-15/426.jpg,https://oleks-netizen.github.io/product-images/L20812-15/427.jpg,https://oleks-netizen.github.io/product-images/L20812-15/428.jpg,https://oleks-netizen.github.io/product-images/L20812-15/429.jpg,https://oleks-netizen.github.io/product-images/L20812-15/430.jpg,https://oleks-netizen.github.io/product-images/L20812-15/431.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>L20812-56</t>
+          <t>BV12374-012-28</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2102.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2103.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2105.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2106.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2107.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2109.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2110.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>L20841-58</t>
+          <t>BV12379-011-25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4355.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4356.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4358.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4359.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4360.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4361.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4362.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12379-011-25/10.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/9.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>L20849-1</t>
+          <t>BV12379-012-25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2311.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2312.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2314.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2315.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2316.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2317.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2318.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12379-012-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/3.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/9.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>L20849-701</t>
+          <t>BV38015-1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4239.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4240.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4242.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4243.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4244.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4245.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4246.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/7.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>L20849-720</t>
+          <t>BV38015-153</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2360.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2361.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2364.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/8.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>L20849-811</t>
+          <t>BV38015-5</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2606.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2607.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2609.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2610.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2611.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2612.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2613.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-5/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/8.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/9.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1941,27 +1941,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>L20853-1</t>
+          <t>BV38115-1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2927.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2928.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2929.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2931.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2932.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2933.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2934.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2935.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38115-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/7.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>L20993-1</t>
+          <t>BV38118-1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2913.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2914.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2916.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2917.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2918.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2920.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/8.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1971,12 +1971,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>L21019-1</t>
+          <t>BV38118-211</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2834.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2835.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2837.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2838.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2839.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2840.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2841.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-211/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/8.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/9.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1986,297 +1986,297 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>L21019-142</t>
+          <t>BV38118-273</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4411.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4412.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4414.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4415.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4416.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4417.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4418.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-273/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/8.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>L21035-101</t>
+          <t>BV38171-1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21035-101/166.jpg,https://oleks-netizen.github.io/product-images/L21035-101/167.jpg,https://oleks-netizen.github.io/product-images/L21035-101/169.jpg,https://oleks-netizen.github.io/product-images/L21035-101/170.jpg,https://oleks-netizen.github.io/product-images/L21035-101/171.jpg,https://oleks-netizen.github.io/product-images/L21035-101/172.jpg,https://oleks-netizen.github.io/product-images/L21035-101/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/9.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>L21075-1</t>
+          <t>BV38171-210</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4522.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4523.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4525.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4526.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4527.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4528.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4529.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38171-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/8.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>L21209-1</t>
+          <t>BV38215-143</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3247.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3248.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3250.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3251.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3252.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3253.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3254.jpg,https://oleks-netizen.github.io/product-images/L21209-1/3255.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38215-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/8.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>L21209-25</t>
+          <t>BV38319-143</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4488.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4489.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4491.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4492.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4493.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4494.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4495.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4496.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/7.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>L21511-101</t>
+          <t>BV38321-1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2804.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2805.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2807.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2808.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2809.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2810.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2811.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38321-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/8.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>L21529-43</t>
+          <t>BV38321-109</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21529-43/1431.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1432.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1434.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1435.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1436.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1437.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1438.jpg,https://oleks-netizen.github.io/product-images/L21529-43/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38321-109/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/7.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>L21531-1</t>
+          <t>BV38345-150</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2951.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2952.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2954.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2955.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2956.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2957.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2958.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-150/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/7.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>L21531-11</t>
+          <t>BV38345-210</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2153.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2154.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2156.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2157.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2158.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2159.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2160.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/8.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>L21545-1</t>
+          <t>BV38348-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5389.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5390.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5392.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5393.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5394.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5395.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5396.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5397.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38348-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/8.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>L21545-175</t>
+          <t>BV38361-1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5996.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5997.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5999.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6000.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6001.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6002.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6003.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6004.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38361-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/8.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>L21547-64</t>
+          <t>BV38363-100</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4631.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4632.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4634.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4635.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4636.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4637.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4638.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/7.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>L21549-1</t>
+          <t>BV38363-143</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4564.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4565.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4566.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4568.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4569.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4570.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4571.jpg,https://oleks-netizen.github.io/product-images/L21549-1/4572.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/8.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>L21549-22</t>
+          <t>BV38391-1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2079.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2080.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2081.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2083.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2084.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2085.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2086.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2087.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38391-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/8.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>L21557-1</t>
+          <t>BV38398-1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3864.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3865.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3866.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3868.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3869.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3870.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3871.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3872.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3873.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38398-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/8.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>L21557-173</t>
+          <t>BV38410-303</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3476.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3477.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3478.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3480.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3481.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3482.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3483.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3484.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3485.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38410-303/1.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/2.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/4.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/5.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/6.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/7.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>L21561-1</t>
+          <t>BV38525-1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2782.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2783.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2785.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2786.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2787.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2788.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2789.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38525-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/8.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>L21561-25</t>
+          <t>BV38601-153</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/438.jpg,https://oleks-netizen.github.io/product-images/L21561-25/439.jpg,https://oleks-netizen.github.io/product-images/L21561-25/441.jpg,https://oleks-netizen.github.io/product-images/L21561-25/442.jpg,https://oleks-netizen.github.io/product-images/L21561-25/443.jpg,https://oleks-netizen.github.io/product-images/L21561-25/444.jpg,https://oleks-netizen.github.io/product-images/L21561-25/445.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/7.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>L22007-1K</t>
+          <t>BV38601-2803</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4694.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4695.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4697.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4698.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4699.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4700.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4701.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/3.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/7.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>L22007-3K</t>
+          <t>BV38629-100</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1998.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1999.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2001.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2002.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2003.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2004.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2005.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/7.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/8.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/9.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2286,27 +2286,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>L22008-1</t>
+          <t>BV38643-1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5288.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5289.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5291.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5292.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5293.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5294.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5295.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38643-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/8.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>L22008-12</t>
+          <t>BV38643-205</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/315.jpg,https://oleks-netizen.github.io/product-images/L22008-12/316.jpg,https://oleks-netizen.github.io/product-images/L22008-12/318.jpg,https://oleks-netizen.github.io/product-images/L22008-12/319.jpg,https://oleks-netizen.github.io/product-images/L22008-12/320.jpg,https://oleks-netizen.github.io/product-images/L22008-12/321.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38643-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/8.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2316,27 +2316,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>L22008-8</t>
+          <t>BV38655-1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5347.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5348.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5350.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5351.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5352.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5353.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5354.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>L22009-1</t>
+          <t>BV38655-153</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5232.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5233.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5235.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5236.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5237.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5238.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5239.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5240.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2346,42 +2346,42 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>L22009-35</t>
+          <t>BV38655-2803</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2222.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2223.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2225.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2226.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2227.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2228.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2229.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2230.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/9.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>L22018-2W</t>
+          <t>BV38690-1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22018-2W/1.jpg,https://oleks-netizen.github.io/product-images/L22018-2W/3764.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38690-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/8.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>L22098-1</t>
+          <t>BV38690-153</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2899.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2901.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2902.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2903.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2904.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2905.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38690-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/8.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2391,12 +2391,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>L22125-1</t>
+          <t>BV38705-1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3847.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3848.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3850.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3851.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3852.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3853.jpg,https://oleks-netizen.github.io/product-images/L22125-1/3854.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38705-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/9.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2406,162 +2406,162 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>L22125-8</t>
+          <t>BV38706-1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-8/1000.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1001.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1002.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1003.jpg,https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/996.jpg,https://oleks-netizen.github.io/product-images/L22125-8/997.jpg,https://oleks-netizen.github.io/product-images/L22125-8/999.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38706-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/7.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>L22162-1W</t>
+          <t>BV38755-210</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22162-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22162-1W/3944.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38755-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/8.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>L22187-1W</t>
+          <t>BV38771-1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2487.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2488.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2490.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2491.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2492.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2493.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2494.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2495.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38771-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/5.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>L22187-1X</t>
+          <t>BV38799-1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1184.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1185.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1187.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1188.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1189.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1190.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1191.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1192.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38799-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/7.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>L22322-01</t>
+          <t>BV38806-1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2936.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2937.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2939.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2940.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2941.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2942.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2943.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2944.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38806-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/8.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>L22322-02</t>
+          <t>BV38806-153</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5568.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5569.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5571.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5572.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5573.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5574.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5575.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5576.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38806-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/8.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>L22322-1</t>
+          <t>BV38811-1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2650.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2651.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2653.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2654.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2655.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2656.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2657.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2658.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38811-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/8.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>L22322-4</t>
+          <t>BV38825-1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2244.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2245.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2247.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2248.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2249.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2250.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2251.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2252.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38825-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/7.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>L22532-01</t>
+          <t>BV38826-1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/760.jpg,https://oleks-netizen.github.io/product-images/L22532-01/762.jpg,https://oleks-netizen.github.io/product-images/L22532-01/763.jpg,https://oleks-netizen.github.io/product-images/L22532-01/764.jpg,https://oleks-netizen.github.io/product-images/L22532-01/765.jpg,https://oleks-netizen.github.io/product-images/L22532-01/766.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38826-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/7.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>L22532-03</t>
+          <t>BV38826-240</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4339.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4341.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4342.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4343.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4344.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4345.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4346.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38826-240/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/6.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>L22537-179</t>
+          <t>BV38896-69</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4308.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4311.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4312.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4313.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4314.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4315.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38896-69/1.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/2.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/4.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/5.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/6.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/7.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/8.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2571,12 +2571,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>L22613-1</t>
+          <t>BV38915-1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5577.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5580.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5581.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5582.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5583.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5584.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/8.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2586,27 +2586,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>L22613-2S</t>
+          <t>BV38915-153</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5699.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5702.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5703.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5704.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5705.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/8.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>L22619-1X</t>
+          <t>BV38915-205</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1422.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1425.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1426.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1427.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1428.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1429.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/8.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2616,42 +2616,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>L22661-1</t>
+          <t>BV38923-1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/573.jpg,https://oleks-netizen.github.io/product-images/L22661-1/576.jpg,https://oleks-netizen.github.io/product-images/L22661-1/577.jpg,https://oleks-netizen.github.io/product-images/L22661-1/578.jpg,https://oleks-netizen.github.io/product-images/L22661-1/579.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38923-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/8.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>L22808-1</t>
+          <t>BV38930-1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1/145.jpg,https://oleks-netizen.github.io/product-images/L22808-1/148.jpg,https://oleks-netizen.github.io/product-images/L22808-1/149.jpg,https://oleks-netizen.github.io/product-images/L22808-1/150.jpg,https://oleks-netizen.github.io/product-images/L22808-1/151.jpg,https://oleks-netizen.github.io/product-images/L22808-1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38930-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/8.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>L22808-1W</t>
+          <t>C-1899B-black</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5535.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5538.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5539.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5540.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5541.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/6.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2661,117 +2661,117 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>L22813-04S</t>
+          <t>C-1899B-green</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1952.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1955.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1956.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1957.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1958.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1959.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/7.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>L22813-05S</t>
+          <t>C-1899B-pink</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2519.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2522.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2523.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2524.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2525.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/2526.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/7.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>L22902-1C</t>
+          <t>C-1899B-silvery-grey</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5543.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5546.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5547.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5548.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5549.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5550.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5551.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5552.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/6.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>L22916-5W</t>
+          <t>C-3079A-green</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5707.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5711.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5712.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5713.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5714.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/6.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>L26003-1</t>
+          <t>C-3079A-pink</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5192.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5195.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5196.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5197.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5198.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/6.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>L26018-1</t>
+          <t>C-3079A-red</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4039.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4042.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4043.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4044.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4045.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/6.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>L26290-005</t>
+          <t>C-3700A-pink</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5655.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5658.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5659.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3700A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/6.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>L26309-005</t>
+          <t>C-3820A-black</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4804.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4807.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4808.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4809.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/6.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2781,31 +2781,3751 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>L26321-1</t>
+          <t>C-3820A-green</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4175.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4178.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4179.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4180.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4181.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/6.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>C-3820A-pink</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/6.jpg</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>C-3820A-red</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/6.jpg</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>C-3820A-silver</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-silver/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/6.jpg</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>C-6200A-black</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/7.jpg</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>C-6200A-green</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/7.jpg</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>C-6200A-pink</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/7.jpg</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>C-8460A-black</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/7.jpg</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>C-8460A-durk-purple</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/7.jpg</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>C-8460A-grey</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/7.jpg</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>C-8460A-pink</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/7.jpg</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>C-8460A-silvery-grey</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/7.jpg</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>C-8460B-black</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/7.jpg</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>C-8460B-green</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/7.jpg</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>C-8460B-grey</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/7.jpg</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>C-8460B-khaki</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/7.jpg</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>C-8460B-red</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/7.jpg</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>C-8998-black</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/6.jpg</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C-8998-dark-green</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/7.jpg</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>C-8998-lime green</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/6.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>C-8998-pink</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/7.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>C2-279-pink</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-279-pink/1.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/3.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/4.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/5.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/6.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>C2-936-apricot</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-apricot/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/7.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>C2-936-black</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-black/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/7.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C2-936-dark purple</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-dark purple/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/7.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>C2-936-green</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-green/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/7.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C2-936-grey</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-grey/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/7.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C2-936-lemon</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-lemon/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/7.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C2-936-red</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-red/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/7.jpg</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C33030-3</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C33030-3/1.jpg,https://oleks-netizen.github.io/product-images/C33030-3/2.jpg,https://oleks-netizen.github.io/product-images/C33030-3/4.jpg,https://oleks-netizen.github.io/product-images/C33030-3/5.jpg,https://oleks-netizen.github.io/product-images/C33030-3/6.jpg,https://oleks-netizen.github.io/product-images/C33030-3/7.jpg,https://oleks-netizen.github.io/product-images/C33030-3/8.jpg</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C33030-4</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C33030-4/1.jpg,https://oleks-netizen.github.io/product-images/C33030-4/2.jpg,https://oleks-netizen.github.io/product-images/C33030-4/4.jpg,https://oleks-netizen.github.io/product-images/C33030-4/5.jpg,https://oleks-netizen.github.io/product-images/C33030-4/6.jpg,https://oleks-netizen.github.io/product-images/C33030-4/7.jpg,https://oleks-netizen.github.io/product-images/C33030-4/8.jpg</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>C33036-3</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C33036-3/1.jpg,https://oleks-netizen.github.io/product-images/C33036-3/2.jpg,https://oleks-netizen.github.io/product-images/C33036-3/4.jpg,https://oleks-netizen.github.io/product-images/C33036-3/5.jpg,https://oleks-netizen.github.io/product-images/C33036-3/6.jpg,https://oleks-netizen.github.io/product-images/C33036-3/7.jpg,https://oleks-netizen.github.io/product-images/C33036-3/8.jpg</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>C33036-4</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C33036-4/1.jpg,https://oleks-netizen.github.io/product-images/C33036-4/2.jpg,https://oleks-netizen.github.io/product-images/C33036-4/4.jpg,https://oleks-netizen.github.io/product-images/C33036-4/5.jpg,https://oleks-netizen.github.io/product-images/C33036-4/6.jpg,https://oleks-netizen.github.io/product-images/C33036-4/7.jpg,https://oleks-netizen.github.io/product-images/C33036-4/8.jpg</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>C33060-4</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C33060-4/1.jpg,https://oleks-netizen.github.io/product-images/C33060-4/2.jpg,https://oleks-netizen.github.io/product-images/C33060-4/4.jpg,https://oleks-netizen.github.io/product-images/C33060-4/5.jpg,https://oleks-netizen.github.io/product-images/C33060-4/6.jpg,https://oleks-netizen.github.io/product-images/C33060-4/7.jpg,https://oleks-netizen.github.io/product-images/C33060-4/8.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>C34618-2005</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34618-2005/1.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/2.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/4.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/5.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/6.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/7.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/8.jpg</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>C34618-3008</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34618-3008/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/8.jpg</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>C34618-3064</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34618-3064/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/8.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>C34618-4024</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34618-4024/1.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/2.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/4.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/5.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/6.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/7.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>C34815-1</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34815-1/1.jpg,https://oleks-netizen.github.io/product-images/C34815-1/2.jpg,https://oleks-netizen.github.io/product-images/C34815-1/4.jpg,https://oleks-netizen.github.io/product-images/C34815-1/5.jpg,https://oleks-netizen.github.io/product-images/C34815-1/6.jpg,https://oleks-netizen.github.io/product-images/C34815-1/7.jpg,https://oleks-netizen.github.io/product-images/C34815-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>C34815-2</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34815-2/1.jpg,https://oleks-netizen.github.io/product-images/C34815-2/2.jpg,https://oleks-netizen.github.io/product-images/C34815-2/4.jpg,https://oleks-netizen.github.io/product-images/C34815-2/5.jpg,https://oleks-netizen.github.io/product-images/C34815-2/6.jpg,https://oleks-netizen.github.io/product-images/C34815-2/7.jpg,https://oleks-netizen.github.io/product-images/C34815-2/8.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>C34815-3</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34815-3/1.jpg,https://oleks-netizen.github.io/product-images/C34815-3/2.jpg,https://oleks-netizen.github.io/product-images/C34815-3/4.jpg,https://oleks-netizen.github.io/product-images/C34815-3/5.jpg,https://oleks-netizen.github.io/product-images/C34815-3/6.jpg,https://oleks-netizen.github.io/product-images/C34815-3/7.jpg,https://oleks-netizen.github.io/product-images/C34815-3/8.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>C34815-4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34815-4/1.jpg,https://oleks-netizen.github.io/product-images/C34815-4/2.jpg,https://oleks-netizen.github.io/product-images/C34815-4/4.jpg,https://oleks-netizen.github.io/product-images/C34815-4/5.jpg,https://oleks-netizen.github.io/product-images/C34815-4/6.jpg,https://oleks-netizen.github.io/product-images/C34815-4/7.jpg,https://oleks-netizen.github.io/product-images/C34815-4/8.jpg</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>C34815-5</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/C34815-5/1.jpg,https://oleks-netizen.github.io/product-images/C34815-5/2.jpg,https://oleks-netizen.github.io/product-images/C34815-5/4.jpg,https://oleks-netizen.github.io/product-images/C34815-5/5.jpg,https://oleks-netizen.github.io/product-images/C34815-5/6.jpg,https://oleks-netizen.github.io/product-images/C34815-5/7.jpg,https://oleks-netizen.github.io/product-images/C34815-5/8.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>D22982-1Z</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/D22982-1Z/1.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/2.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/4.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/5.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/6.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/7.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>D30053-1-5</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/D30053-1-5/1.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/2.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/4.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/5.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/6.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/7.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DR151-1</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR151-1/1.jpg,https://oleks-netizen.github.io/product-images/DR151-1/2.jpg,https://oleks-netizen.github.io/product-images/DR151-1/3.jpg,https://oleks-netizen.github.io/product-images/DR151-1/4.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DR151-3</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR151-3/1.jpg,https://oleks-netizen.github.io/product-images/DR151-3/2.jpg,https://oleks-netizen.github.io/product-images/DR151-3/3.jpg,https://oleks-netizen.github.io/product-images/DR151-3/4.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DR637-1</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR637-1/1.jpg,https://oleks-netizen.github.io/product-images/DR637-1/2.jpg,https://oleks-netizen.github.io/product-images/DR637-1/3.jpg,https://oleks-netizen.github.io/product-images/DR637-1/4.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DR637-3</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR637-3/1.jpg,https://oleks-netizen.github.io/product-images/DR637-3/2.jpg,https://oleks-netizen.github.io/product-images/DR637-3/3.jpg,https://oleks-netizen.github.io/product-images/DR637-3/4.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DR822-1</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR822-1/1.jpg,https://oleks-netizen.github.io/product-images/DR822-1/2.jpg,https://oleks-netizen.github.io/product-images/DR822-1/3.jpg,https://oleks-netizen.github.io/product-images/DR822-1/4.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DR822-3</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DR822-3/1.jpg,https://oleks-netizen.github.io/product-images/DR822-3/2.jpg,https://oleks-netizen.github.io/product-images/DR822-3/3.jpg,https://oleks-netizen.github.io/product-images/DR822-3/4.jpg</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DRL19001-1</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DRL19012-1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DRL19077-1</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DRL19092-1</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>DRL19120-1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>DRL19122-1</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DRL19253-1</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>DRL19520-1B</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/2.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/4.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/5.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/6.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/7.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/8.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/9.jpg</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DRL19601-1</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DRL19712-1</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DRL19818A-A</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/2.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/4.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/5.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/6.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/7.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/8.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/9.jpg</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>DRL19941-1</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DRL6601-1</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DRS16059-1</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DRS16975-1</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>DRS17116-3</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/4.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/5.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/6.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/7.jpg</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DRS17131-2</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/3.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/7.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/8.jpg</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>DRS17132-1</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DRS17203-1</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>DRS19023-2</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/4.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/7.jpg</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DRS19353-1</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DRS19800-1</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DRS19802-1</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>DS23873-230</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/7.jpg</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DS30002-023</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/8.jpg</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DS30002-025</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/7.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DS30002-112</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/7.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DS30002-132</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/9.jpg</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DS30002-162</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/9.jpg</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DS30002-287</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/8.jpg</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DS30002-288</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/7.jpg</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>F20218-black</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/3.jpg,https://oleks-netizen.github.io/product-images/F20218-black/4.jpg,https://oleks-netizen.github.io/product-images/F20218-black/5.jpg,https://oleks-netizen.github.io/product-images/F20218-black/6.jpg</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>FW-A2106-black</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/5.jpg</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>FW-A648-black</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/7.jpg</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>FW-A648-blue</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/7.jpg</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>FW-A648-green</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/7.jpg</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>FW-A648-purple</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/7.jpg</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>FW-A648-red</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/7.jpg</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>G2568-black</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/G2568-black/1.jpg,https://oleks-netizen.github.io/product-images/G2568-black/2.jpg,https://oleks-netizen.github.io/product-images/G2568-black/4.jpg,https://oleks-netizen.github.io/product-images/G2568-black/5.jpg,https://oleks-netizen.github.io/product-images/G2568-black/6.jpg,https://oleks-netizen.github.io/product-images/G2568-black/7.jpg,https://oleks-netizen.github.io/product-images/G2568-black/8.jpg,https://oleks-netizen.github.io/product-images/G2568-black/9.jpg</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>G2568-grey</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/2.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/4.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/5.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/6.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/7.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/8.jpg</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>H-2908-black</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/6.jpg</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>H-2908-red</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/6.jpg</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ICE-2314-20-dark-grey</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ICE-2314-20-dark-purple</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ICE-2314-20-khaki</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ICE-2314-20-rose-gold</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ICE-2314-24-dark-grey</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ICE-2314-24-dark-purple</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ICE-2314-24-rose-gold</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ICE-2314-28-dark-grey</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ICE-2314-28-dark-purple</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ICE-2314-28-rose-gold</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>L20001-22</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/2.jpg,https://oleks-netizen.github.io/product-images/L20001-22/4.jpg,https://oleks-netizen.github.io/product-images/L20001-22/5.jpg,https://oleks-netizen.github.io/product-images/L20001-22/6.jpg,https://oleks-netizen.github.io/product-images/L20001-22/7.jpg,https://oleks-netizen.github.io/product-images/L20001-22/8.jpg,https://oleks-netizen.github.io/product-images/L20001-22/9.jpg</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>L20011-1</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/2.jpg,https://oleks-netizen.github.io/product-images/L20011-1/4.jpg,https://oleks-netizen.github.io/product-images/L20011-1/5.jpg,https://oleks-netizen.github.io/product-images/L20011-1/6.jpg,https://oleks-netizen.github.io/product-images/L20011-1/7.jpg,https://oleks-netizen.github.io/product-images/L20011-1/8.jpg,https://oleks-netizen.github.io/product-images/L20011-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>L20011-22</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/2.jpg,https://oleks-netizen.github.io/product-images/L20011-22/4.jpg,https://oleks-netizen.github.io/product-images/L20011-22/5.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6.jpg,https://oleks-netizen.github.io/product-images/L20011-22/7.jpg,https://oleks-netizen.github.io/product-images/L20011-22/8.jpg,https://oleks-netizen.github.io/product-images/L20011-22/9.jpg</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>L20011-56</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/2.jpg,https://oleks-netizen.github.io/product-images/L20011-56/4.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5.jpg,https://oleks-netizen.github.io/product-images/L20011-56/6.jpg,https://oleks-netizen.github.io/product-images/L20011-56/7.jpg,https://oleks-netizen.github.io/product-images/L20011-56/8.jpg,https://oleks-netizen.github.io/product-images/L20011-56/9.jpg</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>L20030-1</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/2.jpg,https://oleks-netizen.github.io/product-images/L20030-1/3.jpg,https://oleks-netizen.github.io/product-images/L20030-1/5.jpg,https://oleks-netizen.github.io/product-images/L20030-1/6.jpg,https://oleks-netizen.github.io/product-images/L20030-1/7.jpg,https://oleks-netizen.github.io/product-images/L20030-1/8.jpg,https://oleks-netizen.github.io/product-images/L20030-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>L20030-56</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/2.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3.jpg,https://oleks-netizen.github.io/product-images/L20030-56/5.jpg,https://oleks-netizen.github.io/product-images/L20030-56/6.jpg,https://oleks-netizen.github.io/product-images/L20030-56/7.jpg,https://oleks-netizen.github.io/product-images/L20030-56/8.jpg,https://oleks-netizen.github.io/product-images/L20030-56/9.jpg</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>L20036-1</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>L20036-8</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/2.jpg,https://oleks-netizen.github.io/product-images/L20036-8/4.jpg,https://oleks-netizen.github.io/product-images/L20036-8/5.jpg,https://oleks-netizen.github.io/product-images/L20036-8/6.jpg,https://oleks-netizen.github.io/product-images/L20036-8/7.jpg,https://oleks-netizen.github.io/product-images/L20036-8/8.jpg</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>L20063-1</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>L20063-8</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>L20239-0233</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20239-0233/1.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/2.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/4.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/5.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/6.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/7.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/8.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/9.jpg</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>L20633-78</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20633-78/1.jpg,https://oleks-netizen.github.io/product-images/L20633-78/2.jpg,https://oleks-netizen.github.io/product-images/L20633-78/4.jpg,https://oleks-netizen.github.io/product-images/L20633-78/5.jpg,https://oleks-netizen.github.io/product-images/L20633-78/6.jpg,https://oleks-netizen.github.io/product-images/L20633-78/7.jpg,https://oleks-netizen.github.io/product-images/L20633-78/8.jpg,https://oleks-netizen.github.io/product-images/L20633-78/9.jpg</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>L20633-90</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/2.jpg,https://oleks-netizen.github.io/product-images/L20633-90/4.jpg,https://oleks-netizen.github.io/product-images/L20633-90/5.jpg,https://oleks-netizen.github.io/product-images/L20633-90/6.jpg,https://oleks-netizen.github.io/product-images/L20633-90/7.jpg,https://oleks-netizen.github.io/product-images/L20633-90/8.jpg,https://oleks-netizen.github.io/product-images/L20633-90/9.jpg</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>L20680-1</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>L20680-56</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>L20680-58</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>L20682-1</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/2.jpg,https://oleks-netizen.github.io/product-images/L20682-1/4.jpg,https://oleks-netizen.github.io/product-images/L20682-1/5.jpg,https://oleks-netizen.github.io/product-images/L20682-1/6.jpg,https://oleks-netizen.github.io/product-images/L20682-1/7.jpg,https://oleks-netizen.github.io/product-images/L20682-1/8.jpg,https://oleks-netizen.github.io/product-images/L20682-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>L20683-1</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2.jpg,https://oleks-netizen.github.io/product-images/L20683-1/4.jpg,https://oleks-netizen.github.io/product-images/L20683-1/5.jpg,https://oleks-netizen.github.io/product-images/L20683-1/6.jpg,https://oleks-netizen.github.io/product-images/L20683-1/7.jpg,https://oleks-netizen.github.io/product-images/L20683-1/8.jpg,https://oleks-netizen.github.io/product-images/L20683-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>L20683-2</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20683-2/1.jpg,https://oleks-netizen.github.io/product-images/L20683-2/2.jpg,https://oleks-netizen.github.io/product-images/L20683-2/4.jpg,https://oleks-netizen.github.io/product-images/L20683-2/5.jpg,https://oleks-netizen.github.io/product-images/L20683-2/6.jpg,https://oleks-netizen.github.io/product-images/L20683-2/7.jpg,https://oleks-netizen.github.io/product-images/L20683-2/8.jpg,https://oleks-netizen.github.io/product-images/L20683-2/9.jpg</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>L20713-1</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>L20713-8</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>L20812-1</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>L20812-10</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>L20812-15</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>L20812-56</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2.jpg,https://oleks-netizen.github.io/product-images/L20812-56/4.jpg,https://oleks-netizen.github.io/product-images/L20812-56/5.jpg,https://oleks-netizen.github.io/product-images/L20812-56/6.jpg,https://oleks-netizen.github.io/product-images/L20812-56/7.jpg,https://oleks-netizen.github.io/product-images/L20812-56/8.jpg,https://oleks-netizen.github.io/product-images/L20812-56/9.jpg</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>L20841-58</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/2.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4.jpg,https://oleks-netizen.github.io/product-images/L20841-58/5.jpg,https://oleks-netizen.github.io/product-images/L20841-58/6.jpg,https://oleks-netizen.github.io/product-images/L20841-58/7.jpg,https://oleks-netizen.github.io/product-images/L20841-58/8.jpg,https://oleks-netizen.github.io/product-images/L20841-58/9.jpg</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>L20849-1</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2.jpg,https://oleks-netizen.github.io/product-images/L20849-1/4.jpg,https://oleks-netizen.github.io/product-images/L20849-1/5.jpg,https://oleks-netizen.github.io/product-images/L20849-1/6.jpg,https://oleks-netizen.github.io/product-images/L20849-1/7.jpg,https://oleks-netizen.github.io/product-images/L20849-1/8.jpg,https://oleks-netizen.github.io/product-images/L20849-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>L20849-701</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/2.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4.jpg,https://oleks-netizen.github.io/product-images/L20849-701/5.jpg,https://oleks-netizen.github.io/product-images/L20849-701/6.jpg,https://oleks-netizen.github.io/product-images/L20849-701/7.jpg,https://oleks-netizen.github.io/product-images/L20849-701/8.jpg,https://oleks-netizen.github.io/product-images/L20849-701/9.jpg</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>L20849-720</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2.jpg,https://oleks-netizen.github.io/product-images/L20849-720/4.jpg,https://oleks-netizen.github.io/product-images/L20849-720/5.jpg,https://oleks-netizen.github.io/product-images/L20849-720/6.jpg,https://oleks-netizen.github.io/product-images/L20849-720/7.jpg,https://oleks-netizen.github.io/product-images/L20849-720/8.jpg</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>L20849-811</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2.jpg,https://oleks-netizen.github.io/product-images/L20849-811/4.jpg,https://oleks-netizen.github.io/product-images/L20849-811/5.jpg,https://oleks-netizen.github.io/product-images/L20849-811/6.jpg,https://oleks-netizen.github.io/product-images/L20849-811/7.jpg,https://oleks-netizen.github.io/product-images/L20849-811/8.jpg,https://oleks-netizen.github.io/product-images/L20849-811/9.jpg</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>L20853-1</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>L20993-1</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2.jpg,https://oleks-netizen.github.io/product-images/L20993-1/4.jpg,https://oleks-netizen.github.io/product-images/L20993-1/5.jpg,https://oleks-netizen.github.io/product-images/L20993-1/6.jpg,https://oleks-netizen.github.io/product-images/L20993-1/7.jpg,https://oleks-netizen.github.io/product-images/L20993-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>L21019-1</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2.jpg,https://oleks-netizen.github.io/product-images/L21019-1/4.jpg,https://oleks-netizen.github.io/product-images/L21019-1/5.jpg,https://oleks-netizen.github.io/product-images/L21019-1/6.jpg,https://oleks-netizen.github.io/product-images/L21019-1/7.jpg,https://oleks-netizen.github.io/product-images/L21019-1/8.jpg,https://oleks-netizen.github.io/product-images/L21019-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>L21019-142</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/2.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4.jpg,https://oleks-netizen.github.io/product-images/L21019-142/5.jpg,https://oleks-netizen.github.io/product-images/L21019-142/6.jpg,https://oleks-netizen.github.io/product-images/L21019-142/7.jpg,https://oleks-netizen.github.io/product-images/L21019-142/8.jpg,https://oleks-netizen.github.io/product-images/L21019-142/9.jpg</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>L21035-101</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21035-101/1.jpg,https://oleks-netizen.github.io/product-images/L21035-101/2.jpg,https://oleks-netizen.github.io/product-images/L21035-101/4.jpg,https://oleks-netizen.github.io/product-images/L21035-101/5.jpg,https://oleks-netizen.github.io/product-images/L21035-101/6.jpg,https://oleks-netizen.github.io/product-images/L21035-101/7.jpg,https://oleks-netizen.github.io/product-images/L21035-101/8.jpg</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>L21075-1</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/2.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4.jpg,https://oleks-netizen.github.io/product-images/L21075-1/5.jpg,https://oleks-netizen.github.io/product-images/L21075-1/6.jpg,https://oleks-netizen.github.io/product-images/L21075-1/7.jpg,https://oleks-netizen.github.io/product-images/L21075-1/8.jpg,https://oleks-netizen.github.io/product-images/L21075-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>L21209-1</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>L21209-25</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>L21511-101</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2.jpg,https://oleks-netizen.github.io/product-images/L21511-101/4.jpg,https://oleks-netizen.github.io/product-images/L21511-101/5.jpg,https://oleks-netizen.github.io/product-images/L21511-101/6.jpg,https://oleks-netizen.github.io/product-images/L21511-101/7.jpg,https://oleks-netizen.github.io/product-images/L21511-101/8.jpg,https://oleks-netizen.github.io/product-images/L21511-101/9.jpg</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>L21529-43</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21529-43/1.jpg,https://oleks-netizen.github.io/product-images/L21529-43/2.jpg,https://oleks-netizen.github.io/product-images/L21529-43/4.jpg,https://oleks-netizen.github.io/product-images/L21529-43/5.jpg,https://oleks-netizen.github.io/product-images/L21529-43/6.jpg,https://oleks-netizen.github.io/product-images/L21529-43/7.jpg,https://oleks-netizen.github.io/product-images/L21529-43/8.jpg,https://oleks-netizen.github.io/product-images/L21529-43/9.jpg</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>L21531-1</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2.jpg,https://oleks-netizen.github.io/product-images/L21531-1/4.jpg,https://oleks-netizen.github.io/product-images/L21531-1/5.jpg,https://oleks-netizen.github.io/product-images/L21531-1/6.jpg,https://oleks-netizen.github.io/product-images/L21531-1/7.jpg,https://oleks-netizen.github.io/product-images/L21531-1/8.jpg,https://oleks-netizen.github.io/product-images/L21531-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>L21531-11</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2.jpg,https://oleks-netizen.github.io/product-images/L21531-11/4.jpg,https://oleks-netizen.github.io/product-images/L21531-11/5.jpg,https://oleks-netizen.github.io/product-images/L21531-11/6.jpg,https://oleks-netizen.github.io/product-images/L21531-11/7.jpg,https://oleks-netizen.github.io/product-images/L21531-11/8.jpg,https://oleks-netizen.github.io/product-images/L21531-11/9.jpg</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>L21545-1</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>L21545-175</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>L21547-64</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/2.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4.jpg,https://oleks-netizen.github.io/product-images/L21547-64/5.jpg,https://oleks-netizen.github.io/product-images/L21547-64/6.jpg,https://oleks-netizen.github.io/product-images/L21547-64/7.jpg,https://oleks-netizen.github.io/product-images/L21547-64/8.jpg,https://oleks-netizen.github.io/product-images/L21547-64/9.jpg</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>L21549-1</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>L21549-22</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>L21557-1</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>L21557-173</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>L21561-1</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2.jpg,https://oleks-netizen.github.io/product-images/L21561-1/4.jpg,https://oleks-netizen.github.io/product-images/L21561-1/5.jpg,https://oleks-netizen.github.io/product-images/L21561-1/6.jpg,https://oleks-netizen.github.io/product-images/L21561-1/7.jpg,https://oleks-netizen.github.io/product-images/L21561-1/8.jpg,https://oleks-netizen.github.io/product-images/L21561-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>L21561-25</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/2.jpg,https://oleks-netizen.github.io/product-images/L21561-25/4.jpg,https://oleks-netizen.github.io/product-images/L21561-25/5.jpg,https://oleks-netizen.github.io/product-images/L21561-25/6.jpg,https://oleks-netizen.github.io/product-images/L21561-25/7.jpg,https://oleks-netizen.github.io/product-images/L21561-25/8.jpg,https://oleks-netizen.github.io/product-images/L21561-25/9.jpg</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>L22007-1K</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/9.jpg</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>L22007-3K</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/9.jpg</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>L22008-1</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/2.jpg,https://oleks-netizen.github.io/product-images/L22008-1/4.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5.jpg,https://oleks-netizen.github.io/product-images/L22008-1/6.jpg,https://oleks-netizen.github.io/product-images/L22008-1/7.jpg,https://oleks-netizen.github.io/product-images/L22008-1/8.jpg,https://oleks-netizen.github.io/product-images/L22008-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>L22008-12</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/2.jpg,https://oleks-netizen.github.io/product-images/L22008-12/4.jpg,https://oleks-netizen.github.io/product-images/L22008-12/5.jpg,https://oleks-netizen.github.io/product-images/L22008-12/6.jpg,https://oleks-netizen.github.io/product-images/L22008-12/7.jpg,https://oleks-netizen.github.io/product-images/L22008-12/8.jpg</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>L22008-8</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/2.jpg,https://oleks-netizen.github.io/product-images/L22008-8/4.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5.jpg,https://oleks-netizen.github.io/product-images/L22008-8/6.jpg,https://oleks-netizen.github.io/product-images/L22008-8/7.jpg,https://oleks-netizen.github.io/product-images/L22008-8/8.jpg,https://oleks-netizen.github.io/product-images/L22008-8/9.jpg</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>L22009-1</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>L22009-35</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>L22098-1</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2.jpg,https://oleks-netizen.github.io/product-images/L22098-1/4.jpg,https://oleks-netizen.github.io/product-images/L22098-1/5.jpg,https://oleks-netizen.github.io/product-images/L22098-1/6.jpg,https://oleks-netizen.github.io/product-images/L22098-1/7.jpg,https://oleks-netizen.github.io/product-images/L22098-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>L22125-1</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/2.jpg,https://oleks-netizen.github.io/product-images/L22125-1/4.jpg,https://oleks-netizen.github.io/product-images/L22125-1/5.jpg,https://oleks-netizen.github.io/product-images/L22125-1/6.jpg,https://oleks-netizen.github.io/product-images/L22125-1/7.jpg,https://oleks-netizen.github.io/product-images/L22125-1/8.jpg,https://oleks-netizen.github.io/product-images/L22125-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>L22125-8</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/2.jpg,https://oleks-netizen.github.io/product-images/L22125-8/4.jpg,https://oleks-netizen.github.io/product-images/L22125-8/5.jpg,https://oleks-netizen.github.io/product-images/L22125-8/6.jpg,https://oleks-netizen.github.io/product-images/L22125-8/7.jpg,https://oleks-netizen.github.io/product-images/L22125-8/8.jpg,https://oleks-netizen.github.io/product-images/L22125-8/9.jpg</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>L22187-1W</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>L22187-1X</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>L22322-01</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>L22322-02</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>L22322-1</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>L22322-4</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/3.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>L22532-01</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/3.jpg,https://oleks-netizen.github.io/product-images/L22532-01/4.jpg,https://oleks-netizen.github.io/product-images/L22532-01/5.jpg,https://oleks-netizen.github.io/product-images/L22532-01/6.jpg,https://oleks-netizen.github.io/product-images/L22532-01/7.jpg,https://oleks-netizen.github.io/product-images/L22532-01/8.jpg</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>L22532-03</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/3.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4.jpg,https://oleks-netizen.github.io/product-images/L22532-03/5.jpg,https://oleks-netizen.github.io/product-images/L22532-03/6.jpg,https://oleks-netizen.github.io/product-images/L22532-03/7.jpg,https://oleks-netizen.github.io/product-images/L22532-03/8.jpg,https://oleks-netizen.github.io/product-images/L22532-03/9.jpg</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>L22537-179</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/3.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4.jpg,https://oleks-netizen.github.io/product-images/L22537-179/5.jpg,https://oleks-netizen.github.io/product-images/L22537-179/6.jpg,https://oleks-netizen.github.io/product-images/L22537-179/7.jpg,https://oleks-netizen.github.io/product-images/L22537-179/8.jpg</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>L22613-1</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/3.jpg,https://oleks-netizen.github.io/product-images/L22613-1/4.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5.jpg,https://oleks-netizen.github.io/product-images/L22613-1/6.jpg,https://oleks-netizen.github.io/product-images/L22613-1/7.jpg,https://oleks-netizen.github.io/product-images/L22613-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>L22613-2S</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/2.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/3.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/4.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/6.jpg</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>L22619-1X</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/3.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/8.jpg</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>L22661-1</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/3.jpg,https://oleks-netizen.github.io/product-images/L22661-1/4.jpg,https://oleks-netizen.github.io/product-images/L22661-1/5.jpg,https://oleks-netizen.github.io/product-images/L22661-1/6.jpg,https://oleks-netizen.github.io/product-images/L22661-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>L22808-1</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>L22808-1W</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/7.jpg</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>L22813-04S</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/8.jpg</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>L22813-05S</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/8.jpg</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>L22902-1C</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/3.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>L22916-5W</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/3.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/4.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/6.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/7.jpg</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>L26003-1</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/3.jpg,https://oleks-netizen.github.io/product-images/L26003-1/4.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5.jpg,https://oleks-netizen.github.io/product-images/L26003-1/6.jpg,https://oleks-netizen.github.io/product-images/L26003-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>L26018-1</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>L26029-017</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26029-017/1.jpg,https://oleks-netizen.github.io/product-images/L26029-017/2.jpg,https://oleks-netizen.github.io/product-images/L26029-017/4.jpg,https://oleks-netizen.github.io/product-images/L26029-017/5.jpg,https://oleks-netizen.github.io/product-images/L26029-017/6.jpg,https://oleks-netizen.github.io/product-images/L26029-017/7.jpg,https://oleks-netizen.github.io/product-images/L26029-017/8.jpg</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>L26290-005</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>L26309-005</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>L26321-1</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>L29023-14</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>L3025-4</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L3025-4/10.jpg,https://oleks-netizen.github.io/product-images/L3025-4/1.jpg,https://oleks-netizen.github.io/product-images/L3025-4/2.jpg,https://oleks-netizen.github.io/product-images/L3025-4/3.jpg,https://oleks-netizen.github.io/product-images/L3025-4/4.jpg,https://oleks-netizen.github.io/product-images/L3025-4/6.jpg,https://oleks-netizen.github.io/product-images/L3025-4/7.jpg,https://oleks-netizen.github.io/product-images/L3025-4/8.jpg,https://oleks-netizen.github.io/product-images/L3025-4/9.jpg</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>L85351-1</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L85351-1/1.jpg,https://oleks-netizen.github.io/product-images/L85351-1/2.jpg,https://oleks-netizen.github.io/product-images/L85351-1/3.jpg,https://oleks-netizen.github.io/product-images/L85351-1/4.jpg,https://oleks-netizen.github.io/product-images/L85351-1/5.jpg,https://oleks-netizen.github.io/product-images/L85351-1/6.jpg,https://oleks-netizen.github.io/product-images/L85351-1/7.jpg,https://oleks-netizen.github.io/product-images/L85351-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>L86913-1</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L86913-1/1.jpg,https://oleks-netizen.github.io/product-images/L86913-1/2.jpg,https://oleks-netizen.github.io/product-images/L86913-1/4.jpg,https://oleks-netizen.github.io/product-images/L86913-1/5.jpg,https://oleks-netizen.github.io/product-images/L86913-1/6.jpg,https://oleks-netizen.github.io/product-images/L86913-1/7.jpg,https://oleks-netizen.github.io/product-images/L86913-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>L86913-15</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L86913-15/1.jpg,https://oleks-netizen.github.io/product-images/L86913-15/2.jpg,https://oleks-netizen.github.io/product-images/L86913-15/4.jpg,https://oleks-netizen.github.io/product-images/L86913-15/5.jpg,https://oleks-netizen.github.io/product-images/L86913-15/6.jpg,https://oleks-netizen.github.io/product-images/L86913-15/7.jpg,https://oleks-netizen.github.io/product-images/L86913-15/8.jpg,https://oleks-netizen.github.io/product-images/L86913-15/9.jpg</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>L86913-3</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L86913-3/1.jpg,https://oleks-netizen.github.io/product-images/L86913-3/2.jpg,https://oleks-netizen.github.io/product-images/L86913-3/4.jpg,https://oleks-netizen.github.io/product-images/L86913-3/5.jpg,https://oleks-netizen.github.io/product-images/L86913-3/6.jpg,https://oleks-netizen.github.io/product-images/L86913-3/7.jpg,https://oleks-netizen.github.io/product-images/L86913-3/8.jpg</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>L86963-10</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L86963-10/1.jpg,https://oleks-netizen.github.io/product-images/L86963-10/2.jpg,https://oleks-netizen.github.io/product-images/L86963-10/4.jpg,https://oleks-netizen.github.io/product-images/L86963-10/5.jpg,https://oleks-netizen.github.io/product-images/L86963-10/6.jpg,https://oleks-netizen.github.io/product-images/L86963-10/7.jpg,https://oleks-netizen.github.io/product-images/L86963-10/8.jpg</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>L86963-14</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L86963-14/1.jpg,https://oleks-netizen.github.io/product-images/L86963-14/2.jpg,https://oleks-netizen.github.io/product-images/L86963-14/4.jpg,https://oleks-netizen.github.io/product-images/L86963-14/5.jpg,https://oleks-netizen.github.io/product-images/L86963-14/6.jpg,https://oleks-netizen.github.io/product-images/L86963-14/7.jpg,https://oleks-netizen.github.io/product-images/L86963-14/8.jpg</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>L87005-2W</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87005-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/2.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/7.jpg</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>L87024-1</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>L87045-96</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>L87156-1X</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>L87266-1</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87266-1/1.jpg,https://oleks-netizen.github.io/product-images/L87266-1/2.jpg,https://oleks-netizen.github.io/product-images/L87266-1/4.jpg,https://oleks-netizen.github.io/product-images/L87266-1/5.jpg,https://oleks-netizen.github.io/product-images/L87266-1/6.jpg,https://oleks-netizen.github.io/product-images/L87266-1/7.jpg,https://oleks-netizen.github.io/product-images/L87266-1/8.jpg,https://oleks-netizen.github.io/product-images/L87266-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>L87266-4</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87266-4/1.jpg,https://oleks-netizen.github.io/product-images/L87266-4/2.jpg,https://oleks-netizen.github.io/product-images/L87266-4/4.jpg,https://oleks-netizen.github.io/product-images/L87266-4/5.jpg,https://oleks-netizen.github.io/product-images/L87266-4/6.jpg,https://oleks-netizen.github.io/product-images/L87266-4/7.jpg,https://oleks-netizen.github.io/product-images/L87266-4/8.jpg,https://oleks-netizen.github.io/product-images/L87266-4/9.jpg</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>L87266-46</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87266-46/1.jpg,https://oleks-netizen.github.io/product-images/L87266-46/2.jpg,https://oleks-netizen.github.io/product-images/L87266-46/4.jpg,https://oleks-netizen.github.io/product-images/L87266-46/5.jpg,https://oleks-netizen.github.io/product-images/L87266-46/6.jpg,https://oleks-netizen.github.io/product-images/L87266-46/7.jpg,https://oleks-netizen.github.io/product-images/L87266-46/8.jpg,https://oleks-netizen.github.io/product-images/L87266-46/9.jpg</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>L87274-1</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>L87535-1X</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>L87606-1</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>L88003-24</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>L88003-32 Бежевый</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
           <t>L9902-3C</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/930.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/931.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/933.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/934.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/935.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/936.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/937.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/938.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/939.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/940.jpg</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/12.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>LC14054-GD25</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>LC14204-GD01</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>LC14331-R10-08</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-08/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/8.jpg</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>LC14331-R10-09</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-09/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/8.jpg</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>LC14331-R10-34</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-34/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/8.jpg</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>LC14331-R10-41</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-41/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/8.jpg</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>LC14332-YC11-17</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-17/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/8.jpg</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>LC14332-YC11-22</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-22/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/8.jpg</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>LC14332-YC11-28</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-28/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/8.jpg</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>LC14385-GD01</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14385-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/8.jpg</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>LC14493-JS11</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14493-JS11/1.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/2.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/4.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/5.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/6.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/7.jpg</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>LC14621-GD01</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>LC14639-QJ35</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC14639-QJ35/1.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/2.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/4.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/5.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/6.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/7.jpg</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>LC17266-A</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC17266-A/1.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/2.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/3.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/4.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/5.jpg</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>LC18391-1А</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC18391-1А/1.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/2.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/3.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/4.jpg</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>LC45284X-1-2</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC45284X-1-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/3.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/6.jpg</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>LC45474X-1</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC45474X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>LC45851X-2</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC45851X-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/6.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/7.jpg</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>LC47168-30</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/4.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>LC47190X-1</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47190X-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>LC47211-1</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47211-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>LC47323-1</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47323-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>LC47350-1</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47350-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>LC47514-1</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47514-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/5.jpg</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>LC47655-1</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC47655-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/6.jpg</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>LC52003-2</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC52003-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/3.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/6.jpg</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>LC52488-2</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/7.jpg</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>LC52488-3</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-3/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/7.jpg</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>LC52488-4</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-4/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/7.jpg</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>LC68803-05</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC68803-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/7.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/8.jpg</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>LC81225-1</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC81225-1/1.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/2.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/4.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/5.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/6.jpg</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>LC81628-2</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC81628-2/1.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/2.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/4.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/5.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/6.jpg</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>LC82020-1</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC82020-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>LC82037-1</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC82037-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/8.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/9.jpg</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>LC82721-1</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC82721-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/7.jpg</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>LC89049-F9976</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC89049-F9976/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/4.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/6.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/7.jpg</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>LC89213-1</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LC89213-1/1.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/2.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/4.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/5.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/6.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/7.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/8.jpg</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>T37193-5056</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/T37193-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/8.jpg</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>T37515-2</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/T37515-2/1.jpg,https://oleks-netizen.github.io/product-images/T37515-2/2.jpg,https://oleks-netizen.github.io/product-images/T37515-2/4.jpg,https://oleks-netizen.github.io/product-images/T37515-2/5.jpg,https://oleks-netizen.github.io/product-images/T37515-2/6.jpg,https://oleks-netizen.github.io/product-images/T37515-2/7.jpg,https://oleks-netizen.github.io/product-images/T37515-2/8.jpg</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>T37515-5056</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/T37515-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/8.jpg</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C407"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,87 +1641,87 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8062-green-pixel_1</t>
+          <t>8062-green-pixel</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel_1/1.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel_1/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/6.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8062-green-pixel</t>
+          <t>8825-green-pixel</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8825-green-pixel</t>
+          <t>8825-khaki</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8825-khaki</t>
+          <t>8825-pesok-pixel</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8825-pesok-pixel</t>
+          <t>9065-black</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9065-black</t>
+          <t>9065-green</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1731,12 +1731,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9065-green</t>
+          <t>9065-grey-kam</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1746,27 +1746,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9065-grey-kam</t>
+          <t>BV05803-1-18</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV05803-1-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/4.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/6.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BV05803-1-18</t>
+          <t>BV05803-2-18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV05803-1-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/4.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV05803-2-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/3.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/6.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1776,42 +1776,42 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BV05803-2-18</t>
+          <t>BV12138-19-104</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV05803-2-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/3.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12138-19-104/1.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/2.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/3.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/4.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/5.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/6.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/7.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/8.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/9.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BV12138-19-104</t>
+          <t>BV12374-011-24</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12138-19-104/1.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/2.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/3.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/4.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/5.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/6.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/7.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/8.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BV12374-011-24</t>
+          <t>BV12374-011-28</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1821,12 +1821,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BV12374-011-28</t>
+          <t>BV12374-012-24</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1836,12 +1836,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BV12374-012-24</t>
+          <t>BV12374-012-28</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1851,27 +1851,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BV12374-012-28</t>
+          <t>BV12379-011-25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12379-011-25/10.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/9.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BV12379-011-25</t>
+          <t>BV12379-012-25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12379-011-25/10.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12379-012-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/3.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/9.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1881,147 +1881,147 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BV12379-012-25</t>
+          <t>BV38015-1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12379-012-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/3.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/7.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BV38015-1</t>
+          <t>BV38015-153</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/8.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BV38015-153</t>
+          <t>BV38015-5</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38015-5/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/8.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/9.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BV38015-5</t>
+          <t>BV38115-1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-5/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/8.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38115-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/7.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BV38115-1</t>
+          <t>BV38118-1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38115-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/8.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BV38118-1</t>
+          <t>BV38118-211</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-211/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/8.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/9.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BV38118-211</t>
+          <t>BV38118-273</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-211/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/8.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38118-273/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/8.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BV38118-273</t>
+          <t>BV38171-1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-273/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/9.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BV38171-1</t>
+          <t>BV38171-210</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38171-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/8.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BV38171-210</t>
+          <t>BV38215-143</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38171-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38215-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/8.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2031,57 +2031,57 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BV38215-143</t>
+          <t>BV38319-143</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38215-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/7.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BV38319-143</t>
+          <t>BV38321-1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38321-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/8.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BV38321-1</t>
+          <t>BV38321-109</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38321-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38321-109/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/7.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BV38321-109</t>
+          <t>BV38345-150</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38321-109/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-150/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/7.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2091,27 +2091,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BV38345-150</t>
+          <t>BV38345-210</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-150/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/8.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BV38345-210</t>
+          <t>BV38348-1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38348-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/8.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2121,12 +2121,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BV38348-1</t>
+          <t>BV38361-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38348-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38361-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/8.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2136,42 +2136,42 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BV38361-1</t>
+          <t>BV38363-100</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38361-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/7.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BV38363-100</t>
+          <t>BV38363-143</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38363-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/8.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BV38363-143</t>
+          <t>BV38391-1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38391-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/8.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2181,12 +2181,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BV38391-1</t>
+          <t>BV38398-1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38391-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38398-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/8.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2196,57 +2196,57 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BV38398-1</t>
+          <t>BV38410-303</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38398-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38410-303/1.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/2.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/4.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/5.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/6.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/7.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BV38410-303</t>
+          <t>BV38525-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38410-303/1.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/2.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/4.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/5.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/6.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38525-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/8.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BV38525-1</t>
+          <t>BV38601-153</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38525-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/7.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BV38601-153</t>
+          <t>BV38601-2803</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/3.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/7.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2256,42 +2256,42 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BV38601-2803</t>
+          <t>BV38629-100</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/3.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/7.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/8.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/9.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BV38629-100</t>
+          <t>BV38643-1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/7.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/8.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38643-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/8.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BV38643-1</t>
+          <t>BV38643-205</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38643-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38643-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/8.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2301,27 +2301,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BV38643-205</t>
+          <t>BV38655-1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38643-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BV38655-1</t>
+          <t>BV38655-153</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2331,42 +2331,42 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BV38655-153</t>
+          <t>BV38655-2803</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/9.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BV38655-2803</t>
+          <t>BV38690-1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38690-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/8.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BV38690-1</t>
+          <t>BV38690-153</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38690-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38690-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/8.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2376,102 +2376,102 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BV38690-153</t>
+          <t>BV38705-1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38690-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38705-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/9.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BV38705-1</t>
+          <t>BV38706-1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38705-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38706-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/7.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BV38706-1</t>
+          <t>BV38755-210</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38706-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38755-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/8.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BV38755-210</t>
+          <t>BV38771-1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38755-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38771-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/5.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BV38771-1</t>
+          <t>BV38799-1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38771-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38799-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/7.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BV38799-1</t>
+          <t>BV38806-1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38799-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38806-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/8.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BV38806-1</t>
+          <t>BV38806-153</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38806-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38806-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/8.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2481,12 +2481,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BV38806-153</t>
+          <t>BV38811-1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38806-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38811-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/8.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2496,27 +2496,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BV38811-1</t>
+          <t>BV38825-1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38811-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38825-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/7.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BV38825-1</t>
+          <t>BV38826-1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38825-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38826-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/7.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2526,42 +2526,42 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BV38826-1</t>
+          <t>BV38826-240</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38826-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38826-240/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/6.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BV38826-240</t>
+          <t>BV38896-69</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38826-240/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38896-69/1.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/2.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/4.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/5.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/6.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/7.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/8.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BV38896-69</t>
+          <t>BV38915-1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38896-69/1.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/2.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/4.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/5.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/6.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/7.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/8.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2571,12 +2571,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BV38915-1</t>
+          <t>BV38915-153</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/8.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2586,12 +2586,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BV38915-153</t>
+          <t>BV38915-205</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38915-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/8.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2601,12 +2601,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BV38915-205</t>
+          <t>BV38923-1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38923-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/8.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2616,12 +2616,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BV38923-1</t>
+          <t>BV38930-1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38923-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38930-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/8.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2631,27 +2631,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BV38930-1</t>
+          <t>C-1899B-black</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38930-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/6.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C-1899B-black</t>
+          <t>C-1899B-green</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/7.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2661,12 +2661,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C-1899B-green</t>
+          <t>C-1899B-pink</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/7.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2676,12 +2676,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C-1899B-pink</t>
+          <t>C-1899B-silvery-grey</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/6.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2691,27 +2691,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C-1899B-silvery-grey</t>
+          <t>C-3079A-green</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/6.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C-3079A-green</t>
+          <t>C-3079A-pink</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/6.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2721,12 +2721,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>C-3079A-pink</t>
+          <t>C-3079A-red</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3079A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/6.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2736,12 +2736,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C-3079A-red</t>
+          <t>C-3700A-pink</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3700A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/6.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2751,12 +2751,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C-3700A-pink</t>
+          <t>C-3820A-black</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3700A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/6.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2766,12 +2766,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C-3820A-black</t>
+          <t>C-3820A-green</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/6.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2781,12 +2781,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>C-3820A-green</t>
+          <t>C-3820A-pink</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/6.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2796,12 +2796,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>C-3820A-pink</t>
+          <t>C-3820A-red</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/6.jpg</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2811,12 +2811,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>C-3820A-red</t>
+          <t>C-3820A-silver</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-3820A-silver/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/6.jpg</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2826,27 +2826,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C-3820A-silver</t>
+          <t>C-6200A-black</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-silver/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/7.jpg</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C-6200A-black</t>
+          <t>C-6200A-green</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/7.jpg</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -2856,12 +2856,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>C-6200A-green</t>
+          <t>C-6200A-pink</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-6200A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/7.jpg</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -2871,12 +2871,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C-6200A-pink</t>
+          <t>C-8460A-black</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/7.jpg</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -2886,12 +2886,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C-8460A-black</t>
+          <t>C-8460A-durk-purple</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/7.jpg</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2901,12 +2901,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>C-8460A-durk-purple</t>
+          <t>C-8460A-grey</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/7.jpg</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2916,12 +2916,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C-8460A-grey</t>
+          <t>C-8460A-pink</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/7.jpg</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2931,12 +2931,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>C-8460A-pink</t>
+          <t>C-8460A-silvery-grey</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/7.jpg</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2946,12 +2946,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C-8460A-silvery-grey</t>
+          <t>C-8460B-black</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/7.jpg</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2961,12 +2961,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C-8460B-black</t>
+          <t>C-8460B-green</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/7.jpg</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2976,12 +2976,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>C-8460B-green</t>
+          <t>C-8460B-grey</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/7.jpg</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -2991,12 +2991,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>C-8460B-grey</t>
+          <t>C-8460B-khaki</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/7.jpg</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3006,12 +3006,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C-8460B-khaki</t>
+          <t>C-8460B-red</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/7.jpg</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3021,102 +3021,102 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C-8460B-red</t>
+          <t>C-8998-black</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/6.jpg</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C-8998-black</t>
+          <t>C-8998-dark-green</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/7.jpg</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>C-8998-dark-green</t>
+          <t>C-8998-lime green</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/6.jpg</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C-8998-lime green</t>
+          <t>C-8998-pink</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/7.jpg</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C-8998-pink</t>
+          <t>C2-279-pink</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-279-pink/1.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/3.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/4.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/5.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/6.jpg</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C2-279-pink</t>
+          <t>C2-936-apricot</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-279-pink/1.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/3.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/4.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/5.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-apricot/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/7.jpg</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>C2-936-apricot</t>
+          <t>C2-936-black</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-apricot/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-black/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/7.jpg</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3126,12 +3126,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C2-936-black</t>
+          <t>C2-936-dark purple</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-black/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-dark purple/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/7.jpg</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3141,12 +3141,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>C2-936-dark purple</t>
+          <t>C2-936-green</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-dark purple/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-green/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/7.jpg</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3156,12 +3156,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>C2-936-green</t>
+          <t>C2-936-grey</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-green/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-grey/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/7.jpg</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3171,12 +3171,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>C2-936-grey</t>
+          <t>C2-936-lemon</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-grey/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-lemon/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/7.jpg</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3186,12 +3186,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C2-936-lemon</t>
+          <t>C2-936-red</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-lemon/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C2-936-red/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/7.jpg</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3201,27 +3201,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>C2-936-red</t>
+          <t>C33030-3</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-red/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C33030-3/1.jpg,https://oleks-netizen.github.io/product-images/C33030-3/2.jpg,https://oleks-netizen.github.io/product-images/C33030-3/4.jpg,https://oleks-netizen.github.io/product-images/C33030-3/5.jpg,https://oleks-netizen.github.io/product-images/C33030-3/6.jpg,https://oleks-netizen.github.io/product-images/C33030-3/7.jpg,https://oleks-netizen.github.io/product-images/C33030-3/8.jpg</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>C33030-3</t>
+          <t>C33030-4</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33030-3/1.jpg,https://oleks-netizen.github.io/product-images/C33030-3/2.jpg,https://oleks-netizen.github.io/product-images/C33030-3/4.jpg,https://oleks-netizen.github.io/product-images/C33030-3/5.jpg,https://oleks-netizen.github.io/product-images/C33030-3/6.jpg,https://oleks-netizen.github.io/product-images/C33030-3/7.jpg,https://oleks-netizen.github.io/product-images/C33030-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C33030-4/1.jpg,https://oleks-netizen.github.io/product-images/C33030-4/2.jpg,https://oleks-netizen.github.io/product-images/C33030-4/4.jpg,https://oleks-netizen.github.io/product-images/C33030-4/5.jpg,https://oleks-netizen.github.io/product-images/C33030-4/6.jpg,https://oleks-netizen.github.io/product-images/C33030-4/7.jpg,https://oleks-netizen.github.io/product-images/C33030-4/8.jpg</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3231,12 +3231,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C33030-4</t>
+          <t>C33036-3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33030-4/1.jpg,https://oleks-netizen.github.io/product-images/C33030-4/2.jpg,https://oleks-netizen.github.io/product-images/C33030-4/4.jpg,https://oleks-netizen.github.io/product-images/C33030-4/5.jpg,https://oleks-netizen.github.io/product-images/C33030-4/6.jpg,https://oleks-netizen.github.io/product-images/C33030-4/7.jpg,https://oleks-netizen.github.io/product-images/C33030-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C33036-3/1.jpg,https://oleks-netizen.github.io/product-images/C33036-3/2.jpg,https://oleks-netizen.github.io/product-images/C33036-3/4.jpg,https://oleks-netizen.github.io/product-images/C33036-3/5.jpg,https://oleks-netizen.github.io/product-images/C33036-3/6.jpg,https://oleks-netizen.github.io/product-images/C33036-3/7.jpg,https://oleks-netizen.github.io/product-images/C33036-3/8.jpg</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3246,12 +3246,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C33036-3</t>
+          <t>C33036-4</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33036-3/1.jpg,https://oleks-netizen.github.io/product-images/C33036-3/2.jpg,https://oleks-netizen.github.io/product-images/C33036-3/4.jpg,https://oleks-netizen.github.io/product-images/C33036-3/5.jpg,https://oleks-netizen.github.io/product-images/C33036-3/6.jpg,https://oleks-netizen.github.io/product-images/C33036-3/7.jpg,https://oleks-netizen.github.io/product-images/C33036-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C33036-4/1.jpg,https://oleks-netizen.github.io/product-images/C33036-4/2.jpg,https://oleks-netizen.github.io/product-images/C33036-4/4.jpg,https://oleks-netizen.github.io/product-images/C33036-4/5.jpg,https://oleks-netizen.github.io/product-images/C33036-4/6.jpg,https://oleks-netizen.github.io/product-images/C33036-4/7.jpg,https://oleks-netizen.github.io/product-images/C33036-4/8.jpg</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3261,12 +3261,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>C33036-4</t>
+          <t>C33060-4</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33036-4/1.jpg,https://oleks-netizen.github.io/product-images/C33036-4/2.jpg,https://oleks-netizen.github.io/product-images/C33036-4/4.jpg,https://oleks-netizen.github.io/product-images/C33036-4/5.jpg,https://oleks-netizen.github.io/product-images/C33036-4/6.jpg,https://oleks-netizen.github.io/product-images/C33036-4/7.jpg,https://oleks-netizen.github.io/product-images/C33036-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C33060-4/1.jpg,https://oleks-netizen.github.io/product-images/C33060-4/2.jpg,https://oleks-netizen.github.io/product-images/C33060-4/4.jpg,https://oleks-netizen.github.io/product-images/C33060-4/5.jpg,https://oleks-netizen.github.io/product-images/C33060-4/6.jpg,https://oleks-netizen.github.io/product-images/C33060-4/7.jpg,https://oleks-netizen.github.io/product-images/C33060-4/8.jpg</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3276,12 +3276,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C33060-4</t>
+          <t>C34618-2005</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33060-4/1.jpg,https://oleks-netizen.github.io/product-images/C33060-4/2.jpg,https://oleks-netizen.github.io/product-images/C33060-4/4.jpg,https://oleks-netizen.github.io/product-images/C33060-4/5.jpg,https://oleks-netizen.github.io/product-images/C33060-4/6.jpg,https://oleks-netizen.github.io/product-images/C33060-4/7.jpg,https://oleks-netizen.github.io/product-images/C33060-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34618-2005/1.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/2.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/4.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/5.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/6.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/7.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/8.jpg</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3291,12 +3291,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C34618-2005</t>
+          <t>C34618-3008</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-2005/1.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/2.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/4.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/5.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/6.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/7.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34618-3008/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/8.jpg</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3306,12 +3306,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C34618-3008</t>
+          <t>C34618-3064</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-3008/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34618-3064/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/8.jpg</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3321,42 +3321,42 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>C34618-3064</t>
+          <t>C34618-4024</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-3064/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34618-4024/1.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/2.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/4.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/5.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/6.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/7.jpg</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C34618-4024</t>
+          <t>C34815-1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-4024/1.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/2.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/4.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/5.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/6.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34815-1/1.jpg,https://oleks-netizen.github.io/product-images/C34815-1/2.jpg,https://oleks-netizen.github.io/product-images/C34815-1/4.jpg,https://oleks-netizen.github.io/product-images/C34815-1/5.jpg,https://oleks-netizen.github.io/product-images/C34815-1/6.jpg,https://oleks-netizen.github.io/product-images/C34815-1/7.jpg,https://oleks-netizen.github.io/product-images/C34815-1/8.jpg</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C34815-1</t>
+          <t>C34815-2</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-1/1.jpg,https://oleks-netizen.github.io/product-images/C34815-1/2.jpg,https://oleks-netizen.github.io/product-images/C34815-1/4.jpg,https://oleks-netizen.github.io/product-images/C34815-1/5.jpg,https://oleks-netizen.github.io/product-images/C34815-1/6.jpg,https://oleks-netizen.github.io/product-images/C34815-1/7.jpg,https://oleks-netizen.github.io/product-images/C34815-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34815-2/1.jpg,https://oleks-netizen.github.io/product-images/C34815-2/2.jpg,https://oleks-netizen.github.io/product-images/C34815-2/4.jpg,https://oleks-netizen.github.io/product-images/C34815-2/5.jpg,https://oleks-netizen.github.io/product-images/C34815-2/6.jpg,https://oleks-netizen.github.io/product-images/C34815-2/7.jpg,https://oleks-netizen.github.io/product-images/C34815-2/8.jpg</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3366,12 +3366,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C34815-2</t>
+          <t>C34815-3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-2/1.jpg,https://oleks-netizen.github.io/product-images/C34815-2/2.jpg,https://oleks-netizen.github.io/product-images/C34815-2/4.jpg,https://oleks-netizen.github.io/product-images/C34815-2/5.jpg,https://oleks-netizen.github.io/product-images/C34815-2/6.jpg,https://oleks-netizen.github.io/product-images/C34815-2/7.jpg,https://oleks-netizen.github.io/product-images/C34815-2/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34815-3/1.jpg,https://oleks-netizen.github.io/product-images/C34815-3/2.jpg,https://oleks-netizen.github.io/product-images/C34815-3/4.jpg,https://oleks-netizen.github.io/product-images/C34815-3/5.jpg,https://oleks-netizen.github.io/product-images/C34815-3/6.jpg,https://oleks-netizen.github.io/product-images/C34815-3/7.jpg,https://oleks-netizen.github.io/product-images/C34815-3/8.jpg</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3381,12 +3381,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>C34815-3</t>
+          <t>C34815-4</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-3/1.jpg,https://oleks-netizen.github.io/product-images/C34815-3/2.jpg,https://oleks-netizen.github.io/product-images/C34815-3/4.jpg,https://oleks-netizen.github.io/product-images/C34815-3/5.jpg,https://oleks-netizen.github.io/product-images/C34815-3/6.jpg,https://oleks-netizen.github.io/product-images/C34815-3/7.jpg,https://oleks-netizen.github.io/product-images/C34815-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34815-4/1.jpg,https://oleks-netizen.github.io/product-images/C34815-4/2.jpg,https://oleks-netizen.github.io/product-images/C34815-4/4.jpg,https://oleks-netizen.github.io/product-images/C34815-4/5.jpg,https://oleks-netizen.github.io/product-images/C34815-4/6.jpg,https://oleks-netizen.github.io/product-images/C34815-4/7.jpg,https://oleks-netizen.github.io/product-images/C34815-4/8.jpg</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3396,12 +3396,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>C34815-4</t>
+          <t>C34815-5</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-4/1.jpg,https://oleks-netizen.github.io/product-images/C34815-4/2.jpg,https://oleks-netizen.github.io/product-images/C34815-4/4.jpg,https://oleks-netizen.github.io/product-images/C34815-4/5.jpg,https://oleks-netizen.github.io/product-images/C34815-4/6.jpg,https://oleks-netizen.github.io/product-images/C34815-4/7.jpg,https://oleks-netizen.github.io/product-images/C34815-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C34815-5/1.jpg,https://oleks-netizen.github.io/product-images/C34815-5/2.jpg,https://oleks-netizen.github.io/product-images/C34815-5/4.jpg,https://oleks-netizen.github.io/product-images/C34815-5/5.jpg,https://oleks-netizen.github.io/product-images/C34815-5/6.jpg,https://oleks-netizen.github.io/product-images/C34815-5/7.jpg,https://oleks-netizen.github.io/product-images/C34815-5/8.jpg</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3411,27 +3411,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>C34815-5</t>
+          <t>D22982-1Z</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-5/1.jpg,https://oleks-netizen.github.io/product-images/C34815-5/2.jpg,https://oleks-netizen.github.io/product-images/C34815-5/4.jpg,https://oleks-netizen.github.io/product-images/C34815-5/5.jpg,https://oleks-netizen.github.io/product-images/C34815-5/6.jpg,https://oleks-netizen.github.io/product-images/C34815-5/7.jpg,https://oleks-netizen.github.io/product-images/C34815-5/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/D22982-1Z/1.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/2.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/4.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/5.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/6.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/7.jpg</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D22982-1Z</t>
+          <t>D30053-1-5</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/D22982-1Z/1.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/2.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/4.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/5.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/6.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/D30053-1-5/1.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/2.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/4.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/5.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/6.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/7.jpg</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3441,27 +3441,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D30053-1-5</t>
+          <t>DR151-1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/D30053-1-5/1.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/2.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/4.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/5.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/6.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR151-1/1.jpg,https://oleks-netizen.github.io/product-images/DR151-1/2.jpg,https://oleks-netizen.github.io/product-images/DR151-1/3.jpg,https://oleks-netizen.github.io/product-images/DR151-1/4.jpg</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DR151-1</t>
+          <t>DR151-3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR151-1/1.jpg,https://oleks-netizen.github.io/product-images/DR151-1/2.jpg,https://oleks-netizen.github.io/product-images/DR151-1/3.jpg,https://oleks-netizen.github.io/product-images/DR151-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR151-3/1.jpg,https://oleks-netizen.github.io/product-images/DR151-3/2.jpg,https://oleks-netizen.github.io/product-images/DR151-3/3.jpg,https://oleks-netizen.github.io/product-images/DR151-3/4.jpg</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3471,12 +3471,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>DR151-3</t>
+          <t>DR637-1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR151-3/1.jpg,https://oleks-netizen.github.io/product-images/DR151-3/2.jpg,https://oleks-netizen.github.io/product-images/DR151-3/3.jpg,https://oleks-netizen.github.io/product-images/DR151-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR637-1/1.jpg,https://oleks-netizen.github.io/product-images/DR637-1/2.jpg,https://oleks-netizen.github.io/product-images/DR637-1/3.jpg,https://oleks-netizen.github.io/product-images/DR637-1/4.jpg</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3486,12 +3486,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>DR637-1</t>
+          <t>DR637-3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR637-1/1.jpg,https://oleks-netizen.github.io/product-images/DR637-1/2.jpg,https://oleks-netizen.github.io/product-images/DR637-1/3.jpg,https://oleks-netizen.github.io/product-images/DR637-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR637-3/1.jpg,https://oleks-netizen.github.io/product-images/DR637-3/2.jpg,https://oleks-netizen.github.io/product-images/DR637-3/3.jpg,https://oleks-netizen.github.io/product-images/DR637-3/4.jpg</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3501,12 +3501,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>DR637-3</t>
+          <t>DR822-1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR637-3/1.jpg,https://oleks-netizen.github.io/product-images/DR637-3/2.jpg,https://oleks-netizen.github.io/product-images/DR637-3/3.jpg,https://oleks-netizen.github.io/product-images/DR637-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR822-1/1.jpg,https://oleks-netizen.github.io/product-images/DR822-1/2.jpg,https://oleks-netizen.github.io/product-images/DR822-1/3.jpg,https://oleks-netizen.github.io/product-images/DR822-1/4.jpg</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3516,12 +3516,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DR822-1</t>
+          <t>DR822-3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR822-1/1.jpg,https://oleks-netizen.github.io/product-images/DR822-1/2.jpg,https://oleks-netizen.github.io/product-images/DR822-1/3.jpg,https://oleks-netizen.github.io/product-images/DR822-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DR822-3/1.jpg,https://oleks-netizen.github.io/product-images/DR822-3/2.jpg,https://oleks-netizen.github.io/product-images/DR822-3/3.jpg,https://oleks-netizen.github.io/product-images/DR822-3/4.jpg</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3531,57 +3531,57 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>DR822-3</t>
+          <t>DRL19001-1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR822-3/1.jpg,https://oleks-netizen.github.io/product-images/DR822-3/2.jpg,https://oleks-netizen.github.io/product-images/DR822-3/3.jpg,https://oleks-netizen.github.io/product-images/DR822-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/9.jpg</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DRL19001-1</t>
+          <t>DRL19012-1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/9.jpg</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DRL19012-1</t>
+          <t>DRL19077-1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/9.jpg</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DRL19077-1</t>
+          <t>DRL19092-1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/9.jpg</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3591,42 +3591,42 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DRL19092-1</t>
+          <t>DRL19120-1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/9.jpg</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>DRL19120-1</t>
+          <t>DRL19122-1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/9.jpg</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DRL19122-1</t>
+          <t>DRL19253-1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/9.jpg</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3636,12 +3636,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>DRL19253-1</t>
+          <t>DRL19520-1B</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/2.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/4.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/5.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/6.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/7.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/8.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/9.jpg</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3651,12 +3651,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>DRL19520-1B</t>
+          <t>DRL19601-1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/2.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/4.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/5.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/6.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/7.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/8.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/9.jpg</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3666,102 +3666,102 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>DRL19601-1</t>
+          <t>DRL19712-1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/9.jpg</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DRL19712-1</t>
+          <t>DRL19818A-A</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/2.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/4.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/5.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/6.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/7.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/8.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/9.jpg</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>DRL19818A-A</t>
+          <t>DRL19941-1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/2.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/4.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/5.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/6.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/7.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/8.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>DRL19941-1</t>
+          <t>DRL6601-1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/9.jpg</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>DRL6601-1</t>
+          <t>DRS16059-1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>DRS16059-1</t>
+          <t>DRS16975-1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/7.jpg</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DRS16975-1</t>
+          <t>DRS17116-3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/4.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/5.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/6.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/7.jpg</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3771,27 +3771,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DRS17116-3</t>
+          <t>DRS17131-2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/4.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/5.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/6.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/3.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/7.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/8.jpg</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DRS17131-2</t>
+          <t>DRS17132-1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/3.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/7.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/8.jpg</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3801,72 +3801,72 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>DRS17132-1</t>
+          <t>DRS17203-1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/9.jpg</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DRS17203-1</t>
+          <t>DRS19023-2</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/4.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/7.jpg</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>DRS19023-2</t>
+          <t>DRS19353-1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/4.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/9.jpg</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>DRS19353-1</t>
+          <t>DRS19800-1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/7.jpg</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DRS19800-1</t>
+          <t>DRS19802-1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/7.jpg</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3876,12 +3876,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DRS19802-1</t>
+          <t>DS23873-230</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/7.jpg</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3891,42 +3891,42 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>DS23873-230</t>
+          <t>DS30002-023</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/8.jpg</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DS30002-023</t>
+          <t>DS30002-025</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/7.jpg</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DS30002-025</t>
+          <t>DS30002-112</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/7.jpg</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3936,27 +3936,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DS30002-112</t>
+          <t>DS30002-132</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/9.jpg</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DS30002-132</t>
+          <t>DS30002-162</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/9.jpg</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3966,57 +3966,57 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DS30002-162</t>
+          <t>DS30002-287</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/8.jpg</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>DS30002-287</t>
+          <t>DS30002-288</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/7.jpg</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DS30002-288</t>
+          <t>F20218-black</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/3.jpg,https://oleks-netizen.github.io/product-images/F20218-black/4.jpg,https://oleks-netizen.github.io/product-images/F20218-black/5.jpg,https://oleks-netizen.github.io/product-images/F20218-black/6.jpg</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>F20218-black</t>
+          <t>FW-A2106-black</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/3.jpg,https://oleks-netizen.github.io/product-images/F20218-black/4.jpg,https://oleks-netizen.github.io/product-images/F20218-black/5.jpg,https://oleks-netizen.github.io/product-images/F20218-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/5.jpg</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4026,27 +4026,27 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FW-A2106-black</t>
+          <t>FW-A648-black</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/7.jpg</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>FW-A648-black</t>
+          <t>FW-A648-blue</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/7.jpg</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4056,12 +4056,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>FW-A648-blue</t>
+          <t>FW-A648-green</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/7.jpg</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4071,12 +4071,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FW-A648-green</t>
+          <t>FW-A648-purple</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/7.jpg</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4086,12 +4086,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>FW-A648-purple</t>
+          <t>FW-A648-red</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/7.jpg</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4101,57 +4101,57 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>FW-A648-red</t>
+          <t>G2568-black</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/G2568-black/1.jpg,https://oleks-netizen.github.io/product-images/G2568-black/2.jpg,https://oleks-netizen.github.io/product-images/G2568-black/4.jpg,https://oleks-netizen.github.io/product-images/G2568-black/5.jpg,https://oleks-netizen.github.io/product-images/G2568-black/6.jpg,https://oleks-netizen.github.io/product-images/G2568-black/7.jpg,https://oleks-netizen.github.io/product-images/G2568-black/8.jpg,https://oleks-netizen.github.io/product-images/G2568-black/9.jpg</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>G2568-black</t>
+          <t>G2568-grey</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-black/1.jpg,https://oleks-netizen.github.io/product-images/G2568-black/2.jpg,https://oleks-netizen.github.io/product-images/G2568-black/4.jpg,https://oleks-netizen.github.io/product-images/G2568-black/5.jpg,https://oleks-netizen.github.io/product-images/G2568-black/6.jpg,https://oleks-netizen.github.io/product-images/G2568-black/7.jpg,https://oleks-netizen.github.io/product-images/G2568-black/8.jpg,https://oleks-netizen.github.io/product-images/G2568-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/2.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/4.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/5.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/6.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/7.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/8.jpg</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>G2568-grey</t>
+          <t>H-2908-black</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/2.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/4.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/5.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/6.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/7.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/6.jpg</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>H-2908-black</t>
+          <t>H-2908-red</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/6.jpg</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4161,27 +4161,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>H-2908-red</t>
+          <t>ICE-2314-20-dark-grey</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ICE-2314-20-dark-grey</t>
+          <t>ICE-2314-20-dark-purple</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4191,12 +4191,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ICE-2314-20-dark-purple</t>
+          <t>ICE-2314-20-khaki</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4206,12 +4206,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ICE-2314-20-khaki</t>
+          <t>ICE-2314-20-rose-gold</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4221,27 +4221,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ICE-2314-20-rose-gold</t>
+          <t>ICE-2314-24-dark-grey</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ICE-2314-24-dark-grey</t>
+          <t>ICE-2314-24-dark-purple</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4251,12 +4251,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ICE-2314-24-dark-purple</t>
+          <t>ICE-2314-24-rose-gold</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4266,12 +4266,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ICE-2314-24-rose-gold</t>
+          <t>ICE-2314-28-dark-grey</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4281,12 +4281,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ICE-2314-28-dark-grey</t>
+          <t>ICE-2314-28-dark-purple</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4296,12 +4296,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ICE-2314-28-dark-purple</t>
+          <t>ICE-2314-28-rose-gold</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4311,12 +4311,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ICE-2314-28-rose-gold</t>
+          <t>L20001-22</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/2.jpg,https://oleks-netizen.github.io/product-images/L20001-22/4.jpg,https://oleks-netizen.github.io/product-images/L20001-22/5.jpg,https://oleks-netizen.github.io/product-images/L20001-22/6.jpg,https://oleks-netizen.github.io/product-images/L20001-22/7.jpg,https://oleks-netizen.github.io/product-images/L20001-22/8.jpg,https://oleks-netizen.github.io/product-images/L20001-22/9.jpg</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4326,12 +4326,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>L20001-22</t>
+          <t>L20011-1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/2.jpg,https://oleks-netizen.github.io/product-images/L20001-22/4.jpg,https://oleks-netizen.github.io/product-images/L20001-22/5.jpg,https://oleks-netizen.github.io/product-images/L20001-22/6.jpg,https://oleks-netizen.github.io/product-images/L20001-22/7.jpg,https://oleks-netizen.github.io/product-images/L20001-22/8.jpg,https://oleks-netizen.github.io/product-images/L20001-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/2.jpg,https://oleks-netizen.github.io/product-images/L20011-1/4.jpg,https://oleks-netizen.github.io/product-images/L20011-1/5.jpg,https://oleks-netizen.github.io/product-images/L20011-1/6.jpg,https://oleks-netizen.github.io/product-images/L20011-1/7.jpg,https://oleks-netizen.github.io/product-images/L20011-1/8.jpg,https://oleks-netizen.github.io/product-images/L20011-1/9.jpg</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4341,12 +4341,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>L20011-1</t>
+          <t>L20011-22</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/2.jpg,https://oleks-netizen.github.io/product-images/L20011-1/4.jpg,https://oleks-netizen.github.io/product-images/L20011-1/5.jpg,https://oleks-netizen.github.io/product-images/L20011-1/6.jpg,https://oleks-netizen.github.io/product-images/L20011-1/7.jpg,https://oleks-netizen.github.io/product-images/L20011-1/8.jpg,https://oleks-netizen.github.io/product-images/L20011-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/2.jpg,https://oleks-netizen.github.io/product-images/L20011-22/4.jpg,https://oleks-netizen.github.io/product-images/L20011-22/5.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6.jpg,https://oleks-netizen.github.io/product-images/L20011-22/7.jpg,https://oleks-netizen.github.io/product-images/L20011-22/8.jpg,https://oleks-netizen.github.io/product-images/L20011-22/9.jpg</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4356,12 +4356,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>L20011-22</t>
+          <t>L20011-56</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/2.jpg,https://oleks-netizen.github.io/product-images/L20011-22/4.jpg,https://oleks-netizen.github.io/product-images/L20011-22/5.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6.jpg,https://oleks-netizen.github.io/product-images/L20011-22/7.jpg,https://oleks-netizen.github.io/product-images/L20011-22/8.jpg,https://oleks-netizen.github.io/product-images/L20011-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/2.jpg,https://oleks-netizen.github.io/product-images/L20011-56/4.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5.jpg,https://oleks-netizen.github.io/product-images/L20011-56/6.jpg,https://oleks-netizen.github.io/product-images/L20011-56/7.jpg,https://oleks-netizen.github.io/product-images/L20011-56/8.jpg,https://oleks-netizen.github.io/product-images/L20011-56/9.jpg</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4371,12 +4371,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>L20011-56</t>
+          <t>L20030-1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/2.jpg,https://oleks-netizen.github.io/product-images/L20011-56/4.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5.jpg,https://oleks-netizen.github.io/product-images/L20011-56/6.jpg,https://oleks-netizen.github.io/product-images/L20011-56/7.jpg,https://oleks-netizen.github.io/product-images/L20011-56/8.jpg,https://oleks-netizen.github.io/product-images/L20011-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/2.jpg,https://oleks-netizen.github.io/product-images/L20030-1/3.jpg,https://oleks-netizen.github.io/product-images/L20030-1/5.jpg,https://oleks-netizen.github.io/product-images/L20030-1/6.jpg,https://oleks-netizen.github.io/product-images/L20030-1/7.jpg,https://oleks-netizen.github.io/product-images/L20030-1/8.jpg,https://oleks-netizen.github.io/product-images/L20030-1/9.jpg</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4386,12 +4386,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>L20030-1</t>
+          <t>L20030-56</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/2.jpg,https://oleks-netizen.github.io/product-images/L20030-1/3.jpg,https://oleks-netizen.github.io/product-images/L20030-1/5.jpg,https://oleks-netizen.github.io/product-images/L20030-1/6.jpg,https://oleks-netizen.github.io/product-images/L20030-1/7.jpg,https://oleks-netizen.github.io/product-images/L20030-1/8.jpg,https://oleks-netizen.github.io/product-images/L20030-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/2.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3.jpg,https://oleks-netizen.github.io/product-images/L20030-56/5.jpg,https://oleks-netizen.github.io/product-images/L20030-56/6.jpg,https://oleks-netizen.github.io/product-images/L20030-56/7.jpg,https://oleks-netizen.github.io/product-images/L20030-56/8.jpg,https://oleks-netizen.github.io/product-images/L20030-56/9.jpg</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4401,57 +4401,57 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>L20030-56</t>
+          <t>L20036-1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/2.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3.jpg,https://oleks-netizen.github.io/product-images/L20030-56/5.jpg,https://oleks-netizen.github.io/product-images/L20030-56/6.jpg,https://oleks-netizen.github.io/product-images/L20030-56/7.jpg,https://oleks-netizen.github.io/product-images/L20030-56/8.jpg,https://oleks-netizen.github.io/product-images/L20030-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>L20036-1</t>
+          <t>L20036-8</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/2.jpg,https://oleks-netizen.github.io/product-images/L20036-8/4.jpg,https://oleks-netizen.github.io/product-images/L20036-8/5.jpg,https://oleks-netizen.github.io/product-images/L20036-8/6.jpg,https://oleks-netizen.github.io/product-images/L20036-8/7.jpg,https://oleks-netizen.github.io/product-images/L20036-8/8.jpg</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>L20036-8</t>
+          <t>L20063-1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/2.jpg,https://oleks-netizen.github.io/product-images/L20036-8/4.jpg,https://oleks-netizen.github.io/product-images/L20036-8/5.jpg,https://oleks-netizen.github.io/product-images/L20036-8/6.jpg,https://oleks-netizen.github.io/product-images/L20036-8/7.jpg,https://oleks-netizen.github.io/product-images/L20036-8/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>L20063-1</t>
+          <t>L20063-8</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4461,27 +4461,27 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>L20063-8</t>
+          <t>L20239-0233</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20239-0233/1.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/2.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/4.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/5.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/6.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/7.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/8.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/9.jpg</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>L20239-0233</t>
+          <t>L20633-78</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20239-0233/1.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/2.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/4.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/5.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/6.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/7.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/8.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20633-78/1.jpg,https://oleks-netizen.github.io/product-images/L20633-78/2.jpg,https://oleks-netizen.github.io/product-images/L20633-78/4.jpg,https://oleks-netizen.github.io/product-images/L20633-78/5.jpg,https://oleks-netizen.github.io/product-images/L20633-78/6.jpg,https://oleks-netizen.github.io/product-images/L20633-78/7.jpg,https://oleks-netizen.github.io/product-images/L20633-78/8.jpg,https://oleks-netizen.github.io/product-images/L20633-78/9.jpg</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4491,12 +4491,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>L20633-78</t>
+          <t>L20633-90</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-78/1.jpg,https://oleks-netizen.github.io/product-images/L20633-78/2.jpg,https://oleks-netizen.github.io/product-images/L20633-78/4.jpg,https://oleks-netizen.github.io/product-images/L20633-78/5.jpg,https://oleks-netizen.github.io/product-images/L20633-78/6.jpg,https://oleks-netizen.github.io/product-images/L20633-78/7.jpg,https://oleks-netizen.github.io/product-images/L20633-78/8.jpg,https://oleks-netizen.github.io/product-images/L20633-78/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/2.jpg,https://oleks-netizen.github.io/product-images/L20633-90/4.jpg,https://oleks-netizen.github.io/product-images/L20633-90/5.jpg,https://oleks-netizen.github.io/product-images/L20633-90/6.jpg,https://oleks-netizen.github.io/product-images/L20633-90/7.jpg,https://oleks-netizen.github.io/product-images/L20633-90/8.jpg,https://oleks-netizen.github.io/product-images/L20633-90/9.jpg</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4506,27 +4506,27 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>L20633-90</t>
+          <t>L20680-1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/2.jpg,https://oleks-netizen.github.io/product-images/L20633-90/4.jpg,https://oleks-netizen.github.io/product-images/L20633-90/5.jpg,https://oleks-netizen.github.io/product-images/L20633-90/6.jpg,https://oleks-netizen.github.io/product-images/L20633-90/7.jpg,https://oleks-netizen.github.io/product-images/L20633-90/8.jpg,https://oleks-netizen.github.io/product-images/L20633-90/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>L20680-1</t>
+          <t>L20680-56</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4536,12 +4536,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>L20680-56</t>
+          <t>L20680-58</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4551,27 +4551,27 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>L20680-58</t>
+          <t>L20682-1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/2.jpg,https://oleks-netizen.github.io/product-images/L20682-1/4.jpg,https://oleks-netizen.github.io/product-images/L20682-1/5.jpg,https://oleks-netizen.github.io/product-images/L20682-1/6.jpg,https://oleks-netizen.github.io/product-images/L20682-1/7.jpg,https://oleks-netizen.github.io/product-images/L20682-1/8.jpg,https://oleks-netizen.github.io/product-images/L20682-1/9.jpg</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>L20682-1</t>
+          <t>L20683-1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/2.jpg,https://oleks-netizen.github.io/product-images/L20682-1/4.jpg,https://oleks-netizen.github.io/product-images/L20682-1/5.jpg,https://oleks-netizen.github.io/product-images/L20682-1/6.jpg,https://oleks-netizen.github.io/product-images/L20682-1/7.jpg,https://oleks-netizen.github.io/product-images/L20682-1/8.jpg,https://oleks-netizen.github.io/product-images/L20682-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2.jpg,https://oleks-netizen.github.io/product-images/L20683-1/4.jpg,https://oleks-netizen.github.io/product-images/L20683-1/5.jpg,https://oleks-netizen.github.io/product-images/L20683-1/6.jpg,https://oleks-netizen.github.io/product-images/L20683-1/7.jpg,https://oleks-netizen.github.io/product-images/L20683-1/8.jpg,https://oleks-netizen.github.io/product-images/L20683-1/9.jpg</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4581,12 +4581,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>L20683-1</t>
+          <t>L20683-2</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2.jpg,https://oleks-netizen.github.io/product-images/L20683-1/4.jpg,https://oleks-netizen.github.io/product-images/L20683-1/5.jpg,https://oleks-netizen.github.io/product-images/L20683-1/6.jpg,https://oleks-netizen.github.io/product-images/L20683-1/7.jpg,https://oleks-netizen.github.io/product-images/L20683-1/8.jpg,https://oleks-netizen.github.io/product-images/L20683-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20683-2/1.jpg,https://oleks-netizen.github.io/product-images/L20683-2/2.jpg,https://oleks-netizen.github.io/product-images/L20683-2/4.jpg,https://oleks-netizen.github.io/product-images/L20683-2/5.jpg,https://oleks-netizen.github.io/product-images/L20683-2/6.jpg,https://oleks-netizen.github.io/product-images/L20683-2/7.jpg,https://oleks-netizen.github.io/product-images/L20683-2/8.jpg,https://oleks-netizen.github.io/product-images/L20683-2/9.jpg</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4596,27 +4596,27 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>L20683-2</t>
+          <t>L20713-1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-2/1.jpg,https://oleks-netizen.github.io/product-images/L20683-2/2.jpg,https://oleks-netizen.github.io/product-images/L20683-2/4.jpg,https://oleks-netizen.github.io/product-images/L20683-2/5.jpg,https://oleks-netizen.github.io/product-images/L20683-2/6.jpg,https://oleks-netizen.github.io/product-images/L20683-2/7.jpg,https://oleks-netizen.github.io/product-images/L20683-2/8.jpg,https://oleks-netizen.github.io/product-images/L20683-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>L20713-1</t>
+          <t>L20713-8</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4626,12 +4626,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>L20713-8</t>
+          <t>L20812-1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4641,12 +4641,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>L20812-1</t>
+          <t>L20812-10</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4656,12 +4656,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>L20812-10</t>
+          <t>L20812-15</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4671,27 +4671,27 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>L20812-15</t>
+          <t>L20812-56</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2.jpg,https://oleks-netizen.github.io/product-images/L20812-56/4.jpg,https://oleks-netizen.github.io/product-images/L20812-56/5.jpg,https://oleks-netizen.github.io/product-images/L20812-56/6.jpg,https://oleks-netizen.github.io/product-images/L20812-56/7.jpg,https://oleks-netizen.github.io/product-images/L20812-56/8.jpg,https://oleks-netizen.github.io/product-images/L20812-56/9.jpg</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>L20812-56</t>
+          <t>L20841-58</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2.jpg,https://oleks-netizen.github.io/product-images/L20812-56/4.jpg,https://oleks-netizen.github.io/product-images/L20812-56/5.jpg,https://oleks-netizen.github.io/product-images/L20812-56/6.jpg,https://oleks-netizen.github.io/product-images/L20812-56/7.jpg,https://oleks-netizen.github.io/product-images/L20812-56/8.jpg,https://oleks-netizen.github.io/product-images/L20812-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/2.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4.jpg,https://oleks-netizen.github.io/product-images/L20841-58/5.jpg,https://oleks-netizen.github.io/product-images/L20841-58/6.jpg,https://oleks-netizen.github.io/product-images/L20841-58/7.jpg,https://oleks-netizen.github.io/product-images/L20841-58/8.jpg,https://oleks-netizen.github.io/product-images/L20841-58/9.jpg</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4701,12 +4701,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>L20841-58</t>
+          <t>L20849-1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/2.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4.jpg,https://oleks-netizen.github.io/product-images/L20841-58/5.jpg,https://oleks-netizen.github.io/product-images/L20841-58/6.jpg,https://oleks-netizen.github.io/product-images/L20841-58/7.jpg,https://oleks-netizen.github.io/product-images/L20841-58/8.jpg,https://oleks-netizen.github.io/product-images/L20841-58/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2.jpg,https://oleks-netizen.github.io/product-images/L20849-1/4.jpg,https://oleks-netizen.github.io/product-images/L20849-1/5.jpg,https://oleks-netizen.github.io/product-images/L20849-1/6.jpg,https://oleks-netizen.github.io/product-images/L20849-1/7.jpg,https://oleks-netizen.github.io/product-images/L20849-1/8.jpg,https://oleks-netizen.github.io/product-images/L20849-1/9.jpg</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4716,12 +4716,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>L20849-1</t>
+          <t>L20849-701</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2.jpg,https://oleks-netizen.github.io/product-images/L20849-1/4.jpg,https://oleks-netizen.github.io/product-images/L20849-1/5.jpg,https://oleks-netizen.github.io/product-images/L20849-1/6.jpg,https://oleks-netizen.github.io/product-images/L20849-1/7.jpg,https://oleks-netizen.github.io/product-images/L20849-1/8.jpg,https://oleks-netizen.github.io/product-images/L20849-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/2.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4.jpg,https://oleks-netizen.github.io/product-images/L20849-701/5.jpg,https://oleks-netizen.github.io/product-images/L20849-701/6.jpg,https://oleks-netizen.github.io/product-images/L20849-701/7.jpg,https://oleks-netizen.github.io/product-images/L20849-701/8.jpg,https://oleks-netizen.github.io/product-images/L20849-701/9.jpg</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4731,87 +4731,87 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>L20849-701</t>
+          <t>L20849-720</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/2.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4.jpg,https://oleks-netizen.github.io/product-images/L20849-701/5.jpg,https://oleks-netizen.github.io/product-images/L20849-701/6.jpg,https://oleks-netizen.github.io/product-images/L20849-701/7.jpg,https://oleks-netizen.github.io/product-images/L20849-701/8.jpg,https://oleks-netizen.github.io/product-images/L20849-701/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2.jpg,https://oleks-netizen.github.io/product-images/L20849-720/4.jpg,https://oleks-netizen.github.io/product-images/L20849-720/5.jpg,https://oleks-netizen.github.io/product-images/L20849-720/6.jpg,https://oleks-netizen.github.io/product-images/L20849-720/7.jpg,https://oleks-netizen.github.io/product-images/L20849-720/8.jpg</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>L20849-720</t>
+          <t>L20849-811</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2.jpg,https://oleks-netizen.github.io/product-images/L20849-720/4.jpg,https://oleks-netizen.github.io/product-images/L20849-720/5.jpg,https://oleks-netizen.github.io/product-images/L20849-720/6.jpg,https://oleks-netizen.github.io/product-images/L20849-720/7.jpg,https://oleks-netizen.github.io/product-images/L20849-720/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2.jpg,https://oleks-netizen.github.io/product-images/L20849-811/4.jpg,https://oleks-netizen.github.io/product-images/L20849-811/5.jpg,https://oleks-netizen.github.io/product-images/L20849-811/6.jpg,https://oleks-netizen.github.io/product-images/L20849-811/7.jpg,https://oleks-netizen.github.io/product-images/L20849-811/8.jpg,https://oleks-netizen.github.io/product-images/L20849-811/9.jpg</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>L20849-811</t>
+          <t>L20853-1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2.jpg,https://oleks-netizen.github.io/product-images/L20849-811/4.jpg,https://oleks-netizen.github.io/product-images/L20849-811/5.jpg,https://oleks-netizen.github.io/product-images/L20849-811/6.jpg,https://oleks-netizen.github.io/product-images/L20849-811/7.jpg,https://oleks-netizen.github.io/product-images/L20849-811/8.jpg,https://oleks-netizen.github.io/product-images/L20849-811/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>L20853-1</t>
+          <t>L20993-1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2.jpg,https://oleks-netizen.github.io/product-images/L20993-1/4.jpg,https://oleks-netizen.github.io/product-images/L20993-1/5.jpg,https://oleks-netizen.github.io/product-images/L20993-1/6.jpg,https://oleks-netizen.github.io/product-images/L20993-1/7.jpg,https://oleks-netizen.github.io/product-images/L20993-1/8.jpg</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>L20993-1</t>
+          <t>L21019-1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2.jpg,https://oleks-netizen.github.io/product-images/L20993-1/4.jpg,https://oleks-netizen.github.io/product-images/L20993-1/5.jpg,https://oleks-netizen.github.io/product-images/L20993-1/6.jpg,https://oleks-netizen.github.io/product-images/L20993-1/7.jpg,https://oleks-netizen.github.io/product-images/L20993-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2.jpg,https://oleks-netizen.github.io/product-images/L21019-1/4.jpg,https://oleks-netizen.github.io/product-images/L21019-1/5.jpg,https://oleks-netizen.github.io/product-images/L21019-1/6.jpg,https://oleks-netizen.github.io/product-images/L21019-1/7.jpg,https://oleks-netizen.github.io/product-images/L21019-1/8.jpg,https://oleks-netizen.github.io/product-images/L21019-1/9.jpg</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>L21019-1</t>
+          <t>L21019-142</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2.jpg,https://oleks-netizen.github.io/product-images/L21019-1/4.jpg,https://oleks-netizen.github.io/product-images/L21019-1/5.jpg,https://oleks-netizen.github.io/product-images/L21019-1/6.jpg,https://oleks-netizen.github.io/product-images/L21019-1/7.jpg,https://oleks-netizen.github.io/product-images/L21019-1/8.jpg,https://oleks-netizen.github.io/product-images/L21019-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/2.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4.jpg,https://oleks-netizen.github.io/product-images/L21019-142/5.jpg,https://oleks-netizen.github.io/product-images/L21019-142/6.jpg,https://oleks-netizen.github.io/product-images/L21019-142/7.jpg,https://oleks-netizen.github.io/product-images/L21019-142/8.jpg,https://oleks-netizen.github.io/product-images/L21019-142/9.jpg</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4821,57 +4821,57 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>L21019-142</t>
+          <t>L21035-101</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/2.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4.jpg,https://oleks-netizen.github.io/product-images/L21019-142/5.jpg,https://oleks-netizen.github.io/product-images/L21019-142/6.jpg,https://oleks-netizen.github.io/product-images/L21019-142/7.jpg,https://oleks-netizen.github.io/product-images/L21019-142/8.jpg,https://oleks-netizen.github.io/product-images/L21019-142/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21035-101/1.jpg,https://oleks-netizen.github.io/product-images/L21035-101/2.jpg,https://oleks-netizen.github.io/product-images/L21035-101/4.jpg,https://oleks-netizen.github.io/product-images/L21035-101/5.jpg,https://oleks-netizen.github.io/product-images/L21035-101/6.jpg,https://oleks-netizen.github.io/product-images/L21035-101/7.jpg,https://oleks-netizen.github.io/product-images/L21035-101/8.jpg</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>L21035-101</t>
+          <t>L21075-1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21035-101/1.jpg,https://oleks-netizen.github.io/product-images/L21035-101/2.jpg,https://oleks-netizen.github.io/product-images/L21035-101/4.jpg,https://oleks-netizen.github.io/product-images/L21035-101/5.jpg,https://oleks-netizen.github.io/product-images/L21035-101/6.jpg,https://oleks-netizen.github.io/product-images/L21035-101/7.jpg,https://oleks-netizen.github.io/product-images/L21035-101/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/2.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4.jpg,https://oleks-netizen.github.io/product-images/L21075-1/5.jpg,https://oleks-netizen.github.io/product-images/L21075-1/6.jpg,https://oleks-netizen.github.io/product-images/L21075-1/7.jpg,https://oleks-netizen.github.io/product-images/L21075-1/8.jpg,https://oleks-netizen.github.io/product-images/L21075-1/9.jpg</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>L21075-1</t>
+          <t>L21209-1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/2.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4.jpg,https://oleks-netizen.github.io/product-images/L21075-1/5.jpg,https://oleks-netizen.github.io/product-images/L21075-1/6.jpg,https://oleks-netizen.github.io/product-images/L21075-1/7.jpg,https://oleks-netizen.github.io/product-images/L21075-1/8.jpg,https://oleks-netizen.github.io/product-images/L21075-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>L21209-1</t>
+          <t>L21209-25</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4881,27 +4881,27 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>L21209-25</t>
+          <t>L21511-101</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2.jpg,https://oleks-netizen.github.io/product-images/L21511-101/4.jpg,https://oleks-netizen.github.io/product-images/L21511-101/5.jpg,https://oleks-netizen.github.io/product-images/L21511-101/6.jpg,https://oleks-netizen.github.io/product-images/L21511-101/7.jpg,https://oleks-netizen.github.io/product-images/L21511-101/8.jpg,https://oleks-netizen.github.io/product-images/L21511-101/9.jpg</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>L21511-101</t>
+          <t>L21529-43</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2.jpg,https://oleks-netizen.github.io/product-images/L21511-101/4.jpg,https://oleks-netizen.github.io/product-images/L21511-101/5.jpg,https://oleks-netizen.github.io/product-images/L21511-101/6.jpg,https://oleks-netizen.github.io/product-images/L21511-101/7.jpg,https://oleks-netizen.github.io/product-images/L21511-101/8.jpg,https://oleks-netizen.github.io/product-images/L21511-101/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21529-43/1.jpg,https://oleks-netizen.github.io/product-images/L21529-43/2.jpg,https://oleks-netizen.github.io/product-images/L21529-43/4.jpg,https://oleks-netizen.github.io/product-images/L21529-43/5.jpg,https://oleks-netizen.github.io/product-images/L21529-43/6.jpg,https://oleks-netizen.github.io/product-images/L21529-43/7.jpg,https://oleks-netizen.github.io/product-images/L21529-43/8.jpg,https://oleks-netizen.github.io/product-images/L21529-43/9.jpg</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4911,12 +4911,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>L21529-43</t>
+          <t>L21531-1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21529-43/1.jpg,https://oleks-netizen.github.io/product-images/L21529-43/2.jpg,https://oleks-netizen.github.io/product-images/L21529-43/4.jpg,https://oleks-netizen.github.io/product-images/L21529-43/5.jpg,https://oleks-netizen.github.io/product-images/L21529-43/6.jpg,https://oleks-netizen.github.io/product-images/L21529-43/7.jpg,https://oleks-netizen.github.io/product-images/L21529-43/8.jpg,https://oleks-netizen.github.io/product-images/L21529-43/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2.jpg,https://oleks-netizen.github.io/product-images/L21531-1/4.jpg,https://oleks-netizen.github.io/product-images/L21531-1/5.jpg,https://oleks-netizen.github.io/product-images/L21531-1/6.jpg,https://oleks-netizen.github.io/product-images/L21531-1/7.jpg,https://oleks-netizen.github.io/product-images/L21531-1/8.jpg,https://oleks-netizen.github.io/product-images/L21531-1/9.jpg</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4926,12 +4926,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>L21531-1</t>
+          <t>L21531-11</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2.jpg,https://oleks-netizen.github.io/product-images/L21531-1/4.jpg,https://oleks-netizen.github.io/product-images/L21531-1/5.jpg,https://oleks-netizen.github.io/product-images/L21531-1/6.jpg,https://oleks-netizen.github.io/product-images/L21531-1/7.jpg,https://oleks-netizen.github.io/product-images/L21531-1/8.jpg,https://oleks-netizen.github.io/product-images/L21531-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2.jpg,https://oleks-netizen.github.io/product-images/L21531-11/4.jpg,https://oleks-netizen.github.io/product-images/L21531-11/5.jpg,https://oleks-netizen.github.io/product-images/L21531-11/6.jpg,https://oleks-netizen.github.io/product-images/L21531-11/7.jpg,https://oleks-netizen.github.io/product-images/L21531-11/8.jpg,https://oleks-netizen.github.io/product-images/L21531-11/9.jpg</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4941,27 +4941,27 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>L21531-11</t>
+          <t>L21545-1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2.jpg,https://oleks-netizen.github.io/product-images/L21531-11/4.jpg,https://oleks-netizen.github.io/product-images/L21531-11/5.jpg,https://oleks-netizen.github.io/product-images/L21531-11/6.jpg,https://oleks-netizen.github.io/product-images/L21531-11/7.jpg,https://oleks-netizen.github.io/product-images/L21531-11/8.jpg,https://oleks-netizen.github.io/product-images/L21531-11/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>L21545-1</t>
+          <t>L21545-175</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4971,42 +4971,42 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>L21545-175</t>
+          <t>L21547-64</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/2.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4.jpg,https://oleks-netizen.github.io/product-images/L21547-64/5.jpg,https://oleks-netizen.github.io/product-images/L21547-64/6.jpg,https://oleks-netizen.github.io/product-images/L21547-64/7.jpg,https://oleks-netizen.github.io/product-images/L21547-64/8.jpg,https://oleks-netizen.github.io/product-images/L21547-64/9.jpg</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>L21547-64</t>
+          <t>L21549-1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/2.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4.jpg,https://oleks-netizen.github.io/product-images/L21547-64/5.jpg,https://oleks-netizen.github.io/product-images/L21547-64/6.jpg,https://oleks-netizen.github.io/product-images/L21547-64/7.jpg,https://oleks-netizen.github.io/product-images/L21547-64/8.jpg,https://oleks-netizen.github.io/product-images/L21547-64/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>L21549-1</t>
+          <t>L21549-22</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5016,27 +5016,27 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>L21549-22</t>
+          <t>L21557-1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>L21557-1</t>
+          <t>L21557-173</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5046,27 +5046,27 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>L21557-173</t>
+          <t>L21561-1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2.jpg,https://oleks-netizen.github.io/product-images/L21561-1/4.jpg,https://oleks-netizen.github.io/product-images/L21561-1/5.jpg,https://oleks-netizen.github.io/product-images/L21561-1/6.jpg,https://oleks-netizen.github.io/product-images/L21561-1/7.jpg,https://oleks-netizen.github.io/product-images/L21561-1/8.jpg,https://oleks-netizen.github.io/product-images/L21561-1/9.jpg</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>L21561-1</t>
+          <t>L21561-25</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2.jpg,https://oleks-netizen.github.io/product-images/L21561-1/4.jpg,https://oleks-netizen.github.io/product-images/L21561-1/5.jpg,https://oleks-netizen.github.io/product-images/L21561-1/6.jpg,https://oleks-netizen.github.io/product-images/L21561-1/7.jpg,https://oleks-netizen.github.io/product-images/L21561-1/8.jpg,https://oleks-netizen.github.io/product-images/L21561-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/2.jpg,https://oleks-netizen.github.io/product-images/L21561-25/4.jpg,https://oleks-netizen.github.io/product-images/L21561-25/5.jpg,https://oleks-netizen.github.io/product-images/L21561-25/6.jpg,https://oleks-netizen.github.io/product-images/L21561-25/7.jpg,https://oleks-netizen.github.io/product-images/L21561-25/8.jpg,https://oleks-netizen.github.io/product-images/L21561-25/9.jpg</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5076,12 +5076,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>L21561-25</t>
+          <t>L22007-1K</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/2.jpg,https://oleks-netizen.github.io/product-images/L21561-25/4.jpg,https://oleks-netizen.github.io/product-images/L21561-25/5.jpg,https://oleks-netizen.github.io/product-images/L21561-25/6.jpg,https://oleks-netizen.github.io/product-images/L21561-25/7.jpg,https://oleks-netizen.github.io/product-images/L21561-25/8.jpg,https://oleks-netizen.github.io/product-images/L21561-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/9.jpg</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5091,12 +5091,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>L22007-1K</t>
+          <t>L22007-3K</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/9.jpg</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5106,12 +5106,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>L22007-3K</t>
+          <t>L22008-1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/2.jpg,https://oleks-netizen.github.io/product-images/L22008-1/4.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5.jpg,https://oleks-netizen.github.io/product-images/L22008-1/6.jpg,https://oleks-netizen.github.io/product-images/L22008-1/7.jpg,https://oleks-netizen.github.io/product-images/L22008-1/8.jpg,https://oleks-netizen.github.io/product-images/L22008-1/9.jpg</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5121,57 +5121,57 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>L22008-1</t>
+          <t>L22008-12</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/2.jpg,https://oleks-netizen.github.io/product-images/L22008-1/4.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5.jpg,https://oleks-netizen.github.io/product-images/L22008-1/6.jpg,https://oleks-netizen.github.io/product-images/L22008-1/7.jpg,https://oleks-netizen.github.io/product-images/L22008-1/8.jpg,https://oleks-netizen.github.io/product-images/L22008-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/2.jpg,https://oleks-netizen.github.io/product-images/L22008-12/4.jpg,https://oleks-netizen.github.io/product-images/L22008-12/5.jpg,https://oleks-netizen.github.io/product-images/L22008-12/6.jpg,https://oleks-netizen.github.io/product-images/L22008-12/7.jpg,https://oleks-netizen.github.io/product-images/L22008-12/8.jpg</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>L22008-12</t>
+          <t>L22008-8</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/2.jpg,https://oleks-netizen.github.io/product-images/L22008-12/4.jpg,https://oleks-netizen.github.io/product-images/L22008-12/5.jpg,https://oleks-netizen.github.io/product-images/L22008-12/6.jpg,https://oleks-netizen.github.io/product-images/L22008-12/7.jpg,https://oleks-netizen.github.io/product-images/L22008-12/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/2.jpg,https://oleks-netizen.github.io/product-images/L22008-8/4.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5.jpg,https://oleks-netizen.github.io/product-images/L22008-8/6.jpg,https://oleks-netizen.github.io/product-images/L22008-8/7.jpg,https://oleks-netizen.github.io/product-images/L22008-8/8.jpg,https://oleks-netizen.github.io/product-images/L22008-8/9.jpg</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>L22008-8</t>
+          <t>L22009-1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/2.jpg,https://oleks-netizen.github.io/product-images/L22008-8/4.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5.jpg,https://oleks-netizen.github.io/product-images/L22008-8/6.jpg,https://oleks-netizen.github.io/product-images/L22008-8/7.jpg,https://oleks-netizen.github.io/product-images/L22008-8/8.jpg,https://oleks-netizen.github.io/product-images/L22008-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>L22009-1</t>
+          <t>L22009-35</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5181,42 +5181,42 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>L22009-35</t>
+          <t>L22098-1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2.jpg,https://oleks-netizen.github.io/product-images/L22098-1/4.jpg,https://oleks-netizen.github.io/product-images/L22098-1/5.jpg,https://oleks-netizen.github.io/product-images/L22098-1/6.jpg,https://oleks-netizen.github.io/product-images/L22098-1/7.jpg,https://oleks-netizen.github.io/product-images/L22098-1/8.jpg</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>L22098-1</t>
+          <t>L22125-1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2.jpg,https://oleks-netizen.github.io/product-images/L22098-1/4.jpg,https://oleks-netizen.github.io/product-images/L22098-1/5.jpg,https://oleks-netizen.github.io/product-images/L22098-1/6.jpg,https://oleks-netizen.github.io/product-images/L22098-1/7.jpg,https://oleks-netizen.github.io/product-images/L22098-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/2.jpg,https://oleks-netizen.github.io/product-images/L22125-1/4.jpg,https://oleks-netizen.github.io/product-images/L22125-1/5.jpg,https://oleks-netizen.github.io/product-images/L22125-1/6.jpg,https://oleks-netizen.github.io/product-images/L22125-1/7.jpg,https://oleks-netizen.github.io/product-images/L22125-1/8.jpg,https://oleks-netizen.github.io/product-images/L22125-1/9.jpg</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>L22125-1</t>
+          <t>L22125-8</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/2.jpg,https://oleks-netizen.github.io/product-images/L22125-1/4.jpg,https://oleks-netizen.github.io/product-images/L22125-1/5.jpg,https://oleks-netizen.github.io/product-images/L22125-1/6.jpg,https://oleks-netizen.github.io/product-images/L22125-1/7.jpg,https://oleks-netizen.github.io/product-images/L22125-1/8.jpg,https://oleks-netizen.github.io/product-images/L22125-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/2.jpg,https://oleks-netizen.github.io/product-images/L22125-8/4.jpg,https://oleks-netizen.github.io/product-images/L22125-8/5.jpg,https://oleks-netizen.github.io/product-images/L22125-8/6.jpg,https://oleks-netizen.github.io/product-images/L22125-8/7.jpg,https://oleks-netizen.github.io/product-images/L22125-8/8.jpg,https://oleks-netizen.github.io/product-images/L22125-8/9.jpg</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5226,27 +5226,27 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>L22125-8</t>
+          <t>L22187-1W</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/2.jpg,https://oleks-netizen.github.io/product-images/L22125-8/4.jpg,https://oleks-netizen.github.io/product-images/L22125-8/5.jpg,https://oleks-netizen.github.io/product-images/L22125-8/6.jpg,https://oleks-netizen.github.io/product-images/L22125-8/7.jpg,https://oleks-netizen.github.io/product-images/L22125-8/8.jpg,https://oleks-netizen.github.io/product-images/L22125-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>L22187-1W</t>
+          <t>L22187-1X</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5256,12 +5256,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>L22187-1X</t>
+          <t>L22322-01</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5271,12 +5271,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>L22322-01</t>
+          <t>L22322-02</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5286,12 +5286,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>L22322-02</t>
+          <t>L22322-1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5301,12 +5301,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>L22322-1</t>
+          <t>L22322-4</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/3.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5316,57 +5316,57 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>L22322-4</t>
+          <t>L22532-01</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/3.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/3.jpg,https://oleks-netizen.github.io/product-images/L22532-01/4.jpg,https://oleks-netizen.github.io/product-images/L22532-01/5.jpg,https://oleks-netizen.github.io/product-images/L22532-01/6.jpg,https://oleks-netizen.github.io/product-images/L22532-01/7.jpg,https://oleks-netizen.github.io/product-images/L22532-01/8.jpg</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>L22532-01</t>
+          <t>L22532-03</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/3.jpg,https://oleks-netizen.github.io/product-images/L22532-01/4.jpg,https://oleks-netizen.github.io/product-images/L22532-01/5.jpg,https://oleks-netizen.github.io/product-images/L22532-01/6.jpg,https://oleks-netizen.github.io/product-images/L22532-01/7.jpg,https://oleks-netizen.github.io/product-images/L22532-01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/3.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4.jpg,https://oleks-netizen.github.io/product-images/L22532-03/5.jpg,https://oleks-netizen.github.io/product-images/L22532-03/6.jpg,https://oleks-netizen.github.io/product-images/L22532-03/7.jpg,https://oleks-netizen.github.io/product-images/L22532-03/8.jpg,https://oleks-netizen.github.io/product-images/L22532-03/9.jpg</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>L22532-03</t>
+          <t>L22537-179</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/3.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4.jpg,https://oleks-netizen.github.io/product-images/L22532-03/5.jpg,https://oleks-netizen.github.io/product-images/L22532-03/6.jpg,https://oleks-netizen.github.io/product-images/L22532-03/7.jpg,https://oleks-netizen.github.io/product-images/L22532-03/8.jpg,https://oleks-netizen.github.io/product-images/L22532-03/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/3.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4.jpg,https://oleks-netizen.github.io/product-images/L22537-179/5.jpg,https://oleks-netizen.github.io/product-images/L22537-179/6.jpg,https://oleks-netizen.github.io/product-images/L22537-179/7.jpg,https://oleks-netizen.github.io/product-images/L22537-179/8.jpg</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>L22537-179</t>
+          <t>L22613-1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/3.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4.jpg,https://oleks-netizen.github.io/product-images/L22537-179/5.jpg,https://oleks-netizen.github.io/product-images/L22537-179/6.jpg,https://oleks-netizen.github.io/product-images/L22537-179/7.jpg,https://oleks-netizen.github.io/product-images/L22537-179/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/3.jpg,https://oleks-netizen.github.io/product-images/L22613-1/4.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5.jpg,https://oleks-netizen.github.io/product-images/L22613-1/6.jpg,https://oleks-netizen.github.io/product-images/L22613-1/7.jpg,https://oleks-netizen.github.io/product-images/L22613-1/8.jpg</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5376,57 +5376,57 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>L22613-1</t>
+          <t>L22613-2S</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/3.jpg,https://oleks-netizen.github.io/product-images/L22613-1/4.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5.jpg,https://oleks-netizen.github.io/product-images/L22613-1/6.jpg,https://oleks-netizen.github.io/product-images/L22613-1/7.jpg,https://oleks-netizen.github.io/product-images/L22613-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/2.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/3.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/4.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/6.jpg</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>L22613-2S</t>
+          <t>L22619-1X</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/2.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/3.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/4.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/3.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/8.jpg</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>L22619-1X</t>
+          <t>L22661-1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/3.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/3.jpg,https://oleks-netizen.github.io/product-images/L22661-1/4.jpg,https://oleks-netizen.github.io/product-images/L22661-1/5.jpg,https://oleks-netizen.github.io/product-images/L22661-1/6.jpg,https://oleks-netizen.github.io/product-images/L22661-1/7.jpg</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>L22661-1</t>
+          <t>L22808-1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/3.jpg,https://oleks-netizen.github.io/product-images/L22661-1/4.jpg,https://oleks-netizen.github.io/product-images/L22661-1/5.jpg,https://oleks-netizen.github.io/product-images/L22661-1/6.jpg,https://oleks-netizen.github.io/product-images/L22661-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1/7.jpg</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5436,12 +5436,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>L22808-1</t>
+          <t>L22808-1W</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/7.jpg</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5451,27 +5451,27 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>L22808-1W</t>
+          <t>L22813-04S</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/8.jpg</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>L22813-04S</t>
+          <t>L22813-05S</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/8.jpg</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5481,42 +5481,42 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>L22813-05S</t>
+          <t>L22902-1C</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/3.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>L22902-1C</t>
+          <t>L22916-5W</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/3.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/3.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/4.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/6.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/7.jpg</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>L22916-5W</t>
+          <t>L26003-1</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/3.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/4.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/6.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/3.jpg,https://oleks-netizen.github.io/product-images/L26003-1/4.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5.jpg,https://oleks-netizen.github.io/product-images/L26003-1/6.jpg,https://oleks-netizen.github.io/product-images/L26003-1/7.jpg</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5526,12 +5526,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>L26003-1</t>
+          <t>L26018-1</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/3.jpg,https://oleks-netizen.github.io/product-images/L26003-1/4.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5.jpg,https://oleks-netizen.github.io/product-images/L26003-1/6.jpg,https://oleks-netizen.github.io/product-images/L26003-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5541,162 +5541,162 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>L26018-1</t>
+          <t>L26029-017</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26029-017/1.jpg,https://oleks-netizen.github.io/product-images/L26029-017/2.jpg,https://oleks-netizen.github.io/product-images/L26029-017/4.jpg,https://oleks-netizen.github.io/product-images/L26029-017/5.jpg,https://oleks-netizen.github.io/product-images/L26029-017/6.jpg,https://oleks-netizen.github.io/product-images/L26029-017/7.jpg,https://oleks-netizen.github.io/product-images/L26029-017/8.jpg</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>L26029-017</t>
+          <t>L26290-005</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26029-017/1.jpg,https://oleks-netizen.github.io/product-images/L26029-017/2.jpg,https://oleks-netizen.github.io/product-images/L26029-017/4.jpg,https://oleks-netizen.github.io/product-images/L26029-017/5.jpg,https://oleks-netizen.github.io/product-images/L26029-017/6.jpg,https://oleks-netizen.github.io/product-images/L26029-017/7.jpg,https://oleks-netizen.github.io/product-images/L26029-017/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>L26290-005</t>
+          <t>L26309-005</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>L26309-005</t>
+          <t>L26321-1</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>L26321-1</t>
+          <t>L29023-14</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>L29023-14</t>
+          <t>L3025-4</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L3025-4/10.jpg,https://oleks-netizen.github.io/product-images/L3025-4/1.jpg,https://oleks-netizen.github.io/product-images/L3025-4/2.jpg,https://oleks-netizen.github.io/product-images/L3025-4/3.jpg,https://oleks-netizen.github.io/product-images/L3025-4/4.jpg,https://oleks-netizen.github.io/product-images/L3025-4/6.jpg,https://oleks-netizen.github.io/product-images/L3025-4/7.jpg,https://oleks-netizen.github.io/product-images/L3025-4/8.jpg,https://oleks-netizen.github.io/product-images/L3025-4/9.jpg</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>L3025-4</t>
+          <t>L85351-1</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L3025-4/10.jpg,https://oleks-netizen.github.io/product-images/L3025-4/1.jpg,https://oleks-netizen.github.io/product-images/L3025-4/2.jpg,https://oleks-netizen.github.io/product-images/L3025-4/3.jpg,https://oleks-netizen.github.io/product-images/L3025-4/4.jpg,https://oleks-netizen.github.io/product-images/L3025-4/6.jpg,https://oleks-netizen.github.io/product-images/L3025-4/7.jpg,https://oleks-netizen.github.io/product-images/L3025-4/8.jpg,https://oleks-netizen.github.io/product-images/L3025-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85351-1/1.jpg,https://oleks-netizen.github.io/product-images/L85351-1/2.jpg,https://oleks-netizen.github.io/product-images/L85351-1/3.jpg,https://oleks-netizen.github.io/product-images/L85351-1/4.jpg,https://oleks-netizen.github.io/product-images/L85351-1/5.jpg,https://oleks-netizen.github.io/product-images/L85351-1/6.jpg,https://oleks-netizen.github.io/product-images/L85351-1/7.jpg,https://oleks-netizen.github.io/product-images/L85351-1/8.jpg</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>L85351-1</t>
+          <t>L86913-1</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85351-1/1.jpg,https://oleks-netizen.github.io/product-images/L85351-1/2.jpg,https://oleks-netizen.github.io/product-images/L85351-1/3.jpg,https://oleks-netizen.github.io/product-images/L85351-1/4.jpg,https://oleks-netizen.github.io/product-images/L85351-1/5.jpg,https://oleks-netizen.github.io/product-images/L85351-1/6.jpg,https://oleks-netizen.github.io/product-images/L85351-1/7.jpg,https://oleks-netizen.github.io/product-images/L85351-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86913-1/1.jpg,https://oleks-netizen.github.io/product-images/L86913-1/2.jpg,https://oleks-netizen.github.io/product-images/L86913-1/4.jpg,https://oleks-netizen.github.io/product-images/L86913-1/5.jpg,https://oleks-netizen.github.io/product-images/L86913-1/6.jpg,https://oleks-netizen.github.io/product-images/L86913-1/7.jpg,https://oleks-netizen.github.io/product-images/L86913-1/8.jpg</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>L86913-1</t>
+          <t>L86913-15</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-1/1.jpg,https://oleks-netizen.github.io/product-images/L86913-1/2.jpg,https://oleks-netizen.github.io/product-images/L86913-1/4.jpg,https://oleks-netizen.github.io/product-images/L86913-1/5.jpg,https://oleks-netizen.github.io/product-images/L86913-1/6.jpg,https://oleks-netizen.github.io/product-images/L86913-1/7.jpg,https://oleks-netizen.github.io/product-images/L86913-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86913-15/1.jpg,https://oleks-netizen.github.io/product-images/L86913-15/2.jpg,https://oleks-netizen.github.io/product-images/L86913-15/4.jpg,https://oleks-netizen.github.io/product-images/L86913-15/5.jpg,https://oleks-netizen.github.io/product-images/L86913-15/6.jpg,https://oleks-netizen.github.io/product-images/L86913-15/7.jpg,https://oleks-netizen.github.io/product-images/L86913-15/8.jpg,https://oleks-netizen.github.io/product-images/L86913-15/9.jpg</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>L86913-15</t>
+          <t>L86913-3</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-15/1.jpg,https://oleks-netizen.github.io/product-images/L86913-15/2.jpg,https://oleks-netizen.github.io/product-images/L86913-15/4.jpg,https://oleks-netizen.github.io/product-images/L86913-15/5.jpg,https://oleks-netizen.github.io/product-images/L86913-15/6.jpg,https://oleks-netizen.github.io/product-images/L86913-15/7.jpg,https://oleks-netizen.github.io/product-images/L86913-15/8.jpg,https://oleks-netizen.github.io/product-images/L86913-15/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86913-3/1.jpg,https://oleks-netizen.github.io/product-images/L86913-3/2.jpg,https://oleks-netizen.github.io/product-images/L86913-3/4.jpg,https://oleks-netizen.github.io/product-images/L86913-3/5.jpg,https://oleks-netizen.github.io/product-images/L86913-3/6.jpg,https://oleks-netizen.github.io/product-images/L86913-3/7.jpg,https://oleks-netizen.github.io/product-images/L86913-3/8.jpg</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>L86913-3</t>
+          <t>L86963-10</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-3/1.jpg,https://oleks-netizen.github.io/product-images/L86913-3/2.jpg,https://oleks-netizen.github.io/product-images/L86913-3/4.jpg,https://oleks-netizen.github.io/product-images/L86913-3/5.jpg,https://oleks-netizen.github.io/product-images/L86913-3/6.jpg,https://oleks-netizen.github.io/product-images/L86913-3/7.jpg,https://oleks-netizen.github.io/product-images/L86913-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86963-10/1.jpg,https://oleks-netizen.github.io/product-images/L86963-10/2.jpg,https://oleks-netizen.github.io/product-images/L86963-10/4.jpg,https://oleks-netizen.github.io/product-images/L86963-10/5.jpg,https://oleks-netizen.github.io/product-images/L86963-10/6.jpg,https://oleks-netizen.github.io/product-images/L86963-10/7.jpg,https://oleks-netizen.github.io/product-images/L86963-10/8.jpg</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5706,12 +5706,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>L86963-10</t>
+          <t>L86963-14</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86963-10/1.jpg,https://oleks-netizen.github.io/product-images/L86963-10/2.jpg,https://oleks-netizen.github.io/product-images/L86963-10/4.jpg,https://oleks-netizen.github.io/product-images/L86963-10/5.jpg,https://oleks-netizen.github.io/product-images/L86963-10/6.jpg,https://oleks-netizen.github.io/product-images/L86963-10/7.jpg,https://oleks-netizen.github.io/product-images/L86963-10/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86963-14/1.jpg,https://oleks-netizen.github.io/product-images/L86963-14/2.jpg,https://oleks-netizen.github.io/product-images/L86963-14/4.jpg,https://oleks-netizen.github.io/product-images/L86963-14/5.jpg,https://oleks-netizen.github.io/product-images/L86963-14/6.jpg,https://oleks-netizen.github.io/product-images/L86963-14/7.jpg,https://oleks-netizen.github.io/product-images/L86963-14/8.jpg</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5721,12 +5721,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>L86963-14</t>
+          <t>L87005-2W</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86963-14/1.jpg,https://oleks-netizen.github.io/product-images/L86963-14/2.jpg,https://oleks-netizen.github.io/product-images/L86963-14/4.jpg,https://oleks-netizen.github.io/product-images/L86963-14/5.jpg,https://oleks-netizen.github.io/product-images/L86963-14/6.jpg,https://oleks-netizen.github.io/product-images/L86963-14/7.jpg,https://oleks-netizen.github.io/product-images/L86963-14/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87005-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/2.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/7.jpg</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5736,27 +5736,27 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>L87005-2W</t>
+          <t>L87024-1</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87005-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/2.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>L87024-1</t>
+          <t>L87045-96</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5766,42 +5766,42 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>L87045-96</t>
+          <t>L87156-1X</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>L87156-1X</t>
+          <t>L87266-1</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87266-1/1.jpg,https://oleks-netizen.github.io/product-images/L87266-1/2.jpg,https://oleks-netizen.github.io/product-images/L87266-1/4.jpg,https://oleks-netizen.github.io/product-images/L87266-1/5.jpg,https://oleks-netizen.github.io/product-images/L87266-1/6.jpg,https://oleks-netizen.github.io/product-images/L87266-1/7.jpg,https://oleks-netizen.github.io/product-images/L87266-1/8.jpg,https://oleks-netizen.github.io/product-images/L87266-1/9.jpg</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>L87266-1</t>
+          <t>L87266-4</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-1/1.jpg,https://oleks-netizen.github.io/product-images/L87266-1/2.jpg,https://oleks-netizen.github.io/product-images/L87266-1/4.jpg,https://oleks-netizen.github.io/product-images/L87266-1/5.jpg,https://oleks-netizen.github.io/product-images/L87266-1/6.jpg,https://oleks-netizen.github.io/product-images/L87266-1/7.jpg,https://oleks-netizen.github.io/product-images/L87266-1/8.jpg,https://oleks-netizen.github.io/product-images/L87266-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87266-4/1.jpg,https://oleks-netizen.github.io/product-images/L87266-4/2.jpg,https://oleks-netizen.github.io/product-images/L87266-4/4.jpg,https://oleks-netizen.github.io/product-images/L87266-4/5.jpg,https://oleks-netizen.github.io/product-images/L87266-4/6.jpg,https://oleks-netizen.github.io/product-images/L87266-4/7.jpg,https://oleks-netizen.github.io/product-images/L87266-4/8.jpg,https://oleks-netizen.github.io/product-images/L87266-4/9.jpg</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5811,12 +5811,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>L87266-4</t>
+          <t>L87266-46</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-4/1.jpg,https://oleks-netizen.github.io/product-images/L87266-4/2.jpg,https://oleks-netizen.github.io/product-images/L87266-4/4.jpg,https://oleks-netizen.github.io/product-images/L87266-4/5.jpg,https://oleks-netizen.github.io/product-images/L87266-4/6.jpg,https://oleks-netizen.github.io/product-images/L87266-4/7.jpg,https://oleks-netizen.github.io/product-images/L87266-4/8.jpg,https://oleks-netizen.github.io/product-images/L87266-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87266-46/1.jpg,https://oleks-netizen.github.io/product-images/L87266-46/2.jpg,https://oleks-netizen.github.io/product-images/L87266-46/4.jpg,https://oleks-netizen.github.io/product-images/L87266-46/5.jpg,https://oleks-netizen.github.io/product-images/L87266-46/6.jpg,https://oleks-netizen.github.io/product-images/L87266-46/7.jpg,https://oleks-netizen.github.io/product-images/L87266-46/8.jpg,https://oleks-netizen.github.io/product-images/L87266-46/9.jpg</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5826,132 +5826,132 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>L87266-46</t>
+          <t>L87274-1</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-46/1.jpg,https://oleks-netizen.github.io/product-images/L87266-46/2.jpg,https://oleks-netizen.github.io/product-images/L87266-46/4.jpg,https://oleks-netizen.github.io/product-images/L87266-46/5.jpg,https://oleks-netizen.github.io/product-images/L87266-46/6.jpg,https://oleks-netizen.github.io/product-images/L87266-46/7.jpg,https://oleks-netizen.github.io/product-images/L87266-46/8.jpg,https://oleks-netizen.github.io/product-images/L87266-46/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>L87274-1</t>
+          <t>L87535-1X</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>L87535-1X</t>
+          <t>L87606-1</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>L87606-1</t>
+          <t>L88003-24</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>L88003-24</t>
+          <t>L88003-32 Бежевый</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>L88003-32 Бежевый</t>
+          <t>L9902-3C</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/12.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>L9902-3C</t>
+          <t>LC14054-GD25</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/12.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>LC14054-GD25</t>
+          <t>LC14204-GD01</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LC14204-GD01</t>
+          <t>LC14331-R10-08</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-08/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/8.jpg</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5961,12 +5961,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>LC14331-R10-08</t>
+          <t>LC14331-R10-09</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-08/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-09/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/8.jpg</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5976,12 +5976,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>LC14331-R10-09</t>
+          <t>LC14331-R10-34</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-09/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-34/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/8.jpg</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -5991,12 +5991,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>LC14331-R10-34</t>
+          <t>LC14331-R10-41</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-34/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-41/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/8.jpg</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6006,12 +6006,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>LC14331-R10-41</t>
+          <t>LC14332-YC11-17</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-41/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-17/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/8.jpg</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6021,12 +6021,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>LC14332-YC11-17</t>
+          <t>LC14332-YC11-22</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-17/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-22/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/8.jpg</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6036,12 +6036,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>LC14332-YC11-22</t>
+          <t>LC14332-YC11-28</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-22/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-28/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/8.jpg</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6051,12 +6051,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>LC14332-YC11-28</t>
+          <t>LC14385-GD01</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-28/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14385-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/8.jpg</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6066,177 +6066,177 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>LC14385-GD01</t>
+          <t>LC14493-JS11</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14385-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14493-JS11/1.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/2.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/4.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/5.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/6.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/7.jpg</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>LC14493-JS11</t>
+          <t>LC14621-GD01</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14493-JS11/1.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/2.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/4.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/5.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/6.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>LC14621-GD01</t>
+          <t>LC14639-QJ35</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14639-QJ35/1.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/2.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/4.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/5.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/6.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/7.jpg</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>LC14639-QJ35</t>
+          <t>LC17266-A</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14639-QJ35/1.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/2.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/4.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/5.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/6.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC17266-A/1.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/2.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/3.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/4.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/5.jpg</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>LC17266-A</t>
+          <t>LC18391-1А</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC17266-A/1.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/2.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/3.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/4.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC18391-1А/1.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/2.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/3.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/4.jpg</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>LC18391-1А</t>
+          <t>LC45284X-1-2</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC18391-1А/1.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/2.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/3.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45284X-1-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/3.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/6.jpg</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>LC45284X-1-2</t>
+          <t>LC45474X-1</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45284X-1-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/3.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45474X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/9.jpg</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>LC45474X-1</t>
+          <t>LC45851X-2</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45474X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45851X-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/6.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/7.jpg</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LC45851X-2</t>
+          <t>LC47168-30</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45851X-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/6.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/4.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>LC47168-30</t>
+          <t>LC47190X-1</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/4.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47190X-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/9.jpg</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>LC47190X-1</t>
+          <t>LC47211-1</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47190X-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47211-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/7.jpg</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>LC47211-1</t>
+          <t>LC47323-1</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47211-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47323-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/7.jpg</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6246,87 +6246,87 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>LC47323-1</t>
+          <t>LC47350-1</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47323-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47350-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/9.jpg</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>LC47350-1</t>
+          <t>LC47514-1</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47350-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47514-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/5.jpg</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>LC47514-1</t>
+          <t>LC47655-1</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47514-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47655-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/6.jpg</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>LC47655-1</t>
+          <t>LC52003-2</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47655-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC52003-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/3.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/6.jpg</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>LC52003-2</t>
+          <t>LC52488-2</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52003-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/3.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/7.jpg</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>LC52488-2</t>
+          <t>LC52488-3</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-3/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/7.jpg</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6336,12 +6336,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>LC52488-3</t>
+          <t>LC52488-4</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-3/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC52488-4/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/7.jpg</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6351,42 +6351,42 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>LC52488-4</t>
+          <t>LC68803-05</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-4/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68803-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/7.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/8.jpg</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LC68803-05</t>
+          <t>LC81225-1</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC68803-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/7.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC81225-1/1.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/2.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/4.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/5.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/6.jpg</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LC81225-1</t>
+          <t>LC81628-2</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC81225-1/1.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/2.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/4.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/5.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC81628-2/1.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/2.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/4.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/5.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/6.jpg</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6396,57 +6396,57 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LC81628-2</t>
+          <t>LC82020-1</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC81628-2/1.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/2.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/4.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/5.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82020-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/8.jpg</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LC82020-1</t>
+          <t>LC82037-1</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82020-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82037-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/8.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/9.jpg</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>LC82037-1</t>
+          <t>LC82721-1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82037-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/8.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82721-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/7.jpg</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>LC82721-1</t>
+          <t>LC89049-F9976</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82721-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89049-F9976/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/4.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/6.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/7.jpg</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6456,27 +6456,27 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>LC89049-F9976</t>
+          <t>LC89213-1</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC89049-F9976/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/4.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/6.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89213-1/1.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/2.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/4.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/5.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/6.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/7.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/8.jpg</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>LC89213-1</t>
+          <t>T37193-5056</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC89213-1/1.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/2.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/4.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/5.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/6.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/7.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T37193-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/8.jpg</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6486,12 +6486,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>T37193-5056</t>
+          <t>T37515-2</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T37193-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T37515-2/1.jpg,https://oleks-netizen.github.io/product-images/T37515-2/2.jpg,https://oleks-netizen.github.io/product-images/T37515-2/4.jpg,https://oleks-netizen.github.io/product-images/T37515-2/5.jpg,https://oleks-netizen.github.io/product-images/T37515-2/6.jpg,https://oleks-netizen.github.io/product-images/T37515-2/7.jpg,https://oleks-netizen.github.io/product-images/T37515-2/8.jpg</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6501,30 +6501,15 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>T37515-2</t>
+          <t>T37515-5056</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T37515-2/1.jpg,https://oleks-netizen.github.io/product-images/T37515-2/2.jpg,https://oleks-netizen.github.io/product-images/T37515-2/4.jpg,https://oleks-netizen.github.io/product-images/T37515-2/5.jpg,https://oleks-netizen.github.io/product-images/T37515-2/6.jpg,https://oleks-netizen.github.io/product-images/T37515-2/7.jpg,https://oleks-netizen.github.io/product-images/T37515-2/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T37515-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/8.jpg</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>T37515-5056</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/T37515-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/8.jpg</t>
-        </is>
-      </c>
-      <c r="C407" t="n">
         <v>7</v>
       </c>
     </row>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/2.jpg,https://oleks-netizen.github.io/product-images/0026-2/4.jpg,https://oleks-netizen.github.io/product-images/0026-2/5.jpg,https://oleks-netizen.github.io/product-images/0026-2/6.jpg,https://oleks-netizen.github.io/product-images/0026-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/2.jpg,https://oleks-netizen.github.io/product-images/0026-2/3.jpg,https://oleks-netizen.github.io/product-images/0026-2/5.jpg,https://oleks-netizen.github.io/product-images/0026-2/6.jpg,https://oleks-netizen.github.io/product-images/0026-2/7.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/2.jpg,https://oleks-netizen.github.io/product-images/0026-3/4.jpg,https://oleks-netizen.github.io/product-images/0026-3/5.jpg,https://oleks-netizen.github.io/product-images/0026-3/6.jpg,https://oleks-netizen.github.io/product-images/0026-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/2.jpg,https://oleks-netizen.github.io/product-images/0026-3/3.jpg,https://oleks-netizen.github.io/product-images/0026-3/5.jpg,https://oleks-netizen.github.io/product-images/0026-3/6.jpg,https://oleks-netizen.github.io/product-images/0026-3/7.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2.jpg,https://oleks-netizen.github.io/product-images/0026-4/4.jpg,https://oleks-netizen.github.io/product-images/0026-4/5.jpg,https://oleks-netizen.github.io/product-images/0026-4/6.jpg,https://oleks-netizen.github.io/product-images/0026-4/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2.jpg,https://oleks-netizen.github.io/product-images/0026-4/3.jpg,https://oleks-netizen.github.io/product-images/0026-4/5.jpg,https://oleks-netizen.github.io/product-images/0026-4/6.jpg,https://oleks-netizen.github.io/product-images/0026-4/7.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/2.jpg,https://oleks-netizen.github.io/product-images/0026-5/4.jpg,https://oleks-netizen.github.io/product-images/0026-5/5.jpg,https://oleks-netizen.github.io/product-images/0026-5/6.jpg,https://oleks-netizen.github.io/product-images/0026-5/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/2.jpg,https://oleks-netizen.github.io/product-images/0026-5/3.jpg,https://oleks-netizen.github.io/product-images/0026-5/5.jpg,https://oleks-netizen.github.io/product-images/0026-5/6.jpg,https://oleks-netizen.github.io/product-images/0026-5/7.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -506,7 +506,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/2.jpg,https://oleks-netizen.github.io/product-images/0026-6/4.jpg,https://oleks-netizen.github.io/product-images/0026-6/5.jpg,https://oleks-netizen.github.io/product-images/0026-6/6.jpg,https://oleks-netizen.github.io/product-images/0026-6/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/2.jpg,https://oleks-netizen.github.io/product-images/0026-6/3.jpg,https://oleks-netizen.github.io/product-images/0026-6/5.jpg,https://oleks-netizen.github.io/product-images/0026-6/6.jpg,https://oleks-netizen.github.io/product-images/0026-6/7.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/2.jpg,https://oleks-netizen.github.io/product-images/0026-7/4.jpg,https://oleks-netizen.github.io/product-images/0026-7/5.jpg,https://oleks-netizen.github.io/product-images/0026-7/6.jpg,https://oleks-netizen.github.io/product-images/0026-7/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/2.jpg,https://oleks-netizen.github.io/product-images/0026-7/3.jpg,https://oleks-netizen.github.io/product-images/0026-7/5.jpg,https://oleks-netizen.github.io/product-images/0026-7/6.jpg,https://oleks-netizen.github.io/product-images/0026-7/7.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/2.jpg,https://oleks-netizen.github.io/product-images/0039-3/4.jpg,https://oleks-netizen.github.io/product-images/0039-3/5.jpg,https://oleks-netizen.github.io/product-images/0039-3/6.jpg,https://oleks-netizen.github.io/product-images/0039-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/3.jpg,https://oleks-netizen.github.io/product-images/0039-3/4.jpg,https://oleks-netizen.github.io/product-images/0039-3/5.jpg,https://oleks-netizen.github.io/product-images/0039-3/6.jpg,https://oleks-netizen.github.io/product-images/0039-3/7.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/2.jpg,https://oleks-netizen.github.io/product-images/005/4.jpg,https://oleks-netizen.github.io/product-images/005/5.jpg,https://oleks-netizen.github.io/product-images/005/6.jpg,https://oleks-netizen.github.io/product-images/005/7.jpg,https://oleks-netizen.github.io/product-images/005/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/3.jpg,https://oleks-netizen.github.io/product-images/005/4.jpg,https://oleks-netizen.github.io/product-images/005/5.jpg,https://oleks-netizen.github.io/product-images/005/6.jpg,https://oleks-netizen.github.io/product-images/005/7.jpg,https://oleks-netizen.github.io/product-images/005/8.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1.jpg,https://oleks-netizen.github.io/product-images/009-2/2.jpg,https://oleks-netizen.github.io/product-images/009-2/4.jpg,https://oleks-netizen.github.io/product-images/009-2/5.jpg,https://oleks-netizen.github.io/product-images/009-2/6.jpg,https://oleks-netizen.github.io/product-images/009-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-2/1.jpg,https://oleks-netizen.github.io/product-images/009-2/2.jpg,https://oleks-netizen.github.io/product-images/009-2/3.jpg,https://oleks-netizen.github.io/product-images/009-2/5.jpg,https://oleks-netizen.github.io/product-images/009-2/6.jpg,https://oleks-netizen.github.io/product-images/009-2/7.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1.jpg,https://oleks-netizen.github.io/product-images/009-4/2.jpg,https://oleks-netizen.github.io/product-images/009-4/4.jpg,https://oleks-netizen.github.io/product-images/009-4/5.jpg,https://oleks-netizen.github.io/product-images/009-4/6.jpg,https://oleks-netizen.github.io/product-images/009-4/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/009-4/1.jpg,https://oleks-netizen.github.io/product-images/009-4/3.jpg,https://oleks-netizen.github.io/product-images/009-4/4.jpg,https://oleks-netizen.github.io/product-images/009-4/5.jpg,https://oleks-netizen.github.io/product-images/009-4/6.jpg,https://oleks-netizen.github.io/product-images/009-4/7.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Сіра/1.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/3.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/4.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/5.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Сіра/1.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/6.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/3.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/4.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/5.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Синя/1.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/3.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/4.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/5.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/6.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/7.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Синя/1.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/3.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/8.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/4.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/5.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/6.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/7.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Чорна/1.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/3.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/4.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/5.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1203A Чорна/1.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/2.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/3.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/4.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/5.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1204/10.jpg,https://oleks-netizen.github.io/product-images/1204/11.jpg,https://oleks-netizen.github.io/product-images/1204/12.jpg,https://oleks-netizen.github.io/product-images/1204/1.jpg,https://oleks-netizen.github.io/product-images/1204/3.jpg,https://oleks-netizen.github.io/product-images/1204/4.jpg,https://oleks-netizen.github.io/product-images/1204/5.jpg,https://oleks-netizen.github.io/product-images/1204/6.jpg,https://oleks-netizen.github.io/product-images/1204/7.jpg,https://oleks-netizen.github.io/product-images/1204/8.jpg,https://oleks-netizen.github.io/product-images/1204/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1204/1.jpg,https://oleks-netizen.github.io/product-images/1204/2.jpg,https://oleks-netizen.github.io/product-images/1204/10.jpg,https://oleks-netizen.github.io/product-images/1204/11.jpg,https://oleks-netizen.github.io/product-images/1204/3.jpg,https://oleks-netizen.github.io/product-images/1204/4.jpg,https://oleks-netizen.github.io/product-images/1204/5.jpg,https://oleks-netizen.github.io/product-images/1204/6.jpg,https://oleks-netizen.github.io/product-images/1204/7.jpg,https://oleks-netizen.github.io/product-images/1204/8.jpg,https://oleks-netizen.github.io/product-images/1204/9.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3114/1.jpg,https://oleks-netizen.github.io/product-images/3114/2.jpg,https://oleks-netizen.github.io/product-images/3114/4.jpg,https://oleks-netizen.github.io/product-images/3114/5.jpg,https://oleks-netizen.github.io/product-images/3114/6.jpg,https://oleks-netizen.github.io/product-images/3114/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3114/1.jpg,https://oleks-netizen.github.io/product-images/3114/2.jpg,https://oleks-netizen.github.io/product-images/3114/3.jpg,https://oleks-netizen.github.io/product-images/3114/4.jpg,https://oleks-netizen.github.io/product-images/3114/5.jpg,https://oleks-netizen.github.io/product-images/3114/6.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3131/1.jpg,https://oleks-netizen.github.io/product-images/3131/2.jpg,https://oleks-netizen.github.io/product-images/3131/4.jpg,https://oleks-netizen.github.io/product-images/3131/5.jpg,https://oleks-netizen.github.io/product-images/3131/6.jpg,https://oleks-netizen.github.io/product-images/3131/7.jpg,https://oleks-netizen.github.io/product-images/3131/8.jpg,https://oleks-netizen.github.io/product-images/3131/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3131/1.jpg,https://oleks-netizen.github.io/product-images/3131/2.jpg,https://oleks-netizen.github.io/product-images/3131/3.jpg,https://oleks-netizen.github.io/product-images/3131/4.jpg,https://oleks-netizen.github.io/product-images/3131/5.jpg,https://oleks-netizen.github.io/product-images/3131/6.jpg,https://oleks-netizen.github.io/product-images/3131/7.jpg,https://oleks-netizen.github.io/product-images/3131/8.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3135/1.jpg,https://oleks-netizen.github.io/product-images/3135/3.jpg,https://oleks-netizen.github.io/product-images/3135/4.jpg,https://oleks-netizen.github.io/product-images/3135/5.jpg,https://oleks-netizen.github.io/product-images/3135/6.jpg,https://oleks-netizen.github.io/product-images/3135/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3135/1.jpg,https://oleks-netizen.github.io/product-images/3135/2.jpg,https://oleks-netizen.github.io/product-images/3135/3.jpg,https://oleks-netizen.github.io/product-images/3135/4.jpg,https://oleks-netizen.github.io/product-images/3135/5.jpg,https://oleks-netizen.github.io/product-images/3135/6.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141 Коралова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/3.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141 Коралова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/10.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/9.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141 Рожева/1.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/2.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/3.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/4.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/5.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/6.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/7.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/8.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3141 Рожева/1.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/2.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/10.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/4.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/5.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/6.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/7.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/8.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/9.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3142-2/10.jpg,https://oleks-netizen.github.io/product-images/3142-2/1.jpg,https://oleks-netizen.github.io/product-images/3142-2/2.jpg,https://oleks-netizen.github.io/product-images/3142-2/3.jpg,https://oleks-netizen.github.io/product-images/3142-2/4.jpg,https://oleks-netizen.github.io/product-images/3142-2/5.jpg,https://oleks-netizen.github.io/product-images/3142-2/6.jpg,https://oleks-netizen.github.io/product-images/3142-2/7.jpg,https://oleks-netizen.github.io/product-images/3142-2/8.jpg,https://oleks-netizen.github.io/product-images/3142-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3142-2/1.jpg,https://oleks-netizen.github.io/product-images/3142-2/2.jpg,https://oleks-netizen.github.io/product-images/3142-2/11.jpg,https://oleks-netizen.github.io/product-images/3142-2/3.jpg,https://oleks-netizen.github.io/product-images/3142-2/4.jpg,https://oleks-netizen.github.io/product-images/3142-2/5.jpg,https://oleks-netizen.github.io/product-images/3142-2/6.jpg,https://oleks-netizen.github.io/product-images/3142-2/7.jpg,https://oleks-netizen.github.io/product-images/3142-2/8.jpg,https://oleks-netizen.github.io/product-images/3142-2/9.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145 Hello, Paris/10.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/1.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/2.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/3.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/4.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/5.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/6.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/7.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/8.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145 Hello, Paris/1.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/2.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/10.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/3.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/4.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/5.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/6.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/7.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/8.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/9.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145-1/10.jpg,https://oleks-netizen.github.io/product-images/3145-1/1.jpg,https://oleks-netizen.github.io/product-images/3145-1/2.jpg,https://oleks-netizen.github.io/product-images/3145-1/3.jpg,https://oleks-netizen.github.io/product-images/3145-1/4.jpg,https://oleks-netizen.github.io/product-images/3145-1/5.jpg,https://oleks-netizen.github.io/product-images/3145-1/6.jpg,https://oleks-netizen.github.io/product-images/3145-1/7.jpg,https://oleks-netizen.github.io/product-images/3145-1/8.jpg,https://oleks-netizen.github.io/product-images/3145-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145-1/1.jpg,https://oleks-netizen.github.io/product-images/3145-1/2.jpg,https://oleks-netizen.github.io/product-images/3145-1/10.jpg,https://oleks-netizen.github.io/product-images/3145-1/3.jpg,https://oleks-netizen.github.io/product-images/3145-1/4.jpg,https://oleks-netizen.github.io/product-images/3145-1/5.jpg,https://oleks-netizen.github.io/product-images/3145-1/6.jpg,https://oleks-netizen.github.io/product-images/3145-1/7.jpg,https://oleks-netizen.github.io/product-images/3145-1/8.jpg,https://oleks-netizen.github.io/product-images/3145-1/9.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145-2/10.jpg,https://oleks-netizen.github.io/product-images/3145-2/1.jpg,https://oleks-netizen.github.io/product-images/3145-2/2.jpg,https://oleks-netizen.github.io/product-images/3145-2/3.jpg,https://oleks-netizen.github.io/product-images/3145-2/4.jpg,https://oleks-netizen.github.io/product-images/3145-2/5.jpg,https://oleks-netizen.github.io/product-images/3145-2/6.jpg,https://oleks-netizen.github.io/product-images/3145-2/7.jpg,https://oleks-netizen.github.io/product-images/3145-2/8.jpg,https://oleks-netizen.github.io/product-images/3145-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3145-2/1.jpg,https://oleks-netizen.github.io/product-images/3145-2/2.jpg,https://oleks-netizen.github.io/product-images/3145-2/10.jpg,https://oleks-netizen.github.io/product-images/3145-2/3.jpg,https://oleks-netizen.github.io/product-images/3145-2/4.jpg,https://oleks-netizen.github.io/product-images/3145-2/5.jpg,https://oleks-netizen.github.io/product-images/3145-2/6.jpg,https://oleks-netizen.github.io/product-images/3145-2/7.jpg,https://oleks-netizen.github.io/product-images/3145-2/8.jpg,https://oleks-netizen.github.io/product-images/3145-2/9.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3146/10.jpg,https://oleks-netizen.github.io/product-images/3146/1.jpg,https://oleks-netizen.github.io/product-images/3146/2.jpg,https://oleks-netizen.github.io/product-images/3146/4.jpg,https://oleks-netizen.github.io/product-images/3146/5.jpg,https://oleks-netizen.github.io/product-images/3146/6.jpg,https://oleks-netizen.github.io/product-images/3146/7.jpg,https://oleks-netizen.github.io/product-images/3146/8.jpg,https://oleks-netizen.github.io/product-images/3146/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3146/1.jpg,https://oleks-netizen.github.io/product-images/3146/10.jpg,https://oleks-netizen.github.io/product-images/3146/2.jpg,https://oleks-netizen.github.io/product-images/3146/4.jpg,https://oleks-netizen.github.io/product-images/3146/5.jpg,https://oleks-netizen.github.io/product-images/3146/6.jpg,https://oleks-netizen.github.io/product-images/3146/7.jpg,https://oleks-netizen.github.io/product-images/3146/8.jpg,https://oleks-netizen.github.io/product-images/3146/9.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3219 Квіти/10.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/1.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/2.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/3.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/4.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/5.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/6.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/7.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/8.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3219 Квіти/1.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/2.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/10.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/3.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/4.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/5.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/6.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/7.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/8.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/9.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3220 Синя/10.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3220 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/10.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/9.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3220 Червона/10.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/11.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/8.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3220 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/10.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/11.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/8.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/9.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3224/10.jpg,https://oleks-netizen.github.io/product-images/3224/1.jpg,https://oleks-netizen.github.io/product-images/3224/2.jpg,https://oleks-netizen.github.io/product-images/3224/4.jpg,https://oleks-netizen.github.io/product-images/3224/5.jpg,https://oleks-netizen.github.io/product-images/3224/6.jpg,https://oleks-netizen.github.io/product-images/3224/7.jpg,https://oleks-netizen.github.io/product-images/3224/8.jpg,https://oleks-netizen.github.io/product-images/3224/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3224/1.jpg,https://oleks-netizen.github.io/product-images/3224/2.jpg,https://oleks-netizen.github.io/product-images/3224/3.jpg,https://oleks-netizen.github.io/product-images/3224/4.jpg,https://oleks-netizen.github.io/product-images/3224/5.jpg,https://oleks-netizen.github.io/product-images/3224/6.jpg,https://oleks-netizen.github.io/product-images/3224/7.jpg,https://oleks-netizen.github.io/product-images/3224/8.jpg,https://oleks-netizen.github.io/product-images/3224/9.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3307/10.jpg,https://oleks-netizen.github.io/product-images/3307/11.jpg,https://oleks-netizen.github.io/product-images/3307/1.jpg,https://oleks-netizen.github.io/product-images/3307/2.jpg,https://oleks-netizen.github.io/product-images/3307/4.jpg,https://oleks-netizen.github.io/product-images/3307/5.jpg,https://oleks-netizen.github.io/product-images/3307/6.jpg,https://oleks-netizen.github.io/product-images/3307/7.jpg,https://oleks-netizen.github.io/product-images/3307/8.jpg,https://oleks-netizen.github.io/product-images/3307/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3307/1.jpg,https://oleks-netizen.github.io/product-images/3307/2.jpg,https://oleks-netizen.github.io/product-images/3307/3.jpg,https://oleks-netizen.github.io/product-images/3307/10.jpg,https://oleks-netizen.github.io/product-images/3307/4.jpg,https://oleks-netizen.github.io/product-images/3307/5.jpg,https://oleks-netizen.github.io/product-images/3307/6.jpg,https://oleks-netizen.github.io/product-images/3307/7.jpg,https://oleks-netizen.github.io/product-images/3307/8.jpg,https://oleks-netizen.github.io/product-images/3307/9.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Червона/10.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/1.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/2.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/3.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/4.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/5.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/6.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/7.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/8.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5302 Червона/1.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/2.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/10.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/3.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/4.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/5.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/6.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/7.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/8.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/9.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6836-black/10.jpg,https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/2.jpg,https://oleks-netizen.github.io/product-images/6836-black/4.jpg,https://oleks-netizen.github.io/product-images/6836-black/5.jpg,https://oleks-netizen.github.io/product-images/6836-black/6.jpg,https://oleks-netizen.github.io/product-images/6836-black/7.jpg,https://oleks-netizen.github.io/product-images/6836-black/8.jpg,https://oleks-netizen.github.io/product-images/6836-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/2.jpg,https://oleks-netizen.github.io/product-images/6836-black/10.jpg,https://oleks-netizen.github.io/product-images/6836-black/4.jpg,https://oleks-netizen.github.io/product-images/6836-black/5.jpg,https://oleks-netizen.github.io/product-images/6836-black/6.jpg,https://oleks-netizen.github.io/product-images/6836-black/7.jpg,https://oleks-netizen.github.io/product-images/6836-black/8.jpg,https://oleks-netizen.github.io/product-images/6836-black/9.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-black/10.jpg,https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2.jpg,https://oleks-netizen.github.io/product-images/7631-black/4.jpg,https://oleks-netizen.github.io/product-images/7631-black/5.jpg,https://oleks-netizen.github.io/product-images/7631-black/6.jpg,https://oleks-netizen.github.io/product-images/7631-black/7.jpg,https://oleks-netizen.github.io/product-images/7631-black/8.jpg,https://oleks-netizen.github.io/product-images/7631-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2.jpg,https://oleks-netizen.github.io/product-images/7631-black/10.jpg,https://oleks-netizen.github.io/product-images/7631-black/4.jpg,https://oleks-netizen.github.io/product-images/7631-black/5.jpg,https://oleks-netizen.github.io/product-images/7631-black/6.jpg,https://oleks-netizen.github.io/product-images/7631-black/7.jpg,https://oleks-netizen.github.io/product-images/7631-black/8.jpg,https://oleks-netizen.github.io/product-images/7631-black/9.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-grey/10.jpg,https://oleks-netizen.github.io/product-images/7631-grey/11.jpg,https://oleks-netizen.github.io/product-images/7631-grey/1.jpg,https://oleks-netizen.github.io/product-images/7631-grey/2.jpg,https://oleks-netizen.github.io/product-images/7631-grey/4.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5.jpg,https://oleks-netizen.github.io/product-images/7631-grey/6.jpg,https://oleks-netizen.github.io/product-images/7631-grey/7.jpg,https://oleks-netizen.github.io/product-images/7631-grey/8.jpg,https://oleks-netizen.github.io/product-images/7631-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/1.jpg,https://oleks-netizen.github.io/product-images/7631-grey/2.jpg,https://oleks-netizen.github.io/product-images/7631-grey/10.jpg,https://oleks-netizen.github.io/product-images/7631-grey/11.jpg,https://oleks-netizen.github.io/product-images/7631-grey/4.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5.jpg,https://oleks-netizen.github.io/product-images/7631-grey/6.jpg,https://oleks-netizen.github.io/product-images/7631-grey/7.jpg,https://oleks-netizen.github.io/product-images/7631-grey/8.jpg,https://oleks-netizen.github.io/product-images/7631-grey/9.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7683-black/10.jpg,https://oleks-netizen.github.io/product-images/7683-black/1.jpg,https://oleks-netizen.github.io/product-images/7683-black/3.jpg,https://oleks-netizen.github.io/product-images/7683-black/4.jpg,https://oleks-netizen.github.io/product-images/7683-black/5.jpg,https://oleks-netizen.github.io/product-images/7683-black/6.jpg,https://oleks-netizen.github.io/product-images/7683-black/7.jpg,https://oleks-netizen.github.io/product-images/7683-black/8.jpg,https://oleks-netizen.github.io/product-images/7683-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/1.jpg,https://oleks-netizen.github.io/product-images/7683-black/2.jpg,https://oleks-netizen.github.io/product-images/7683-black/10.jpg,https://oleks-netizen.github.io/product-images/7683-black/4.jpg,https://oleks-netizen.github.io/product-images/7683-black/5.jpg,https://oleks-netizen.github.io/product-images/7683-black/6.jpg,https://oleks-netizen.github.io/product-images/7683-black/7.jpg,https://oleks-netizen.github.io/product-images/7683-black/8.jpg,https://oleks-netizen.github.io/product-images/7683-black/9.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7687-black/10.jpg,https://oleks-netizen.github.io/product-images/7687-black/1.jpg,https://oleks-netizen.github.io/product-images/7687-black/3.jpg,https://oleks-netizen.github.io/product-images/7687-black/4.jpg,https://oleks-netizen.github.io/product-images/7687-black/5.jpg,https://oleks-netizen.github.io/product-images/7687-black/6.jpg,https://oleks-netizen.github.io/product-images/7687-black/7.jpg,https://oleks-netizen.github.io/product-images/7687-black/8.jpg,https://oleks-netizen.github.io/product-images/7687-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1.jpg,https://oleks-netizen.github.io/product-images/7687-black/2.jpg,https://oleks-netizen.github.io/product-images/7687-black/10.jpg,https://oleks-netizen.github.io/product-images/7687-black/4.jpg,https://oleks-netizen.github.io/product-images/7687-black/5.jpg,https://oleks-netizen.github.io/product-images/7687-black/6.jpg,https://oleks-netizen.github.io/product-images/7687-black/7.jpg,https://oleks-netizen.github.io/product-images/7687-black/8.jpg,https://oleks-netizen.github.io/product-images/7687-black/9.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7687-grey/10.jpg,https://oleks-netizen.github.io/product-images/7687-grey/1.jpg,https://oleks-netizen.github.io/product-images/7687-grey/3.jpg,https://oleks-netizen.github.io/product-images/7687-grey/4.jpg,https://oleks-netizen.github.io/product-images/7687-grey/5.jpg,https://oleks-netizen.github.io/product-images/7687-grey/6.jpg,https://oleks-netizen.github.io/product-images/7687-grey/7.jpg,https://oleks-netizen.github.io/product-images/7687-grey/8.jpg,https://oleks-netizen.github.io/product-images/7687-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7687-grey/1.jpg,https://oleks-netizen.github.io/product-images/7687-grey/2.jpg,https://oleks-netizen.github.io/product-images/7687-grey/10.jpg,https://oleks-netizen.github.io/product-images/7687-grey/4.jpg,https://oleks-netizen.github.io/product-images/7687-grey/5.jpg,https://oleks-netizen.github.io/product-images/7687-grey/6.jpg,https://oleks-netizen.github.io/product-images/7687-grey/7.jpg,https://oleks-netizen.github.io/product-images/7687-grey/8.jpg,https://oleks-netizen.github.io/product-images/7687-grey/9.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7688-black/10.jpg,https://oleks-netizen.github.io/product-images/7688-black/1.jpg,https://oleks-netizen.github.io/product-images/7688-black/3.jpg,https://oleks-netizen.github.io/product-images/7688-black/4.jpg,https://oleks-netizen.github.io/product-images/7688-black/5.jpg,https://oleks-netizen.github.io/product-images/7688-black/6.jpg,https://oleks-netizen.github.io/product-images/7688-black/7.jpg,https://oleks-netizen.github.io/product-images/7688-black/8.jpg,https://oleks-netizen.github.io/product-images/7688-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7688-black/1.jpg,https://oleks-netizen.github.io/product-images/7688-black/2.jpg,https://oleks-netizen.github.io/product-images/7688-black/10.jpg,https://oleks-netizen.github.io/product-images/7688-black/4.jpg,https://oleks-netizen.github.io/product-images/7688-black/5.jpg,https://oleks-netizen.github.io/product-images/7688-black/6.jpg,https://oleks-netizen.github.io/product-images/7688-black/7.jpg,https://oleks-netizen.github.io/product-images/7688-black/8.jpg,https://oleks-netizen.github.io/product-images/7688-black/9.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7688-grey/10.jpg,https://oleks-netizen.github.io/product-images/7688-grey/1.jpg,https://oleks-netizen.github.io/product-images/7688-grey/3.jpg,https://oleks-netizen.github.io/product-images/7688-grey/4.jpg,https://oleks-netizen.github.io/product-images/7688-grey/5.jpg,https://oleks-netizen.github.io/product-images/7688-grey/6.jpg,https://oleks-netizen.github.io/product-images/7688-grey/7.jpg,https://oleks-netizen.github.io/product-images/7688-grey/8.jpg,https://oleks-netizen.github.io/product-images/7688-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7688-grey/1.jpg,https://oleks-netizen.github.io/product-images/7688-grey/2.jpg,https://oleks-netizen.github.io/product-images/7688-grey/10.jpg,https://oleks-netizen.github.io/product-images/7688-grey/4.jpg,https://oleks-netizen.github.io/product-images/7688-grey/5.jpg,https://oleks-netizen.github.io/product-images/7688-grey/6.jpg,https://oleks-netizen.github.io/product-images/7688-grey/7.jpg,https://oleks-netizen.github.io/product-images/7688-grey/8.jpg,https://oleks-netizen.github.io/product-images/7688-grey/9.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/4.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/4.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/1.jpg,https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/11.jpg,https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/3.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2.jpg,https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/3.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/2.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/12.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/3.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/4.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/2.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
         </is>
       </c>
       <c r="C385" t="n">

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>L26018-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/1.jpg,https://oleks-netizen.github.io/product-images/0026-2/2.jpg,https://oleks-netizen.github.io/product-images/0026-2/3.jpg,https://oleks-netizen.github.io/product-images/0026-2/5.jpg,https://oleks-netizen.github.io/product-images/0026-2/6.jpg,https://oleks-netizen.github.io/product-images/0026-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -456,42 +456,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0026-3</t>
+          <t>L26290-005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/1.jpg,https://oleks-netizen.github.io/product-images/0026-3/2.jpg,https://oleks-netizen.github.io/product-images/0026-3/3.jpg,https://oleks-netizen.github.io/product-images/0026-3/5.jpg,https://oleks-netizen.github.io/product-images/0026-3/6.jpg,https://oleks-netizen.github.io/product-images/0026-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0026-4</t>
+          <t>L26309-005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-4/1.jpg,https://oleks-netizen.github.io/product-images/0026-4/2.jpg,https://oleks-netizen.github.io/product-images/0026-4/3.jpg,https://oleks-netizen.github.io/product-images/0026-4/5.jpg,https://oleks-netizen.github.io/product-images/0026-4/6.jpg,https://oleks-netizen.github.io/product-images/0026-4/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0026-5</t>
+          <t>L26321-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-5/1.jpg,https://oleks-netizen.github.io/product-images/0026-5/2.jpg,https://oleks-netizen.github.io/product-images/0026-5/3.jpg,https://oleks-netizen.github.io/product-images/0026-5/5.jpg,https://oleks-netizen.github.io/product-images/0026-5/6.jpg,https://oleks-netizen.github.io/product-images/0026-5/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -501,12 +501,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0026-6</t>
+          <t>L26728-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-6/1.jpg,https://oleks-netizen.github.io/product-images/0026-6/2.jpg,https://oleks-netizen.github.io/product-images/0026-6/3.jpg,https://oleks-netizen.github.io/product-images/0026-6/5.jpg,https://oleks-netizen.github.io/product-images/0026-6/6.jpg,https://oleks-netizen.github.io/product-images/0026-6/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26728-1/1.jpg,https://oleks-netizen.github.io/product-images/L26728-1/7.jpg,https://oleks-netizen.github.io/product-images/L26728-1/3.jpg,https://oleks-netizen.github.io/product-images/L26728-1/4.jpg,https://oleks-netizen.github.io/product-images/L26728-1/5.jpg,https://oleks-netizen.github.io/product-images/L26728-1/6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,12 +516,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0026-7</t>
+          <t>L26728-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-7/1.jpg,https://oleks-netizen.github.io/product-images/0026-7/2.jpg,https://oleks-netizen.github.io/product-images/0026-7/3.jpg,https://oleks-netizen.github.io/product-images/0026-7/5.jpg,https://oleks-netizen.github.io/product-images/0026-7/6.jpg,https://oleks-netizen.github.io/product-images/0026-7/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26728-15/1.jpg,https://oleks-netizen.github.io/product-images/L26728-15/7.jpg,https://oleks-netizen.github.io/product-images/L26728-15/3.jpg,https://oleks-netizen.github.io/product-images/L26728-15/4.jpg,https://oleks-netizen.github.io/product-images/L26728-15/5.jpg,https://oleks-netizen.github.io/product-images/L26728-15/6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -531,42 +531,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0039-3</t>
+          <t>L26730-004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0039-3/1.jpg,https://oleks-netizen.github.io/product-images/0039-3/3.jpg,https://oleks-netizen.github.io/product-images/0039-3/4.jpg,https://oleks-netizen.github.io/product-images/0039-3/5.jpg,https://oleks-netizen.github.io/product-images/0039-3/6.jpg,https://oleks-netizen.github.io/product-images/0039-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26730-004/1.jpg,https://oleks-netizen.github.io/product-images/L26730-004/5.jpg,https://oleks-netizen.github.io/product-images/L26730-004/3.jpg,https://oleks-netizen.github.io/product-images/L26730-004/4.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>L26821-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/1.jpg,https://oleks-netizen.github.io/product-images/005/3.jpg,https://oleks-netizen.github.io/product-images/005/4.jpg,https://oleks-netizen.github.io/product-images/005/5.jpg,https://oleks-netizen.github.io/product-images/005/6.jpg,https://oleks-netizen.github.io/product-images/005/7.jpg,https://oleks-netizen.github.io/product-images/005/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26821-1/1.jpg,https://oleks-netizen.github.io/product-images/L26821-1/2.jpg,https://oleks-netizen.github.io/product-images/L26821-1/3.jpg,https://oleks-netizen.github.io/product-images/L26821-1/4.jpg,https://oleks-netizen.github.io/product-images/L26821-1/5.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009-2</t>
+          <t>L26822-010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1.jpg,https://oleks-netizen.github.io/product-images/009-2/2.jpg,https://oleks-netizen.github.io/product-images/009-2/3.jpg,https://oleks-netizen.github.io/product-images/009-2/5.jpg,https://oleks-netizen.github.io/product-images/009-2/6.jpg,https://oleks-netizen.github.io/product-images/009-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26822-010/1.jpg,https://oleks-netizen.github.io/product-images/L26822-010/7.jpg,https://oleks-netizen.github.io/product-images/L26822-010/3.jpg,https://oleks-netizen.github.io/product-images/L26822-010/4.jpg,https://oleks-netizen.github.io/product-images/L26822-010/5.jpg,https://oleks-netizen.github.io/product-images/L26822-010/6.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -576,12 +576,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>009-4</t>
+          <t>L26835-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1.jpg,https://oleks-netizen.github.io/product-images/009-4/3.jpg,https://oleks-netizen.github.io/product-images/009-4/4.jpg,https://oleks-netizen.github.io/product-images/009-4/5.jpg,https://oleks-netizen.github.io/product-images/009-4/6.jpg,https://oleks-netizen.github.io/product-images/009-4/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26835-1/1.jpg,https://oleks-netizen.github.io/product-images/L26835-1/7.jpg,https://oleks-netizen.github.io/product-images/L26835-1/3.jpg,https://oleks-netizen.github.io/product-images/L26835-1/4.jpg,https://oleks-netizen.github.io/product-images/L26835-1/5.jpg,https://oleks-netizen.github.io/product-images/L26835-1/6.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -591,117 +591,117 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1203A Сіра</t>
+          <t>L26835-51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Сіра/1.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/6.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/3.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/4.jpg,https://oleks-netizen.github.io/product-images/1203A Сіра/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26835-51/1.jpg,https://oleks-netizen.github.io/product-images/L26835-51/8.jpg,https://oleks-netizen.github.io/product-images/L26835-51/3.jpg,https://oleks-netizen.github.io/product-images/L26835-51/4.jpg,https://oleks-netizen.github.io/product-images/L26835-51/5.jpg,https://oleks-netizen.github.io/product-images/L26835-51/6.jpg,https://oleks-netizen.github.io/product-images/L26835-51/7.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1203A Синя</t>
+          <t>L26836-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Синя/1.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/3.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/8.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/4.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/5.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/6.jpg,https://oleks-netizen.github.io/product-images/1203A Синя/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26836-1/1.jpg,https://oleks-netizen.github.io/product-images/L26836-1/7.jpg,https://oleks-netizen.github.io/product-images/L26836-1/3.jpg,https://oleks-netizen.github.io/product-images/L26836-1/4.jpg,https://oleks-netizen.github.io/product-images/L26836-1/5.jpg,https://oleks-netizen.github.io/product-images/L26836-1/6.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1203A Чорна</t>
+          <t>L26836-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1203A Чорна/1.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/2.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/3.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/4.jpg,https://oleks-netizen.github.io/product-images/1203A Чорна/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26836-25/1.jpg,https://oleks-netizen.github.io/product-images/L26836-25/7.jpg,https://oleks-netizen.github.io/product-images/L26836-25/3.jpg,https://oleks-netizen.github.io/product-images/L26836-25/4.jpg,https://oleks-netizen.github.io/product-images/L26836-25/5.jpg,https://oleks-netizen.github.io/product-images/L26836-25/6.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>L26932-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1204/1.jpg,https://oleks-netizen.github.io/product-images/1204/2.jpg,https://oleks-netizen.github.io/product-images/1204/10.jpg,https://oleks-netizen.github.io/product-images/1204/11.jpg,https://oleks-netizen.github.io/product-images/1204/3.jpg,https://oleks-netizen.github.io/product-images/1204/4.jpg,https://oleks-netizen.github.io/product-images/1204/5.jpg,https://oleks-netizen.github.io/product-images/1204/6.jpg,https://oleks-netizen.github.io/product-images/1204/7.jpg,https://oleks-netizen.github.io/product-images/1204/8.jpg,https://oleks-netizen.github.io/product-images/1204/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26932-1/1.jpg,https://oleks-netizen.github.io/product-images/L26932-1/7.jpg,https://oleks-netizen.github.io/product-images/L26932-1/3.jpg,https://oleks-netizen.github.io/product-images/L26932-1/4.jpg,https://oleks-netizen.github.io/product-images/L26932-1/5.jpg,https://oleks-netizen.github.io/product-images/L26932-1/6.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1809-black</t>
+          <t>L26991-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-black/1.jpg,https://oleks-netizen.github.io/product-images/1809-black/2.jpg,https://oleks-netizen.github.io/product-images/1809-black/4.jpg,https://oleks-netizen.github.io/product-images/1809-black/5.jpg,https://oleks-netizen.github.io/product-images/1809-black/6.jpg,https://oleks-netizen.github.io/product-images/1809-black/7.jpg,https://oleks-netizen.github.io/product-images/1809-black/8.jpg,https://oleks-netizen.github.io/product-images/1809-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L26991-1/1.jpg,https://oleks-netizen.github.io/product-images/L26991-1/7.jpg,https://oleks-netizen.github.io/product-images/L26991-1/3.jpg,https://oleks-netizen.github.io/product-images/L26991-1/4.jpg,https://oleks-netizen.github.io/product-images/L26991-1/5.jpg,https://oleks-netizen.github.io/product-images/L26991-1/6.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1809-grey</t>
+          <t>L29023-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/1809-grey/1.jpg,https://oleks-netizen.github.io/product-images/1809-grey/2.jpg,https://oleks-netizen.github.io/product-images/1809-grey/4.jpg,https://oleks-netizen.github.io/product-images/1809-grey/5.jpg,https://oleks-netizen.github.io/product-images/1809-grey/6.jpg,https://oleks-netizen.github.io/product-images/1809-grey/7.jpg,https://oleks-netizen.github.io/product-images/1809-grey/8.jpg,https://oleks-netizen.github.io/product-images/1809-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29023-09/1.jpg,https://oleks-netizen.github.io/product-images/L29023-09/5.jpg,https://oleks-netizen.github.io/product-images/L29023-09/3.jpg,https://oleks-netizen.github.io/product-images/L29023-09/4.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>L29023-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3114/1.jpg,https://oleks-netizen.github.io/product-images/3114/2.jpg,https://oleks-netizen.github.io/product-images/3114/3.jpg,https://oleks-netizen.github.io/product-images/3114/4.jpg,https://oleks-netizen.github.io/product-images/3114/5.jpg,https://oleks-netizen.github.io/product-images/3114/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3122 Танго</t>
+          <t>L29048-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3122 Танго/1.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/2.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/3.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/4.jpg,https://oleks-netizen.github.io/product-images/3122 Танго/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29048-02/1.jpg,https://oleks-netizen.github.io/product-images/L29048-02/6.jpg,https://oleks-netizen.github.io/product-images/L29048-02/3.jpg,https://oleks-netizen.github.io/product-images/L29048-02/4.jpg,https://oleks-netizen.github.io/product-images/L29048-02/5.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -711,102 +711,102 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3130-1</t>
+          <t>L29048-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3130-1/1.jpg,https://oleks-netizen.github.io/product-images/3130-1/2.jpg,https://oleks-netizen.github.io/product-images/3130-1/3.jpg,https://oleks-netizen.github.io/product-images/3130-1/4.jpg,https://oleks-netizen.github.io/product-images/3130-1/5.jpg,https://oleks-netizen.github.io/product-images/3130-1/6.jpg,https://oleks-netizen.github.io/product-images/3130-1/7.jpg,https://oleks-netizen.github.io/product-images/3130-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29048-04/1.jpg,https://oleks-netizen.github.io/product-images/L29048-04/5.jpg,https://oleks-netizen.github.io/product-images/L29048-04/3.jpg,https://oleks-netizen.github.io/product-images/L29048-04/4.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3130-2</t>
+          <t>L29048-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3130-2/1.jpg,https://oleks-netizen.github.io/product-images/3130-2/2.jpg,https://oleks-netizen.github.io/product-images/3130-2/3.jpg,https://oleks-netizen.github.io/product-images/3130-2/4.jpg,https://oleks-netizen.github.io/product-images/3130-2/5.jpg,https://oleks-netizen.github.io/product-images/3130-2/6.jpg,https://oleks-netizen.github.io/product-images/3130-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29048-20/1.jpg,https://oleks-netizen.github.io/product-images/L29048-20/6.jpg,https://oleks-netizen.github.io/product-images/L29048-20/3.jpg,https://oleks-netizen.github.io/product-images/L29048-20/4.jpg,https://oleks-netizen.github.io/product-images/L29048-20/5.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>L29056-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3131/1.jpg,https://oleks-netizen.github.io/product-images/3131/2.jpg,https://oleks-netizen.github.io/product-images/3131/3.jpg,https://oleks-netizen.github.io/product-images/3131/4.jpg,https://oleks-netizen.github.io/product-images/3131/5.jpg,https://oleks-netizen.github.io/product-images/3131/6.jpg,https://oleks-netizen.github.io/product-images/3131/7.jpg,https://oleks-netizen.github.io/product-images/3131/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29056-04/1.jpg,https://oleks-netizen.github.io/product-images/L29056-04/4.jpg,https://oleks-netizen.github.io/product-images/L29056-04/3.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3134</t>
+          <t>L29109-202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3134/1.jpg,https://oleks-netizen.github.io/product-images/3134/2.jpg,https://oleks-netizen.github.io/product-images/3134/3.jpg,https://oleks-netizen.github.io/product-images/3134/4.jpg,https://oleks-netizen.github.io/product-images/3134/5.jpg,https://oleks-netizen.github.io/product-images/3134/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29109-202/1.jpg,https://oleks-netizen.github.io/product-images/L29109-202/6.jpg,https://oleks-netizen.github.io/product-images/L29109-202/3.jpg,https://oleks-netizen.github.io/product-images/L29109-202/4.jpg,https://oleks-netizen.github.io/product-images/L29109-202/5.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3134 Good Shopping</t>
+          <t>L29116-1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3134 Good Shopping/1.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/2.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/3.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/4.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/5.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/6.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/7.jpg,https://oleks-netizen.github.io/product-images/3134 Good Shopping/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29116-1/1.jpg,https://oleks-netizen.github.io/product-images/L29116-1/6.jpg,https://oleks-netizen.github.io/product-images/L29116-1/3.jpg,https://oleks-netizen.github.io/product-images/L29116-1/4.jpg,https://oleks-netizen.github.io/product-images/L29116-1/5.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3134 Чашки</t>
+          <t>L29132-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3134 Чашки/1.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/2.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/3.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/4.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/5.jpg,https://oleks-netizen.github.io/product-images/3134 Чашки/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29132-01/1.jpg,https://oleks-netizen.github.io/product-images/L29132-01/6.jpg,https://oleks-netizen.github.io/product-images/L29132-01/3.jpg,https://oleks-netizen.github.io/product-images/L29132-01/4.jpg,https://oleks-netizen.github.io/product-images/L29132-01/5.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>L29179-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3135/1.jpg,https://oleks-netizen.github.io/product-images/3135/2.jpg,https://oleks-netizen.github.io/product-images/3135/3.jpg,https://oleks-netizen.github.io/product-images/3135/4.jpg,https://oleks-netizen.github.io/product-images/3135/5.jpg,https://oleks-netizen.github.io/product-images/3135/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29179-1/1.jpg,https://oleks-netizen.github.io/product-images/L29179-1/7.jpg,https://oleks-netizen.github.io/product-images/L29179-1/3.jpg,https://oleks-netizen.github.io/product-images/L29179-1/4.jpg,https://oleks-netizen.github.io/product-images/L29179-1/5.jpg,https://oleks-netizen.github.io/product-images/L29179-1/6.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -816,147 +816,147 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3137-Yoga-style</t>
+          <t>L29191-1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3137-Yoga-style/1.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/2.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/3.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/4.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/5.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/6.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/7.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/8.jpg,https://oleks-netizen.github.io/product-images/3137-Yoga-style/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29191-1/1.jpg,https://oleks-netizen.github.io/product-images/L29191-1/7.jpg,https://oleks-netizen.github.io/product-images/L29191-1/3.jpg,https://oleks-netizen.github.io/product-images/L29191-1/4.jpg,https://oleks-netizen.github.io/product-images/L29191-1/5.jpg,https://oleks-netizen.github.io/product-images/L29191-1/6.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3141 Бузкова</t>
+          <t>L29196-1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141 Бузкова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/3.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Бузкова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29196-1/1.jpg,https://oleks-netizen.github.io/product-images/L29196-1/7.jpg,https://oleks-netizen.github.io/product-images/L29196-1/3.jpg,https://oleks-netizen.github.io/product-images/L29196-1/4.jpg,https://oleks-netizen.github.io/product-images/L29196-1/5.jpg,https://oleks-netizen.github.io/product-images/L29196-1/6.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3141 Коралова</t>
+          <t>L29207-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141 Коралова/1.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/2.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/10.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/4.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/5.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/6.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/7.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/8.jpg,https://oleks-netizen.github.io/product-images/3141 Коралова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29207-01/1.jpg,https://oleks-netizen.github.io/product-images/L29207-01/6.jpg,https://oleks-netizen.github.io/product-images/L29207-01/3.jpg,https://oleks-netizen.github.io/product-images/L29207-01/4.jpg,https://oleks-netizen.github.io/product-images/L29207-01/5.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3141 Рожева</t>
+          <t>L29207-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3141 Рожева/1.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/2.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/10.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/4.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/5.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/6.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/7.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/8.jpg,https://oleks-netizen.github.io/product-images/3141 Рожева/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29207-20/1.jpg,https://oleks-netizen.github.io/product-images/L29207-20/6.jpg,https://oleks-netizen.github.io/product-images/L29207-20/3.jpg,https://oleks-netizen.github.io/product-images/L29207-20/4.jpg,https://oleks-netizen.github.io/product-images/L29207-20/5.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3142-2</t>
+          <t>L29207-202</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3142-2/1.jpg,https://oleks-netizen.github.io/product-images/3142-2/2.jpg,https://oleks-netizen.github.io/product-images/3142-2/11.jpg,https://oleks-netizen.github.io/product-images/3142-2/3.jpg,https://oleks-netizen.github.io/product-images/3142-2/4.jpg,https://oleks-netizen.github.io/product-images/3142-2/5.jpg,https://oleks-netizen.github.io/product-images/3142-2/6.jpg,https://oleks-netizen.github.io/product-images/3142-2/7.jpg,https://oleks-netizen.github.io/product-images/3142-2/8.jpg,https://oleks-netizen.github.io/product-images/3142-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29207-202/1.jpg,https://oleks-netizen.github.io/product-images/L29207-202/6.jpg,https://oleks-netizen.github.io/product-images/L29207-202/3.jpg,https://oleks-netizen.github.io/product-images/L29207-202/4.jpg,https://oleks-netizen.github.io/product-images/L29207-202/5.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3145 Hello, Paris</t>
+          <t>L29228-02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145 Hello, Paris/1.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/2.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/10.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/3.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/4.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/5.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/6.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/7.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/8.jpg,https://oleks-netizen.github.io/product-images/3145 Hello, Paris/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29228-02/1.jpg,https://oleks-netizen.github.io/product-images/L29228-02/6.jpg,https://oleks-netizen.github.io/product-images/L29228-02/3.jpg,https://oleks-netizen.github.io/product-images/L29228-02/4.jpg,https://oleks-netizen.github.io/product-images/L29228-02/5.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3145-1</t>
+          <t>L29531-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145-1/1.jpg,https://oleks-netizen.github.io/product-images/3145-1/2.jpg,https://oleks-netizen.github.io/product-images/3145-1/10.jpg,https://oleks-netizen.github.io/product-images/3145-1/3.jpg,https://oleks-netizen.github.io/product-images/3145-1/4.jpg,https://oleks-netizen.github.io/product-images/3145-1/5.jpg,https://oleks-netizen.github.io/product-images/3145-1/6.jpg,https://oleks-netizen.github.io/product-images/3145-1/7.jpg,https://oleks-netizen.github.io/product-images/3145-1/8.jpg,https://oleks-netizen.github.io/product-images/3145-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29531-1/1.jpg,https://oleks-netizen.github.io/product-images/L29531-1/7.jpg,https://oleks-netizen.github.io/product-images/L29531-1/3.jpg,https://oleks-netizen.github.io/product-images/L29531-1/4.jpg,https://oleks-netizen.github.io/product-images/L29531-1/5.jpg,https://oleks-netizen.github.io/product-images/L29531-1/6.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3145-2</t>
+          <t>L29623-H4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3145-2/1.jpg,https://oleks-netizen.github.io/product-images/3145-2/2.jpg,https://oleks-netizen.github.io/product-images/3145-2/10.jpg,https://oleks-netizen.github.io/product-images/3145-2/3.jpg,https://oleks-netizen.github.io/product-images/3145-2/4.jpg,https://oleks-netizen.github.io/product-images/3145-2/5.jpg,https://oleks-netizen.github.io/product-images/3145-2/6.jpg,https://oleks-netizen.github.io/product-images/3145-2/7.jpg,https://oleks-netizen.github.io/product-images/3145-2/8.jpg,https://oleks-netizen.github.io/product-images/3145-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29623-H4/1.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/7.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/3.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/4.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/5.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/6.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>L29696-1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3146/1.jpg,https://oleks-netizen.github.io/product-images/3146/10.jpg,https://oleks-netizen.github.io/product-images/3146/2.jpg,https://oleks-netizen.github.io/product-images/3146/4.jpg,https://oleks-netizen.github.io/product-images/3146/5.jpg,https://oleks-netizen.github.io/product-images/3146/6.jpg,https://oleks-netizen.github.io/product-images/3146/7.jpg,https://oleks-netizen.github.io/product-images/3146/8.jpg,https://oleks-netizen.github.io/product-images/3146/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29696-1/1.jpg,https://oleks-netizen.github.io/product-images/L29696-1/7.jpg,https://oleks-netizen.github.io/product-images/L29696-1/3.jpg,https://oleks-netizen.github.io/product-images/L29696-1/4.jpg,https://oleks-netizen.github.io/product-images/L29696-1/5.jpg,https://oleks-netizen.github.io/product-images/L29696-1/6.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>L29715-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3210/1.jpg,https://oleks-netizen.github.io/product-images/3210/3.jpg,https://oleks-netizen.github.io/product-images/3210/4.jpg,https://oleks-netizen.github.io/product-images/3210/5.jpg,https://oleks-netizen.github.io/product-images/3210/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29715-01/1.jpg,https://oleks-netizen.github.io/product-images/L29715-01/6.jpg,https://oleks-netizen.github.io/product-images/L29715-01/3.jpg,https://oleks-netizen.github.io/product-images/L29715-01/4.jpg,https://oleks-netizen.github.io/product-images/L29715-01/5.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -966,372 +966,372 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3219 Квіти</t>
+          <t>L29850-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3219 Квіти/1.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/2.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/10.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/3.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/4.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/5.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/6.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/7.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/8.jpg,https://oleks-netizen.github.io/product-images/3219 Квіти/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L29850-01/1.jpg,https://oleks-netizen.github.io/product-images/L29850-01/6.jpg,https://oleks-netizen.github.io/product-images/L29850-01/3.jpg,https://oleks-netizen.github.io/product-images/L29850-01/4.jpg,https://oleks-netizen.github.io/product-images/L29850-01/5.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3220 Синя</t>
+          <t>L85091-H28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3220 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/10.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3220 Синя/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85091-H28/1.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/7.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/3.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/4.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/5.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/6.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3220 Червона</t>
+          <t>L85162-1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3220 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/10.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/11.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/8.jpg,https://oleks-netizen.github.io/product-images/3220 Червона/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85162-1/1.jpg,https://oleks-netizen.github.io/product-images/L85162-1/7.jpg,https://oleks-netizen.github.io/product-images/L85162-1/3.jpg,https://oleks-netizen.github.io/product-images/L85162-1/4.jpg,https://oleks-netizen.github.io/product-images/L85162-1/5.jpg,https://oleks-netizen.github.io/product-images/L85162-1/6.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3221 Горошок</t>
+          <t>L85201-H20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3221 Горошок/1.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/2.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/3.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/4.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/5.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/6.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/7.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/8.jpg,https://oleks-netizen.github.io/product-images/3221 Горошок/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85201-H20/1.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/5.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/3.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/4.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3221 Місто</t>
+          <t>L85653-H22</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3221 Місто/1.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/2.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/3.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/4.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/5.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/6.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/7.jpg,https://oleks-netizen.github.io/product-images/3221 Місто/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85653-H22/1.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/7.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/3.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/4.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/5.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/6.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3221 Осенний Листопад</t>
+          <t>L85913-1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/1.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/2.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/3.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/4.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/5.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/6.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/7.jpg,https://oleks-netizen.github.io/product-images/3221 Осенний Листопад/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L85913-1/1.jpg,https://oleks-netizen.github.io/product-images/L85913-1/5.jpg,https://oleks-netizen.github.io/product-images/L85913-1/3.jpg,https://oleks-netizen.github.io/product-images/L85913-1/4.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3222-1</t>
+          <t>L86998-F11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3222-1/1.jpg,https://oleks-netizen.github.io/product-images/3222-1/2.jpg,https://oleks-netizen.github.io/product-images/3222-1/3.jpg,https://oleks-netizen.github.io/product-images/3222-1/4.jpg,https://oleks-netizen.github.io/product-images/3222-1/5.jpg,https://oleks-netizen.github.io/product-images/3222-1/6.jpg,https://oleks-netizen.github.io/product-images/3222-1/7.jpg,https://oleks-netizen.github.io/product-images/3222-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L86998-F11/1.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/6.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/3.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/4.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/5.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>L87005-1W</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3224/1.jpg,https://oleks-netizen.github.io/product-images/3224/2.jpg,https://oleks-netizen.github.io/product-images/3224/3.jpg,https://oleks-netizen.github.io/product-images/3224/4.jpg,https://oleks-netizen.github.io/product-images/3224/5.jpg,https://oleks-netizen.github.io/product-images/3224/6.jpg,https://oleks-netizen.github.io/product-images/3224/7.jpg,https://oleks-netizen.github.io/product-images/3224/8.jpg,https://oleks-netizen.github.io/product-images/3224/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87005-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/6.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3306 Бордова</t>
+          <t>L87005-6W</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Бордова/1.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/2.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/3.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/4.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/5.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/6.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/7.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/8.jpg,https://oleks-netizen.github.io/product-images/3306 Бордова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87005-6W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/7.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/6.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3306 Мокрий асфальт</t>
+          <t>L87006-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/1.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/2.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/3.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/4.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/5.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/6.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/7.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/8.jpg,https://oleks-netizen.github.io/product-images/3306 Мокрий асфальт/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87006-01/1.jpg,https://oleks-netizen.github.io/product-images/L87006-01/7.jpg,https://oleks-netizen.github.io/product-images/L87006-01/3.jpg,https://oleks-netizen.github.io/product-images/L87006-01/4.jpg,https://oleks-netizen.github.io/product-images/L87006-01/5.jpg,https://oleks-netizen.github.io/product-images/L87006-01/6.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3306 Сіра</t>
+          <t>L87006-1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Сіра/1.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/2.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/3.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/4.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/5.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/6.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/7.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/8.jpg,https://oleks-netizen.github.io/product-images/3306 Сіра/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87006-1/1.jpg,https://oleks-netizen.github.io/product-images/L87006-1/8.jpg,https://oleks-netizen.github.io/product-images/L87006-1/3.jpg,https://oleks-netizen.github.io/product-images/L87006-1/4.jpg,https://oleks-netizen.github.io/product-images/L87006-1/5.jpg,https://oleks-netizen.github.io/product-images/L87006-1/6.jpg,https://oleks-netizen.github.io/product-images/L87006-1/7.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3306 Синя</t>
+          <t>L87006-1W</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Синя/1.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/2.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/3.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/4.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/5.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/6.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/7.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/8.jpg,https://oleks-netizen.github.io/product-images/3306 Синя/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87006-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/6.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3306 Червона</t>
+          <t>L87006-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Червона/1.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/2.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/3.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/4.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/5.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/6.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/7.jpg,https://oleks-netizen.github.io/product-images/3306 Червона/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87006-25/1.jpg,https://oleks-netizen.github.io/product-images/L87006-25/8.jpg,https://oleks-netizen.github.io/product-images/L87006-25/3.jpg,https://oleks-netizen.github.io/product-images/L87006-25/4.jpg,https://oleks-netizen.github.io/product-images/L87006-25/5.jpg,https://oleks-netizen.github.io/product-images/L87006-25/6.jpg,https://oleks-netizen.github.io/product-images/L87006-25/7.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3306 Чорна</t>
+          <t>L87006-51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3306 Чорна/1.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/2.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/3.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/4.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/5.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/6.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/7.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/8.jpg,https://oleks-netizen.github.io/product-images/3306 Чорна/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87006-51/1.jpg,https://oleks-netizen.github.io/product-images/L87006-51/8.jpg,https://oleks-netizen.github.io/product-images/L87006-51/3.jpg,https://oleks-netizen.github.io/product-images/L87006-51/4.jpg,https://oleks-netizen.github.io/product-images/L87006-51/5.jpg,https://oleks-netizen.github.io/product-images/L87006-51/6.jpg,https://oleks-netizen.github.io/product-images/L87006-51/7.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>L87024-1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3307/1.jpg,https://oleks-netizen.github.io/product-images/3307/2.jpg,https://oleks-netizen.github.io/product-images/3307/3.jpg,https://oleks-netizen.github.io/product-images/3307/10.jpg,https://oleks-netizen.github.io/product-images/3307/4.jpg,https://oleks-netizen.github.io/product-images/3307/5.jpg,https://oleks-netizen.github.io/product-images/3307/6.jpg,https://oleks-netizen.github.io/product-images/3307/7.jpg,https://oleks-netizen.github.io/product-images/3307/8.jpg,https://oleks-netizen.github.io/product-images/3307/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>509-black</t>
+          <t>L87027-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-black/1.jpg,https://oleks-netizen.github.io/product-images/509-black/2.jpg,https://oleks-netizen.github.io/product-images/509-black/4.jpg,https://oleks-netizen.github.io/product-images/509-black/5.jpg,https://oleks-netizen.github.io/product-images/509-black/6.jpg,https://oleks-netizen.github.io/product-images/509-black/7.jpg,https://oleks-netizen.github.io/product-images/509-black/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87027-1/1.jpg,https://oleks-netizen.github.io/product-images/L87027-1/7.jpg,https://oleks-netizen.github.io/product-images/L87027-1/3.jpg,https://oleks-netizen.github.io/product-images/L87027-1/4.jpg,https://oleks-netizen.github.io/product-images/L87027-1/5.jpg,https://oleks-netizen.github.io/product-images/L87027-1/6.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>509-green</t>
+          <t>L87027-171</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/509-green/1.jpg,https://oleks-netizen.github.io/product-images/509-green/2.jpg,https://oleks-netizen.github.io/product-images/509-green/4.jpg,https://oleks-netizen.github.io/product-images/509-green/5.jpg,https://oleks-netizen.github.io/product-images/509-green/6.jpg,https://oleks-netizen.github.io/product-images/509-green/7.jpg,https://oleks-netizen.github.io/product-images/509-green/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87027-171/1.jpg,https://oleks-netizen.github.io/product-images/L87027-171/7.jpg,https://oleks-netizen.github.io/product-images/L87027-171/3.jpg,https://oleks-netizen.github.io/product-images/L87027-171/4.jpg,https://oleks-netizen.github.io/product-images/L87027-171/5.jpg,https://oleks-netizen.github.io/product-images/L87027-171/6.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5302 Бордова</t>
+          <t>L87027-25W</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Бордова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Бордова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87027-25W/1.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/7.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/3.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/4.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/5.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/6.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5302 Бузкова</t>
+          <t>L87045-96</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Бузкова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Бузкова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5302 Синя</t>
+          <t>L87050-11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Синя/1.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/2.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/3.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/4.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/5.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/6.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/7.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/8.jpg,https://oleks-netizen.github.io/product-images/5302 Синя/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87050-11/1.jpg,https://oleks-netizen.github.io/product-images/L87050-11/6.jpg,https://oleks-netizen.github.io/product-images/L87050-11/3.jpg,https://oleks-netizen.github.io/product-images/L87050-11/4.jpg,https://oleks-netizen.github.io/product-images/L87050-11/5.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5302 Фіолетова</t>
+          <t>L87138-33</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Фіолетова/1.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/2.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/3.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/4.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/5.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/6.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/7.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/8.jpg,https://oleks-netizen.github.io/product-images/5302 Фіолетова/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87138-33/1.jpg,https://oleks-netizen.github.io/product-images/L87138-33/7.jpg,https://oleks-netizen.github.io/product-images/L87138-33/3.jpg,https://oleks-netizen.github.io/product-images/L87138-33/4.jpg,https://oleks-netizen.github.io/product-images/L87138-33/5.jpg,https://oleks-netizen.github.io/product-images/L87138-33/6.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5302 Червона</t>
+          <t>L87138-36</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Червона/1.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/2.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/10.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/3.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/4.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/5.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/6.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/7.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/8.jpg,https://oleks-netizen.github.io/product-images/5302 Червона/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87138-36/1.jpg,https://oleks-netizen.github.io/product-images/L87138-36/7.jpg,https://oleks-netizen.github.io/product-images/L87138-36/3.jpg,https://oleks-netizen.github.io/product-images/L87138-36/4.jpg,https://oleks-netizen.github.io/product-images/L87138-36/5.jpg,https://oleks-netizen.github.io/product-images/L87138-36/6.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5302 Чорна</t>
+          <t>L87151-H10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/5302 Чорна/1.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/2.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/3.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/4.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/5.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/6.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/7.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/8.jpg,https://oleks-netizen.github.io/product-images/5302 Чорна/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87151-H10/1.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/6.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/3.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/4.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/5.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>60418-black</t>
+          <t>L87151-H19</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/60418-black/1.jpg,https://oleks-netizen.github.io/product-images/60418-black/2.jpg,https://oleks-netizen.github.io/product-images/60418-black/4.jpg,https://oleks-netizen.github.io/product-images/60418-black/5.jpg,https://oleks-netizen.github.io/product-images/60418-black/6.jpg,https://oleks-netizen.github.io/product-images/60418-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87151-H19/1.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/6.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/3.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/4.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/5.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60418-blue</t>
+          <t>L87156-1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/60418-blue/1.jpg,https://oleks-netizen.github.io/product-images/60418-blue/2.jpg,https://oleks-netizen.github.io/product-images/60418-blue/4.jpg,https://oleks-netizen.github.io/product-images/60418-blue/5.jpg,https://oleks-netizen.github.io/product-images/60418-blue/6.jpg,https://oleks-netizen.github.io/product-images/60418-blue/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87156-1/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1/7.jpg,https://oleks-netizen.github.io/product-images/L87156-1/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1/5.jpg,https://oleks-netizen.github.io/product-images/L87156-1/6.jpg</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1341,237 +1341,237 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6098-black</t>
+          <t>L87156-1X</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-black/1.jpg,https://oleks-netizen.github.io/product-images/6098-black/2.jpg,https://oleks-netizen.github.io/product-images/6098-black/4.jpg,https://oleks-netizen.github.io/product-images/6098-black/5.jpg,https://oleks-netizen.github.io/product-images/6098-black/6.jpg,https://oleks-netizen.github.io/product-images/6098-black/7.jpg,https://oleks-netizen.github.io/product-images/6098-black/8.jpg,https://oleks-netizen.github.io/product-images/6098-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6098-green-kam</t>
+          <t>L87162-2Y</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6098-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/2.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/8.jpg,https://oleks-netizen.github.io/product-images/6098-green-kam/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87162-2Y/1.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/7.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/3.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/4.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/5.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/6.jpg</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>62142-black</t>
+          <t>L87162-3Y</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/62142-black/1.jpg,https://oleks-netizen.github.io/product-images/62142-black/2.jpg,https://oleks-netizen.github.io/product-images/62142-black/4.jpg,https://oleks-netizen.github.io/product-images/62142-black/5.jpg,https://oleks-netizen.github.io/product-images/62142-black/6.jpg,https://oleks-netizen.github.io/product-images/62142-black/7.jpg,https://oleks-netizen.github.io/product-images/62142-black/8.jpg,https://oleks-netizen.github.io/product-images/62142-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87162-3Y/1.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/7.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/3.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/4.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/5.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/6.jpg</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6836-black</t>
+          <t>L87169-1W</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/6836-black/1.jpg,https://oleks-netizen.github.io/product-images/6836-black/2.jpg,https://oleks-netizen.github.io/product-images/6836-black/10.jpg,https://oleks-netizen.github.io/product-images/6836-black/4.jpg,https://oleks-netizen.github.io/product-images/6836-black/5.jpg,https://oleks-netizen.github.io/product-images/6836-black/6.jpg,https://oleks-netizen.github.io/product-images/6836-black/7.jpg,https://oleks-netizen.github.io/product-images/6836-black/8.jpg,https://oleks-netizen.github.io/product-images/6836-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87169-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/6.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7631-black</t>
+          <t>L87169-2W</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-black/1.jpg,https://oleks-netizen.github.io/product-images/7631-black/2.jpg,https://oleks-netizen.github.io/product-images/7631-black/10.jpg,https://oleks-netizen.github.io/product-images/7631-black/4.jpg,https://oleks-netizen.github.io/product-images/7631-black/5.jpg,https://oleks-netizen.github.io/product-images/7631-black/6.jpg,https://oleks-netizen.github.io/product-images/7631-black/7.jpg,https://oleks-netizen.github.io/product-images/7631-black/8.jpg,https://oleks-netizen.github.io/product-images/7631-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87169-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/6.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7631-grey</t>
+          <t>L87169-5W</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7631-grey/1.jpg,https://oleks-netizen.github.io/product-images/7631-grey/2.jpg,https://oleks-netizen.github.io/product-images/7631-grey/10.jpg,https://oleks-netizen.github.io/product-images/7631-grey/11.jpg,https://oleks-netizen.github.io/product-images/7631-grey/4.jpg,https://oleks-netizen.github.io/product-images/7631-grey/5.jpg,https://oleks-netizen.github.io/product-images/7631-grey/6.jpg,https://oleks-netizen.github.io/product-images/7631-grey/7.jpg,https://oleks-netizen.github.io/product-images/7631-grey/8.jpg,https://oleks-netizen.github.io/product-images/7631-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87169-5W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/6.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7683-black</t>
+          <t>L87190-L11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7683-black/1.jpg,https://oleks-netizen.github.io/product-images/7683-black/2.jpg,https://oleks-netizen.github.io/product-images/7683-black/10.jpg,https://oleks-netizen.github.io/product-images/7683-black/4.jpg,https://oleks-netizen.github.io/product-images/7683-black/5.jpg,https://oleks-netizen.github.io/product-images/7683-black/6.jpg,https://oleks-netizen.github.io/product-images/7683-black/7.jpg,https://oleks-netizen.github.io/product-images/7683-black/8.jpg,https://oleks-netizen.github.io/product-images/7683-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87190-L11/1.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/6.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/3.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/4.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/5.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7687-black</t>
+          <t>L87190-Q38</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7687-black/1.jpg,https://oleks-netizen.github.io/product-images/7687-black/2.jpg,https://oleks-netizen.github.io/product-images/7687-black/10.jpg,https://oleks-netizen.github.io/product-images/7687-black/4.jpg,https://oleks-netizen.github.io/product-images/7687-black/5.jpg,https://oleks-netizen.github.io/product-images/7687-black/6.jpg,https://oleks-netizen.github.io/product-images/7687-black/7.jpg,https://oleks-netizen.github.io/product-images/7687-black/8.jpg,https://oleks-netizen.github.io/product-images/7687-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87190-Q38/1.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/7.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/3.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/4.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/5.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/6.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7687-grey</t>
+          <t>L87196-1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7687-grey/1.jpg,https://oleks-netizen.github.io/product-images/7687-grey/2.jpg,https://oleks-netizen.github.io/product-images/7687-grey/10.jpg,https://oleks-netizen.github.io/product-images/7687-grey/4.jpg,https://oleks-netizen.github.io/product-images/7687-grey/5.jpg,https://oleks-netizen.github.io/product-images/7687-grey/6.jpg,https://oleks-netizen.github.io/product-images/7687-grey/7.jpg,https://oleks-netizen.github.io/product-images/7687-grey/8.jpg,https://oleks-netizen.github.io/product-images/7687-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87196-1/1.jpg,https://oleks-netizen.github.io/product-images/L87196-1/7.jpg,https://oleks-netizen.github.io/product-images/L87196-1/3.jpg,https://oleks-netizen.github.io/product-images/L87196-1/4.jpg,https://oleks-netizen.github.io/product-images/L87196-1/5.jpg,https://oleks-netizen.github.io/product-images/L87196-1/6.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7688-black</t>
+          <t>L87214-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7688-black/1.jpg,https://oleks-netizen.github.io/product-images/7688-black/2.jpg,https://oleks-netizen.github.io/product-images/7688-black/10.jpg,https://oleks-netizen.github.io/product-images/7688-black/4.jpg,https://oleks-netizen.github.io/product-images/7688-black/5.jpg,https://oleks-netizen.github.io/product-images/7688-black/6.jpg,https://oleks-netizen.github.io/product-images/7688-black/7.jpg,https://oleks-netizen.github.io/product-images/7688-black/8.jpg,https://oleks-netizen.github.io/product-images/7688-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87214-1/1.jpg,https://oleks-netizen.github.io/product-images/L87214-1/6.jpg,https://oleks-netizen.github.io/product-images/L87214-1/3.jpg,https://oleks-netizen.github.io/product-images/L87214-1/4.jpg,https://oleks-netizen.github.io/product-images/L87214-1/5.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7688-grey</t>
+          <t>L87220-1W</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/7688-grey/1.jpg,https://oleks-netizen.github.io/product-images/7688-grey/2.jpg,https://oleks-netizen.github.io/product-images/7688-grey/10.jpg,https://oleks-netizen.github.io/product-images/7688-grey/4.jpg,https://oleks-netizen.github.io/product-images/7688-grey/5.jpg,https://oleks-netizen.github.io/product-images/7688-grey/6.jpg,https://oleks-netizen.github.io/product-images/7688-grey/7.jpg,https://oleks-netizen.github.io/product-images/7688-grey/8.jpg,https://oleks-netizen.github.io/product-images/7688-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87220-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/5.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8029-black</t>
+          <t>L87220-2W</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8029-black/1.jpg,https://oleks-netizen.github.io/product-images/8029-black/3.jpg,https://oleks-netizen.github.io/product-images/8029-black/4.jpg,https://oleks-netizen.github.io/product-images/8029-black/5.jpg,https://oleks-netizen.github.io/product-images/8029-black/6.jpg,https://oleks-netizen.github.io/product-images/8029-black/7.jpg,https://oleks-netizen.github.io/product-images/8029-black/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87220-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/5.jpg</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8029-green-kam</t>
+          <t>L87220-H10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8029-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/3.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/8029-green-kam/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87220-H10/1.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/6.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/3.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/4.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/5.jpg</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8055-black</t>
+          <t>L87220-H19</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8055-black/1.jpg,https://oleks-netizen.github.io/product-images/8055-black/3.jpg,https://oleks-netizen.github.io/product-images/8055-black/4.jpg,https://oleks-netizen.github.io/product-images/8055-black/5.jpg,https://oleks-netizen.github.io/product-images/8055-black/6.jpg,https://oleks-netizen.github.io/product-images/8055-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87220-H19/1.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/6.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/3.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/4.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/5.jpg</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8055-green-kam</t>
+          <t>L87229-126</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8055-green-kam/1.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/2.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/4.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/5.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/6.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/7.jpg,https://oleks-netizen.github.io/product-images/8055-green-kam/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87229-126/1.jpg,https://oleks-netizen.github.io/product-images/L87229-126/7.jpg,https://oleks-netizen.github.io/product-images/L87229-126/3.jpg,https://oleks-netizen.github.io/product-images/L87229-126/4.jpg,https://oleks-netizen.github.io/product-images/L87229-126/5.jpg,https://oleks-netizen.github.io/product-images/L87229-126/6.jpg</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8055-khakі</t>
+          <t>L87229-133</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8055-khakі/1.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/3.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/4.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/5.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/6.jpg,https://oleks-netizen.github.io/product-images/8055-khakі/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87229-133/1.jpg,https://oleks-netizen.github.io/product-images/L87229-133/7.jpg,https://oleks-netizen.github.io/product-images/L87229-133/3.jpg,https://oleks-netizen.github.io/product-images/L87229-133/4.jpg,https://oleks-netizen.github.io/product-images/L87229-133/5.jpg,https://oleks-netizen.github.io/product-images/L87229-133/6.jpg</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1581,57 +1581,57 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8055-pesok-pixel</t>
+          <t>L87229-136</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8055-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8055-pesok-pixel/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87229-136/1.jpg,https://oleks-netizen.github.io/product-images/L87229-136/7.jpg,https://oleks-netizen.github.io/product-images/L87229-136/3.jpg,https://oleks-netizen.github.io/product-images/L87229-136/4.jpg,https://oleks-netizen.github.io/product-images/L87229-136/5.jpg,https://oleks-netizen.github.io/product-images/L87229-136/6.jpg</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8058-black</t>
+          <t>L87229-137</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8058-black/1.jpg,https://oleks-netizen.github.io/product-images/8058-black/2.jpg,https://oleks-netizen.github.io/product-images/8058-black/4.jpg,https://oleks-netizen.github.io/product-images/8058-black/5.jpg,https://oleks-netizen.github.io/product-images/8058-black/6.jpg,https://oleks-netizen.github.io/product-images/8058-black/7.jpg,https://oleks-netizen.github.io/product-images/8058-black/8.jpg,https://oleks-netizen.github.io/product-images/8058-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87229-137/1.jpg,https://oleks-netizen.github.io/product-images/L87229-137/7.jpg,https://oleks-netizen.github.io/product-images/L87229-137/3.jpg,https://oleks-netizen.github.io/product-images/L87229-137/4.jpg,https://oleks-netizen.github.io/product-images/L87229-137/5.jpg,https://oleks-netizen.github.io/product-images/L87229-137/6.jpg</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8058-khaki</t>
+          <t>L87251-5</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8058-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/4.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/8.jpg,https://oleks-netizen.github.io/product-images/8058-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87251-5/1.jpg,https://oleks-netizen.github.io/product-images/L87251-5/6.jpg,https://oleks-netizen.github.io/product-images/L87251-5/3.jpg,https://oleks-netizen.github.io/product-images/L87251-5/4.jpg,https://oleks-netizen.github.io/product-images/L87251-5/5.jpg</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8062-green</t>
+          <t>L87274-1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green/1.jpg,https://oleks-netizen.github.io/product-images/8062-green/2.jpg,https://oleks-netizen.github.io/product-images/8062-green/4.jpg,https://oleks-netizen.github.io/product-images/8062-green/5.jpg,https://oleks-netizen.github.io/product-images/8062-green/6.jpg,https://oleks-netizen.github.io/product-images/8062-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1641,12 +1641,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8062-green-pixel</t>
+          <t>L87274-33</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8062-green-pixel/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87274-33/1.jpg,https://oleks-netizen.github.io/product-images/L87274-33/7.jpg,https://oleks-netizen.github.io/product-images/L87274-33/3.jpg,https://oleks-netizen.github.io/product-images/L87274-33/4.jpg,https://oleks-netizen.github.io/product-images/L87274-33/5.jpg,https://oleks-netizen.github.io/product-images/L87274-33/6.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1656,267 +1656,267 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8825-green-pixel</t>
+          <t>L87274-58</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-green-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-green-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87274-58/1.jpg,https://oleks-netizen.github.io/product-images/L87274-58/7.jpg,https://oleks-netizen.github.io/product-images/L87274-58/3.jpg,https://oleks-netizen.github.io/product-images/L87274-58/4.jpg,https://oleks-netizen.github.io/product-images/L87274-58/5.jpg,https://oleks-netizen.github.io/product-images/L87274-58/6.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8825-khaki</t>
+          <t>L87288-141</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-khaki/1.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/2.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/4.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/14.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/10.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/11.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/12.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/13.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/3.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/5.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/6.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/7.jpg,https://oleks-netizen.github.io/product-images/8825-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87288-141/1.jpg,https://oleks-netizen.github.io/product-images/L87288-141/6.jpg,https://oleks-netizen.github.io/product-images/L87288-141/3.jpg,https://oleks-netizen.github.io/product-images/L87288-141/4.jpg,https://oleks-netizen.github.io/product-images/L87288-141/5.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8825-pesok-pixel</t>
+          <t>L87295-94W</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8825-pesok-pixel/1.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/2.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/4.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/13.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/10.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/11.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/12.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/5.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/6.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/7.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/8.jpg,https://oleks-netizen.github.io/product-images/8825-pesok-pixel/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87295-94W/1.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/8.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/3.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/4.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/5.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/6.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/7.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9065-black</t>
+          <t>L87308-1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-black/1.jpg,https://oleks-netizen.github.io/product-images/9065-black/2.jpg,https://oleks-netizen.github.io/product-images/9065-black/10.jpg,https://oleks-netizen.github.io/product-images/9065-black/3.jpg,https://oleks-netizen.github.io/product-images/9065-black/5.jpg,https://oleks-netizen.github.io/product-images/9065-black/6.jpg,https://oleks-netizen.github.io/product-images/9065-black/7.jpg,https://oleks-netizen.github.io/product-images/9065-black/8.jpg,https://oleks-netizen.github.io/product-images/9065-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87308-1/1.jpg,https://oleks-netizen.github.io/product-images/L87308-1/6.jpg,https://oleks-netizen.github.io/product-images/L87308-1/3.jpg,https://oleks-netizen.github.io/product-images/L87308-1/4.jpg,https://oleks-netizen.github.io/product-images/L87308-1/5.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9065-green</t>
+          <t>L87309-20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-green/1.jpg,https://oleks-netizen.github.io/product-images/9065-green/2.jpg,https://oleks-netizen.github.io/product-images/9065-green/10.jpg,https://oleks-netizen.github.io/product-images/9065-green/3.jpg,https://oleks-netizen.github.io/product-images/9065-green/5.jpg,https://oleks-netizen.github.io/product-images/9065-green/6.jpg,https://oleks-netizen.github.io/product-images/9065-green/7.jpg,https://oleks-netizen.github.io/product-images/9065-green/8.jpg,https://oleks-netizen.github.io/product-images/9065-green/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87309-20/1.jpg,https://oleks-netizen.github.io/product-images/L87309-20/7.jpg,https://oleks-netizen.github.io/product-images/L87309-20/3.jpg,https://oleks-netizen.github.io/product-images/L87309-20/4.jpg,https://oleks-netizen.github.io/product-images/L87309-20/5.jpg,https://oleks-netizen.github.io/product-images/L87309-20/6.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9065-grey-kam</t>
+          <t>L87309-7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/9065-grey-kam/1.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/2.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/10.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/3.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/5.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/6.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/7.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/8.jpg,https://oleks-netizen.github.io/product-images/9065-grey-kam/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87309-7/1.jpg,https://oleks-netizen.github.io/product-images/L87309-7/7.jpg,https://oleks-netizen.github.io/product-images/L87309-7/3.jpg,https://oleks-netizen.github.io/product-images/L87309-7/4.jpg,https://oleks-netizen.github.io/product-images/L87309-7/5.jpg,https://oleks-netizen.github.io/product-images/L87309-7/6.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BV05803-1-18</t>
+          <t>L87310-1W</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV05803-1-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/4.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-1-18/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87310-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/6.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BV05803-2-18</t>
+          <t>L87318-1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV05803-2-18/1.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/2.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/3.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/5.jpg,https://oleks-netizen.github.io/product-images/BV05803-2-18/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87318-1/1.jpg,https://oleks-netizen.github.io/product-images/L87318-1/7.jpg,https://oleks-netizen.github.io/product-images/L87318-1/3.jpg,https://oleks-netizen.github.io/product-images/L87318-1/4.jpg,https://oleks-netizen.github.io/product-images/L87318-1/5.jpg,https://oleks-netizen.github.io/product-images/L87318-1/6.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BV12138-19-104</t>
+          <t>L87325-22 Белая</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12138-19-104/1.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/2.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/3.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/4.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/5.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/6.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/7.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/8.jpg,https://oleks-netizen.github.io/product-images/BV12138-19-104/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87325-22 Белая/1.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/7.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/3.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/4.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/5.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/6.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BV12374-011-24</t>
+          <t>L87341-171</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87341-171/1.jpg,https://oleks-netizen.github.io/product-images/L87341-171/7.jpg,https://oleks-netizen.github.io/product-images/L87341-171/3.jpg,https://oleks-netizen.github.io/product-images/L87341-171/4.jpg,https://oleks-netizen.github.io/product-images/L87341-171/5.jpg,https://oleks-netizen.github.io/product-images/L87341-171/6.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BV12374-011-28</t>
+          <t>L87341-179</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-011-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-011-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87341-179/1.jpg,https://oleks-netizen.github.io/product-images/L87341-179/6.jpg,https://oleks-netizen.github.io/product-images/L87341-179/3.jpg,https://oleks-netizen.github.io/product-images/L87341-179/4.jpg,https://oleks-netizen.github.io/product-images/L87341-179/5.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BV12374-012-24</t>
+          <t>L87341-22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-24/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/5.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-24/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87341-22/1.jpg,https://oleks-netizen.github.io/product-images/L87341-22/7.jpg,https://oleks-netizen.github.io/product-images/L87341-22/3.jpg,https://oleks-netizen.github.io/product-images/L87341-22/4.jpg,https://oleks-netizen.github.io/product-images/L87341-22/5.jpg,https://oleks-netizen.github.io/product-images/L87341-22/6.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BV12374-012-28</t>
+          <t>L87399-1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12374-012-28/1.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/2.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/10.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/11.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/12.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/13.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/14.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/15.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/3.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/4.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/6.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/7.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/8.jpg,https://oleks-netizen.github.io/product-images/BV12374-012-28/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87399-1/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1/7.jpg,https://oleks-netizen.github.io/product-images/L87399-1/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1/6.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BV12379-011-25</t>
+          <t>L87399-1W</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12379-011-25/10.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-011-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87399-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/8.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/7.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BV12379-012-25</t>
+          <t>L87399-1X</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV12379-012-25/1.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/2.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/3.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/4.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/5.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/6.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/7.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/8.jpg,https://oleks-netizen.github.io/product-images/BV12379-012-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87399-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/6.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BV38015-1</t>
+          <t>L87437-174</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87437-174/1.jpg,https://oleks-netizen.github.io/product-images/L87437-174/9.jpg,https://oleks-netizen.github.io/product-images/L87437-174/3.jpg,https://oleks-netizen.github.io/product-images/L87437-174/4.jpg,https://oleks-netizen.github.io/product-images/L87437-174/5.jpg,https://oleks-netizen.github.io/product-images/L87437-174/6.jpg,https://oleks-netizen.github.io/product-images/L87437-174/7.jpg,https://oleks-netizen.github.io/product-images/L87437-174/8.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BV38015-153</t>
+          <t>L87437-91</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87437-91/1.jpg,https://oleks-netizen.github.io/product-images/L87437-91/7.jpg,https://oleks-netizen.github.io/product-images/L87437-91/3.jpg,https://oleks-netizen.github.io/product-images/L87437-91/4.jpg,https://oleks-netizen.github.io/product-images/L87437-91/5.jpg,https://oleks-netizen.github.io/product-images/L87437-91/6.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BV38015-5</t>
+          <t>L87437-92</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38015-5/1.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/2.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/4.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/5.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/6.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/7.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/8.jpg,https://oleks-netizen.github.io/product-images/BV38015-5/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87437-92/1.jpg,https://oleks-netizen.github.io/product-images/L87437-92/9.jpg,https://oleks-netizen.github.io/product-images/L87437-92/3.jpg,https://oleks-netizen.github.io/product-images/L87437-92/4.jpg,https://oleks-netizen.github.io/product-images/L87437-92/5.jpg,https://oleks-netizen.github.io/product-images/L87437-92/6.jpg,https://oleks-netizen.github.io/product-images/L87437-92/7.jpg,https://oleks-netizen.github.io/product-images/L87437-92/8.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1926,27 +1926,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BV38115-1</t>
+          <t>L87480-1X</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38115-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38115-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87480-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/7.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BV38118-1</t>
+          <t>L87480-29X</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87480-29X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/7.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1956,57 +1956,57 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BV38118-211</t>
+          <t>L87480-94X</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-211/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/8.jpg,https://oleks-netizen.github.io/product-images/BV38118-211/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87480-94X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/7.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BV38118-273</t>
+          <t>L87483-1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38118-273/1.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/2.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/4.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/5.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/6.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/7.jpg,https://oleks-netizen.github.io/product-images/BV38118-273/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87483-1/1.jpg,https://oleks-netizen.github.io/product-images/L87483-1/7.jpg,https://oleks-netizen.github.io/product-images/L87483-1/3.jpg,https://oleks-netizen.github.io/product-images/L87483-1/4.jpg,https://oleks-netizen.github.io/product-images/L87483-1/5.jpg,https://oleks-netizen.github.io/product-images/L87483-1/6.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BV38171-1</t>
+          <t>L87483-29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38171-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38171-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87483-29/1.jpg,https://oleks-netizen.github.io/product-images/L87483-29/8.jpg,https://oleks-netizen.github.io/product-images/L87483-29/3.jpg,https://oleks-netizen.github.io/product-images/L87483-29/4.jpg,https://oleks-netizen.github.io/product-images/L87483-29/5.jpg,https://oleks-netizen.github.io/product-images/L87483-29/6.jpg,https://oleks-netizen.github.io/product-images/L87483-29/7.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BV38171-210</t>
+          <t>L87483-92</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38171-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38171-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87483-92/1.jpg,https://oleks-netizen.github.io/product-images/L87483-92/8.jpg,https://oleks-netizen.github.io/product-images/L87483-92/3.jpg,https://oleks-netizen.github.io/product-images/L87483-92/4.jpg,https://oleks-netizen.github.io/product-images/L87483-92/5.jpg,https://oleks-netizen.github.io/product-images/L87483-92/6.jpg,https://oleks-netizen.github.io/product-images/L87483-92/7.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2016,27 +2016,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BV38215-143</t>
+          <t>L87501-161</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38215-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38215-143/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87501-161/1.jpg,https://oleks-netizen.github.io/product-images/L87501-161/6.jpg,https://oleks-netizen.github.io/product-images/L87501-161/3.jpg,https://oleks-netizen.github.io/product-images/L87501-161/4.jpg,https://oleks-netizen.github.io/product-images/L87501-161/5.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BV38319-143</t>
+          <t>L87501-163</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38319-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38319-143/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87501-163/1.jpg,https://oleks-netizen.github.io/product-images/L87501-163/7.jpg,https://oleks-netizen.github.io/product-images/L87501-163/3.jpg,https://oleks-netizen.github.io/product-images/L87501-163/4.jpg,https://oleks-netizen.github.io/product-images/L87501-163/5.jpg,https://oleks-netizen.github.io/product-images/L87501-163/6.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2046,27 +2046,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BV38321-1</t>
+          <t>L87501-92</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38321-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38321-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87501-92/1.jpg,https://oleks-netizen.github.io/product-images/L87501-92/6.jpg,https://oleks-netizen.github.io/product-images/L87501-92/3.jpg,https://oleks-netizen.github.io/product-images/L87501-92/4.jpg,https://oleks-netizen.github.io/product-images/L87501-92/5.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BV38321-109</t>
+          <t>L87503-1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38321-109/1.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/2.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/4.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/5.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/6.jpg,https://oleks-netizen.github.io/product-images/BV38321-109/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87503-1/1.jpg,https://oleks-netizen.github.io/product-images/L87503-1/7.jpg,https://oleks-netizen.github.io/product-images/L87503-1/3.jpg,https://oleks-netizen.github.io/product-images/L87503-1/4.jpg,https://oleks-netizen.github.io/product-images/L87503-1/5.jpg,https://oleks-netizen.github.io/product-images/L87503-1/6.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2076,12 +2076,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BV38345-150</t>
+          <t>L87503-64</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-150/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-150/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87503-64/1.jpg,https://oleks-netizen.github.io/product-images/L87503-64/7.jpg,https://oleks-netizen.github.io/product-images/L87503-64/3.jpg,https://oleks-netizen.github.io/product-images/L87503-64/4.jpg,https://oleks-netizen.github.io/product-images/L87503-64/5.jpg,https://oleks-netizen.github.io/product-images/L87503-64/6.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2091,12 +2091,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BV38345-210</t>
+          <t>L87505-161</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38345-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38345-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87505-161/1.jpg,https://oleks-netizen.github.io/product-images/L87505-161/8.jpg,https://oleks-netizen.github.io/product-images/L87505-161/3.jpg,https://oleks-netizen.github.io/product-images/L87505-161/4.jpg,https://oleks-netizen.github.io/product-images/L87505-161/5.jpg,https://oleks-netizen.github.io/product-images/L87505-161/6.jpg,https://oleks-netizen.github.io/product-images/L87505-161/7.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2106,12 +2106,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BV38348-1</t>
+          <t>L87505-162</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38348-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38348-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87505-162/1.jpg,https://oleks-netizen.github.io/product-images/L87505-162/8.jpg,https://oleks-netizen.github.io/product-images/L87505-162/3.jpg,https://oleks-netizen.github.io/product-images/L87505-162/4.jpg,https://oleks-netizen.github.io/product-images/L87505-162/5.jpg,https://oleks-netizen.github.io/product-images/L87505-162/6.jpg,https://oleks-netizen.github.io/product-images/L87505-162/7.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2121,12 +2121,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BV38361-1</t>
+          <t>L87505-163</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38361-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38361-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87505-163/1.jpg,https://oleks-netizen.github.io/product-images/L87505-163/8.jpg,https://oleks-netizen.github.io/product-images/L87505-163/3.jpg,https://oleks-netizen.github.io/product-images/L87505-163/4.jpg,https://oleks-netizen.github.io/product-images/L87505-163/5.jpg,https://oleks-netizen.github.io/product-images/L87505-163/6.jpg,https://oleks-netizen.github.io/product-images/L87505-163/7.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2136,12 +2136,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BV38363-100</t>
+          <t>L87511-1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-100/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87511-1/1.jpg,https://oleks-netizen.github.io/product-images/L87511-1/7.jpg,https://oleks-netizen.github.io/product-images/L87511-1/3.jpg,https://oleks-netizen.github.io/product-images/L87511-1/4.jpg,https://oleks-netizen.github.io/product-images/L87511-1/5.jpg,https://oleks-netizen.github.io/product-images/L87511-1/6.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2151,57 +2151,57 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BV38363-143</t>
+          <t>L87527-1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38363-143/1.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/2.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/4.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/5.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/6.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/7.jpg,https://oleks-netizen.github.io/product-images/BV38363-143/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87527-1/1.jpg,https://oleks-netizen.github.io/product-images/L87527-1/7.jpg,https://oleks-netizen.github.io/product-images/L87527-1/3.jpg,https://oleks-netizen.github.io/product-images/L87527-1/4.jpg,https://oleks-netizen.github.io/product-images/L87527-1/5.jpg,https://oleks-netizen.github.io/product-images/L87527-1/6.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BV38391-1</t>
+          <t>L87530-1Y</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38391-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38391-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87530-1Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/6.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BV38398-1</t>
+          <t>L87530-4Y</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38398-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38398-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87530-4Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/6.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BV38410-303</t>
+          <t>L87530-5Y</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38410-303/1.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/2.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/4.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/5.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/6.jpg,https://oleks-netizen.github.io/product-images/BV38410-303/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87530-5Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/6.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2211,12 +2211,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BV38525-1</t>
+          <t>L87535-1X</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38525-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38525-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2226,42 +2226,42 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BV38601-153</t>
+          <t>L87535-94X</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-153/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87535-94X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/8.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/7.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BV38601-2803</t>
+          <t>L87556-1W</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38601-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/3.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38601-2803/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87556-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/5.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BV38629-100</t>
+          <t>L87606-1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38629-100/1.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/2.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/4.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/5.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/6.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/7.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/8.jpg,https://oleks-netizen.github.io/product-images/BV38629-100/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2271,147 +2271,147 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BV38643-1</t>
+          <t>L87606-1X</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38643-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/9.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/8.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BV38643-205</t>
+          <t>L87606-70</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38643-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38643-205/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-70/1.jpg,https://oleks-netizen.github.io/product-images/L87606-70/9.jpg,https://oleks-netizen.github.io/product-images/L87606-70/3.jpg,https://oleks-netizen.github.io/product-images/L87606-70/4.jpg,https://oleks-netizen.github.io/product-images/L87606-70/5.jpg,https://oleks-netizen.github.io/product-images/L87606-70/6.jpg,https://oleks-netizen.github.io/product-images/L87606-70/7.jpg,https://oleks-netizen.github.io/product-images/L87606-70/8.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BV38655-1</t>
+          <t>L87612-1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87612-1/1.jpg,https://oleks-netizen.github.io/product-images/L87612-1/7.jpg,https://oleks-netizen.github.io/product-images/L87612-1/3.jpg,https://oleks-netizen.github.io/product-images/L87612-1/4.jpg,https://oleks-netizen.github.io/product-images/L87612-1/5.jpg,https://oleks-netizen.github.io/product-images/L87612-1/6.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BV38655-153</t>
+          <t>L87661-1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/10.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-153/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87661-1/1.jpg,https://oleks-netizen.github.io/product-images/L87661-1/5.jpg,https://oleks-netizen.github.io/product-images/L87661-1/3.jpg,https://oleks-netizen.github.io/product-images/L87661-1/4.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BV38655-2803</t>
+          <t>L87661-70</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38655-2803/1.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/2.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/4.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/5.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/6.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/7.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/8.jpg,https://oleks-netizen.github.io/product-images/BV38655-2803/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87661-70/1.jpg,https://oleks-netizen.github.io/product-images/L87661-70/7.jpg,https://oleks-netizen.github.io/product-images/L87661-70/3.jpg,https://oleks-netizen.github.io/product-images/L87661-70/4.jpg,https://oleks-netizen.github.io/product-images/L87661-70/5.jpg,https://oleks-netizen.github.io/product-images/L87661-70/6.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BV38690-1</t>
+          <t>L87697-1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38690-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87697-1/1.jpg,https://oleks-netizen.github.io/product-images/L87697-1/6.jpg,https://oleks-netizen.github.io/product-images/L87697-1/3.jpg,https://oleks-netizen.github.io/product-images/L87697-1/4.jpg,https://oleks-netizen.github.io/product-images/L87697-1/5.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BV38690-153</t>
+          <t>L87697-22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38690-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38690-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87697-22/1.jpg,https://oleks-netizen.github.io/product-images/L87697-22/6.jpg,https://oleks-netizen.github.io/product-images/L87697-22/3.jpg,https://oleks-netizen.github.io/product-images/L87697-22/4.jpg,https://oleks-netizen.github.io/product-images/L87697-22/5.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BV38705-1</t>
+          <t>L87886-1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38705-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/8.jpg,https://oleks-netizen.github.io/product-images/BV38705-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87886-1/1.jpg,https://oleks-netizen.github.io/product-images/L87886-1/5.jpg,https://oleks-netizen.github.io/product-images/L87886-1/3.jpg,https://oleks-netizen.github.io/product-images/L87886-1/4.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BV38706-1</t>
+          <t>L87891-1X</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38706-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38706-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87891-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/7.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BV38755-210</t>
+          <t>L87891-29X</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38755-210/1.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/2.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/4.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/5.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/6.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/7.jpg,https://oleks-netizen.github.io/product-images/BV38755-210/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87891-29X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/7.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2421,87 +2421,87 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BV38771-1</t>
+          <t>L87891-92X</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38771-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/3.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38771-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87891-92X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/7.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BV38799-1</t>
+          <t>L88003-1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38799-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38799-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88003-1/1.jpg,https://oleks-netizen.github.io/product-images/L88003-1/6.jpg,https://oleks-netizen.github.io/product-images/L88003-1/3.jpg,https://oleks-netizen.github.io/product-images/L88003-1/4.jpg,https://oleks-netizen.github.io/product-images/L88003-1/5.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BV38806-1</t>
+          <t>L88003-24</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38806-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BV38806-153</t>
+          <t>L88003-32 Бежевый</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38806-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38806-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BV38811-1</t>
+          <t>L88005-211</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38811-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38811-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88005-211/1.jpg,https://oleks-netizen.github.io/product-images/L88005-211/7.jpg,https://oleks-netizen.github.io/product-images/L88005-211/3.jpg,https://oleks-netizen.github.io/product-images/L88005-211/4.jpg,https://oleks-netizen.github.io/product-images/L88005-211/5.jpg,https://oleks-netizen.github.io/product-images/L88005-211/6.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BV38825-1</t>
+          <t>L88005-215</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38825-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38825-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88005-215/1.jpg,https://oleks-netizen.github.io/product-images/L88005-215/7.jpg,https://oleks-netizen.github.io/product-images/L88005-215/3.jpg,https://oleks-netizen.github.io/product-images/L88005-215/4.jpg,https://oleks-netizen.github.io/product-images/L88005-215/5.jpg,https://oleks-netizen.github.io/product-images/L88005-215/6.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2511,12 +2511,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BV38826-1</t>
+          <t>L88005-216</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38826-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38826-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88005-216/1.jpg,https://oleks-netizen.github.io/product-images/L88005-216/7.jpg,https://oleks-netizen.github.io/product-images/L88005-216/3.jpg,https://oleks-netizen.github.io/product-images/L88005-216/4.jpg,https://oleks-netizen.github.io/product-images/L88005-216/5.jpg,https://oleks-netizen.github.io/product-images/L88005-216/6.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2526,12 +2526,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BV38826-240</t>
+          <t>L88012-216</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38826-240/1.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/2.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/4.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/5.jpg,https://oleks-netizen.github.io/product-images/BV38826-240/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88012-216/1.jpg,https://oleks-netizen.github.io/product-images/L88012-216/6.jpg,https://oleks-netizen.github.io/product-images/L88012-216/3.jpg,https://oleks-netizen.github.io/product-images/L88012-216/4.jpg,https://oleks-netizen.github.io/product-images/L88012-216/5.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2541,102 +2541,102 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BV38896-69</t>
+          <t>L88012-217</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38896-69/1.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/2.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/4.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/5.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/6.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/7.jpg,https://oleks-netizen.github.io/product-images/BV38896-69/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88012-217/1.jpg,https://oleks-netizen.github.io/product-images/L88012-217/7.jpg,https://oleks-netizen.github.io/product-images/L88012-217/3.jpg,https://oleks-netizen.github.io/product-images/L88012-217/4.jpg,https://oleks-netizen.github.io/product-images/L88012-217/5.jpg,https://oleks-netizen.github.io/product-images/L88012-217/6.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BV38915-1</t>
+          <t>L88015-201</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88015-201/1.jpg,https://oleks-netizen.github.io/product-images/L88015-201/6.jpg,https://oleks-netizen.github.io/product-images/L88015-201/3.jpg,https://oleks-netizen.github.io/product-images/L88015-201/4.jpg,https://oleks-netizen.github.io/product-images/L88015-201/5.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BV38915-153</t>
+          <t>L88015-32</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-153/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-153/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88015-32/1.jpg,https://oleks-netizen.github.io/product-images/L88015-32/6.jpg,https://oleks-netizen.github.io/product-images/L88015-32/3.jpg,https://oleks-netizen.github.io/product-images/L88015-32/4.jpg,https://oleks-netizen.github.io/product-images/L88015-32/5.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BV38915-205</t>
+          <t>L88015-66</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38915-205/1.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/2.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/4.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/5.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/6.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/7.jpg,https://oleks-netizen.github.io/product-images/BV38915-205/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88015-66/1.jpg,https://oleks-netizen.github.io/product-images/L88015-66/7.jpg,https://oleks-netizen.github.io/product-images/L88015-66/3.jpg,https://oleks-netizen.github.io/product-images/L88015-66/4.jpg,https://oleks-netizen.github.io/product-images/L88015-66/5.jpg,https://oleks-netizen.github.io/product-images/L88015-66/6.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BV38923-1</t>
+          <t>L88107-70</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38923-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38923-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88107-70/1.jpg,https://oleks-netizen.github.io/product-images/L88107-70/7.jpg,https://oleks-netizen.github.io/product-images/L88107-70/3.jpg,https://oleks-netizen.github.io/product-images/L88107-70/4.jpg,https://oleks-netizen.github.io/product-images/L88107-70/5.jpg,https://oleks-netizen.github.io/product-images/L88107-70/6.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BV38930-1</t>
+          <t>L88530-1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BV38930-1/1.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/2.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/4.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/5.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/6.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/7.jpg,https://oleks-netizen.github.io/product-images/BV38930-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88530-1/1.jpg,https://oleks-netizen.github.io/product-images/L88530-1/7.jpg,https://oleks-netizen.github.io/product-images/L88530-1/3.jpg,https://oleks-netizen.github.io/product-images/L88530-1/4.jpg,https://oleks-netizen.github.io/product-images/L88530-1/5.jpg,https://oleks-netizen.github.io/product-images/L88530-1/6.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C-1899B-black</t>
+          <t>L88530-66</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88530-66/1.jpg,https://oleks-netizen.github.io/product-images/L88530-66/7.jpg,https://oleks-netizen.github.io/product-images/L88530-66/3.jpg,https://oleks-netizen.github.io/product-images/L88530-66/4.jpg,https://oleks-netizen.github.io/product-images/L88530-66/5.jpg,https://oleks-netizen.github.io/product-images/L88530-66/6.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2646,12 +2646,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C-1899B-green</t>
+          <t>L88542-1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88542-1/1.jpg,https://oleks-netizen.github.io/product-images/L88542-1/7.jpg,https://oleks-netizen.github.io/product-images/L88542-1/3.jpg,https://oleks-netizen.github.io/product-images/L88542-1/4.jpg,https://oleks-netizen.github.io/product-images/L88542-1/5.jpg,https://oleks-netizen.github.io/product-images/L88542-1/6.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2661,12 +2661,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C-1899B-pink</t>
+          <t>L88542-32</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-1899B-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88542-32/1.jpg,https://oleks-netizen.github.io/product-images/L88542-32/7.jpg,https://oleks-netizen.github.io/product-images/L88542-32/3.jpg,https://oleks-netizen.github.io/product-images/L88542-32/4.jpg,https://oleks-netizen.github.io/product-images/L88542-32/5.jpg,https://oleks-netizen.github.io/product-images/L88542-32/6.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2676,12 +2676,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C-1899B-silvery-grey</t>
+          <t>L88542-65</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/2.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-1899B-silvery-grey/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88542-65/1.jpg,https://oleks-netizen.github.io/product-images/L88542-65/7.jpg,https://oleks-netizen.github.io/product-images/L88542-65/3.jpg,https://oleks-netizen.github.io/product-images/L88542-65/4.jpg,https://oleks-netizen.github.io/product-images/L88542-65/5.jpg,https://oleks-netizen.github.io/product-images/L88542-65/6.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2691,27 +2691,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C-3079A-green</t>
+          <t>L88801-201</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88801-201/1.jpg,https://oleks-netizen.github.io/product-images/L88801-201/7.jpg,https://oleks-netizen.github.io/product-images/L88801-201/3.jpg,https://oleks-netizen.github.io/product-images/L88801-201/4.jpg,https://oleks-netizen.github.io/product-images/L88801-201/5.jpg,https://oleks-netizen.github.io/product-images/L88801-201/6.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C-3079A-pink</t>
+          <t>L88801-216</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88801-216/1.jpg,https://oleks-netizen.github.io/product-images/L88801-216/6.jpg,https://oleks-netizen.github.io/product-images/L88801-216/3.jpg,https://oleks-netizen.github.io/product-images/L88801-216/4.jpg,https://oleks-netizen.github.io/product-images/L88801-216/5.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2721,27 +2721,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>C-3079A-red</t>
+          <t>L88801-228</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3079A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3079A-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L88801-228/1.jpg,https://oleks-netizen.github.io/product-images/L88801-228/7.jpg,https://oleks-netizen.github.io/product-images/L88801-228/3.jpg,https://oleks-netizen.github.io/product-images/L88801-228/4.jpg,https://oleks-netizen.github.io/product-images/L88801-228/5.jpg,https://oleks-netizen.github.io/product-images/L88801-228/6.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C-3700A-pink</t>
+          <t>LC14012X-HT50</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3700A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3700A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14012X-HT50/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/4.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/5.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2751,162 +2751,162 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C-3820A-black</t>
+          <t>LC14012X-YP01</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14012X-YP01/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/8.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/4.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/5.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/7.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C-3820A-green</t>
+          <t>LC14012X-YP2035</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14012X-YP2035/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/9.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/2.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/5.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/7.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/8.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>C-3820A-pink</t>
+          <t>LC14016-GD152</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14016-GD152/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/7.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/6.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>C-3820A-red</t>
+          <t>LC14016-GD179</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-red/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14016-GD179/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/8.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/7.jpg</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>C-3820A-silver</t>
+          <t>LC14016-GD35</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-3820A-silver/1.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/3.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/4.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/5.jpg,https://oleks-netizen.github.io/product-images/C-3820A-silver/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14016-GD35/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/9.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/2.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/7.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/8.jpg</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C-6200A-black</t>
+          <t>LC14016-GD79</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14016-GD79/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/8.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/7.jpg</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C-6200A-green</t>
+          <t>LC14019-GD01</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-green/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14019-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/8.jpg</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>C-6200A-pink</t>
+          <t>LC14032-GD01</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-6200A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-6200A-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14032-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/8.jpg</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C-8460A-black</t>
+          <t>LC14032-GD02</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14032-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/8.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/7.jpg</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C-8460A-durk-purple</t>
+          <t>LC14032-GD132</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-durk-purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14032-GD132/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/8.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/7.jpg</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>C-8460A-grey</t>
+          <t>LC14032-GD175</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14032-GD175/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/3.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/6.jpg</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2916,12 +2916,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C-8460A-pink</t>
+          <t>LC14032-GD42</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14032-GD42/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/6.jpg</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2931,147 +2931,147 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>C-8460A-silvery-grey</t>
+          <t>LC14052-YP01</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460A-silvery-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14052-YP01/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/2.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/7.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/8.jpg</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C-8460B-black</t>
+          <t>LC14052-YP02</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14052-YP02/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/8.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/7.jpg</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C-8460B-green</t>
+          <t>LC14052-YP2020</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14052-YP2020/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/8.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/7.jpg</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>C-8460B-grey</t>
+          <t>LC14054-GD01</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-grey/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14054-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>C-8460B-khaki</t>
+          <t>LC14054-GD02</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-khaki/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-khaki/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14054-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/7.jpg</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C-8460B-red</t>
+          <t>LC14054-GD25</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8460B-red/1.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/3.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/4.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/5.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/6.jpg,https://oleks-netizen.github.io/product-images/C-8460B-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C-8998-black</t>
+          <t>LC14057-GD01</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-black/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14057-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C-8998-dark-green</t>
+          <t>LC14057-GD147</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-dark-green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-dark-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14057-GD147/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/3.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/7.jpg</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>C-8998-lime green</t>
+          <t>LC14057-GD34</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-lime green/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-lime green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14057-GD34/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/3.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/7.jpg</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C-8998-pink</t>
+          <t>LC14098-GD01</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C-8998-pink/1.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/3.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/4.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/5.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/6.jpg,https://oleks-netizen.github.io/product-images/C-8998-pink/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14098-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/6.jpg</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3081,27 +3081,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C2-279-pink</t>
+          <t>LC14098-GD02</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-279-pink/1.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/3.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/4.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/5.jpg,https://oleks-netizen.github.io/product-images/C2-279-pink/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14098-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/6.jpg</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C2-936-apricot</t>
+          <t>LC14098-GD145</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-apricot/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-apricot/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14098-GD145/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/6.jpg</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3111,27 +3111,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>C2-936-black</t>
+          <t>LC14204-GD01</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-black/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C2-936-dark purple</t>
+          <t>LC14238-GD146</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-dark purple/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-dark purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14238-GD146/1.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/7.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/3.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/4.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/5.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/6.jpg</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3141,42 +3141,42 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>C2-936-green</t>
+          <t>LC14238-GD35</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-green/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14238-GD35/1.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/8.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/2.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/4.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/5.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/6.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/7.jpg</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>C2-936-grey</t>
+          <t>LC14288-GD01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-grey/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-grey/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14288-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>C2-936-lemon</t>
+          <t>LC14288-GD02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-lemon/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-lemon/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14288-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/6.jpg</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3186,27 +3186,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C2-936-red</t>
+          <t>LC14288-GD22</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C2-936-red/1.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/3.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/4.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/5.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/6.jpg,https://oleks-netizen.github.io/product-images/C2-936-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14288-GD22/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/7.jpg</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>C33030-3</t>
+          <t>LC14288-GD25</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33030-3/1.jpg,https://oleks-netizen.github.io/product-images/C33030-3/2.jpg,https://oleks-netizen.github.io/product-images/C33030-3/4.jpg,https://oleks-netizen.github.io/product-images/C33030-3/5.jpg,https://oleks-netizen.github.io/product-images/C33030-3/6.jpg,https://oleks-netizen.github.io/product-images/C33030-3/7.jpg,https://oleks-netizen.github.io/product-images/C33030-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14288-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/7.jpg</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3216,12 +3216,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>C33030-4</t>
+          <t>LC14299-GD01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33030-4/1.jpg,https://oleks-netizen.github.io/product-images/C33030-4/2.jpg,https://oleks-netizen.github.io/product-images/C33030-4/4.jpg,https://oleks-netizen.github.io/product-images/C33030-4/5.jpg,https://oleks-netizen.github.io/product-images/C33030-4/6.jpg,https://oleks-netizen.github.io/product-images/C33030-4/7.jpg,https://oleks-netizen.github.io/product-images/C33030-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14299-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3231,57 +3231,57 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C33036-3</t>
+          <t>LC14621-GD01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33036-3/1.jpg,https://oleks-netizen.github.io/product-images/C33036-3/2.jpg,https://oleks-netizen.github.io/product-images/C33036-3/4.jpg,https://oleks-netizen.github.io/product-images/C33036-3/5.jpg,https://oleks-netizen.github.io/product-images/C33036-3/6.jpg,https://oleks-netizen.github.io/product-images/C33036-3/7.jpg,https://oleks-netizen.github.io/product-images/C33036-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C33036-4</t>
+          <t>LC14621-GD02</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33036-4/1.jpg,https://oleks-netizen.github.io/product-images/C33036-4/2.jpg,https://oleks-netizen.github.io/product-images/C33036-4/4.jpg,https://oleks-netizen.github.io/product-images/C33036-4/5.jpg,https://oleks-netizen.github.io/product-images/C33036-4/6.jpg,https://oleks-netizen.github.io/product-images/C33036-4/7.jpg,https://oleks-netizen.github.io/product-images/C33036-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/9.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/8.jpg</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>C33060-4</t>
+          <t>LC14621-GD04</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C33060-4/1.jpg,https://oleks-netizen.github.io/product-images/C33060-4/2.jpg,https://oleks-netizen.github.io/product-images/C33060-4/4.jpg,https://oleks-netizen.github.io/product-images/C33060-4/5.jpg,https://oleks-netizen.github.io/product-images/C33060-4/6.jpg,https://oleks-netizen.github.io/product-images/C33060-4/7.jpg,https://oleks-netizen.github.io/product-images/C33060-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD04/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/9.jpg</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C34618-2005</t>
+          <t>LC14621-GD22</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-2005/1.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/2.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/4.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/5.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/6.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/7.jpg,https://oleks-netizen.github.io/product-images/C34618-2005/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD22/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/7.jpg</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3291,87 +3291,87 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C34618-3008</t>
+          <t>LC14621-GD25</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-3008/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3008/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/9.jpg</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C34618-3064</t>
+          <t>LC14621-GD70</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-3064/1.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/2.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/4.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/5.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/6.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/7.jpg,https://oleks-netizen.github.io/product-images/C34618-3064/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14621-GD70/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/9.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/8.jpg</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>C34618-4024</t>
+          <t>LC14805-GD01</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34618-4024/1.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/2.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/4.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/5.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/6.jpg,https://oleks-netizen.github.io/product-images/C34618-4024/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14805-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/7.jpg</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C34815-1</t>
+          <t>LC14806-GD01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-1/1.jpg,https://oleks-netizen.github.io/product-images/C34815-1/2.jpg,https://oleks-netizen.github.io/product-images/C34815-1/4.jpg,https://oleks-netizen.github.io/product-images/C34815-1/5.jpg,https://oleks-netizen.github.io/product-images/C34815-1/6.jpg,https://oleks-netizen.github.io/product-images/C34815-1/7.jpg,https://oleks-netizen.github.io/product-images/C34815-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14806-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/6.jpg</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C34815-2</t>
+          <t>LC14825-GD01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-2/1.jpg,https://oleks-netizen.github.io/product-images/C34815-2/2.jpg,https://oleks-netizen.github.io/product-images/C34815-2/4.jpg,https://oleks-netizen.github.io/product-images/C34815-2/5.jpg,https://oleks-netizen.github.io/product-images/C34815-2/6.jpg,https://oleks-netizen.github.io/product-images/C34815-2/7.jpg,https://oleks-netizen.github.io/product-images/C34815-2/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC14825-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/8.jpg</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C34815-3</t>
+          <t>LC44891-3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-3/1.jpg,https://oleks-netizen.github.io/product-images/C34815-3/2.jpg,https://oleks-netizen.github.io/product-images/C34815-3/4.jpg,https://oleks-netizen.github.io/product-images/C34815-3/5.jpg,https://oleks-netizen.github.io/product-images/C34815-3/6.jpg,https://oleks-netizen.github.io/product-images/C34815-3/7.jpg,https://oleks-netizen.github.io/product-images/C34815-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC44891-3/1.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/2.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/8.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/4.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/5.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/6.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/7.jpg</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3381,12 +3381,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>C34815-4</t>
+          <t>LC44891-3B</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-4/1.jpg,https://oleks-netizen.github.io/product-images/C34815-4/2.jpg,https://oleks-netizen.github.io/product-images/C34815-4/4.jpg,https://oleks-netizen.github.io/product-images/C34815-4/5.jpg,https://oleks-netizen.github.io/product-images/C34815-4/6.jpg,https://oleks-netizen.github.io/product-images/C34815-4/7.jpg,https://oleks-netizen.github.io/product-images/C34815-4/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC44891-3B/1.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/2.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/8.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/4.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/5.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/6.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/7.jpg</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3396,357 +3396,357 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>C34815-5</t>
+          <t>LC45002X-1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C34815-5/1.jpg,https://oleks-netizen.github.io/product-images/C34815-5/2.jpg,https://oleks-netizen.github.io/product-images/C34815-5/4.jpg,https://oleks-netizen.github.io/product-images/C34815-5/5.jpg,https://oleks-netizen.github.io/product-images/C34815-5/6.jpg,https://oleks-netizen.github.io/product-images/C34815-5/7.jpg,https://oleks-netizen.github.io/product-images/C34815-5/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45002X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/5.jpg</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D22982-1Z</t>
+          <t>LC45052X-1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/D22982-1Z/1.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/2.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/4.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/5.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/6.jpg,https://oleks-netizen.github.io/product-images/D22982-1Z/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45052X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45052X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45052X-1/4.jpg</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D30053-1-5</t>
+          <t>LC45493X-1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/D30053-1-5/1.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/2.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/4.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/5.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/6.jpg,https://oleks-netizen.github.io/product-images/D30053-1-5/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45493X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/5.jpg</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>DR151-1</t>
+          <t>LC45665X-1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR151-1/1.jpg,https://oleks-netizen.github.io/product-images/DR151-1/2.jpg,https://oleks-netizen.github.io/product-images/DR151-1/3.jpg,https://oleks-netizen.github.io/product-images/DR151-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45665X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/6.jpg</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DR151-3</t>
+          <t>LC45680X-1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR151-3/1.jpg,https://oleks-netizen.github.io/product-images/DR151-3/2.jpg,https://oleks-netizen.github.io/product-images/DR151-3/3.jpg,https://oleks-netizen.github.io/product-images/DR151-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45680X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/5.jpg</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>DR637-1</t>
+          <t>LC45982X-1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR637-1/1.jpg,https://oleks-netizen.github.io/product-images/DR637-1/2.jpg,https://oleks-netizen.github.io/product-images/DR637-1/3.jpg,https://oleks-netizen.github.io/product-images/DR637-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC45982X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/6.jpg</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>DR637-3</t>
+          <t>LC47043-1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR637-3/1.jpg,https://oleks-netizen.github.io/product-images/DR637-3/2.jpg,https://oleks-netizen.github.io/product-images/DR637-3/3.jpg,https://oleks-netizen.github.io/product-images/DR637-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47043-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/6.jpg</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>DR822-1</t>
+          <t>LC47099-1X</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR822-1/1.jpg,https://oleks-netizen.github.io/product-images/DR822-1/2.jpg,https://oleks-netizen.github.io/product-images/DR822-1/3.jpg,https://oleks-netizen.github.io/product-images/DR822-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47099-1X/1.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/2.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/6.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/3.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/5.jpg</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DR822-3</t>
+          <t>LC47102-1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DR822-3/1.jpg,https://oleks-netizen.github.io/product-images/DR822-3/2.jpg,https://oleks-netizen.github.io/product-images/DR822-3/3.jpg,https://oleks-netizen.github.io/product-images/DR822-3/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47102-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/6.jpg</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>DRL19001-1</t>
+          <t>LC47163-1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19001-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19001-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47163-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47163-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47163-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47163-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47163-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47163-1/6.jpg</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DRL19012-1</t>
+          <t>LC47183X-1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19012-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19012-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47183X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47183X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47183X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47183X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47183X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47183X-1/6.jpg</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DRL19077-1</t>
+          <t>LC47208-32X</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19077-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19077-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47208-32X/1.jpg,https://oleks-netizen.github.io/product-images/LC47208-32X/2.jpg,https://oleks-netizen.github.io/product-images/LC47208-32X/3.jpg,https://oleks-netizen.github.io/product-images/LC47208-32X/7.jpg,https://oleks-netizen.github.io/product-images/LC47208-32X/5.jpg,https://oleks-netizen.github.io/product-images/LC47208-32X/6.jpg</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DRL19092-1</t>
+          <t>LC47208G-1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19092-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19092-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47208G-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47208G-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47208G-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47208G-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47208G-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47208G-1/6.jpg</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DRL19120-1</t>
+          <t>LC47208V-1X</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19120-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19120-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47208V-1X/1.jpg,https://oleks-netizen.github.io/product-images/LC47208V-1X/2.jpg,https://oleks-netizen.github.io/product-images/LC47208V-1X/7.jpg,https://oleks-netizen.github.io/product-images/LC47208V-1X/4.jpg,https://oleks-netizen.github.io/product-images/LC47208V-1X/5.jpg,https://oleks-netizen.github.io/product-images/LC47208V-1X/6.jpg</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>DRL19122-1</t>
+          <t>LC47220-1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19122-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19122-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47220-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47220-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47220-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47220-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47220-1/5.jpg</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DRL19253-1</t>
+          <t>LC47234-1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19253-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19253-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47234-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47234-1/7.jpg</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>DRL19520-1B</t>
+          <t>LC47421-2B</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19520-1B/1.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/2.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/4.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/5.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/6.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/7.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/8.jpg,https://oleks-netizen.github.io/product-images/DRL19520-1B/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47421-2B/1.jpg,https://oleks-netizen.github.io/product-images/LC47421-2B/2.jpg,https://oleks-netizen.github.io/product-images/LC47421-2B/6.jpg,https://oleks-netizen.github.io/product-images/LC47421-2B/3.jpg,https://oleks-netizen.github.io/product-images/LC47421-2B/5.jpg</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>DRL19601-1</t>
+          <t>LC47671</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19601-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47671/1.jpg,https://oleks-netizen.github.io/product-images/LC47671/2.jpg,https://oleks-netizen.github.io/product-images/LC47671/7.jpg,https://oleks-netizen.github.io/product-images/LC47671/4.jpg,https://oleks-netizen.github.io/product-images/LC47671/5.jpg,https://oleks-netizen.github.io/product-images/LC47671/6.jpg</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>DRL19712-1</t>
+          <t>LC47825-2B</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19712-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19712-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47825-2B/1.jpg,https://oleks-netizen.github.io/product-images/LC47825-2B/2.jpg,https://oleks-netizen.github.io/product-images/LC47825-2B/7.jpg,https://oleks-netizen.github.io/product-images/LC47825-2B/4.jpg,https://oleks-netizen.github.io/product-images/LC47825-2B/5.jpg,https://oleks-netizen.github.io/product-images/LC47825-2B/6.jpg</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DRL19818A-A</t>
+          <t>LC47835-1X</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19818A-A/1.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/2.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/4.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/5.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/6.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/7.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/8.jpg,https://oleks-netizen.github.io/product-images/DRL19818A-A/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47835-1X/1.jpg,https://oleks-netizen.github.io/product-images/LC47835-1X/2.jpg,https://oleks-netizen.github.io/product-images/LC47835-1X/7.jpg,https://oleks-netizen.github.io/product-images/LC47835-1X/3.jpg,https://oleks-netizen.github.io/product-images/LC47835-1X/5.jpg,https://oleks-netizen.github.io/product-images/LC47835-1X/6.jpg</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>DRL19941-1</t>
+          <t>LC47886-1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL19941-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/10.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL19941-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47886-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47886-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47886-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47886-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47886-1/5.jpg</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>DRL6601-1</t>
+          <t>LC47911-1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRL6601-1/1.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/2.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/4.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/5.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/6.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/7.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/8.jpg,https://oleks-netizen.github.io/product-images/DRL6601-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47911-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47911-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47911-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47911-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47911-1/5.jpg</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>DRS16059-1</t>
+          <t>LC47911-2B</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16059-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/10.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/11.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS16059-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47911-2B/1.jpg,https://oleks-netizen.github.io/product-images/LC47911-2B/2.jpg,https://oleks-netizen.github.io/product-images/LC47911-2B/6.jpg,https://oleks-netizen.github.io/product-images/LC47911-2B/4.jpg,https://oleks-netizen.github.io/product-images/LC47911-2B/5.jpg</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>DRS16975-1</t>
+          <t>LC47991-1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS16975-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS16975-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC47991-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47991-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47991-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47991-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47991-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47991-1/6.jpg</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3756,42 +3756,42 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DRS17116-3</t>
+          <t>LC68008-01</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17116-3/1.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/2.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/4.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/5.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/6.jpg,https://oleks-netizen.github.io/product-images/DRS17116-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68008-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/9.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/3.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/5.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/6.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/7.jpg,https://oleks-netizen.github.io/product-images/LC68008-01/8.jpg</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DRS17131-2</t>
+          <t>LC68008-05</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17131-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/3.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/7.jpg,https://oleks-netizen.github.io/product-images/DRS17131-2/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68008-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/9.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/3.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/7.jpg,https://oleks-netizen.github.io/product-images/LC68008-05/8.jpg</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DRS17132-1</t>
+          <t>LC68308-01</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17132-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17132-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-01/7.jpg</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3801,87 +3801,87 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>DRS17203-1</t>
+          <t>LC68308-04</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS17203-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/3.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS17203-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-04/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-04/7.jpg</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DRS19023-2</t>
+          <t>LC68308-05</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19023-2/1.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/2.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/4.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/5.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/6.jpg,https://oleks-netizen.github.io/product-images/DRS19023-2/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-05/7.jpg</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>DRS19353-1</t>
+          <t>LC68308-102</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19353-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/7.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/8.jpg,https://oleks-netizen.github.io/product-images/DRS19353-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-102/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-102/7.jpg</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>DRS19800-1</t>
+          <t>LC68308-78</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19800-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19800-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-78/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-78/7.jpg</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DRS19802-1</t>
+          <t>LC68308-94</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DRS19802-1/1.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/2.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/4.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/5.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/6.jpg,https://oleks-netizen.github.io/product-images/DRS19802-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68308-94/1.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/2.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/8.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/3.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/4.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/6.jpg,https://oleks-netizen.github.io/product-images/LC68308-94/7.jpg</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DS23873-230</t>
+          <t>LC68803-01</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS23873-230/1.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/2.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/4.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/3.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/5.jpg,https://oleks-netizen.github.io/product-images/DS23873-230/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68803-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-01/7.jpg,https://oleks-netizen.github.io/product-images/LC68803-01/3.jpg,https://oleks-netizen.github.io/product-images/LC68803-01/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-01/6.jpg</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3891,12 +3891,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>DS30002-023</t>
+          <t>LC68803-05</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-023/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-023/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68803-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/8.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/7.jpg</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3906,27 +3906,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DS30002-025</t>
+          <t>LC68803-94</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-025/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-025/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68803-94/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/8.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-94/7.jpg</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DS30002-112</t>
+          <t>LC68808-01</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-112/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-112/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68808-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68808-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68808-01/7.jpg,https://oleks-netizen.github.io/product-images/LC68808-01/4.jpg,https://oleks-netizen.github.io/product-images/LC68808-01/5.jpg,https://oleks-netizen.github.io/product-images/LC68808-01/6.jpg</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3936,42 +3936,42 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DS30002-132</t>
+          <t>LC68808-04</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-132/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-132/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68808-04/1.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/2.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/8.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/4.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/5.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/6.jpg,https://oleks-netizen.github.io/product-images/LC68808-04/7.jpg</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DS30002-162</t>
+          <t>LC68808-94</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-162/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/8.jpg,https://oleks-netizen.github.io/product-images/DS30002-162/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68808-94/1.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/2.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/8.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/4.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/5.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/6.jpg,https://oleks-netizen.github.io/product-images/LC68808-94/7.jpg</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DS30002-287</t>
+          <t>LC68900-01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-287/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/7.jpg,https://oleks-netizen.github.io/product-images/DS30002-287/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68900-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/8.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/3.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/4.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/6.jpg,https://oleks-netizen.github.io/product-images/LC68900-01/7.jpg</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3981,87 +3981,87 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>DS30002-288</t>
+          <t>LC68900-05</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/DS30002-288/1.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/2.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/4.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/5.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/6.jpg,https://oleks-netizen.github.io/product-images/DS30002-288/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68900-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/8.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/3.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68900-05/7.jpg</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>F20218-black</t>
+          <t>LC68900-98</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/F20218-black/1.jpg,https://oleks-netizen.github.io/product-images/F20218-black/3.jpg,https://oleks-netizen.github.io/product-images/F20218-black/4.jpg,https://oleks-netizen.github.io/product-images/F20218-black/5.jpg,https://oleks-netizen.github.io/product-images/F20218-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68900-98/1.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/2.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/8.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/3.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/4.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/6.jpg,https://oleks-netizen.github.io/product-images/LC68900-98/7.jpg</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FW-A2106-black</t>
+          <t>LC68966-207</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A2106-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/2.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A2106-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68966-207/1.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/2.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/8.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/3.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/4.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/5.jpg,https://oleks-netizen.github.io/product-images/LC68966-207/7.jpg</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FW-A648-black</t>
+          <t>LC68990-01</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-black/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68990-01/1.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/2.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/8.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/3.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/4.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/6.jpg,https://oleks-netizen.github.io/product-images/LC68990-01/7.jpg</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>FW-A648-blue</t>
+          <t>LC68990-05</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-blue/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-blue/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC68990-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/8.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/3.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68990-05/7.jpg</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>FW-A648-green</t>
+          <t>LC82009-1-small</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-green/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-green/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82009-1-small/1.jpg,https://oleks-netizen.github.io/product-images/LC82009-1-small/2.jpg,https://oleks-netizen.github.io/product-images/LC82009-1-small/7.jpg,https://oleks-netizen.github.io/product-images/LC82009-1-small/4.jpg,https://oleks-netizen.github.io/product-images/LC82009-1-small/5.jpg,https://oleks-netizen.github.io/product-images/LC82009-1-small/6.jpg</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4071,72 +4071,72 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FW-A648-purple</t>
+          <t>LC82011-1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-purple/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-purple/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82011-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82011-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82011-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82011-1/4.jpg</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>FW-A648-red</t>
+          <t>LC82012-1-23</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FW-A648-red/1.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/3.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/4.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/5.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/6.jpg,https://oleks-netizen.github.io/product-images/FW-A648-red/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82012-1-23/1.jpg,https://oleks-netizen.github.io/product-images/LC82012-1-23/2.jpg,https://oleks-netizen.github.io/product-images/LC82012-1-23/3.jpg,https://oleks-netizen.github.io/product-images/LC82012-1-23/4.jpg</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>G2568-black</t>
+          <t>LC82013-1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-black/1.jpg,https://oleks-netizen.github.io/product-images/G2568-black/2.jpg,https://oleks-netizen.github.io/product-images/G2568-black/4.jpg,https://oleks-netizen.github.io/product-images/G2568-black/5.jpg,https://oleks-netizen.github.io/product-images/G2568-black/6.jpg,https://oleks-netizen.github.io/product-images/G2568-black/7.jpg,https://oleks-netizen.github.io/product-images/G2568-black/8.jpg,https://oleks-netizen.github.io/product-images/G2568-black/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82013-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82013-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82013-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82013-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82013-1/5.jpg</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>G2568-grey</t>
+          <t>LC82019-1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/G2568-grey/1.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/2.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/4.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/5.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/6.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/7.jpg,https://oleks-netizen.github.io/product-images/G2568-grey/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82019-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82019-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82019-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82019-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82019-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82019-1/6.jpg</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>H-2908-black</t>
+          <t>LC82021-1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-black/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82021-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82021-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82021-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82021-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82021-1/5.jpg</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4146,1302 +4146,1302 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>H-2908-red</t>
+          <t>LC82026-1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/H-2908-red/1.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/3.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/4.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/5.jpg,https://oleks-netizen.github.io/product-images/H-2908-red/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82026-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82026-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82026-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82026-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82026-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82026-1/6.jpg</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ICE-2314-20-dark-grey</t>
+          <t>LC82077-1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82077-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82077-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82077-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82077-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82077-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82077-1/6.jpg</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ICE-2314-20-dark-purple</t>
+          <t>LC82077-2</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82077-2/1.jpg,https://oleks-netizen.github.io/product-images/LC82077-2/2.jpg,https://oleks-netizen.github.io/product-images/LC82077-2/7.jpg,https://oleks-netizen.github.io/product-images/LC82077-2/4.jpg,https://oleks-netizen.github.io/product-images/LC82077-2/5.jpg,https://oleks-netizen.github.io/product-images/LC82077-2/6.jpg</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ICE-2314-20-khaki</t>
+          <t>LC82100-1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-khaki/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82100-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82100-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82100-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82100-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82100-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82100-1/6.jpg</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ICE-2314-20-rose-gold</t>
+          <t>LC82162-1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/10.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-20-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82162-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82162-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82162-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82162-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82162-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82162-1/6.jpg</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ICE-2314-24-dark-grey</t>
+          <t>LC82164-1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82164-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82164-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82164-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82164-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82164-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82164-1/6.jpg</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ICE-2314-24-dark-purple</t>
+          <t>LC82178-1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82178-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82178-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82178-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82178-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82178-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82178-1/6.jpg</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ICE-2314-24-rose-gold</t>
+          <t>LC82178-2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-24-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82178-2/1.jpg,https://oleks-netizen.github.io/product-images/LC82178-2/2.jpg,https://oleks-netizen.github.io/product-images/LC82178-2/7.jpg,https://oleks-netizen.github.io/product-images/LC82178-2/3.jpg,https://oleks-netizen.github.io/product-images/LC82178-2/5.jpg,https://oleks-netizen.github.io/product-images/LC82178-2/6.jpg</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ICE-2314-28-dark-grey</t>
+          <t>LC82432-1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/4.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-grey/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82432-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82432-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82432-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82432-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82432-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82432-1/6.jpg</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ICE-2314-28-dark-purple</t>
+          <t>LC82623-1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-dark-purple/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82623-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82623-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82623-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82623-1/4.jpg</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ICE-2314-28-rose-gold</t>
+          <t>LC82639-1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/1.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/2.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/7.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/3.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/5.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/6.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/8.jpg,https://oleks-netizen.github.io/product-images/ICE-2314-28-rose-gold/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82639-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82639-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82639-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82639-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82639-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82639-1/6.jpg</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>L20001-22</t>
+          <t>LC82707-1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20001-22/1.jpg,https://oleks-netizen.github.io/product-images/L20001-22/2.jpg,https://oleks-netizen.github.io/product-images/L20001-22/4.jpg,https://oleks-netizen.github.io/product-images/L20001-22/5.jpg,https://oleks-netizen.github.io/product-images/L20001-22/6.jpg,https://oleks-netizen.github.io/product-images/L20001-22/7.jpg,https://oleks-netizen.github.io/product-images/L20001-22/8.jpg,https://oleks-netizen.github.io/product-images/L20001-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82707-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82707-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82707-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82707-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82707-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82707-1/6.jpg</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>L20011-1</t>
+          <t>LC82721-1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-1/1.jpg,https://oleks-netizen.github.io/product-images/L20011-1/2.jpg,https://oleks-netizen.github.io/product-images/L20011-1/4.jpg,https://oleks-netizen.github.io/product-images/L20011-1/5.jpg,https://oleks-netizen.github.io/product-images/L20011-1/6.jpg,https://oleks-netizen.github.io/product-images/L20011-1/7.jpg,https://oleks-netizen.github.io/product-images/L20011-1/8.jpg,https://oleks-netizen.github.io/product-images/L20011-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82721-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/6.jpg</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>L20011-22</t>
+          <t>LC82721-1-24</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-22/1.jpg,https://oleks-netizen.github.io/product-images/L20011-22/2.jpg,https://oleks-netizen.github.io/product-images/L20011-22/4.jpg,https://oleks-netizen.github.io/product-images/L20011-22/5.jpg,https://oleks-netizen.github.io/product-images/L20011-22/6.jpg,https://oleks-netizen.github.io/product-images/L20011-22/7.jpg,https://oleks-netizen.github.io/product-images/L20011-22/8.jpg,https://oleks-netizen.github.io/product-images/L20011-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82721-1-24/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1-24/2.jpg,https://oleks-netizen.github.io/product-images/LC82721-1-24/7.jpg,https://oleks-netizen.github.io/product-images/LC82721-1-24/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1-24/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1-24/6.jpg</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>L20011-56</t>
+          <t>LC82725-1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20011-56/1.jpg,https://oleks-netizen.github.io/product-images/L20011-56/2.jpg,https://oleks-netizen.github.io/product-images/L20011-56/4.jpg,https://oleks-netizen.github.io/product-images/L20011-56/5.jpg,https://oleks-netizen.github.io/product-images/L20011-56/6.jpg,https://oleks-netizen.github.io/product-images/L20011-56/7.jpg,https://oleks-netizen.github.io/product-images/L20011-56/8.jpg,https://oleks-netizen.github.io/product-images/L20011-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82725-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/8.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82725-1/7.jpg</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>L20030-1</t>
+          <t>LC82823-1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-1/1.jpg,https://oleks-netizen.github.io/product-images/L20030-1/2.jpg,https://oleks-netizen.github.io/product-images/L20030-1/3.jpg,https://oleks-netizen.github.io/product-images/L20030-1/5.jpg,https://oleks-netizen.github.io/product-images/L20030-1/6.jpg,https://oleks-netizen.github.io/product-images/L20030-1/7.jpg,https://oleks-netizen.github.io/product-images/L20030-1/8.jpg,https://oleks-netizen.github.io/product-images/L20030-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82823-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82823-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82823-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82823-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82823-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82823-1/6.jpg</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>L20030-56</t>
+          <t>LC82841-2</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20030-56/1.jpg,https://oleks-netizen.github.io/product-images/L20030-56/2.jpg,https://oleks-netizen.github.io/product-images/L20030-56/3.jpg,https://oleks-netizen.github.io/product-images/L20030-56/5.jpg,https://oleks-netizen.github.io/product-images/L20030-56/6.jpg,https://oleks-netizen.github.io/product-images/L20030-56/7.jpg,https://oleks-netizen.github.io/product-images/L20030-56/8.jpg,https://oleks-netizen.github.io/product-images/L20030-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82841-2/1.jpg,https://oleks-netizen.github.io/product-images/LC82841-2/2.jpg,https://oleks-netizen.github.io/product-images/LC82841-2/7.jpg,https://oleks-netizen.github.io/product-images/LC82841-2/4.jpg,https://oleks-netizen.github.io/product-images/LC82841-2/5.jpg,https://oleks-netizen.github.io/product-images/LC82841-2/6.jpg</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>L20036-1</t>
+          <t>LC82898-1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-1/1.jpg,https://oleks-netizen.github.io/product-images/L20036-1/2.jpg,https://oleks-netizen.github.io/product-images/L20036-1/10.jpg,https://oleks-netizen.github.io/product-images/L20036-1/4.jpg,https://oleks-netizen.github.io/product-images/L20036-1/5.jpg,https://oleks-netizen.github.io/product-images/L20036-1/6.jpg,https://oleks-netizen.github.io/product-images/L20036-1/7.jpg,https://oleks-netizen.github.io/product-images/L20036-1/8.jpg,https://oleks-netizen.github.io/product-images/L20036-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC82898-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82898-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82898-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82898-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82898-1/5.jpg</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>L20036-8</t>
+          <t>LC89008-F9925</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20036-8/1.jpg,https://oleks-netizen.github.io/product-images/L20036-8/2.jpg,https://oleks-netizen.github.io/product-images/L20036-8/4.jpg,https://oleks-netizen.github.io/product-images/L20036-8/5.jpg,https://oleks-netizen.github.io/product-images/L20036-8/6.jpg,https://oleks-netizen.github.io/product-images/L20036-8/7.jpg,https://oleks-netizen.github.io/product-images/L20036-8/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89008-F9925/1.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9925/2.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9925/7.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9925/3.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9925/5.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9925/6.jpg</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>L20063-1</t>
+          <t>LC89008-F9947</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-1/1.jpg,https://oleks-netizen.github.io/product-images/L20063-1/2.jpg,https://oleks-netizen.github.io/product-images/L20063-1/10.jpg,https://oleks-netizen.github.io/product-images/L20063-1/4.jpg,https://oleks-netizen.github.io/product-images/L20063-1/5.jpg,https://oleks-netizen.github.io/product-images/L20063-1/6.jpg,https://oleks-netizen.github.io/product-images/L20063-1/7.jpg,https://oleks-netizen.github.io/product-images/L20063-1/8.jpg,https://oleks-netizen.github.io/product-images/L20063-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89008-F9947/1.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9947/2.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9947/7.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9947/3.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9947/5.jpg,https://oleks-netizen.github.io/product-images/LC89008-F9947/6.jpg</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>L20063-8</t>
+          <t>LC89011-F9901</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20063-8/1.jpg,https://oleks-netizen.github.io/product-images/L20063-8/2.jpg,https://oleks-netizen.github.io/product-images/L20063-8/10.jpg,https://oleks-netizen.github.io/product-images/L20063-8/4.jpg,https://oleks-netizen.github.io/product-images/L20063-8/5.jpg,https://oleks-netizen.github.io/product-images/L20063-8/6.jpg,https://oleks-netizen.github.io/product-images/L20063-8/7.jpg,https://oleks-netizen.github.io/product-images/L20063-8/8.jpg,https://oleks-netizen.github.io/product-images/L20063-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89011-F9901/1.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9901/2.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9901/7.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9901/3.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9901/5.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9901/6.jpg</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>L20239-0233</t>
+          <t>LC89011-F9905</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20239-0233/1.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/2.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/4.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/5.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/6.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/7.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/8.jpg,https://oleks-netizen.github.io/product-images/L20239-0233/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89011-F9905/1.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9905/2.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9905/7.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9905/3.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9905/5.jpg,https://oleks-netizen.github.io/product-images/LC89011-F9905/6.jpg</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>L20633-78</t>
+          <t>LC89036-1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-78/1.jpg,https://oleks-netizen.github.io/product-images/L20633-78/2.jpg,https://oleks-netizen.github.io/product-images/L20633-78/4.jpg,https://oleks-netizen.github.io/product-images/L20633-78/5.jpg,https://oleks-netizen.github.io/product-images/L20633-78/6.jpg,https://oleks-netizen.github.io/product-images/L20633-78/7.jpg,https://oleks-netizen.github.io/product-images/L20633-78/8.jpg,https://oleks-netizen.github.io/product-images/L20633-78/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89036-1/1.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/2.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/8.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/3.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/5.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/6.jpg,https://oleks-netizen.github.io/product-images/LC89036-1/7.jpg</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>L20633-90</t>
+          <t>LC89036-2</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20633-90/1.jpg,https://oleks-netizen.github.io/product-images/L20633-90/2.jpg,https://oleks-netizen.github.io/product-images/L20633-90/4.jpg,https://oleks-netizen.github.io/product-images/L20633-90/5.jpg,https://oleks-netizen.github.io/product-images/L20633-90/6.jpg,https://oleks-netizen.github.io/product-images/L20633-90/7.jpg,https://oleks-netizen.github.io/product-images/L20633-90/8.jpg,https://oleks-netizen.github.io/product-images/L20633-90/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89036-2/1.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/2.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/8.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/3.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/5.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/6.jpg,https://oleks-netizen.github.io/product-images/LC89036-2/7.jpg</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>L20680-1</t>
+          <t>LC89036-6</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-1/1.jpg,https://oleks-netizen.github.io/product-images/L20680-1/2.jpg,https://oleks-netizen.github.io/product-images/L20680-1/10.jpg,https://oleks-netizen.github.io/product-images/L20680-1/4.jpg,https://oleks-netizen.github.io/product-images/L20680-1/5.jpg,https://oleks-netizen.github.io/product-images/L20680-1/6.jpg,https://oleks-netizen.github.io/product-images/L20680-1/7.jpg,https://oleks-netizen.github.io/product-images/L20680-1/8.jpg,https://oleks-netizen.github.io/product-images/L20680-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89036-6/1.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/2.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/8.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/3.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/5.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/6.jpg,https://oleks-netizen.github.io/product-images/LC89036-6/7.jpg</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>L20680-56</t>
+          <t>LC89049-F9901</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-56/1.jpg,https://oleks-netizen.github.io/product-images/L20680-56/2.jpg,https://oleks-netizen.github.io/product-images/L20680-56/10.jpg,https://oleks-netizen.github.io/product-images/L20680-56/4.jpg,https://oleks-netizen.github.io/product-images/L20680-56/5.jpg,https://oleks-netizen.github.io/product-images/L20680-56/6.jpg,https://oleks-netizen.github.io/product-images/L20680-56/7.jpg,https://oleks-netizen.github.io/product-images/L20680-56/8.jpg,https://oleks-netizen.github.io/product-images/L20680-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89049-F9901/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9901/2.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9901/7.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9901/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9901/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9901/6.jpg</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>L20680-58</t>
+          <t>LC89049-F9976</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20680-58/1.jpg,https://oleks-netizen.github.io/product-images/L20680-58/2.jpg,https://oleks-netizen.github.io/product-images/L20680-58/10.jpg,https://oleks-netizen.github.io/product-images/L20680-58/4.jpg,https://oleks-netizen.github.io/product-images/L20680-58/5.jpg,https://oleks-netizen.github.io/product-images/L20680-58/6.jpg,https://oleks-netizen.github.io/product-images/L20680-58/7.jpg,https://oleks-netizen.github.io/product-images/L20680-58/8.jpg,https://oleks-netizen.github.io/product-images/L20680-58/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89049-F9976/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/2.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/7.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/6.jpg</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>L20682-1</t>
+          <t>LC89259-F9901</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20682-1/1.jpg,https://oleks-netizen.github.io/product-images/L20682-1/2.jpg,https://oleks-netizen.github.io/product-images/L20682-1/4.jpg,https://oleks-netizen.github.io/product-images/L20682-1/5.jpg,https://oleks-netizen.github.io/product-images/L20682-1/6.jpg,https://oleks-netizen.github.io/product-images/L20682-1/7.jpg,https://oleks-netizen.github.io/product-images/L20682-1/8.jpg,https://oleks-netizen.github.io/product-images/L20682-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89259-F9901/1.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/2.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/8.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/3.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/5.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/6.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9901/7.jpg</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>L20683-1</t>
+          <t>LC89259-F9975</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-1/1.jpg,https://oleks-netizen.github.io/product-images/L20683-1/2.jpg,https://oleks-netizen.github.io/product-images/L20683-1/4.jpg,https://oleks-netizen.github.io/product-images/L20683-1/5.jpg,https://oleks-netizen.github.io/product-images/L20683-1/6.jpg,https://oleks-netizen.github.io/product-images/L20683-1/7.jpg,https://oleks-netizen.github.io/product-images/L20683-1/8.jpg,https://oleks-netizen.github.io/product-images/L20683-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89259-F9975/1.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9975/2.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9975/7.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9975/3.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9975/5.jpg,https://oleks-netizen.github.io/product-images/LC89259-F9975/6.jpg</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>L20683-2</t>
+          <t>LC89262-F9901</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20683-2/1.jpg,https://oleks-netizen.github.io/product-images/L20683-2/2.jpg,https://oleks-netizen.github.io/product-images/L20683-2/4.jpg,https://oleks-netizen.github.io/product-images/L20683-2/5.jpg,https://oleks-netizen.github.io/product-images/L20683-2/6.jpg,https://oleks-netizen.github.io/product-images/L20683-2/7.jpg,https://oleks-netizen.github.io/product-images/L20683-2/8.jpg,https://oleks-netizen.github.io/product-images/L20683-2/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LC89262-F9901/1.jpg,https://oleks-netizen.github.io/product-images/LC89262-F9901/2.jpg,https://oleks-netizen.github.io/product-images/LC89262-F9901/7.jpg,https://oleks-netizen.github.io/product-images/LC89262-F9901/3.jpg,https://oleks-netizen.github.io/product-images/LC89262-F9901/5.jpg,https://oleks-netizen.github.io/product-images/LC89262-F9901/6.jpg</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>L20713-1</t>
+          <t>LS22695-1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-1/1.jpg,https://oleks-netizen.github.io/product-images/L20713-1/2.jpg,https://oleks-netizen.github.io/product-images/L20713-1/10.jpg,https://oleks-netizen.github.io/product-images/L20713-1/4.jpg,https://oleks-netizen.github.io/product-images/L20713-1/5.jpg,https://oleks-netizen.github.io/product-images/L20713-1/6.jpg,https://oleks-netizen.github.io/product-images/L20713-1/7.jpg,https://oleks-netizen.github.io/product-images/L20713-1/8.jpg,https://oleks-netizen.github.io/product-images/L20713-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LS22695-1/1.jpg,https://oleks-netizen.github.io/product-images/LS22695-1/2.jpg,https://oleks-netizen.github.io/product-images/LS22695-1/7.jpg,https://oleks-netizen.github.io/product-images/LS22695-1/4.jpg,https://oleks-netizen.github.io/product-images/LS22695-1/5.jpg,https://oleks-netizen.github.io/product-images/LS22695-1/6.jpg</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>L20713-8</t>
+          <t>LS22696-1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20713-8/1.jpg,https://oleks-netizen.github.io/product-images/L20713-8/2.jpg,https://oleks-netizen.github.io/product-images/L20713-8/10.jpg,https://oleks-netizen.github.io/product-images/L20713-8/4.jpg,https://oleks-netizen.github.io/product-images/L20713-8/5.jpg,https://oleks-netizen.github.io/product-images/L20713-8/6.jpg,https://oleks-netizen.github.io/product-images/L20713-8/7.jpg,https://oleks-netizen.github.io/product-images/L20713-8/8.jpg,https://oleks-netizen.github.io/product-images/L20713-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LS22696-1/1.jpg,https://oleks-netizen.github.io/product-images/LS22696-1/7.jpg,https://oleks-netizen.github.io/product-images/LS22696-1/3.jpg,https://oleks-netizen.github.io/product-images/LS22696-1/4.jpg,https://oleks-netizen.github.io/product-images/LS22696-1/5.jpg,https://oleks-netizen.github.io/product-images/LS22696-1/6.jpg</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>L20812-1</t>
+          <t>S31001-11</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-1/1.jpg,https://oleks-netizen.github.io/product-images/L20812-1/2.jpg,https://oleks-netizen.github.io/product-images/L20812-1/10.jpg,https://oleks-netizen.github.io/product-images/L20812-1/4.jpg,https://oleks-netizen.github.io/product-images/L20812-1/5.jpg,https://oleks-netizen.github.io/product-images/L20812-1/6.jpg,https://oleks-netizen.github.io/product-images/L20812-1/7.jpg,https://oleks-netizen.github.io/product-images/L20812-1/8.jpg,https://oleks-netizen.github.io/product-images/L20812-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31001-11/1.jpg,https://oleks-netizen.github.io/product-images/S31001-11/7.jpg,https://oleks-netizen.github.io/product-images/S31001-11/3.jpg,https://oleks-netizen.github.io/product-images/S31001-11/4.jpg,https://oleks-netizen.github.io/product-images/S31001-11/5.jpg,https://oleks-netizen.github.io/product-images/S31001-11/6.jpg</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>L20812-10</t>
+          <t>S31001-2</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-10/1.jpg,https://oleks-netizen.github.io/product-images/L20812-10/2.jpg,https://oleks-netizen.github.io/product-images/L20812-10/10.jpg,https://oleks-netizen.github.io/product-images/L20812-10/4.jpg,https://oleks-netizen.github.io/product-images/L20812-10/5.jpg,https://oleks-netizen.github.io/product-images/L20812-10/6.jpg,https://oleks-netizen.github.io/product-images/L20812-10/7.jpg,https://oleks-netizen.github.io/product-images/L20812-10/8.jpg,https://oleks-netizen.github.io/product-images/L20812-10/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31001-2/1.jpg,https://oleks-netizen.github.io/product-images/S31001-2/6.jpg,https://oleks-netizen.github.io/product-images/S31001-2/3.jpg,https://oleks-netizen.github.io/product-images/S31001-2/4.jpg,https://oleks-netizen.github.io/product-images/S31001-2/5.jpg</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>L20812-15</t>
+          <t>S31011-1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-15/1.jpg,https://oleks-netizen.github.io/product-images/L20812-15/2.jpg,https://oleks-netizen.github.io/product-images/L20812-15/10.jpg,https://oleks-netizen.github.io/product-images/L20812-15/4.jpg,https://oleks-netizen.github.io/product-images/L20812-15/5.jpg,https://oleks-netizen.github.io/product-images/L20812-15/6.jpg,https://oleks-netizen.github.io/product-images/L20812-15/7.jpg,https://oleks-netizen.github.io/product-images/L20812-15/8.jpg,https://oleks-netizen.github.io/product-images/L20812-15/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31011-1/1.jpg,https://oleks-netizen.github.io/product-images/S31011-1/6.jpg,https://oleks-netizen.github.io/product-images/S31011-1/3.jpg,https://oleks-netizen.github.io/product-images/S31011-1/4.jpg,https://oleks-netizen.github.io/product-images/S31011-1/5.jpg</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>L20812-56</t>
+          <t>S31011-11</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20812-56/1.jpg,https://oleks-netizen.github.io/product-images/L20812-56/2.jpg,https://oleks-netizen.github.io/product-images/L20812-56/4.jpg,https://oleks-netizen.github.io/product-images/L20812-56/5.jpg,https://oleks-netizen.github.io/product-images/L20812-56/6.jpg,https://oleks-netizen.github.io/product-images/L20812-56/7.jpg,https://oleks-netizen.github.io/product-images/L20812-56/8.jpg,https://oleks-netizen.github.io/product-images/L20812-56/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31011-11/1.jpg,https://oleks-netizen.github.io/product-images/S31011-11/2.jpg,https://oleks-netizen.github.io/product-images/S31011-11/6.jpg,https://oleks-netizen.github.io/product-images/S31011-11/3.jpg,https://oleks-netizen.github.io/product-images/S31011-11/5.jpg</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>L20841-58</t>
+          <t>S31011-3</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20841-58/1.jpg,https://oleks-netizen.github.io/product-images/L20841-58/2.jpg,https://oleks-netizen.github.io/product-images/L20841-58/4.jpg,https://oleks-netizen.github.io/product-images/L20841-58/5.jpg,https://oleks-netizen.github.io/product-images/L20841-58/6.jpg,https://oleks-netizen.github.io/product-images/L20841-58/7.jpg,https://oleks-netizen.github.io/product-images/L20841-58/8.jpg,https://oleks-netizen.github.io/product-images/L20841-58/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31011-3/1.jpg,https://oleks-netizen.github.io/product-images/S31011-3/2.jpg,https://oleks-netizen.github.io/product-images/S31011-3/6.jpg,https://oleks-netizen.github.io/product-images/S31011-3/3.jpg,https://oleks-netizen.github.io/product-images/S31011-3/5.jpg</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>L20849-1</t>
+          <t>S31011-9</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-1/1.jpg,https://oleks-netizen.github.io/product-images/L20849-1/2.jpg,https://oleks-netizen.github.io/product-images/L20849-1/4.jpg,https://oleks-netizen.github.io/product-images/L20849-1/5.jpg,https://oleks-netizen.github.io/product-images/L20849-1/6.jpg,https://oleks-netizen.github.io/product-images/L20849-1/7.jpg,https://oleks-netizen.github.io/product-images/L20849-1/8.jpg,https://oleks-netizen.github.io/product-images/L20849-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31011-9/1.jpg,https://oleks-netizen.github.io/product-images/S31011-9/2.jpg,https://oleks-netizen.github.io/product-images/S31011-9/6.jpg,https://oleks-netizen.github.io/product-images/S31011-9/3.jpg,https://oleks-netizen.github.io/product-images/S31011-9/5.jpg</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>L20849-701</t>
+          <t>S31304-1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-701/1.jpg,https://oleks-netizen.github.io/product-images/L20849-701/2.jpg,https://oleks-netizen.github.io/product-images/L20849-701/4.jpg,https://oleks-netizen.github.io/product-images/L20849-701/5.jpg,https://oleks-netizen.github.io/product-images/L20849-701/6.jpg,https://oleks-netizen.github.io/product-images/L20849-701/7.jpg,https://oleks-netizen.github.io/product-images/L20849-701/8.jpg,https://oleks-netizen.github.io/product-images/L20849-701/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31304-1/1.jpg,https://oleks-netizen.github.io/product-images/S31304-1/2.jpg,https://oleks-netizen.github.io/product-images/S31304-1/6.jpg,https://oleks-netizen.github.io/product-images/S31304-1/3.jpg,https://oleks-netizen.github.io/product-images/S31304-1/5.jpg</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>L20849-720</t>
+          <t>S31304-3</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-720/1.jpg,https://oleks-netizen.github.io/product-images/L20849-720/2.jpg,https://oleks-netizen.github.io/product-images/L20849-720/4.jpg,https://oleks-netizen.github.io/product-images/L20849-720/5.jpg,https://oleks-netizen.github.io/product-images/L20849-720/6.jpg,https://oleks-netizen.github.io/product-images/L20849-720/7.jpg,https://oleks-netizen.github.io/product-images/L20849-720/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31304-3/1.jpg,https://oleks-netizen.github.io/product-images/S31304-3/2.jpg,https://oleks-netizen.github.io/product-images/S31304-3/6.jpg,https://oleks-netizen.github.io/product-images/S31304-3/3.jpg,https://oleks-netizen.github.io/product-images/S31304-3/5.jpg</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>L20849-811</t>
+          <t>S31307-1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20849-811/1.jpg,https://oleks-netizen.github.io/product-images/L20849-811/2.jpg,https://oleks-netizen.github.io/product-images/L20849-811/4.jpg,https://oleks-netizen.github.io/product-images/L20849-811/5.jpg,https://oleks-netizen.github.io/product-images/L20849-811/6.jpg,https://oleks-netizen.github.io/product-images/L20849-811/7.jpg,https://oleks-netizen.github.io/product-images/L20849-811/8.jpg,https://oleks-netizen.github.io/product-images/L20849-811/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31307-1/1.jpg,https://oleks-netizen.github.io/product-images/S31307-1/2.jpg,https://oleks-netizen.github.io/product-images/S31307-1/6.jpg,https://oleks-netizen.github.io/product-images/S31307-1/3.jpg,https://oleks-netizen.github.io/product-images/S31307-1/5.jpg</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>L20853-1</t>
+          <t>S31307-3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20853-1/2.jpg,https://oleks-netizen.github.io/product-images/L20853-1/4.jpg,https://oleks-netizen.github.io/product-images/L20853-1/11.jpg,https://oleks-netizen.github.io/product-images/L20853-1/10.jpg,https://oleks-netizen.github.io/product-images/L20853-1/5.jpg,https://oleks-netizen.github.io/product-images/L20853-1/6.jpg,https://oleks-netizen.github.io/product-images/L20853-1/7.jpg,https://oleks-netizen.github.io/product-images/L20853-1/8.jpg,https://oleks-netizen.github.io/product-images/L20853-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31307-3/1.jpg,https://oleks-netizen.github.io/product-images/S31307-3/2.jpg,https://oleks-netizen.github.io/product-images/S31307-3/6.jpg,https://oleks-netizen.github.io/product-images/S31307-3/3.jpg,https://oleks-netizen.github.io/product-images/S31307-3/5.jpg</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>L20993-1</t>
+          <t>S31512-11</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L20993-1/1.jpg,https://oleks-netizen.github.io/product-images/L20993-1/2.jpg,https://oleks-netizen.github.io/product-images/L20993-1/4.jpg,https://oleks-netizen.github.io/product-images/L20993-1/5.jpg,https://oleks-netizen.github.io/product-images/L20993-1/6.jpg,https://oleks-netizen.github.io/product-images/L20993-1/7.jpg,https://oleks-netizen.github.io/product-images/L20993-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31512-11/1.jpg,https://oleks-netizen.github.io/product-images/S31512-11/2.jpg,https://oleks-netizen.github.io/product-images/S31512-11/6.jpg,https://oleks-netizen.github.io/product-images/S31512-11/3.jpg,https://oleks-netizen.github.io/product-images/S31512-11/5.jpg</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>L21019-1</t>
+          <t>S31512-2</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-1/1.jpg,https://oleks-netizen.github.io/product-images/L21019-1/2.jpg,https://oleks-netizen.github.io/product-images/L21019-1/4.jpg,https://oleks-netizen.github.io/product-images/L21019-1/5.jpg,https://oleks-netizen.github.io/product-images/L21019-1/6.jpg,https://oleks-netizen.github.io/product-images/L21019-1/7.jpg,https://oleks-netizen.github.io/product-images/L21019-1/8.jpg,https://oleks-netizen.github.io/product-images/L21019-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31512-2/1.jpg,https://oleks-netizen.github.io/product-images/S31512-2/2.jpg,https://oleks-netizen.github.io/product-images/S31512-2/6.jpg,https://oleks-netizen.github.io/product-images/S31512-2/3.jpg,https://oleks-netizen.github.io/product-images/S31512-2/5.jpg</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>L21019-142</t>
+          <t>S31512-9</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21019-142/1.jpg,https://oleks-netizen.github.io/product-images/L21019-142/2.jpg,https://oleks-netizen.github.io/product-images/L21019-142/4.jpg,https://oleks-netizen.github.io/product-images/L21019-142/5.jpg,https://oleks-netizen.github.io/product-images/L21019-142/6.jpg,https://oleks-netizen.github.io/product-images/L21019-142/7.jpg,https://oleks-netizen.github.io/product-images/L21019-142/8.jpg,https://oleks-netizen.github.io/product-images/L21019-142/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31512-9/1.jpg,https://oleks-netizen.github.io/product-images/S31512-9/2.jpg,https://oleks-netizen.github.io/product-images/S31512-9/6.jpg,https://oleks-netizen.github.io/product-images/S31512-9/3.jpg,https://oleks-netizen.github.io/product-images/S31512-9/5.jpg</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>L21035-101</t>
+          <t>S31515-1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21035-101/1.jpg,https://oleks-netizen.github.io/product-images/L21035-101/2.jpg,https://oleks-netizen.github.io/product-images/L21035-101/4.jpg,https://oleks-netizen.github.io/product-images/L21035-101/5.jpg,https://oleks-netizen.github.io/product-images/L21035-101/6.jpg,https://oleks-netizen.github.io/product-images/L21035-101/7.jpg,https://oleks-netizen.github.io/product-images/L21035-101/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31515-1/1.jpg,https://oleks-netizen.github.io/product-images/S31515-1/2.jpg,https://oleks-netizen.github.io/product-images/S31515-1/6.jpg,https://oleks-netizen.github.io/product-images/S31515-1/3.jpg,https://oleks-netizen.github.io/product-images/S31515-1/5.jpg</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>L21075-1</t>
+          <t>S31515-2</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21075-1/1.jpg,https://oleks-netizen.github.io/product-images/L21075-1/2.jpg,https://oleks-netizen.github.io/product-images/L21075-1/4.jpg,https://oleks-netizen.github.io/product-images/L21075-1/5.jpg,https://oleks-netizen.github.io/product-images/L21075-1/6.jpg,https://oleks-netizen.github.io/product-images/L21075-1/7.jpg,https://oleks-netizen.github.io/product-images/L21075-1/8.jpg,https://oleks-netizen.github.io/product-images/L21075-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31515-2/1.jpg,https://oleks-netizen.github.io/product-images/S31515-2/2.jpg,https://oleks-netizen.github.io/product-images/S31515-2/6.jpg,https://oleks-netizen.github.io/product-images/S31515-2/3.jpg,https://oleks-netizen.github.io/product-images/S31515-2/5.jpg</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>L21209-1</t>
+          <t>S31520-1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-1/1.jpg,https://oleks-netizen.github.io/product-images/L21209-1/2.jpg,https://oleks-netizen.github.io/product-images/L21209-1/10.jpg,https://oleks-netizen.github.io/product-images/L21209-1/4.jpg,https://oleks-netizen.github.io/product-images/L21209-1/5.jpg,https://oleks-netizen.github.io/product-images/L21209-1/6.jpg,https://oleks-netizen.github.io/product-images/L21209-1/7.jpg,https://oleks-netizen.github.io/product-images/L21209-1/8.jpg,https://oleks-netizen.github.io/product-images/L21209-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31520-1/1.jpg,https://oleks-netizen.github.io/product-images/S31520-1/2.jpg,https://oleks-netizen.github.io/product-images/S31520-1/6.jpg,https://oleks-netizen.github.io/product-images/S31520-1/4.jpg,https://oleks-netizen.github.io/product-images/S31520-1/5.jpg</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>L21209-25</t>
+          <t>S31520-7</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21209-25/1.jpg,https://oleks-netizen.github.io/product-images/L21209-25/2.jpg,https://oleks-netizen.github.io/product-images/L21209-25/10.jpg,https://oleks-netizen.github.io/product-images/L21209-25/4.jpg,https://oleks-netizen.github.io/product-images/L21209-25/5.jpg,https://oleks-netizen.github.io/product-images/L21209-25/6.jpg,https://oleks-netizen.github.io/product-images/L21209-25/7.jpg,https://oleks-netizen.github.io/product-images/L21209-25/8.jpg,https://oleks-netizen.github.io/product-images/L21209-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31520-7/1.jpg,https://oleks-netizen.github.io/product-images/S31520-7/6.jpg,https://oleks-netizen.github.io/product-images/S31520-7/3.jpg,https://oleks-netizen.github.io/product-images/S31520-7/4.jpg,https://oleks-netizen.github.io/product-images/S31520-7/5.jpg</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>L21511-101</t>
+          <t>S31533-1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21511-101/1.jpg,https://oleks-netizen.github.io/product-images/L21511-101/2.jpg,https://oleks-netizen.github.io/product-images/L21511-101/4.jpg,https://oleks-netizen.github.io/product-images/L21511-101/5.jpg,https://oleks-netizen.github.io/product-images/L21511-101/6.jpg,https://oleks-netizen.github.io/product-images/L21511-101/7.jpg,https://oleks-netizen.github.io/product-images/L21511-101/8.jpg,https://oleks-netizen.github.io/product-images/L21511-101/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31533-1/1.jpg,https://oleks-netizen.github.io/product-images/S31533-1/6.jpg,https://oleks-netizen.github.io/product-images/S31533-1/3.jpg,https://oleks-netizen.github.io/product-images/S31533-1/4.jpg,https://oleks-netizen.github.io/product-images/S31533-1/5.jpg</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>L21529-43</t>
+          <t>S31533-11</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21529-43/1.jpg,https://oleks-netizen.github.io/product-images/L21529-43/2.jpg,https://oleks-netizen.github.io/product-images/L21529-43/4.jpg,https://oleks-netizen.github.io/product-images/L21529-43/5.jpg,https://oleks-netizen.github.io/product-images/L21529-43/6.jpg,https://oleks-netizen.github.io/product-images/L21529-43/7.jpg,https://oleks-netizen.github.io/product-images/L21529-43/8.jpg,https://oleks-netizen.github.io/product-images/L21529-43/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31533-11/1.jpg,https://oleks-netizen.github.io/product-images/S31533-11/5.jpg,https://oleks-netizen.github.io/product-images/S31533-11/3.jpg,https://oleks-netizen.github.io/product-images/S31533-11/4.jpg</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>L21531-1</t>
+          <t>S31533-12</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-1/1.jpg,https://oleks-netizen.github.io/product-images/L21531-1/2.jpg,https://oleks-netizen.github.io/product-images/L21531-1/4.jpg,https://oleks-netizen.github.io/product-images/L21531-1/5.jpg,https://oleks-netizen.github.io/product-images/L21531-1/6.jpg,https://oleks-netizen.github.io/product-images/L21531-1/7.jpg,https://oleks-netizen.github.io/product-images/L21531-1/8.jpg,https://oleks-netizen.github.io/product-images/L21531-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31533-12/1.jpg,https://oleks-netizen.github.io/product-images/S31533-12/2.jpg,https://oleks-netizen.github.io/product-images/S31533-12/6.jpg,https://oleks-netizen.github.io/product-images/S31533-12/3.jpg,https://oleks-netizen.github.io/product-images/S31533-12/5.jpg</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>L21531-11</t>
+          <t>S31538-1-r</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21531-11/1.jpg,https://oleks-netizen.github.io/product-images/L21531-11/2.jpg,https://oleks-netizen.github.io/product-images/L21531-11/4.jpg,https://oleks-netizen.github.io/product-images/L21531-11/5.jpg,https://oleks-netizen.github.io/product-images/L21531-11/6.jpg,https://oleks-netizen.github.io/product-images/L21531-11/7.jpg,https://oleks-netizen.github.io/product-images/L21531-11/8.jpg,https://oleks-netizen.github.io/product-images/L21531-11/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31538-1-r/1.jpg,https://oleks-netizen.github.io/product-images/S31538-1-r/6.jpg,https://oleks-netizen.github.io/product-images/S31538-1-r/3.jpg,https://oleks-netizen.github.io/product-images/S31538-1-r/4.jpg,https://oleks-netizen.github.io/product-images/S31538-1-r/5.jpg</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>L21545-1</t>
+          <t>S31538-11</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-1/1.jpg,https://oleks-netizen.github.io/product-images/L21545-1/2.jpg,https://oleks-netizen.github.io/product-images/L21545-1/10.jpg,https://oleks-netizen.github.io/product-images/L21545-1/4.jpg,https://oleks-netizen.github.io/product-images/L21545-1/5.jpg,https://oleks-netizen.github.io/product-images/L21545-1/6.jpg,https://oleks-netizen.github.io/product-images/L21545-1/7.jpg,https://oleks-netizen.github.io/product-images/L21545-1/8.jpg,https://oleks-netizen.github.io/product-images/L21545-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31538-11/1.jpg,https://oleks-netizen.github.io/product-images/S31538-11/6.jpg,https://oleks-netizen.github.io/product-images/S31538-11/3.jpg,https://oleks-netizen.github.io/product-images/S31538-11/4.jpg,https://oleks-netizen.github.io/product-images/S31538-11/5.jpg</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>L21545-175</t>
+          <t>S31538-2-r</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21545-175/1.jpg,https://oleks-netizen.github.io/product-images/L21545-175/2.jpg,https://oleks-netizen.github.io/product-images/L21545-175/10.jpg,https://oleks-netizen.github.io/product-images/L21545-175/4.jpg,https://oleks-netizen.github.io/product-images/L21545-175/5.jpg,https://oleks-netizen.github.io/product-images/L21545-175/6.jpg,https://oleks-netizen.github.io/product-images/L21545-175/7.jpg,https://oleks-netizen.github.io/product-images/L21545-175/8.jpg,https://oleks-netizen.github.io/product-images/L21545-175/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31538-2-r/1.jpg,https://oleks-netizen.github.io/product-images/S31538-2-r/6.jpg,https://oleks-netizen.github.io/product-images/S31538-2-r/3.jpg,https://oleks-netizen.github.io/product-images/S31538-2-r/4.jpg,https://oleks-netizen.github.io/product-images/S31538-2-r/5.jpg</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>L21547-64</t>
+          <t>S31538-9</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21547-64/1.jpg,https://oleks-netizen.github.io/product-images/L21547-64/2.jpg,https://oleks-netizen.github.io/product-images/L21547-64/4.jpg,https://oleks-netizen.github.io/product-images/L21547-64/5.jpg,https://oleks-netizen.github.io/product-images/L21547-64/6.jpg,https://oleks-netizen.github.io/product-images/L21547-64/7.jpg,https://oleks-netizen.github.io/product-images/L21547-64/8.jpg,https://oleks-netizen.github.io/product-images/L21547-64/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31538-9/1.jpg,https://oleks-netizen.github.io/product-images/S31538-9/6.jpg,https://oleks-netizen.github.io/product-images/S31538-9/3.jpg,https://oleks-netizen.github.io/product-images/S31538-9/4.jpg,https://oleks-netizen.github.io/product-images/S31538-9/5.jpg</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>L21549-1</t>
+          <t>S31543-1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-1/1.jpg,https://oleks-netizen.github.io/product-images/L21549-1/2.jpg,https://oleks-netizen.github.io/product-images/L21549-1/10.jpg,https://oleks-netizen.github.io/product-images/L21549-1/3.jpg,https://oleks-netizen.github.io/product-images/L21549-1/5.jpg,https://oleks-netizen.github.io/product-images/L21549-1/6.jpg,https://oleks-netizen.github.io/product-images/L21549-1/7.jpg,https://oleks-netizen.github.io/product-images/L21549-1/8.jpg,https://oleks-netizen.github.io/product-images/L21549-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31543-1/1.jpg,https://oleks-netizen.github.io/product-images/S31543-1/6.jpg,https://oleks-netizen.github.io/product-images/S31543-1/3.jpg,https://oleks-netizen.github.io/product-images/S31543-1/4.jpg,https://oleks-netizen.github.io/product-images/S31543-1/5.jpg</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>L21549-22</t>
+          <t>S31552-1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21549-22/1.jpg,https://oleks-netizen.github.io/product-images/L21549-22/2.jpg,https://oleks-netizen.github.io/product-images/L21549-22/10.jpg,https://oleks-netizen.github.io/product-images/L21549-22/3.jpg,https://oleks-netizen.github.io/product-images/L21549-22/5.jpg,https://oleks-netizen.github.io/product-images/L21549-22/6.jpg,https://oleks-netizen.github.io/product-images/L21549-22/7.jpg,https://oleks-netizen.github.io/product-images/L21549-22/8.jpg,https://oleks-netizen.github.io/product-images/L21549-22/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31552-1/1.jpg,https://oleks-netizen.github.io/product-images/S31552-1/6.jpg,https://oleks-netizen.github.io/product-images/S31552-1/3.jpg,https://oleks-netizen.github.io/product-images/S31552-1/4.jpg,https://oleks-netizen.github.io/product-images/S31552-1/5.jpg</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>L21557-1</t>
+          <t>S31560-2</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-1/1.jpg,https://oleks-netizen.github.io/product-images/L21557-1/2.jpg,https://oleks-netizen.github.io/product-images/L21557-1/10.jpg,https://oleks-netizen.github.io/product-images/L21557-1/11.jpg,https://oleks-netizen.github.io/product-images/L21557-1/3.jpg,https://oleks-netizen.github.io/product-images/L21557-1/5.jpg,https://oleks-netizen.github.io/product-images/L21557-1/6.jpg,https://oleks-netizen.github.io/product-images/L21557-1/7.jpg,https://oleks-netizen.github.io/product-images/L21557-1/8.jpg,https://oleks-netizen.github.io/product-images/L21557-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31560-2/1.jpg,https://oleks-netizen.github.io/product-images/S31560-2/6.jpg,https://oleks-netizen.github.io/product-images/S31560-2/3.jpg,https://oleks-netizen.github.io/product-images/S31560-2/4.jpg,https://oleks-netizen.github.io/product-images/S31560-2/5.jpg</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>L21557-173</t>
+          <t>S31560-9</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21557-173/1.jpg,https://oleks-netizen.github.io/product-images/L21557-173/2.jpg,https://oleks-netizen.github.io/product-images/L21557-173/10.jpg,https://oleks-netizen.github.io/product-images/L21557-173/11.jpg,https://oleks-netizen.github.io/product-images/L21557-173/3.jpg,https://oleks-netizen.github.io/product-images/L21557-173/5.jpg,https://oleks-netizen.github.io/product-images/L21557-173/6.jpg,https://oleks-netizen.github.io/product-images/L21557-173/7.jpg,https://oleks-netizen.github.io/product-images/L21557-173/8.jpg,https://oleks-netizen.github.io/product-images/L21557-173/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31560-9/1.jpg,https://oleks-netizen.github.io/product-images/S31560-9/6.jpg,https://oleks-netizen.github.io/product-images/S31560-9/3.jpg,https://oleks-netizen.github.io/product-images/S31560-9/4.jpg,https://oleks-netizen.github.io/product-images/S31560-9/5.jpg</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>L21561-1</t>
+          <t>S31561-1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-1/1.jpg,https://oleks-netizen.github.io/product-images/L21561-1/2.jpg,https://oleks-netizen.github.io/product-images/L21561-1/4.jpg,https://oleks-netizen.github.io/product-images/L21561-1/5.jpg,https://oleks-netizen.github.io/product-images/L21561-1/6.jpg,https://oleks-netizen.github.io/product-images/L21561-1/7.jpg,https://oleks-netizen.github.io/product-images/L21561-1/8.jpg,https://oleks-netizen.github.io/product-images/L21561-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31561-1/1.jpg,https://oleks-netizen.github.io/product-images/S31561-1/6.jpg,https://oleks-netizen.github.io/product-images/S31561-1/3.jpg,https://oleks-netizen.github.io/product-images/S31561-1/4.jpg,https://oleks-netizen.github.io/product-images/S31561-1/5.jpg</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>L21561-25</t>
+          <t>S31561-4</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L21561-25/1.jpg,https://oleks-netizen.github.io/product-images/L21561-25/2.jpg,https://oleks-netizen.github.io/product-images/L21561-25/4.jpg,https://oleks-netizen.github.io/product-images/L21561-25/5.jpg,https://oleks-netizen.github.io/product-images/L21561-25/6.jpg,https://oleks-netizen.github.io/product-images/L21561-25/7.jpg,https://oleks-netizen.github.io/product-images/L21561-25/8.jpg,https://oleks-netizen.github.io/product-images/L21561-25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31561-4/1.jpg,https://oleks-netizen.github.io/product-images/S31561-4/6.jpg,https://oleks-netizen.github.io/product-images/S31561-4/3.jpg,https://oleks-netizen.github.io/product-images/S31561-4/4.jpg,https://oleks-netizen.github.io/product-images/S31561-4/5.jpg</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>L22007-1K</t>
+          <t>S31578-1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-1K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-1K/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31578-1/1.jpg,https://oleks-netizen.github.io/product-images/S31578-1/6.jpg,https://oleks-netizen.github.io/product-images/S31578-1/3.jpg,https://oleks-netizen.github.io/product-images/S31578-1/4.jpg,https://oleks-netizen.github.io/product-images/S31578-1/5.jpg</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>L22007-3K</t>
+          <t>S31578-2</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22007-3K/1.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/2.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/4.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/5.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/6.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/7.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/8.jpg,https://oleks-netizen.github.io/product-images/L22007-3K/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31578-2/1.jpg,https://oleks-netizen.github.io/product-images/S31578-2/6.jpg,https://oleks-netizen.github.io/product-images/S31578-2/3.jpg,https://oleks-netizen.github.io/product-images/S31578-2/4.jpg,https://oleks-netizen.github.io/product-images/S31578-2/5.jpg</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>L22008-1</t>
+          <t>S31578-7</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-1/1.jpg,https://oleks-netizen.github.io/product-images/L22008-1/2.jpg,https://oleks-netizen.github.io/product-images/L22008-1/4.jpg,https://oleks-netizen.github.io/product-images/L22008-1/5.jpg,https://oleks-netizen.github.io/product-images/L22008-1/6.jpg,https://oleks-netizen.github.io/product-images/L22008-1/7.jpg,https://oleks-netizen.github.io/product-images/L22008-1/8.jpg,https://oleks-netizen.github.io/product-images/L22008-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31578-7/1.jpg,https://oleks-netizen.github.io/product-images/S31578-7/6.jpg,https://oleks-netizen.github.io/product-images/S31578-7/3.jpg,https://oleks-netizen.github.io/product-images/S31578-7/4.jpg,https://oleks-netizen.github.io/product-images/S31578-7/5.jpg</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>L22008-12</t>
+          <t>S31578-9</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-12/1.jpg,https://oleks-netizen.github.io/product-images/L22008-12/2.jpg,https://oleks-netizen.github.io/product-images/L22008-12/4.jpg,https://oleks-netizen.github.io/product-images/L22008-12/5.jpg,https://oleks-netizen.github.io/product-images/L22008-12/6.jpg,https://oleks-netizen.github.io/product-images/L22008-12/7.jpg,https://oleks-netizen.github.io/product-images/L22008-12/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31578-9/1.jpg,https://oleks-netizen.github.io/product-images/S31578-9/6.jpg,https://oleks-netizen.github.io/product-images/S31578-9/3.jpg,https://oleks-netizen.github.io/product-images/S31578-9/4.jpg,https://oleks-netizen.github.io/product-images/S31578-9/5.jpg</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>L22008-8</t>
+          <t>S31583-1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22008-8/1.jpg,https://oleks-netizen.github.io/product-images/L22008-8/2.jpg,https://oleks-netizen.github.io/product-images/L22008-8/4.jpg,https://oleks-netizen.github.io/product-images/L22008-8/5.jpg,https://oleks-netizen.github.io/product-images/L22008-8/6.jpg,https://oleks-netizen.github.io/product-images/L22008-8/7.jpg,https://oleks-netizen.github.io/product-images/L22008-8/8.jpg,https://oleks-netizen.github.io/product-images/L22008-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31583-1/1.jpg,https://oleks-netizen.github.io/product-images/S31583-1/6.jpg,https://oleks-netizen.github.io/product-images/S31583-1/3.jpg,https://oleks-netizen.github.io/product-images/S31583-1/4.jpg,https://oleks-netizen.github.io/product-images/S31583-1/5.jpg</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>L22009-1</t>
+          <t>S31583-4</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-1/1.jpg,https://oleks-netizen.github.io/product-images/L22009-1/2.jpg,https://oleks-netizen.github.io/product-images/L22009-1/10.jpg,https://oleks-netizen.github.io/product-images/L22009-1/4.jpg,https://oleks-netizen.github.io/product-images/L22009-1/5.jpg,https://oleks-netizen.github.io/product-images/L22009-1/6.jpg,https://oleks-netizen.github.io/product-images/L22009-1/7.jpg,https://oleks-netizen.github.io/product-images/L22009-1/8.jpg,https://oleks-netizen.github.io/product-images/L22009-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31583-4/1.jpg,https://oleks-netizen.github.io/product-images/S31583-4/6.jpg,https://oleks-netizen.github.io/product-images/S31583-4/3.jpg,https://oleks-netizen.github.io/product-images/S31583-4/4.jpg,https://oleks-netizen.github.io/product-images/S31583-4/5.jpg</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>L22009-35</t>
+          <t>S31585-1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22009-35/1.jpg,https://oleks-netizen.github.io/product-images/L22009-35/2.jpg,https://oleks-netizen.github.io/product-images/L22009-35/10.jpg,https://oleks-netizen.github.io/product-images/L22009-35/4.jpg,https://oleks-netizen.github.io/product-images/L22009-35/5.jpg,https://oleks-netizen.github.io/product-images/L22009-35/6.jpg,https://oleks-netizen.github.io/product-images/L22009-35/7.jpg,https://oleks-netizen.github.io/product-images/L22009-35/8.jpg,https://oleks-netizen.github.io/product-images/L22009-35/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31585-1/1.jpg,https://oleks-netizen.github.io/product-images/S31585-1/6.jpg,https://oleks-netizen.github.io/product-images/S31585-1/3.jpg,https://oleks-netizen.github.io/product-images/S31585-1/4.jpg,https://oleks-netizen.github.io/product-images/S31585-1/5.jpg</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>L22098-1</t>
+          <t>S31585-4</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22098-1/1.jpg,https://oleks-netizen.github.io/product-images/L22098-1/2.jpg,https://oleks-netizen.github.io/product-images/L22098-1/4.jpg,https://oleks-netizen.github.io/product-images/L22098-1/5.jpg,https://oleks-netizen.github.io/product-images/L22098-1/6.jpg,https://oleks-netizen.github.io/product-images/L22098-1/7.jpg,https://oleks-netizen.github.io/product-images/L22098-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31585-4/1.jpg,https://oleks-netizen.github.io/product-images/S31585-4/6.jpg,https://oleks-netizen.github.io/product-images/S31585-4/3.jpg,https://oleks-netizen.github.io/product-images/S31585-4/4.jpg,https://oleks-netizen.github.io/product-images/S31585-4/5.jpg</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>L22125-1</t>
+          <t>S31585-7</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-1/1.jpg,https://oleks-netizen.github.io/product-images/L22125-1/2.jpg,https://oleks-netizen.github.io/product-images/L22125-1/4.jpg,https://oleks-netizen.github.io/product-images/L22125-1/5.jpg,https://oleks-netizen.github.io/product-images/L22125-1/6.jpg,https://oleks-netizen.github.io/product-images/L22125-1/7.jpg,https://oleks-netizen.github.io/product-images/L22125-1/8.jpg,https://oleks-netizen.github.io/product-images/L22125-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31585-7/1.jpg,https://oleks-netizen.github.io/product-images/S31585-7/6.jpg,https://oleks-netizen.github.io/product-images/S31585-7/3.jpg,https://oleks-netizen.github.io/product-images/S31585-7/4.jpg,https://oleks-netizen.github.io/product-images/S31585-7/5.jpg</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>L22125-8</t>
+          <t>S31585-8</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22125-8/1.jpg,https://oleks-netizen.github.io/product-images/L22125-8/2.jpg,https://oleks-netizen.github.io/product-images/L22125-8/4.jpg,https://oleks-netizen.github.io/product-images/L22125-8/5.jpg,https://oleks-netizen.github.io/product-images/L22125-8/6.jpg,https://oleks-netizen.github.io/product-images/L22125-8/7.jpg,https://oleks-netizen.github.io/product-images/L22125-8/8.jpg,https://oleks-netizen.github.io/product-images/L22125-8/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31585-8/1.jpg,https://oleks-netizen.github.io/product-images/S31585-8/6.jpg,https://oleks-netizen.github.io/product-images/S31585-8/3.jpg,https://oleks-netizen.github.io/product-images/S31585-8/4.jpg,https://oleks-netizen.github.io/product-images/S31585-8/5.jpg</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>L22187-1W</t>
+          <t>S31586-1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1W/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31586-1/1.jpg,https://oleks-netizen.github.io/product-images/S31586-1/6.jpg,https://oleks-netizen.github.io/product-images/S31586-1/3.jpg,https://oleks-netizen.github.io/product-images/S31586-1/4.jpg,https://oleks-netizen.github.io/product-images/S31586-1/5.jpg</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>L22187-1X</t>
+          <t>S31586-11</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22187-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/2.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/10.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/8.jpg,https://oleks-netizen.github.io/product-images/L22187-1X/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31586-11/1.jpg,https://oleks-netizen.github.io/product-images/S31586-11/6.jpg,https://oleks-netizen.github.io/product-images/S31586-11/3.jpg,https://oleks-netizen.github.io/product-images/S31586-11/4.jpg,https://oleks-netizen.github.io/product-images/S31586-11/5.jpg</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>L22322-01</t>
+          <t>S31586-2</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-01/1.jpg,https://oleks-netizen.github.io/product-images/L22322-01/2.jpg,https://oleks-netizen.github.io/product-images/L22322-01/10.jpg,https://oleks-netizen.github.io/product-images/L22322-01/4.jpg,https://oleks-netizen.github.io/product-images/L22322-01/5.jpg,https://oleks-netizen.github.io/product-images/L22322-01/6.jpg,https://oleks-netizen.github.io/product-images/L22322-01/7.jpg,https://oleks-netizen.github.io/product-images/L22322-01/8.jpg,https://oleks-netizen.github.io/product-images/L22322-01/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31586-2/1.jpg,https://oleks-netizen.github.io/product-images/S31586-2/6.jpg,https://oleks-netizen.github.io/product-images/S31586-2/3.jpg,https://oleks-netizen.github.io/product-images/S31586-2/4.jpg,https://oleks-netizen.github.io/product-images/S31586-2/5.jpg</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>L22322-02</t>
+          <t>S31586-9</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-02/1.jpg,https://oleks-netizen.github.io/product-images/L22322-02/2.jpg,https://oleks-netizen.github.io/product-images/L22322-02/10.jpg,https://oleks-netizen.github.io/product-images/L22322-02/4.jpg,https://oleks-netizen.github.io/product-images/L22322-02/5.jpg,https://oleks-netizen.github.io/product-images/L22322-02/6.jpg,https://oleks-netizen.github.io/product-images/L22322-02/7.jpg,https://oleks-netizen.github.io/product-images/L22322-02/8.jpg,https://oleks-netizen.github.io/product-images/L22322-02/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31586-9/1.jpg,https://oleks-netizen.github.io/product-images/S31586-9/6.jpg,https://oleks-netizen.github.io/product-images/S31586-9/3.jpg,https://oleks-netizen.github.io/product-images/S31586-9/4.jpg,https://oleks-netizen.github.io/product-images/S31586-9/5.jpg</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>L22322-1</t>
+          <t>S31591-1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-1/1.jpg,https://oleks-netizen.github.io/product-images/L22322-1/2.jpg,https://oleks-netizen.github.io/product-images/L22322-1/10.jpg,https://oleks-netizen.github.io/product-images/L22322-1/4.jpg,https://oleks-netizen.github.io/product-images/L22322-1/5.jpg,https://oleks-netizen.github.io/product-images/L22322-1/6.jpg,https://oleks-netizen.github.io/product-images/L22322-1/7.jpg,https://oleks-netizen.github.io/product-images/L22322-1/8.jpg,https://oleks-netizen.github.io/product-images/L22322-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31591-1/1.jpg,https://oleks-netizen.github.io/product-images/S31591-1/6.jpg,https://oleks-netizen.github.io/product-images/S31591-1/3.jpg,https://oleks-netizen.github.io/product-images/S31591-1/4.jpg,https://oleks-netizen.github.io/product-images/S31591-1/5.jpg</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>L22322-4</t>
+          <t>S31591-11</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22322-4/1.jpg,https://oleks-netizen.github.io/product-images/L22322-4/2.jpg,https://oleks-netizen.github.io/product-images/L22322-4/10.jpg,https://oleks-netizen.github.io/product-images/L22322-4/4.jpg,https://oleks-netizen.github.io/product-images/L22322-4/5.jpg,https://oleks-netizen.github.io/product-images/L22322-4/6.jpg,https://oleks-netizen.github.io/product-images/L22322-4/7.jpg,https://oleks-netizen.github.io/product-images/L22322-4/8.jpg,https://oleks-netizen.github.io/product-images/L22322-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31591-11/1.jpg,https://oleks-netizen.github.io/product-images/S31591-11/6.jpg,https://oleks-netizen.github.io/product-images/S31591-11/3.jpg,https://oleks-netizen.github.io/product-images/S31591-11/4.jpg,https://oleks-netizen.github.io/product-images/S31591-11/5.jpg</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>L22532-01</t>
+          <t>S31591-2</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-01/1.jpg,https://oleks-netizen.github.io/product-images/L22532-01/3.jpg,https://oleks-netizen.github.io/product-images/L22532-01/4.jpg,https://oleks-netizen.github.io/product-images/L22532-01/5.jpg,https://oleks-netizen.github.io/product-images/L22532-01/6.jpg,https://oleks-netizen.github.io/product-images/L22532-01/7.jpg,https://oleks-netizen.github.io/product-images/L22532-01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31591-2/1.jpg,https://oleks-netizen.github.io/product-images/S31591-2/6.jpg,https://oleks-netizen.github.io/product-images/S31591-2/3.jpg,https://oleks-netizen.github.io/product-images/S31591-2/4.jpg,https://oleks-netizen.github.io/product-images/S31591-2/5.jpg</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>L22532-03</t>
+          <t>S31591-9</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22532-03/1.jpg,https://oleks-netizen.github.io/product-images/L22532-03/3.jpg,https://oleks-netizen.github.io/product-images/L22532-03/4.jpg,https://oleks-netizen.github.io/product-images/L22532-03/5.jpg,https://oleks-netizen.github.io/product-images/L22532-03/6.jpg,https://oleks-netizen.github.io/product-images/L22532-03/7.jpg,https://oleks-netizen.github.io/product-images/L22532-03/8.jpg,https://oleks-netizen.github.io/product-images/L22532-03/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31591-9/1.jpg,https://oleks-netizen.github.io/product-images/S31591-9/6.jpg,https://oleks-netizen.github.io/product-images/S31591-9/3.jpg,https://oleks-netizen.github.io/product-images/S31591-9/4.jpg,https://oleks-netizen.github.io/product-images/S31591-9/5.jpg</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>L22537-179</t>
+          <t>S31598-11</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22537-179/1.jpg,https://oleks-netizen.github.io/product-images/L22537-179/3.jpg,https://oleks-netizen.github.io/product-images/L22537-179/4.jpg,https://oleks-netizen.github.io/product-images/L22537-179/5.jpg,https://oleks-netizen.github.io/product-images/L22537-179/6.jpg,https://oleks-netizen.github.io/product-images/L22537-179/7.jpg,https://oleks-netizen.github.io/product-images/L22537-179/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31598-11/1.jpg,https://oleks-netizen.github.io/product-images/S31598-11/6.jpg,https://oleks-netizen.github.io/product-images/S31598-11/3.jpg,https://oleks-netizen.github.io/product-images/S31598-11/4.jpg,https://oleks-netizen.github.io/product-images/S31598-11/5.jpg</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>L22613-1</t>
+          <t>S31598-2</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-1/1.jpg,https://oleks-netizen.github.io/product-images/L22613-1/3.jpg,https://oleks-netizen.github.io/product-images/L22613-1/4.jpg,https://oleks-netizen.github.io/product-images/L22613-1/5.jpg,https://oleks-netizen.github.io/product-images/L22613-1/6.jpg,https://oleks-netizen.github.io/product-images/L22613-1/7.jpg,https://oleks-netizen.github.io/product-images/L22613-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31598-2/1.jpg,https://oleks-netizen.github.io/product-images/S31598-2/2.jpg,https://oleks-netizen.github.io/product-images/S31598-2/6.jpg,https://oleks-netizen.github.io/product-images/S31598-2/4.jpg,https://oleks-netizen.github.io/product-images/S31598-2/5.jpg</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>L22613-2S</t>
+          <t>S31598-4</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22613-2S/1.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/2.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/3.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/4.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/5.jpg,https://oleks-netizen.github.io/product-images/L22613-2S/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31598-4/1.jpg,https://oleks-netizen.github.io/product-images/S31598-4/2.jpg,https://oleks-netizen.github.io/product-images/S31598-4/6.jpg,https://oleks-netizen.github.io/product-images/S31598-4/4.jpg,https://oleks-netizen.github.io/product-images/S31598-4/5.jpg</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>L22619-1X</t>
+          <t>S31598-9</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22619-1X/1.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/3.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/4.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/5.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/6.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/7.jpg,https://oleks-netizen.github.io/product-images/L22619-1X/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31598-9/1.jpg,https://oleks-netizen.github.io/product-images/S31598-9/2.jpg,https://oleks-netizen.github.io/product-images/S31598-9/7.jpg,https://oleks-netizen.github.io/product-images/S31598-9/3.jpg,https://oleks-netizen.github.io/product-images/S31598-9/5.jpg,https://oleks-netizen.github.io/product-images/S31598-9/6.jpg</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>L22661-1</t>
+          <t>S31805-1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22661-1/1.jpg,https://oleks-netizen.github.io/product-images/L22661-1/3.jpg,https://oleks-netizen.github.io/product-images/L22661-1/4.jpg,https://oleks-netizen.github.io/product-images/L22661-1/5.jpg,https://oleks-netizen.github.io/product-images/L22661-1/6.jpg,https://oleks-netizen.github.io/product-images/L22661-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31805-1/1.jpg,https://oleks-netizen.github.io/product-images/S31805-1/6.jpg,https://oleks-netizen.github.io/product-images/S31805-1/3.jpg,https://oleks-netizen.github.io/product-images/S31805-1/4.jpg,https://oleks-netizen.github.io/product-images/S31805-1/5.jpg</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>L22808-1</t>
+          <t>S31805-2</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/S31805-2/1.jpg,https://oleks-netizen.github.io/product-images/S31805-2/6.jpg,https://oleks-netizen.github.io/product-images/S31805-2/3.jpg,https://oleks-netizen.github.io/product-images/S31805-2/4.jpg,https://oleks-netizen.github.io/product-images/S31805-2/5.jpg</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>L22808-1W</t>
+          <t>W15614-black</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22808-1W/1.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/3.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/4.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/5.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/6.jpg,https://oleks-netizen.github.io/product-images/L22808-1W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/W15614-black/1.jpg,https://oleks-netizen.github.io/product-images/W15614-black/7.jpg,https://oleks-netizen.github.io/product-images/W15614-black/3.jpg,https://oleks-netizen.github.io/product-images/W15614-black/4.jpg,https://oleks-netizen.github.io/product-images/W15614-black/5.jpg,https://oleks-netizen.github.io/product-images/W15614-black/6.jpg</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5451,57 +5451,57 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>L22813-04S</t>
+          <t>W15614-blue Синий</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-04S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-04S/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/W15614-blue Синий/1.jpg,https://oleks-netizen.github.io/product-images/W15614-blue Синий/7.jpg,https://oleks-netizen.github.io/product-images/W15614-blue Синий/3.jpg,https://oleks-netizen.github.io/product-images/W15614-blue Синий/4.jpg,https://oleks-netizen.github.io/product-images/W15614-blue Синий/5.jpg,https://oleks-netizen.github.io/product-images/W15614-blue Синий/6.jpg</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>L22813-05S</t>
+          <t>W15614-bordo</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22813-05S/1.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/3.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/4.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/5.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/6.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/7.jpg,https://oleks-netizen.github.io/product-images/L22813-05S/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/W15614-bordo/1.jpg,https://oleks-netizen.github.io/product-images/W15614-bordo/7.jpg,https://oleks-netizen.github.io/product-images/W15614-bordo/3.jpg,https://oleks-netizen.github.io/product-images/W15614-bordo/4.jpg,https://oleks-netizen.github.io/product-images/W15614-bordo/5.jpg,https://oleks-netizen.github.io/product-images/W15614-bordo/6.jpg</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>L22902-1C</t>
+          <t>W15614-green</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22902-1C/1.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/2.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/10.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/4.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/5.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/6.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/7.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/8.jpg,https://oleks-netizen.github.io/product-images/L22902-1C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/W15614-green/1.jpg,https://oleks-netizen.github.io/product-images/W15614-green/7.jpg,https://oleks-netizen.github.io/product-images/W15614-green/3.jpg,https://oleks-netizen.github.io/product-images/W15614-green/4.jpg,https://oleks-netizen.github.io/product-images/W15614-green/5.jpg,https://oleks-netizen.github.io/product-images/W15614-green/6.jpg</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>L22916-5W</t>
+          <t>W15614-red</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L22916-5W/1.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/3.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/4.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/5.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/6.jpg,https://oleks-netizen.github.io/product-images/L22916-5W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/W15614-red/1.jpg,https://oleks-netizen.github.io/product-images/W15614-red/2.jpg,https://oleks-netizen.github.io/product-images/W15614-red/7.jpg,https://oleks-netizen.github.io/product-images/W15614-red/3.jpg,https://oleks-netizen.github.io/product-images/W15614-red/4.jpg,https://oleks-netizen.github.io/product-images/W15614-red/5.jpg</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5511,12 +5511,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>L26003-1</t>
+          <t>Y-1088B-black</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26003-1/1.jpg,https://oleks-netizen.github.io/product-images/L26003-1/3.jpg,https://oleks-netizen.github.io/product-images/L26003-1/4.jpg,https://oleks-netizen.github.io/product-images/L26003-1/5.jpg,https://oleks-netizen.github.io/product-images/L26003-1/6.jpg,https://oleks-netizen.github.io/product-images/L26003-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-black/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-black/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-black/6.jpg</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5526,12 +5526,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>L26018-1</t>
+          <t>Y-1088B-blue</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-blue/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-blue/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-blue/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-blue/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-blue/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-blue/6.jpg</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5541,57 +5541,57 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>L26029-017</t>
+          <t>Y-1088B-brown</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26029-017/1.jpg,https://oleks-netizen.github.io/product-images/L26029-017/2.jpg,https://oleks-netizen.github.io/product-images/L26029-017/4.jpg,https://oleks-netizen.github.io/product-images/L26029-017/5.jpg,https://oleks-netizen.github.io/product-images/L26029-017/6.jpg,https://oleks-netizen.github.io/product-images/L26029-017/7.jpg,https://oleks-netizen.github.io/product-images/L26029-017/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-brown/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-brown/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-brown/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-brown/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-brown/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-brown/6.jpg</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>L26290-005</t>
+          <t>Y-1088B-green</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-green/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-green/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-green/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-green/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-green/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-green/6.jpg</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>L26309-005</t>
+          <t>Y-1088B-grey</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-grey/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-grey/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-grey/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-grey/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-grey/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-grey/6.jpg</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>L26321-1</t>
+          <t>Y-1088B-red</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-1088B-red/1.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-red/2.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-red/7.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-red/3.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-red/4.jpg,https://oleks-netizen.github.io/product-images/Y-1088B-red/6.jpg</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5601,282 +5601,282 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>L29023-14</t>
+          <t>Y-6557B-black</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-black/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-black/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-black/5.jpg</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>L3025-4</t>
+          <t>Y-6557B-deep yellow</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L3025-4/10.jpg,https://oleks-netizen.github.io/product-images/L3025-4/1.jpg,https://oleks-netizen.github.io/product-images/L3025-4/2.jpg,https://oleks-netizen.github.io/product-images/L3025-4/3.jpg,https://oleks-netizen.github.io/product-images/L3025-4/4.jpg,https://oleks-netizen.github.io/product-images/L3025-4/6.jpg,https://oleks-netizen.github.io/product-images/L3025-4/7.jpg,https://oleks-netizen.github.io/product-images/L3025-4/8.jpg,https://oleks-netizen.github.io/product-images/L3025-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep yellow/5.jpg</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>L85351-1</t>
+          <t>Y-6557B-deep-pink</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85351-1/1.jpg,https://oleks-netizen.github.io/product-images/L85351-1/2.jpg,https://oleks-netizen.github.io/product-images/L85351-1/3.jpg,https://oleks-netizen.github.io/product-images/L85351-1/4.jpg,https://oleks-netizen.github.io/product-images/L85351-1/5.jpg,https://oleks-netizen.github.io/product-images/L85351-1/6.jpg,https://oleks-netizen.github.io/product-images/L85351-1/7.jpg,https://oleks-netizen.github.io/product-images/L85351-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-deep-pink/5.jpg</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>L86913-1</t>
+          <t>Y-6557B-grey</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-1/1.jpg,https://oleks-netizen.github.io/product-images/L86913-1/2.jpg,https://oleks-netizen.github.io/product-images/L86913-1/4.jpg,https://oleks-netizen.github.io/product-images/L86913-1/5.jpg,https://oleks-netizen.github.io/product-images/L86913-1/6.jpg,https://oleks-netizen.github.io/product-images/L86913-1/7.jpg,https://oleks-netizen.github.io/product-images/L86913-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-grey/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-grey/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-grey/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-grey/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-grey/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-grey/5.jpg</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>L86913-15</t>
+          <t>Y-6557B-light green</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-15/1.jpg,https://oleks-netizen.github.io/product-images/L86913-15/2.jpg,https://oleks-netizen.github.io/product-images/L86913-15/4.jpg,https://oleks-netizen.github.io/product-images/L86913-15/5.jpg,https://oleks-netizen.github.io/product-images/L86913-15/6.jpg,https://oleks-netizen.github.io/product-images/L86913-15/7.jpg,https://oleks-netizen.github.io/product-images/L86913-15/8.jpg,https://oleks-netizen.github.io/product-images/L86913-15/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-light green/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-light green/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-light green/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-light green/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-light green/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-light green/5.jpg</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>L86913-3</t>
+          <t>Y-6557B-red</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86913-3/1.jpg,https://oleks-netizen.github.io/product-images/L86913-3/2.jpg,https://oleks-netizen.github.io/product-images/L86913-3/4.jpg,https://oleks-netizen.github.io/product-images/L86913-3/5.jpg,https://oleks-netizen.github.io/product-images/L86913-3/6.jpg,https://oleks-netizen.github.io/product-images/L86913-3/7.jpg,https://oleks-netizen.github.io/product-images/L86913-3/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-6557B-red/1.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-red/2.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-red/7.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-red/3.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-red/4.jpg,https://oleks-netizen.github.io/product-images/Y-6557B-red/5.jpg</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>L86963-10</t>
+          <t>Y-7001A-black</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86963-10/1.jpg,https://oleks-netizen.github.io/product-images/L86963-10/2.jpg,https://oleks-netizen.github.io/product-images/L86963-10/4.jpg,https://oleks-netizen.github.io/product-images/L86963-10/5.jpg,https://oleks-netizen.github.io/product-images/L86963-10/6.jpg,https://oleks-netizen.github.io/product-images/L86963-10/7.jpg,https://oleks-netizen.github.io/product-images/L86963-10/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7001A-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black/7.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black/5.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black/6.jpg</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>L86963-14</t>
+          <t>Y-7001A-black-lak</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86963-14/1.jpg,https://oleks-netizen.github.io/product-images/L86963-14/2.jpg,https://oleks-netizen.github.io/product-images/L86963-14/4.jpg,https://oleks-netizen.github.io/product-images/L86963-14/5.jpg,https://oleks-netizen.github.io/product-images/L86963-14/6.jpg,https://oleks-netizen.github.io/product-images/L86963-14/7.jpg,https://oleks-netizen.github.io/product-images/L86963-14/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/1.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/2.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/7.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/3.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/5.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-black-lak/6.jpg</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>L87005-2W</t>
+          <t>Y-7001A-blue-lak</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87005-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/2.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87005-2W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/1.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/2.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/7.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/3.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/5.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-blue-lak/6.jpg</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>L87024-1</t>
+          <t>Y-7001A-lime-green-lak</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/1.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/2.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/7.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/3.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/5.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-lime-green-lak/6.jpg</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>L87045-96</t>
+          <t>Y-7001A-pink-lak</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/1.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/2.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/7.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/3.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/5.jpg,https://oleks-netizen.github.io/product-images/Y-7001A-pink-lak/6.jpg</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>L87156-1X</t>
+          <t>Y-7071A-black</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071A-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-black/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-black/4.jpg</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>L87266-1</t>
+          <t>Y-7071A-dark-blue</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-1/1.jpg,https://oleks-netizen.github.io/product-images/L87266-1/2.jpg,https://oleks-netizen.github.io/product-images/L87266-1/4.jpg,https://oleks-netizen.github.io/product-images/L87266-1/5.jpg,https://oleks-netizen.github.io/product-images/L87266-1/6.jpg,https://oleks-netizen.github.io/product-images/L87266-1/7.jpg,https://oleks-netizen.github.io/product-images/L87266-1/8.jpg,https://oleks-netizen.github.io/product-images/L87266-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071A-dark-blue/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-dark-blue/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-dark-blue/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-dark-blue/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-dark-blue/4.jpg</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>L87266-4</t>
+          <t>Y-7071A-lemon-green</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-4/1.jpg,https://oleks-netizen.github.io/product-images/L87266-4/2.jpg,https://oleks-netizen.github.io/product-images/L87266-4/4.jpg,https://oleks-netizen.github.io/product-images/L87266-4/5.jpg,https://oleks-netizen.github.io/product-images/L87266-4/6.jpg,https://oleks-netizen.github.io/product-images/L87266-4/7.jpg,https://oleks-netizen.github.io/product-images/L87266-4/8.jpg,https://oleks-netizen.github.io/product-images/L87266-4/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071A-lemon-green/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-lemon-green/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-lemon-green/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-lemon-green/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-lemon-green/4.jpg</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>L87266-46</t>
+          <t>Y-7071A-light-grey</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87266-46/1.jpg,https://oleks-netizen.github.io/product-images/L87266-46/2.jpg,https://oleks-netizen.github.io/product-images/L87266-46/4.jpg,https://oleks-netizen.github.io/product-images/L87266-46/5.jpg,https://oleks-netizen.github.io/product-images/L87266-46/6.jpg,https://oleks-netizen.github.io/product-images/L87266-46/7.jpg,https://oleks-netizen.github.io/product-images/L87266-46/8.jpg,https://oleks-netizen.github.io/product-images/L87266-46/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071A-light-grey/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-light-grey/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-light-grey/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-light-grey/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-light-grey/4.jpg</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>L87274-1</t>
+          <t>Y-7071A-red</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071A-red/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-red/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-red/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-red/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071A-red/4.jpg</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>L87535-1X</t>
+          <t>Y-7071B-black</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071B-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-black/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-black/4.jpg</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>L87606-1</t>
+          <t>Y-7071B-red</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7071B-red/1.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-red/2.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-red/6.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-red/3.jpg,https://oleks-netizen.github.io/product-images/Y-7071B-red/4.jpg</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>L88003-24</t>
+          <t>Y-7767A-black</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-black/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-black/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-black/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-black/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-black/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-black/5.jpg</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5886,631 +5886,91 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>L88003-32 Бежевый</t>
+          <t>Y-7767A-deep-purple</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-deep-purple/5.jpg</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>L9902-3C</t>
+          <t>Y-7767A-green</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L9902-3C/1.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/2.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/3.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/10.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/11.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/4.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/5.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/6.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/7.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/8.jpg,https://oleks-netizen.github.io/product-images/L9902-3C/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-green/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-green/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-green/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-green/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-green/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-green/5.jpg</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>LC14054-GD25</t>
+          <t>Y-7767A-khaki</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-khaki/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-khaki/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-khaki/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-khaki/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-khaki/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-khaki/5.jpg</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>LC14204-GD01</t>
+          <t>Y-7767A-pink</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-pink/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-pink/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-pink/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-pink/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-pink/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-pink/5.jpg</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LC14331-R10-08</t>
+          <t>Y-7767A-red</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-08/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-08/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-red/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-red/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-red/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-red/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-red/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-red/5.jpg</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>LC14331-R10-09</t>
+          <t>Y-7767A-silvery-grey</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-09/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-09/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/1.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/2.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/7.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/3.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/4.jpg,https://oleks-netizen.github.io/product-images/Y-7767A-silvery-grey/5.jpg</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>LC14331-R10-34</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-34/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-34/8.jpg</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>LC14331-R10-41</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14331-R10-41/1.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/3.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/4.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/5.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/6.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/7.jpg,https://oleks-netizen.github.io/product-images/LC14331-R10-41/8.jpg</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>LC14332-YC11-17</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-17/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-17/8.jpg</t>
-        </is>
-      </c>
-      <c r="C373" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>LC14332-YC11-22</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-22/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-22/8.jpg</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>LC14332-YC11-28</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14332-YC11-28/1.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/3.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/4.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/5.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/6.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/7.jpg,https://oleks-netizen.github.io/product-images/LC14332-YC11-28/8.jpg</t>
-        </is>
-      </c>
-      <c r="C375" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>LC14385-GD01</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14385-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14385-GD01/8.jpg</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>LC14493-JS11</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14493-JS11/1.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/2.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/4.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/5.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/6.jpg,https://oleks-netizen.github.io/product-images/LC14493-JS11/7.jpg</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>LC14621-GD01</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
-        </is>
-      </c>
-      <c r="C378" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>LC14639-QJ35</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14639-QJ35/1.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/2.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/4.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/5.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/6.jpg,https://oleks-netizen.github.io/product-images/LC14639-QJ35/7.jpg</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>LC17266-A</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC17266-A/1.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/2.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/3.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/4.jpg,https://oleks-netizen.github.io/product-images/LC17266-A/5.jpg</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>LC18391-1А</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC18391-1А/1.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/2.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/3.jpg,https://oleks-netizen.github.io/product-images/LC18391-1А/4.jpg</t>
-        </is>
-      </c>
-      <c r="C381" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>LC45284X-1-2</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45284X-1-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/3.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45284X-1-2/6.jpg</t>
-        </is>
-      </c>
-      <c r="C382" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>LC45474X-1</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45474X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC45474X-1/9.jpg</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>LC45851X-2</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45851X-2/1.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/2.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/4.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/5.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/6.jpg,https://oleks-netizen.github.io/product-images/LC45851X-2/7.jpg</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>LC47168-30</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47168-30/1.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/2.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/3.jpg,https://oleks-netizen.github.io/product-images/LC47168-30/5.jpg</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>LC47190X-1</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47190X-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47190X-1/9.jpg</t>
-        </is>
-      </c>
-      <c r="C386" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>LC47211-1</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47211-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47211-1/7.jpg</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>LC47323-1</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47323-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47323-1/7.jpg</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>LC47350-1</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47350-1/10.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/6.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/8.jpg,https://oleks-netizen.github.io/product-images/LC47350-1/9.jpg</t>
-        </is>
-      </c>
-      <c r="C389" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>LC47514-1</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47514-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47514-1/5.jpg</t>
-        </is>
-      </c>
-      <c r="C390" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>LC47655-1</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47655-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/4.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47655-1/6.jpg</t>
-        </is>
-      </c>
-      <c r="C391" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>LC52003-2</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52003-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/3.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52003-2/6.jpg</t>
-        </is>
-      </c>
-      <c r="C392" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>LC52488-2</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-2/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-2/7.jpg</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>LC52488-3</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-3/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-3/7.jpg</t>
-        </is>
-      </c>
-      <c r="C394" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>LC52488-4</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC52488-4/1.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/2.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/4.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/5.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/6.jpg,https://oleks-netizen.github.io/product-images/LC52488-4/7.jpg</t>
-        </is>
-      </c>
-      <c r="C395" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>LC68803-05</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC68803-05/1.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/2.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/4.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/5.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/6.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/7.jpg,https://oleks-netizen.github.io/product-images/LC68803-05/8.jpg</t>
-        </is>
-      </c>
-      <c r="C396" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>LC81225-1</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC81225-1/1.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/2.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/4.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/5.jpg,https://oleks-netizen.github.io/product-images/LC81225-1/6.jpg</t>
-        </is>
-      </c>
-      <c r="C397" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>LC81628-2</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC81628-2/1.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/2.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/4.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/5.jpg,https://oleks-netizen.github.io/product-images/LC81628-2/6.jpg</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>LC82020-1</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82020-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82020-1/8.jpg</t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>LC82037-1</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82037-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/2.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/7.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/8.jpg,https://oleks-netizen.github.io/product-images/LC82037-1/9.jpg</t>
-        </is>
-      </c>
-      <c r="C400" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>LC82721-1</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC82721-1/1.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/3.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/4.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/5.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/6.jpg,https://oleks-netizen.github.io/product-images/LC82721-1/7.jpg</t>
-        </is>
-      </c>
-      <c r="C401" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>LC89049-F9976</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC89049-F9976/1.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/3.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/4.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/5.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/6.jpg,https://oleks-netizen.github.io/product-images/LC89049-F9976/7.jpg</t>
-        </is>
-      </c>
-      <c r="C402" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>LC89213-1</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/LC89213-1/1.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/2.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/4.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/5.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/6.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/7.jpg,https://oleks-netizen.github.io/product-images/LC89213-1/8.jpg</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>T37193-5056</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/T37193-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37193-5056/8.jpg</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>T37515-2</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/T37515-2/1.jpg,https://oleks-netizen.github.io/product-images/T37515-2/2.jpg,https://oleks-netizen.github.io/product-images/T37515-2/4.jpg,https://oleks-netizen.github.io/product-images/T37515-2/5.jpg,https://oleks-netizen.github.io/product-images/T37515-2/6.jpg,https://oleks-netizen.github.io/product-images/T37515-2/7.jpg,https://oleks-netizen.github.io/product-images/T37515-2/8.jpg</t>
-        </is>
-      </c>
-      <c r="C405" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>T37515-5056</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/T37515-5056/1.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/2.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/4.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/5.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/6.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/7.jpg,https://oleks-netizen.github.io/product-images/T37515-5056/8.jpg</t>
-        </is>
-      </c>
-      <c r="C406" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/articles_summary.xlsx
+++ b/articles_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,912 +441,912 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L26018-1</t>
+          <t>01638_taup</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26018-1/1.jpg,https://oleks-netizen.github.io/product-images/L26018-1/7.jpg,https://oleks-netizen.github.io/product-images/L26018-1/3.jpg,https://oleks-netizen.github.io/product-images/L26018-1/4.jpg,https://oleks-netizen.github.io/product-images/L26018-1/5.jpg,https://oleks-netizen.github.io/product-images/L26018-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/01638_taup/1.jpg,https://oleks-netizen.github.io/product-images/01638_taup/8.jpg,https://oleks-netizen.github.io/product-images/01638_taup/2.jpg,https://oleks-netizen.github.io/product-images/01638_taup/3.jpg,https://oleks-netizen.github.io/product-images/01638_taup/4.jpg,https://oleks-netizen.github.io/product-images/01638_taup/5.jpg,https://oleks-netizen.github.io/product-images/01638_taup/6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L26290-005</t>
+          <t>100b1genw138-black</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26290-005/1.jpg,https://oleks-netizen.github.io/product-images/L26290-005/5.jpg,https://oleks-netizen.github.io/product-images/L26290-005/3.jpg,https://oleks-netizen.github.io/product-images/L26290-005/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw138-black/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw138-black/2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L26309-005</t>
+          <t>100b1genw141-brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26309-005/1.jpg,https://oleks-netizen.github.io/product-images/L26309-005/6.jpg,https://oleks-netizen.github.io/product-images/L26309-005/3.jpg,https://oleks-netizen.github.io/product-images/L26309-005/4.jpg,https://oleks-netizen.github.io/product-images/L26309-005/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw141-brown/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw141-brown/2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L26321-1</t>
+          <t>100b1genw146-l</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26321-1/1.jpg,https://oleks-netizen.github.io/product-images/L26321-1/7.jpg,https://oleks-netizen.github.io/product-images/L26321-1/3.jpg,https://oleks-netizen.github.io/product-images/L26321-1/4.jpg,https://oleks-netizen.github.io/product-images/L26321-1/5.jpg,https://oleks-netizen.github.io/product-images/L26321-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw146-l/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw146-l/2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L26728-1</t>
+          <t>100b1genw150-navy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26728-1/1.jpg,https://oleks-netizen.github.io/product-images/L26728-1/7.jpg,https://oleks-netizen.github.io/product-images/L26728-1/3.jpg,https://oleks-netizen.github.io/product-images/L26728-1/4.jpg,https://oleks-netizen.github.io/product-images/L26728-1/5.jpg,https://oleks-netizen.github.io/product-images/L26728-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw150-navy/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw150-navy/2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L26728-15</t>
+          <t>100b1genw154-white</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26728-15/1.jpg,https://oleks-netizen.github.io/product-images/L26728-15/7.jpg,https://oleks-netizen.github.io/product-images/L26728-15/3.jpg,https://oleks-netizen.github.io/product-images/L26728-15/4.jpg,https://oleks-netizen.github.io/product-images/L26728-15/5.jpg,https://oleks-netizen.github.io/product-images/L26728-15/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw154-white/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw154-white/2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L26730-004</t>
+          <t>100b1genw158-caramel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26730-004/1.jpg,https://oleks-netizen.github.io/product-images/L26730-004/5.jpg,https://oleks-netizen.github.io/product-images/L26730-004/3.jpg,https://oleks-netizen.github.io/product-images/L26730-004/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100b1genw158-caramel/1.jpg,https://oleks-netizen.github.io/product-images/100b1genw158-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L26821-1</t>
+          <t>100g1genw116-black</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26821-1/1.jpg,https://oleks-netizen.github.io/product-images/L26821-1/2.jpg,https://oleks-netizen.github.io/product-images/L26821-1/3.jpg,https://oleks-netizen.github.io/product-images/L26821-1/4.jpg,https://oleks-netizen.github.io/product-images/L26821-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw116-black/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw116-black/2.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L26822-010</t>
+          <t>100g1genw118-brown</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26822-010/1.jpg,https://oleks-netizen.github.io/product-images/L26822-010/7.jpg,https://oleks-netizen.github.io/product-images/L26822-010/3.jpg,https://oleks-netizen.github.io/product-images/L26822-010/4.jpg,https://oleks-netizen.github.io/product-images/L26822-010/5.jpg,https://oleks-netizen.github.io/product-images/L26822-010/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw118-brown/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw118-brown/2.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L26835-1</t>
+          <t>100g1genw122-lbrown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26835-1/1.jpg,https://oleks-netizen.github.io/product-images/L26835-1/7.jpg,https://oleks-netizen.github.io/product-images/L26835-1/3.jpg,https://oleks-netizen.github.io/product-images/L26835-1/4.jpg,https://oleks-netizen.github.io/product-images/L26835-1/5.jpg,https://oleks-netizen.github.io/product-images/L26835-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw122-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw122-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L26835-51</t>
+          <t>100g1genw128-navy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26835-51/1.jpg,https://oleks-netizen.github.io/product-images/L26835-51/8.jpg,https://oleks-netizen.github.io/product-images/L26835-51/3.jpg,https://oleks-netizen.github.io/product-images/L26835-51/4.jpg,https://oleks-netizen.github.io/product-images/L26835-51/5.jpg,https://oleks-netizen.github.io/product-images/L26835-51/6.jpg,https://oleks-netizen.github.io/product-images/L26835-51/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw128-navy/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw128-navy/2.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L26836-1</t>
+          <t>100g1genw131-white</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26836-1/1.jpg,https://oleks-netizen.github.io/product-images/L26836-1/7.jpg,https://oleks-netizen.github.io/product-images/L26836-1/3.jpg,https://oleks-netizen.github.io/product-images/L26836-1/4.jpg,https://oleks-netizen.github.io/product-images/L26836-1/5.jpg,https://oleks-netizen.github.io/product-images/L26836-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw131-white/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw131-white/2.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L26836-25</t>
+          <t>100g1genw136-caramel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26836-25/1.jpg,https://oleks-netizen.github.io/product-images/L26836-25/7.jpg,https://oleks-netizen.github.io/product-images/L26836-25/3.jpg,https://oleks-netizen.github.io/product-images/L26836-25/4.jpg,https://oleks-netizen.github.io/product-images/L26836-25/5.jpg,https://oleks-netizen.github.io/product-images/L26836-25/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100g1genw136-caramel/1.jpg,https://oleks-netizen.github.io/product-images/100g1genw136-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L26932-1</t>
+          <t>100s1genw115-black</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26932-1/1.jpg,https://oleks-netizen.github.io/product-images/L26932-1/7.jpg,https://oleks-netizen.github.io/product-images/L26932-1/3.jpg,https://oleks-netizen.github.io/product-images/L26932-1/4.jpg,https://oleks-netizen.github.io/product-images/L26932-1/5.jpg,https://oleks-netizen.github.io/product-images/L26932-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw115-black/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw115-black/2.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L26991-1</t>
+          <t>100s1genw117-brown</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L26991-1/1.jpg,https://oleks-netizen.github.io/product-images/L26991-1/7.jpg,https://oleks-netizen.github.io/product-images/L26991-1/3.jpg,https://oleks-netizen.github.io/product-images/L26991-1/4.jpg,https://oleks-netizen.github.io/product-images/L26991-1/5.jpg,https://oleks-netizen.github.io/product-images/L26991-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw117-brown/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw117-brown/2.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>L29023-09</t>
+          <t>100s1genw121-lbrown</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29023-09/1.jpg,https://oleks-netizen.github.io/product-images/L29023-09/5.jpg,https://oleks-netizen.github.io/product-images/L29023-09/3.jpg,https://oleks-netizen.github.io/product-images/L29023-09/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw121-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw121-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L29023-14</t>
+          <t>100s1genw127-navy</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29023-14/1.jpg,https://oleks-netizen.github.io/product-images/L29023-14/6.jpg,https://oleks-netizen.github.io/product-images/L29023-14/3.jpg,https://oleks-netizen.github.io/product-images/L29023-14/4.jpg,https://oleks-netizen.github.io/product-images/L29023-14/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw127-navy/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw127-navy/2.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L29048-02</t>
+          <t>100s1genw132-white</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29048-02/1.jpg,https://oleks-netizen.github.io/product-images/L29048-02/6.jpg,https://oleks-netizen.github.io/product-images/L29048-02/3.jpg,https://oleks-netizen.github.io/product-images/L29048-02/4.jpg,https://oleks-netizen.github.io/product-images/L29048-02/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw132-white/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw132-white/2.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L29048-04</t>
+          <t>100s1genw135-caramel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29048-04/1.jpg,https://oleks-netizen.github.io/product-images/L29048-04/5.jpg,https://oleks-netizen.github.io/product-images/L29048-04/3.jpg,https://oleks-netizen.github.io/product-images/L29048-04/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100s1genw135-caramel/1.jpg,https://oleks-netizen.github.io/product-images/100s1genw135-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L29048-20</t>
+          <t>100v1genw103-black</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29048-20/1.jpg,https://oleks-netizen.github.io/product-images/L29048-20/6.jpg,https://oleks-netizen.github.io/product-images/L29048-20/3.jpg,https://oleks-netizen.github.io/product-images/L29048-20/4.jpg,https://oleks-netizen.github.io/product-images/L29048-20/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100v1genw103-black/1.jpg,https://oleks-netizen.github.io/product-images/100v1genw103-black/2.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L29056-04</t>
+          <t>100v1genw104-brown</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29056-04/1.jpg,https://oleks-netizen.github.io/product-images/L29056-04/4.jpg,https://oleks-netizen.github.io/product-images/L29056-04/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100v1genw104-brown/1.jpg,https://oleks-netizen.github.io/product-images/100v1genw104-brown/2.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L29109-202</t>
+          <t>100v1genw105-l</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29109-202/1.jpg,https://oleks-netizen.github.io/product-images/L29109-202/6.jpg,https://oleks-netizen.github.io/product-images/L29109-202/3.jpg,https://oleks-netizen.github.io/product-images/L29109-202/4.jpg,https://oleks-netizen.github.io/product-images/L29109-202/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100v1genw105-l/1.jpg,https://oleks-netizen.github.io/product-images/100v1genw105-l/2.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L29116-1</t>
+          <t>100v1genw106-caramel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29116-1/1.jpg,https://oleks-netizen.github.io/product-images/L29116-1/6.jpg,https://oleks-netizen.github.io/product-images/L29116-1/3.jpg,https://oleks-netizen.github.io/product-images/L29116-1/4.jpg,https://oleks-netizen.github.io/product-images/L29116-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100v1genw106-caramel/1.jpg,https://oleks-netizen.github.io/product-images/100v1genw106-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>L29132-01</t>
+          <t>100v1genw107-white</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29132-01/1.jpg,https://oleks-netizen.github.io/product-images/L29132-01/6.jpg,https://oleks-netizen.github.io/product-images/L29132-01/3.jpg,https://oleks-netizen.github.io/product-images/L29132-01/4.jpg,https://oleks-netizen.github.io/product-images/L29132-01/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100v1genw107-white/1.jpg,https://oleks-netizen.github.io/product-images/100v1genw107-white/2.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>L29179-1</t>
+          <t>100x1genw137-black</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29179-1/1.jpg,https://oleks-netizen.github.io/product-images/L29179-1/7.jpg,https://oleks-netizen.github.io/product-images/L29179-1/3.jpg,https://oleks-netizen.github.io/product-images/L29179-1/4.jpg,https://oleks-netizen.github.io/product-images/L29179-1/5.jpg,https://oleks-netizen.github.io/product-images/L29179-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw137-black/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw137-black/2.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L29191-1</t>
+          <t>100x1genw142-brown</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29191-1/1.jpg,https://oleks-netizen.github.io/product-images/L29191-1/7.jpg,https://oleks-netizen.github.io/product-images/L29191-1/3.jpg,https://oleks-netizen.github.io/product-images/L29191-1/4.jpg,https://oleks-netizen.github.io/product-images/L29191-1/5.jpg,https://oleks-netizen.github.io/product-images/L29191-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw142-brown/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw142-brown/2.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>L29196-1</t>
+          <t>100x1genw145-lbrown</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29196-1/1.jpg,https://oleks-netizen.github.io/product-images/L29196-1/7.jpg,https://oleks-netizen.github.io/product-images/L29196-1/3.jpg,https://oleks-netizen.github.io/product-images/L29196-1/4.jpg,https://oleks-netizen.github.io/product-images/L29196-1/5.jpg,https://oleks-netizen.github.io/product-images/L29196-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw145-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw145-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>L29207-01</t>
+          <t>100x1genw149-navy</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29207-01/1.jpg,https://oleks-netizen.github.io/product-images/L29207-01/6.jpg,https://oleks-netizen.github.io/product-images/L29207-01/3.jpg,https://oleks-netizen.github.io/product-images/L29207-01/4.jpg,https://oleks-netizen.github.io/product-images/L29207-01/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw149-navy/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw149-navy/2.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L29207-20</t>
+          <t>100x1genw153-white</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29207-20/1.jpg,https://oleks-netizen.github.io/product-images/L29207-20/6.jpg,https://oleks-netizen.github.io/product-images/L29207-20/3.jpg,https://oleks-netizen.github.io/product-images/L29207-20/4.jpg,https://oleks-netizen.github.io/product-images/L29207-20/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw153-white/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw153-white/2.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L29207-202</t>
+          <t>100x1genw157-caramel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29207-202/1.jpg,https://oleks-netizen.github.io/product-images/L29207-202/6.jpg,https://oleks-netizen.github.io/product-images/L29207-202/3.jpg,https://oleks-netizen.github.io/product-images/L29207-202/4.jpg,https://oleks-netizen.github.io/product-images/L29207-202/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/100x1genw157-caramel/1.jpg,https://oleks-netizen.github.io/product-images/100x1genw157-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L29228-02</t>
+          <t>110b1genw114-black</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29228-02/1.jpg,https://oleks-netizen.github.io/product-images/L29228-02/6.jpg,https://oleks-netizen.github.io/product-images/L29228-02/3.jpg,https://oleks-netizen.github.io/product-images/L29228-02/4.jpg,https://oleks-netizen.github.io/product-images/L29228-02/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw114-black/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw114-black/2.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L29531-1</t>
+          <t>110b1genw119-brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29531-1/1.jpg,https://oleks-netizen.github.io/product-images/L29531-1/7.jpg,https://oleks-netizen.github.io/product-images/L29531-1/3.jpg,https://oleks-netizen.github.io/product-images/L29531-1/4.jpg,https://oleks-netizen.github.io/product-images/L29531-1/5.jpg,https://oleks-netizen.github.io/product-images/L29531-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw119-brown/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw119-brown/2.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>L29623-H4</t>
+          <t>110b1genw124-lbrown</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29623-H4/1.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/7.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/3.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/4.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/5.jpg,https://oleks-netizen.github.io/product-images/L29623-H4/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw124-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw124-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L29696-1</t>
+          <t>110b1genw126-navy</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29696-1/1.jpg,https://oleks-netizen.github.io/product-images/L29696-1/7.jpg,https://oleks-netizen.github.io/product-images/L29696-1/3.jpg,https://oleks-netizen.github.io/product-images/L29696-1/4.jpg,https://oleks-netizen.github.io/product-images/L29696-1/5.jpg,https://oleks-netizen.github.io/product-images/L29696-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw126-navy/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw126-navy/2.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L29715-01</t>
+          <t>110b1genw130-white</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29715-01/1.jpg,https://oleks-netizen.github.io/product-images/L29715-01/6.jpg,https://oleks-netizen.github.io/product-images/L29715-01/3.jpg,https://oleks-netizen.github.io/product-images/L29715-01/4.jpg,https://oleks-netizen.github.io/product-images/L29715-01/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw130-white/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw130-white/2.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L29850-01</t>
+          <t>110b1genw133-caramel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L29850-01/1.jpg,https://oleks-netizen.github.io/product-images/L29850-01/6.jpg,https://oleks-netizen.github.io/product-images/L29850-01/3.jpg,https://oleks-netizen.github.io/product-images/L29850-01/4.jpg,https://oleks-netizen.github.io/product-images/L29850-01/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110b1genw133-caramel/1.jpg,https://oleks-netizen.github.io/product-images/110b1genw133-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L85091-H28</t>
+          <t>110g1genw140-black</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85091-H28/1.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/7.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/3.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/4.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/5.jpg,https://oleks-netizen.github.io/product-images/L85091-H28/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw140-black/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw140-black/2.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L85162-1</t>
+          <t>110g1genw144-brown</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85162-1/1.jpg,https://oleks-netizen.github.io/product-images/L85162-1/7.jpg,https://oleks-netizen.github.io/product-images/L85162-1/3.jpg,https://oleks-netizen.github.io/product-images/L85162-1/4.jpg,https://oleks-netizen.github.io/product-images/L85162-1/5.jpg,https://oleks-netizen.github.io/product-images/L85162-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw144-brown/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw144-brown/2.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>L85201-H20</t>
+          <t>110g1genw147-lbrown</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85201-H20/1.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/5.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/3.jpg,https://oleks-netizen.github.io/product-images/L85201-H20/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw147-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw147-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>L85653-H22</t>
+          <t>110g1genw151-navy</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85653-H22/1.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/7.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/3.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/4.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/5.jpg,https://oleks-netizen.github.io/product-images/L85653-H22/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw151-navy/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw151-navy/2.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>L85913-1</t>
+          <t>110g1genw155-white</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L85913-1/1.jpg,https://oleks-netizen.github.io/product-images/L85913-1/5.jpg,https://oleks-netizen.github.io/product-images/L85913-1/3.jpg,https://oleks-netizen.github.io/product-images/L85913-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw155-white/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw155-white/2.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L86998-F11</t>
+          <t>110g1genw160-caramel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L86998-F11/1.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/6.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/3.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/4.jpg,https://oleks-netizen.github.io/product-images/L86998-F11/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110g1genw160-caramel/1.jpg,https://oleks-netizen.github.io/product-images/110g1genw160-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>L87005-1W</t>
+          <t>110s1genw139-black</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87005-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-1W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw139-black/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw139-black/2.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L87005-6W</t>
+          <t>110s1genw143-brown</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87005-6W/1.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/7.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/3.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/4.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/5.jpg,https://oleks-netizen.github.io/product-images/L87005-6W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw143-brown/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw143-brown/2.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>L87006-01</t>
+          <t>110s1genw148-l</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87006-01/1.jpg,https://oleks-netizen.github.io/product-images/L87006-01/7.jpg,https://oleks-netizen.github.io/product-images/L87006-01/3.jpg,https://oleks-netizen.github.io/product-images/L87006-01/4.jpg,https://oleks-netizen.github.io/product-images/L87006-01/5.jpg,https://oleks-netizen.github.io/product-images/L87006-01/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw148-l/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw148-l/2.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>L87006-1</t>
+          <t>110s1genw152-navy</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87006-1/1.jpg,https://oleks-netizen.github.io/product-images/L87006-1/8.jpg,https://oleks-netizen.github.io/product-images/L87006-1/3.jpg,https://oleks-netizen.github.io/product-images/L87006-1/4.jpg,https://oleks-netizen.github.io/product-images/L87006-1/5.jpg,https://oleks-netizen.github.io/product-images/L87006-1/6.jpg,https://oleks-netizen.github.io/product-images/L87006-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw152-navy/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw152-navy/2.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L87006-1W</t>
+          <t>110s1genw156-white</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87006-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87006-1W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw156-white/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw156-white/2.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L87006-25</t>
+          <t>110s1genw159-caramel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87006-25/1.jpg,https://oleks-netizen.github.io/product-images/L87006-25/8.jpg,https://oleks-netizen.github.io/product-images/L87006-25/3.jpg,https://oleks-netizen.github.io/product-images/L87006-25/4.jpg,https://oleks-netizen.github.io/product-images/L87006-25/5.jpg,https://oleks-netizen.github.io/product-images/L87006-25/6.jpg,https://oleks-netizen.github.io/product-images/L87006-25/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110s1genw159-caramel/1.jpg,https://oleks-netizen.github.io/product-images/110s1genw159-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>L87006-51</t>
+          <t>110v1genw108-black</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87006-51/1.jpg,https://oleks-netizen.github.io/product-images/L87006-51/8.jpg,https://oleks-netizen.github.io/product-images/L87006-51/3.jpg,https://oleks-netizen.github.io/product-images/L87006-51/4.jpg,https://oleks-netizen.github.io/product-images/L87006-51/5.jpg,https://oleks-netizen.github.io/product-images/L87006-51/6.jpg,https://oleks-netizen.github.io/product-images/L87006-51/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110v1genw108-black/1.jpg,https://oleks-netizen.github.io/product-images/110v1genw108-black/2.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>L87024-1</t>
+          <t>110v1genw109-brown</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87024-1/1.jpg,https://oleks-netizen.github.io/product-images/L87024-1/6.jpg,https://oleks-netizen.github.io/product-images/L87024-1/3.jpg,https://oleks-netizen.github.io/product-images/L87024-1/4.jpg,https://oleks-netizen.github.io/product-images/L87024-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110v1genw109-brown/1.jpg,https://oleks-netizen.github.io/product-images/110v1genw109-brown/2.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>L87027-1</t>
+          <t>110v1genw110-lbrown</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87027-1/1.jpg,https://oleks-netizen.github.io/product-images/L87027-1/7.jpg,https://oleks-netizen.github.io/product-images/L87027-1/3.jpg,https://oleks-netizen.github.io/product-images/L87027-1/4.jpg,https://oleks-netizen.github.io/product-images/L87027-1/5.jpg,https://oleks-netizen.github.io/product-images/L87027-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110v1genw110-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/110v1genw110-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>L87027-171</t>
+          <t>110v1genw111-caramel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87027-171/1.jpg,https://oleks-netizen.github.io/product-images/L87027-171/7.jpg,https://oleks-netizen.github.io/product-images/L87027-171/3.jpg,https://oleks-netizen.github.io/product-images/L87027-171/4.jpg,https://oleks-netizen.github.io/product-images/L87027-171/5.jpg,https://oleks-netizen.github.io/product-images/L87027-171/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110v1genw111-caramel/1.jpg,https://oleks-netizen.github.io/product-images/110v1genw111-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>L87027-25W</t>
+          <t>110v1genw112-white</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87027-25W/1.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/7.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/3.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/4.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/5.jpg,https://oleks-netizen.github.io/product-images/L87027-25W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110v1genw112-white/1.jpg,https://oleks-netizen.github.io/product-images/110v1genw112-white/2.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>L87045-96</t>
+          <t>110x1genw113-black</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87045-96/1.jpg,https://oleks-netizen.github.io/product-images/L87045-96/6.jpg,https://oleks-netizen.github.io/product-images/L87045-96/3.jpg,https://oleks-netizen.github.io/product-images/L87045-96/4.jpg,https://oleks-netizen.github.io/product-images/L87045-96/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw113-black/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw113-black/2.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>L87050-11</t>
+          <t>110x1genw120-brown</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87050-11/1.jpg,https://oleks-netizen.github.io/product-images/L87050-11/6.jpg,https://oleks-netizen.github.io/product-images/L87050-11/3.jpg,https://oleks-netizen.github.io/product-images/L87050-11/4.jpg,https://oleks-netizen.github.io/product-images/L87050-11/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw120-brown/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw120-brown/2.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>L87138-33</t>
+          <t>110x1genw123-lbrown</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87138-33/1.jpg,https://oleks-netizen.github.io/product-images/L87138-33/7.jpg,https://oleks-netizen.github.io/product-images/L87138-33/3.jpg,https://oleks-netizen.github.io/product-images/L87138-33/4.jpg,https://oleks-netizen.github.io/product-images/L87138-33/5.jpg,https://oleks-netizen.github.io/product-images/L87138-33/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw123-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw123-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>L87138-36</t>
+          <t>110x1genw125-navy</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87138-36/1.jpg,https://oleks-netizen.github.io/product-images/L87138-36/7.jpg,https://oleks-netizen.github.io/product-images/L87138-36/3.jpg,https://oleks-netizen.github.io/product-images/L87138-36/4.jpg,https://oleks-netizen.github.io/product-images/L87138-36/5.jpg,https://oleks-netizen.github.io/product-images/L87138-36/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw125-navy/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw125-navy/2.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>L87151-H10</t>
+          <t>110x1genw129-white</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87151-H10/1.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/6.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/3.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/4.jpg,https://oleks-netizen.github.io/product-images/L87151-H10/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw129-white/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw129-white/2.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>L87151-H19</t>
+          <t>110x1genw134-caramel</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87151-H19/1.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/6.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/3.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/4.jpg,https://oleks-netizen.github.io/product-images/L87151-H19/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/110x1genw134-caramel/1.jpg,https://oleks-netizen.github.io/product-images/110x1genw134-caramel/2.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>L87156-1</t>
+          <t>1110701</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87156-1/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1/7.jpg,https://oleks-netizen.github.io/product-images/L87156-1/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1/4.jpg,https://oleks-netizen.github.io/product-images/L87156-1/5.jpg,https://oleks-netizen.github.io/product-images/L87156-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1110701/1.jpg,https://oleks-netizen.github.io/product-images/1110701/2.jpg,https://oleks-netizen.github.io/product-images/1110701/9.jpg,https://oleks-netizen.github.io/product-images/1110701/3.jpg,https://oleks-netizen.github.io/product-images/1110701/4.jpg,https://oleks-netizen.github.io/product-images/1110701/5.jpg,https://oleks-netizen.github.io/product-images/1110701/7.jpg,https://oleks-netizen.github.io/product-images/1110701/8.jpg</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>L87156-1X</t>
+          <t>11320400</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87156-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87156-1X/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/11320400/1.jpg,https://oleks-netizen.github.io/product-images/11320400/2.jpg,https://oleks-netizen.github.io/product-images/11320400/5.jpg,https://oleks-netizen.github.io/product-images/11320400/4.jpg</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1356,612 +1356,612 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>L87162-2Y</t>
+          <t>115v1fx107-black</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87162-2Y/1.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/7.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/3.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/4.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/5.jpg,https://oleks-netizen.github.io/product-images/L87162-2Y/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx107-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx107-black/2.jpg</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>L87162-3Y</t>
+          <t>115v1fx108-black</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87162-3Y/1.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/7.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/3.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/4.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/5.jpg,https://oleks-netizen.github.io/product-images/L87162-3Y/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx108-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx108-black/2.jpg</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>L87169-1W</t>
+          <t>115v1fx109-black</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87169-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-1W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx109-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx109-black/2.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>L87169-2W</t>
+          <t>115v1fx110-brown</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87169-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-2W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx110-brown/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx110-brown/2.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>L87169-5W</t>
+          <t>115v1fx111-black</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87169-5W/1.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/7.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/3.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/4.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/5.jpg,https://oleks-netizen.github.io/product-images/L87169-5W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx111-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx111-black/2.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>L87190-L11</t>
+          <t>115v1fx112-black</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87190-L11/1.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/6.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/3.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/4.jpg,https://oleks-netizen.github.io/product-images/L87190-L11/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx112-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx112-black/2.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>L87190-Q38</t>
+          <t>115v1fx113-black</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87190-Q38/1.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/7.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/3.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/4.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/5.jpg,https://oleks-netizen.github.io/product-images/L87190-Q38/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx113-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx113-black/2.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>L87196-1</t>
+          <t>115v1fx114-black</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87196-1/1.jpg,https://oleks-netizen.github.io/product-images/L87196-1/7.jpg,https://oleks-netizen.github.io/product-images/L87196-1/3.jpg,https://oleks-netizen.github.io/product-images/L87196-1/4.jpg,https://oleks-netizen.github.io/product-images/L87196-1/5.jpg,https://oleks-netizen.github.io/product-images/L87196-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx114-black/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx114-black/2.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>L87214-1</t>
+          <t>115v1fx115-brown</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87214-1/1.jpg,https://oleks-netizen.github.io/product-images/L87214-1/6.jpg,https://oleks-netizen.github.io/product-images/L87214-1/3.jpg,https://oleks-netizen.github.io/product-images/L87214-1/4.jpg,https://oleks-netizen.github.io/product-images/L87214-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx115-brown/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx115-brown/2.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>L87220-1W</t>
+          <t>115v1fx116-brown</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87220-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87220-1W/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx116-brown/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx116-brown/2.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>L87220-2W</t>
+          <t>115v1fx117-lbrown</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87220-2W/1.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/6.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/3.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/4.jpg,https://oleks-netizen.github.io/product-images/L87220-2W/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx117-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx117-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>L87220-H10</t>
+          <t>115v1fx118-navy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87220-H10/1.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/6.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/3.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/4.jpg,https://oleks-netizen.github.io/product-images/L87220-H10/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/115v1fx118-navy/1.jpg,https://oleks-netizen.github.io/product-images/115v1fx118-navy/2.jpg</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>L87220-H19</t>
+          <t>1173301</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87220-H19/1.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/6.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/3.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/4.jpg,https://oleks-netizen.github.io/product-images/L87220-H19/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1173301/1.jpg,https://oleks-netizen.github.io/product-images/1173301/2.jpg,https://oleks-netizen.github.io/product-images/1173301/11.jpg,https://oleks-netizen.github.io/product-images/1173301/10.jpg,https://oleks-netizen.github.io/product-images/1173301/4.jpg,https://oleks-netizen.github.io/product-images/1173301/5.jpg,https://oleks-netizen.github.io/product-images/1173301/6.jpg,https://oleks-netizen.github.io/product-images/1173301/7.jpg,https://oleks-netizen.github.io/product-images/1173301/8.jpg,https://oleks-netizen.github.io/product-images/1173301/9.jpg</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>L87229-126</t>
+          <t>125v1fx107-black</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87229-126/1.jpg,https://oleks-netizen.github.io/product-images/L87229-126/7.jpg,https://oleks-netizen.github.io/product-images/L87229-126/3.jpg,https://oleks-netizen.github.io/product-images/L87229-126/4.jpg,https://oleks-netizen.github.io/product-images/L87229-126/5.jpg,https://oleks-netizen.github.io/product-images/L87229-126/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx107-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx107-black/2.jpg</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>L87229-133</t>
+          <t>125v1fx108-black</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87229-133/1.jpg,https://oleks-netizen.github.io/product-images/L87229-133/7.jpg,https://oleks-netizen.github.io/product-images/L87229-133/3.jpg,https://oleks-netizen.github.io/product-images/L87229-133/4.jpg,https://oleks-netizen.github.io/product-images/L87229-133/5.jpg,https://oleks-netizen.github.io/product-images/L87229-133/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx108-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx108-black/2.jpg</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>L87229-136</t>
+          <t>125v1fx109-black</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87229-136/1.jpg,https://oleks-netizen.github.io/product-images/L87229-136/7.jpg,https://oleks-netizen.github.io/product-images/L87229-136/3.jpg,https://oleks-netizen.github.io/product-images/L87229-136/4.jpg,https://oleks-netizen.github.io/product-images/L87229-136/5.jpg,https://oleks-netizen.github.io/product-images/L87229-136/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx109-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx109-black/2.jpg</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>L87229-137</t>
+          <t>125v1fx110-brown</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87229-137/1.jpg,https://oleks-netizen.github.io/product-images/L87229-137/7.jpg,https://oleks-netizen.github.io/product-images/L87229-137/3.jpg,https://oleks-netizen.github.io/product-images/L87229-137/4.jpg,https://oleks-netizen.github.io/product-images/L87229-137/5.jpg,https://oleks-netizen.github.io/product-images/L87229-137/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx110-brown/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx110-brown/2.jpg</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>L87251-5</t>
+          <t>125v1fx111-black</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87251-5/1.jpg,https://oleks-netizen.github.io/product-images/L87251-5/6.jpg,https://oleks-netizen.github.io/product-images/L87251-5/3.jpg,https://oleks-netizen.github.io/product-images/L87251-5/4.jpg,https://oleks-netizen.github.io/product-images/L87251-5/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx111-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx111-black/2.jpg</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>L87274-1</t>
+          <t>125v1fx112-black</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87274-1/1.jpg,https://oleks-netizen.github.io/product-images/L87274-1/7.jpg,https://oleks-netizen.github.io/product-images/L87274-1/3.jpg,https://oleks-netizen.github.io/product-images/L87274-1/4.jpg,https://oleks-netizen.github.io/product-images/L87274-1/5.jpg,https://oleks-netizen.github.io/product-images/L87274-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx112-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx112-black/2.jpg</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>L87274-33</t>
+          <t>125v1fx113-black</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87274-33/1.jpg,https://oleks-netizen.github.io/product-images/L87274-33/7.jpg,https://oleks-netizen.github.io/product-images/L87274-33/3.jpg,https://oleks-netizen.github.io/product-images/L87274-33/4.jpg,https://oleks-netizen.github.io/product-images/L87274-33/5.jpg,https://oleks-netizen.github.io/product-images/L87274-33/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx113-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx113-black/2.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>L87274-58</t>
+          <t>125v1fx114-black</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87274-58/1.jpg,https://oleks-netizen.github.io/product-images/L87274-58/7.jpg,https://oleks-netizen.github.io/product-images/L87274-58/3.jpg,https://oleks-netizen.github.io/product-images/L87274-58/4.jpg,https://oleks-netizen.github.io/product-images/L87274-58/5.jpg,https://oleks-netizen.github.io/product-images/L87274-58/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx114-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx114-black/2.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>L87288-141</t>
+          <t>125v1fx115-brown</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87288-141/1.jpg,https://oleks-netizen.github.io/product-images/L87288-141/6.jpg,https://oleks-netizen.github.io/product-images/L87288-141/3.jpg,https://oleks-netizen.github.io/product-images/L87288-141/4.jpg,https://oleks-netizen.github.io/product-images/L87288-141/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx115-brown/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx115-brown/2.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>L87295-94W</t>
+          <t>125v1fx116-brown</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87295-94W/1.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/8.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/3.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/4.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/5.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/6.jpg,https://oleks-netizen.github.io/product-images/L87295-94W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx116-brown/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx116-brown/2.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>L87308-1</t>
+          <t>125v1fx117-lbrown</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87308-1/1.jpg,https://oleks-netizen.github.io/product-images/L87308-1/6.jpg,https://oleks-netizen.github.io/product-images/L87308-1/3.jpg,https://oleks-netizen.github.io/product-images/L87308-1/4.jpg,https://oleks-netizen.github.io/product-images/L87308-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx117-lbrown/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx117-lbrown/2.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>L87309-20</t>
+          <t>125v1fx118-navy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87309-20/1.jpg,https://oleks-netizen.github.io/product-images/L87309-20/7.jpg,https://oleks-netizen.github.io/product-images/L87309-20/3.jpg,https://oleks-netizen.github.io/product-images/L87309-20/4.jpg,https://oleks-netizen.github.io/product-images/L87309-20/5.jpg,https://oleks-netizen.github.io/product-images/L87309-20/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1fx118-navy/1.jpg,https://oleks-netizen.github.io/product-images/125v1fx118-navy/2.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>L87309-7</t>
+          <t>125v1genav44-black</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87309-7/1.jpg,https://oleks-netizen.github.io/product-images/L87309-7/7.jpg,https://oleks-netizen.github.io/product-images/L87309-7/3.jpg,https://oleks-netizen.github.io/product-images/L87309-7/4.jpg,https://oleks-netizen.github.io/product-images/L87309-7/5.jpg,https://oleks-netizen.github.io/product-images/L87309-7/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1genav44-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1genav44-black/2.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>L87310-1W</t>
+          <t>125v1genav45-black</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87310-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/7.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87310-1W/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1genav45-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1genav45-black/2.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>L87318-1</t>
+          <t>125v1genav46-black</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87318-1/1.jpg,https://oleks-netizen.github.io/product-images/L87318-1/7.jpg,https://oleks-netizen.github.io/product-images/L87318-1/3.jpg,https://oleks-netizen.github.io/product-images/L87318-1/4.jpg,https://oleks-netizen.github.io/product-images/L87318-1/5.jpg,https://oleks-netizen.github.io/product-images/L87318-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/125v1genav46-black/1.jpg,https://oleks-netizen.github.io/product-images/125v1genav46-black/2.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>L87325-22 Белая</t>
+          <t>140505BU</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87325-22 Белая/1.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/7.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/3.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/4.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/5.jpg,https://oleks-netizen.github.io/product-images/L87325-22 Белая/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/140505BU/1.jpg,https://oleks-netizen.github.io/product-images/140505BU/2.jpg,https://oleks-netizen.github.io/product-images/140505BU/8.jpg,https://oleks-netizen.github.io/product-images/140505BU/3.jpg,https://oleks-netizen.github.io/product-images/140505BU/4.jpg,https://oleks-netizen.github.io/product-images/140505BU/5.jpg,https://oleks-netizen.github.io/product-images/140505BU/6.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>L87341-171</t>
+          <t>150v1fx119-black</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87341-171/1.jpg,https://oleks-netizen.github.io/product-images/L87341-171/7.jpg,https://oleks-netizen.github.io/product-images/L87341-171/3.jpg,https://oleks-netizen.github.io/product-images/L87341-171/4.jpg,https://oleks-netizen.github.io/product-images/L87341-171/5.jpg,https://oleks-netizen.github.io/product-images/L87341-171/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/150v1fx119-black/1.jpg,https://oleks-netizen.github.io/product-images/150v1fx119-black/2.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>L87341-179</t>
+          <t>1602040006</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87341-179/1.jpg,https://oleks-netizen.github.io/product-images/L87341-179/6.jpg,https://oleks-netizen.github.io/product-images/L87341-179/3.jpg,https://oleks-netizen.github.io/product-images/L87341-179/4.jpg,https://oleks-netizen.github.io/product-images/L87341-179/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/1602040006/1.jpg,https://oleks-netizen.github.io/product-images/1602040006/3.jpg,https://oleks-netizen.github.io/product-images/1602040006/4.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>L87341-22</t>
+          <t>24330030033</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87341-22/1.jpg,https://oleks-netizen.github.io/product-images/L87341-22/7.jpg,https://oleks-netizen.github.io/product-images/L87341-22/3.jpg,https://oleks-netizen.github.io/product-images/L87341-22/4.jpg,https://oleks-netizen.github.io/product-images/L87341-22/5.jpg,https://oleks-netizen.github.io/product-images/L87341-22/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/24330030033/1.jpg,https://oleks-netizen.github.io/product-images/24330030033/3.jpg,https://oleks-netizen.github.io/product-images/24330030033/5.jpg,https://oleks-netizen.github.io/product-images/24330030033/4.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>L87399-1</t>
+          <t>3035-305</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87399-1/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1/7.jpg,https://oleks-netizen.github.io/product-images/L87399-1/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/3035-305/1.jpg,https://oleks-netizen.github.io/product-images/3035-305/2.jpg,https://oleks-netizen.github.io/product-images/3035-305/5.jpg,https://oleks-netizen.github.io/product-images/3035-305/6.jpg,https://oleks-netizen.github.io/product-images/3035-305/4.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>L87399-1W</t>
+          <t>313012561</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87399-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/8.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87399-1W/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/313012561/1.jpg,https://oleks-netizen.github.io/product-images/313012561/2.jpg,https://oleks-netizen.github.io/product-images/313012561/3.jpg,https://oleks-netizen.github.io/product-images/313012561/5.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>L87399-1X</t>
+          <t>313512800</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87399-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87399-1X/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/313512800/1.jpg,https://oleks-netizen.github.io/product-images/313512800/2.jpg,https://oleks-netizen.github.io/product-images/313512800/3.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>L87437-174</t>
+          <t>313512861</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87437-174/1.jpg,https://oleks-netizen.github.io/product-images/L87437-174/9.jpg,https://oleks-netizen.github.io/product-images/L87437-174/3.jpg,https://oleks-netizen.github.io/product-images/L87437-174/4.jpg,https://oleks-netizen.github.io/product-images/L87437-174/5.jpg,https://oleks-netizen.github.io/product-images/L87437-174/6.jpg,https://oleks-netizen.github.io/product-images/L87437-174/7.jpg,https://oleks-netizen.github.io/product-images/L87437-174/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/313512861/1.jpg,https://oleks-netizen.github.io/product-images/313512861/2.jpg,https://oleks-netizen.github.io/product-images/313512861/4.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>L87437-91</t>
+          <t>331012561</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87437-91/1.jpg,https://oleks-netizen.github.io/product-images/L87437-91/7.jpg,https://oleks-netizen.github.io/product-images/L87437-91/3.jpg,https://oleks-netizen.github.io/product-images/L87437-91/4.jpg,https://oleks-netizen.github.io/product-images/L87437-91/5.jpg,https://oleks-netizen.github.io/product-images/L87437-91/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/331012561/1.jpg,https://oleks-netizen.github.io/product-images/331012561/2.jpg,https://oleks-netizen.github.io/product-images/331012561/4.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>L87437-92</t>
+          <t>504161</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87437-92/1.jpg,https://oleks-netizen.github.io/product-images/L87437-92/9.jpg,https://oleks-netizen.github.io/product-images/L87437-92/3.jpg,https://oleks-netizen.github.io/product-images/L87437-92/4.jpg,https://oleks-netizen.github.io/product-images/L87437-92/5.jpg,https://oleks-netizen.github.io/product-images/L87437-92/6.jpg,https://oleks-netizen.github.io/product-images/L87437-92/7.jpg,https://oleks-netizen.github.io/product-images/L87437-92/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/504161/1.jpg,https://oleks-netizen.github.io/product-images/504161/2.jpg,https://oleks-netizen.github.io/product-images/504161/4.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>L87480-1X</t>
+          <t>50427445</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87480-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-1X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/50427445/1.jpg,https://oleks-netizen.github.io/product-images/50427445/2.jpg,https://oleks-netizen.github.io/product-images/50427445/5.jpg,https://oleks-netizen.github.io/product-images/50427445/4.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>L87480-29X</t>
+          <t>504665</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87480-29X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-29X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/504665/1.jpg,https://oleks-netizen.github.io/product-images/504665/2.jpg,https://oleks-netizen.github.io/product-images/504665/6.jpg,https://oleks-netizen.github.io/product-images/504665/7.jpg,https://oleks-netizen.github.io/product-images/504665/3.jpg,https://oleks-netizen.github.io/product-images/504665/4.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>L87480-94X</t>
+          <t>50517075</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87480-94X/1.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/8.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/3.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/4.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/5.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/6.jpg,https://oleks-netizen.github.io/product-images/L87480-94X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/50517075/1.jpg,https://oleks-netizen.github.io/product-images/50517075/2.jpg,https://oleks-netizen.github.io/product-images/50517075/7.jpg,https://oleks-netizen.github.io/product-images/50517075/8.jpg,https://oleks-netizen.github.io/product-images/50517075/3.jpg,https://oleks-netizen.github.io/product-images/50517075/4.jpg,https://oleks-netizen.github.io/product-images/50517075/6.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1971,342 +1971,342 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>L87483-1</t>
+          <t>508110</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87483-1/1.jpg,https://oleks-netizen.github.io/product-images/L87483-1/7.jpg,https://oleks-netizen.github.io/product-images/L87483-1/3.jpg,https://oleks-netizen.github.io/product-images/L87483-1/4.jpg,https://oleks-netizen.github.io/product-images/L87483-1/5.jpg,https://oleks-netizen.github.io/product-images/L87483-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/508110/1.jpg,https://oleks-netizen.github.io/product-images/508110/2.jpg,https://oleks-netizen.github.io/product-images/508110/8.jpg,https://oleks-netizen.github.io/product-images/508110/3.jpg,https://oleks-netizen.github.io/product-images/508110/4.jpg,https://oleks-netizen.github.io/product-images/508110/5.jpg,https://oleks-netizen.github.io/product-images/508110/6.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>L87483-29</t>
+          <t>5209601</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87483-29/1.jpg,https://oleks-netizen.github.io/product-images/L87483-29/8.jpg,https://oleks-netizen.github.io/product-images/L87483-29/3.jpg,https://oleks-netizen.github.io/product-images/L87483-29/4.jpg,https://oleks-netizen.github.io/product-images/L87483-29/5.jpg,https://oleks-netizen.github.io/product-images/L87483-29/6.jpg,https://oleks-netizen.github.io/product-images/L87483-29/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5209601/1.jpg,https://oleks-netizen.github.io/product-images/5209601/2.jpg,https://oleks-netizen.github.io/product-images/5209601/4.jpg,https://oleks-netizen.github.io/product-images/5209601/11.jpg,https://oleks-netizen.github.io/product-images/5209601/10.jpg,https://oleks-netizen.github.io/product-images/5209601/3.jpg,https://oleks-netizen.github.io/product-images/5209601/5.jpg,https://oleks-netizen.github.io/product-images/5209601/7.jpg,https://oleks-netizen.github.io/product-images/5209601/8.jpg,https://oleks-netizen.github.io/product-images/5209601/9.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>L87483-92</t>
+          <t>5209701</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87483-92/1.jpg,https://oleks-netizen.github.io/product-images/L87483-92/8.jpg,https://oleks-netizen.github.io/product-images/L87483-92/3.jpg,https://oleks-netizen.github.io/product-images/L87483-92/4.jpg,https://oleks-netizen.github.io/product-images/L87483-92/5.jpg,https://oleks-netizen.github.io/product-images/L87483-92/6.jpg,https://oleks-netizen.github.io/product-images/L87483-92/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5209701/1.jpg,https://oleks-netizen.github.io/product-images/5209701/2.jpg,https://oleks-netizen.github.io/product-images/5209701/10.jpg,https://oleks-netizen.github.io/product-images/5209701/3.jpg,https://oleks-netizen.github.io/product-images/5209701/4.jpg,https://oleks-netizen.github.io/product-images/5209701/5.jpg,https://oleks-netizen.github.io/product-images/5209701/7.jpg,https://oleks-netizen.github.io/product-images/5209701/8.jpg,https://oleks-netizen.github.io/product-images/5209701/9.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>L87501-161</t>
+          <t>5214401</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87501-161/1.jpg,https://oleks-netizen.github.io/product-images/L87501-161/6.jpg,https://oleks-netizen.github.io/product-images/L87501-161/3.jpg,https://oleks-netizen.github.io/product-images/L87501-161/4.jpg,https://oleks-netizen.github.io/product-images/L87501-161/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5214401/1.jpg,https://oleks-netizen.github.io/product-images/5214401/2.jpg,https://oleks-netizen.github.io/product-images/5214401/10.jpg,https://oleks-netizen.github.io/product-images/5214401/3.jpg,https://oleks-netizen.github.io/product-images/5214401/4.jpg,https://oleks-netizen.github.io/product-images/5214401/5.jpg,https://oleks-netizen.github.io/product-images/5214401/6.jpg,https://oleks-netizen.github.io/product-images/5214401/7.jpg,https://oleks-netizen.github.io/product-images/5214401/8.jpg,https://oleks-netizen.github.io/product-images/5214401/9.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>L87501-163</t>
+          <t>5215001</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87501-163/1.jpg,https://oleks-netizen.github.io/product-images/L87501-163/7.jpg,https://oleks-netizen.github.io/product-images/L87501-163/3.jpg,https://oleks-netizen.github.io/product-images/L87501-163/4.jpg,https://oleks-netizen.github.io/product-images/L87501-163/5.jpg,https://oleks-netizen.github.io/product-images/L87501-163/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5215001/1.jpg,https://oleks-netizen.github.io/product-images/5215001/2.jpg,https://oleks-netizen.github.io/product-images/5215001/10.jpg,https://oleks-netizen.github.io/product-images/5215001/3.jpg,https://oleks-netizen.github.io/product-images/5215001/4.jpg,https://oleks-netizen.github.io/product-images/5215001/5.jpg,https://oleks-netizen.github.io/product-images/5215001/6.jpg,https://oleks-netizen.github.io/product-images/5215001/7.jpg,https://oleks-netizen.github.io/product-images/5215001/8.jpg,https://oleks-netizen.github.io/product-images/5215001/9.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>L87501-92</t>
+          <t>5215801</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87501-92/1.jpg,https://oleks-netizen.github.io/product-images/L87501-92/6.jpg,https://oleks-netizen.github.io/product-images/L87501-92/3.jpg,https://oleks-netizen.github.io/product-images/L87501-92/4.jpg,https://oleks-netizen.github.io/product-images/L87501-92/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5215801/1.jpg,https://oleks-netizen.github.io/product-images/5215801/3.jpg,https://oleks-netizen.github.io/product-images/5215801/11.jpg,https://oleks-netizen.github.io/product-images/5215801/10.jpg,https://oleks-netizen.github.io/product-images/5215801/4.jpg,https://oleks-netizen.github.io/product-images/5215801/5.jpg,https://oleks-netizen.github.io/product-images/5215801/6.jpg,https://oleks-netizen.github.io/product-images/5215801/7.jpg,https://oleks-netizen.github.io/product-images/5215801/8.jpg,https://oleks-netizen.github.io/product-images/5215801/9.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>L87503-1</t>
+          <t>5215801W</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87503-1/1.jpg,https://oleks-netizen.github.io/product-images/L87503-1/7.jpg,https://oleks-netizen.github.io/product-images/L87503-1/3.jpg,https://oleks-netizen.github.io/product-images/L87503-1/4.jpg,https://oleks-netizen.github.io/product-images/L87503-1/5.jpg,https://oleks-netizen.github.io/product-images/L87503-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5215801W/1.jpg,https://oleks-netizen.github.io/product-images/5215801W/2.jpg,https://oleks-netizen.github.io/product-images/5215801W/11.jpg,https://oleks-netizen.github.io/product-images/5215801W/10.jpg,https://oleks-netizen.github.io/product-images/5215801W/3.jpg,https://oleks-netizen.github.io/product-images/5215801W/5.jpg,https://oleks-netizen.github.io/product-images/5215801W/6.jpg,https://oleks-netizen.github.io/product-images/5215801W/7.jpg,https://oleks-netizen.github.io/product-images/5215801W/8.jpg,https://oleks-netizen.github.io/product-images/5215801W/9.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>L87503-64</t>
+          <t>5228801</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87503-64/1.jpg,https://oleks-netizen.github.io/product-images/L87503-64/7.jpg,https://oleks-netizen.github.io/product-images/L87503-64/3.jpg,https://oleks-netizen.github.io/product-images/L87503-64/4.jpg,https://oleks-netizen.github.io/product-images/L87503-64/5.jpg,https://oleks-netizen.github.io/product-images/L87503-64/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5228801/1.jpg,https://oleks-netizen.github.io/product-images/5228801/2.jpg,https://oleks-netizen.github.io/product-images/5228801/10.jpg,https://oleks-netizen.github.io/product-images/5228801/3.jpg,https://oleks-netizen.github.io/product-images/5228801/4.jpg,https://oleks-netizen.github.io/product-images/5228801/5.jpg,https://oleks-netizen.github.io/product-images/5228801/6.jpg,https://oleks-netizen.github.io/product-images/5228801/7.jpg,https://oleks-netizen.github.io/product-images/5228801/8.jpg,https://oleks-netizen.github.io/product-images/5228801/9.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>L87505-161</t>
+          <t>5228901</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87505-161/1.jpg,https://oleks-netizen.github.io/product-images/L87505-161/8.jpg,https://oleks-netizen.github.io/product-images/L87505-161/3.jpg,https://oleks-netizen.github.io/product-images/L87505-161/4.jpg,https://oleks-netizen.github.io/product-images/L87505-161/5.jpg,https://oleks-netizen.github.io/product-images/L87505-161/6.jpg,https://oleks-netizen.github.io/product-images/L87505-161/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5228901/1.jpg,https://oleks-netizen.github.io/product-images/5228901/2.jpg,https://oleks-netizen.github.io/product-images/5228901/10.jpg,https://oleks-netizen.github.io/product-images/5228901/3.jpg,https://oleks-netizen.github.io/product-images/5228901/4.jpg,https://oleks-netizen.github.io/product-images/5228901/5.jpg,https://oleks-netizen.github.io/product-images/5228901/6.jpg,https://oleks-netizen.github.io/product-images/5228901/7.jpg,https://oleks-netizen.github.io/product-images/5228901/8.jpg,https://oleks-netizen.github.io/product-images/5228901/9.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>L87505-162</t>
+          <t>5231201</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87505-162/1.jpg,https://oleks-netizen.github.io/product-images/L87505-162/8.jpg,https://oleks-netizen.github.io/product-images/L87505-162/3.jpg,https://oleks-netizen.github.io/product-images/L87505-162/4.jpg,https://oleks-netizen.github.io/product-images/L87505-162/5.jpg,https://oleks-netizen.github.io/product-images/L87505-162/6.jpg,https://oleks-netizen.github.io/product-images/L87505-162/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5231201/1.jpg,https://oleks-netizen.github.io/product-images/5231201/2.jpg,https://oleks-netizen.github.io/product-images/5231201/10.jpg,https://oleks-netizen.github.io/product-images/5231201/3.jpg,https://oleks-netizen.github.io/product-images/5231201/4.jpg,https://oleks-netizen.github.io/product-images/5231201/5.jpg,https://oleks-netizen.github.io/product-images/5231201/6.jpg,https://oleks-netizen.github.io/product-images/5231201/7.jpg,https://oleks-netizen.github.io/product-images/5231201/8.jpg,https://oleks-netizen.github.io/product-images/5231201/9.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>L87505-163</t>
+          <t>5233401</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87505-163/1.jpg,https://oleks-netizen.github.io/product-images/L87505-163/8.jpg,https://oleks-netizen.github.io/product-images/L87505-163/3.jpg,https://oleks-netizen.github.io/product-images/L87505-163/4.jpg,https://oleks-netizen.github.io/product-images/L87505-163/5.jpg,https://oleks-netizen.github.io/product-images/L87505-163/6.jpg,https://oleks-netizen.github.io/product-images/L87505-163/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5233401/1.jpg,https://oleks-netizen.github.io/product-images/5233401/2.jpg,https://oleks-netizen.github.io/product-images/5233401/10.jpg,https://oleks-netizen.github.io/product-images/5233401/3.jpg,https://oleks-netizen.github.io/product-images/5233401/4.jpg,https://oleks-netizen.github.io/product-images/5233401/5.jpg,https://oleks-netizen.github.io/product-images/5233401/6.jpg,https://oleks-netizen.github.io/product-images/5233401/7.jpg,https://oleks-netizen.github.io/product-images/5233401/8.jpg,https://oleks-netizen.github.io/product-images/5233401/9.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>L87511-1</t>
+          <t>5236601</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87511-1/1.jpg,https://oleks-netizen.github.io/product-images/L87511-1/7.jpg,https://oleks-netizen.github.io/product-images/L87511-1/3.jpg,https://oleks-netizen.github.io/product-images/L87511-1/4.jpg,https://oleks-netizen.github.io/product-images/L87511-1/5.jpg,https://oleks-netizen.github.io/product-images/L87511-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5236601/1.jpg,https://oleks-netizen.github.io/product-images/5236601/2.jpg,https://oleks-netizen.github.io/product-images/5236601/11.jpg,https://oleks-netizen.github.io/product-images/5236601/10.jpg,https://oleks-netizen.github.io/product-images/5236601/3.jpg,https://oleks-netizen.github.io/product-images/5236601/4.jpg,https://oleks-netizen.github.io/product-images/5236601/5.jpg,https://oleks-netizen.github.io/product-images/5236601/6.jpg,https://oleks-netizen.github.io/product-images/5236601/7.jpg,https://oleks-netizen.github.io/product-images/5236601/9.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>L87527-1</t>
+          <t>5240301</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87527-1/1.jpg,https://oleks-netizen.github.io/product-images/L87527-1/7.jpg,https://oleks-netizen.github.io/product-images/L87527-1/3.jpg,https://oleks-netizen.github.io/product-images/L87527-1/4.jpg,https://oleks-netizen.github.io/product-images/L87527-1/5.jpg,https://oleks-netizen.github.io/product-images/L87527-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5240301/1.jpg,https://oleks-netizen.github.io/product-images/5240301/2.jpg,https://oleks-netizen.github.io/product-images/5240301/11.jpg,https://oleks-netizen.github.io/product-images/5240301/10.jpg,https://oleks-netizen.github.io/product-images/5240301/3.jpg,https://oleks-netizen.github.io/product-images/5240301/4.jpg,https://oleks-netizen.github.io/product-images/5240301/5.jpg,https://oleks-netizen.github.io/product-images/5240301/7.jpg,https://oleks-netizen.github.io/product-images/5240301/8.jpg,https://oleks-netizen.github.io/product-images/5240301/9.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>L87530-1Y</t>
+          <t>5240401</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87530-1Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-1Y/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5240401/1.jpg,https://oleks-netizen.github.io/product-images/5240401/2.jpg,https://oleks-netizen.github.io/product-images/5240401/10.jpg,https://oleks-netizen.github.io/product-images/5240401/3.jpg,https://oleks-netizen.github.io/product-images/5240401/4.jpg,https://oleks-netizen.github.io/product-images/5240401/5.jpg,https://oleks-netizen.github.io/product-images/5240401/6.jpg,https://oleks-netizen.github.io/product-images/5240401/7.jpg,https://oleks-netizen.github.io/product-images/5240401/8.jpg,https://oleks-netizen.github.io/product-images/5240401/9.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>L87530-4Y</t>
+          <t>5242001</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87530-4Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-4Y/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5242001/1.jpg,https://oleks-netizen.github.io/product-images/5242001/2.jpg,https://oleks-netizen.github.io/product-images/5242001/4.jpg,https://oleks-netizen.github.io/product-images/5242001/10.jpg,https://oleks-netizen.github.io/product-images/5242001/3.jpg,https://oleks-netizen.github.io/product-images/5242001/5.jpg,https://oleks-netizen.github.io/product-images/5242001/6.jpg,https://oleks-netizen.github.io/product-images/5242001/7.jpg,https://oleks-netizen.github.io/product-images/5242001/8.jpg,https://oleks-netizen.github.io/product-images/5242001/9.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>L87530-5Y</t>
+          <t>5243601</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87530-5Y/1.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/7.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/3.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/4.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/5.jpg,https://oleks-netizen.github.io/product-images/L87530-5Y/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5243601/1.jpg,https://oleks-netizen.github.io/product-images/5243601/2.jpg,https://oleks-netizen.github.io/product-images/5243601/10.jpg,https://oleks-netizen.github.io/product-images/5243601/3.jpg,https://oleks-netizen.github.io/product-images/5243601/4.jpg,https://oleks-netizen.github.io/product-images/5243601/5.jpg,https://oleks-netizen.github.io/product-images/5243601/6.jpg,https://oleks-netizen.github.io/product-images/5243601/7.jpg,https://oleks-netizen.github.io/product-images/5243601/8.jpg,https://oleks-netizen.github.io/product-images/5243601/9.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>L87535-1X</t>
+          <t>5246901</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87535-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-1X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5246901/1.jpg,https://oleks-netizen.github.io/product-images/5246901/2.jpg,https://oleks-netizen.github.io/product-images/5246901/3.jpg,https://oleks-netizen.github.io/product-images/5246901/4.jpg,https://oleks-netizen.github.io/product-images/5246901/5.jpg,https://oleks-netizen.github.io/product-images/5246901/6.jpg,https://oleks-netizen.github.io/product-images/5246901/7.jpg,https://oleks-netizen.github.io/product-images/5246901/8.jpg,https://oleks-netizen.github.io/product-images/5246901/9.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>L87535-94X</t>
+          <t>5247701</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87535-94X/1.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/8.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/3.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/4.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/5.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/6.jpg,https://oleks-netizen.github.io/product-images/L87535-94X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/5247701/1.jpg,https://oleks-netizen.github.io/product-images/5247701/2.jpg,https://oleks-netizen.github.io/product-images/5247701/10.jpg,https://oleks-netizen.github.io/product-images/5247701/3.jpg,https://oleks-netizen.github.io/product-images/5247701/4.jpg,https://oleks-netizen.github.io/product-images/5247701/5.jpg,https://oleks-netizen.github.io/product-images/5247701/6.jpg,https://oleks-netizen.github.io/product-images/5247701/7.jpg,https://oleks-netizen.github.io/product-images/5247701/8.jpg,https://oleks-netizen.github.io/product-images/5247701/9.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>L87556-1W</t>
+          <t>537161</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87556-1W/1.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/6.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/3.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/4.jpg,https://oleks-netizen.github.io/product-images/L87556-1W/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/537161/1.jpg,https://oleks-netizen.github.io/product-images/537161/2.jpg,https://oleks-netizen.github.io/product-images/537161/3.jpg,https://oleks-netizen.github.io/product-images/537161/4.jpg,https://oleks-netizen.github.io/product-images/537161/5.jpg,https://oleks-netizen.github.io/product-images/537161/6.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>L87606-1</t>
+          <t>538110</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1/9.jpg,https://oleks-netizen.github.io/product-images/L87606-1/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/538110/1.jpg,https://oleks-netizen.github.io/product-images/538110/2.jpg,https://oleks-netizen.github.io/product-images/538110/3.jpg,https://oleks-netizen.github.io/product-images/538110/4.jpg,https://oleks-netizen.github.io/product-images/538110/5.jpg,https://oleks-netizen.github.io/product-images/538110/6.jpg,https://oleks-netizen.github.io/product-images/538110/7.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>L87606-1X</t>
+          <t>538420</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/9.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/7.jpg,https://oleks-netizen.github.io/product-images/L87606-1X/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/538420/1.jpg,https://oleks-netizen.github.io/product-images/538420/2.jpg,https://oleks-netizen.github.io/product-images/538420/3.jpg,https://oleks-netizen.github.io/product-images/538420/4.jpg,https://oleks-netizen.github.io/product-images/538420/5.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>L87606-70</t>
+          <t>545661</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-70/1.jpg,https://oleks-netizen.github.io/product-images/L87606-70/9.jpg,https://oleks-netizen.github.io/product-images/L87606-70/3.jpg,https://oleks-netizen.github.io/product-images/L87606-70/4.jpg,https://oleks-netizen.github.io/product-images/L87606-70/5.jpg,https://oleks-netizen.github.io/product-images/L87606-70/6.jpg,https://oleks-netizen.github.io/product-images/L87606-70/7.jpg,https://oleks-netizen.github.io/product-images/L87606-70/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/545661/1.jpg,https://oleks-netizen.github.io/product-images/545661/2.jpg,https://oleks-netizen.github.io/product-images/545661/4.jpg,https://oleks-netizen.github.io/product-images/545661/5.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>L87612-1</t>
+          <t>545665</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87612-1/1.jpg,https://oleks-netizen.github.io/product-images/L87612-1/7.jpg,https://oleks-netizen.github.io/product-images/L87612-1/3.jpg,https://oleks-netizen.github.io/product-images/L87612-1/4.jpg,https://oleks-netizen.github.io/product-images/L87612-1/5.jpg,https://oleks-netizen.github.io/product-images/L87612-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/545665/1.jpg,https://oleks-netizen.github.io/product-images/545665/2.jpg,https://oleks-netizen.github.io/product-images/545665/3.jpg,https://oleks-netizen.github.io/product-images/545665/4.jpg,https://oleks-netizen.github.io/product-images/545665/5.jpg,https://oleks-netizen.github.io/product-images/545665/6.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2316,12 +2316,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>L87661-1</t>
+          <t>546610</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87661-1/1.jpg,https://oleks-netizen.github.io/product-images/L87661-1/5.jpg,https://oleks-netizen.github.io/product-images/L87661-1/3.jpg,https://oleks-netizen.github.io/product-images/L87661-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/546610/1.jpg,https://oleks-netizen.github.io/product-images/546610/2.jpg,https://oleks-netizen.github.io/product-images/546610/3.jpg,https://oleks-netizen.github.io/product-images/546610/4.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2331,27 +2331,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>L87661-70</t>
+          <t>546661</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87661-70/1.jpg,https://oleks-netizen.github.io/product-images/L87661-70/7.jpg,https://oleks-netizen.github.io/product-images/L87661-70/3.jpg,https://oleks-netizen.github.io/product-images/L87661-70/4.jpg,https://oleks-netizen.github.io/product-images/L87661-70/5.jpg,https://oleks-netizen.github.io/product-images/L87661-70/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/546661/1.jpg,https://oleks-netizen.github.io/product-images/546661/2.jpg,https://oleks-netizen.github.io/product-images/546661/3.jpg,https://oleks-netizen.github.io/product-images/546661/4.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>L87697-1</t>
+          <t>546665</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87697-1/1.jpg,https://oleks-netizen.github.io/product-images/L87697-1/6.jpg,https://oleks-netizen.github.io/product-images/L87697-1/3.jpg,https://oleks-netizen.github.io/product-images/L87697-1/4.jpg,https://oleks-netizen.github.io/product-images/L87697-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/546665/1.jpg,https://oleks-netizen.github.io/product-images/546665/2.jpg,https://oleks-netizen.github.io/product-images/546665/6.jpg,https://oleks-netizen.github.io/product-images/546665/4.jpg,https://oleks-netizen.github.io/product-images/546665/5.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2361,57 +2361,57 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>L87697-22</t>
+          <t>550623</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87697-22/1.jpg,https://oleks-netizen.github.io/product-images/L87697-22/6.jpg,https://oleks-netizen.github.io/product-images/L87697-22/3.jpg,https://oleks-netizen.github.io/product-images/L87697-22/4.jpg,https://oleks-netizen.github.io/product-images/L87697-22/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/550623/1.jpg,https://oleks-netizen.github.io/product-images/550623/2.jpg,https://oleks-netizen.github.io/product-images/550623/3.jpg,https://oleks-netizen.github.io/product-images/550623/4.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>L87886-1</t>
+          <t>702710</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87886-1/1.jpg,https://oleks-netizen.github.io/product-images/L87886-1/5.jpg,https://oleks-netizen.github.io/product-images/L87886-1/3.jpg,https://oleks-netizen.github.io/product-images/L87886-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/702710/1.jpg,https://oleks-netizen.github.io/product-images/702710/5.jpg,https://oleks-netizen.github.io/product-images/702710/11.jpg,https://oleks-netizen.github.io/product-images/702710/10.jpg,https://oleks-netizen.github.io/product-images/702710/3.jpg,https://oleks-netizen.github.io/product-images/702710/4.jpg,https://oleks-netizen.github.io/product-images/702710/6.jpg,https://oleks-netizen.github.io/product-images/702710/7.jpg,https://oleks-netizen.github.io/product-images/702710/8.jpg,https://oleks-netizen.github.io/product-images/702710/9.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>L87891-1X</t>
+          <t>70374323</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87891-1X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-1X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/70374323/1.jpg,https://oleks-netizen.github.io/product-images/70374323/2.jpg,https://oleks-netizen.github.io/product-images/70374323/6.jpg,https://oleks-netizen.github.io/product-images/70374323/3.jpg,https://oleks-netizen.github.io/product-images/70374323/4.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>L87891-29X</t>
+          <t>721623</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87891-29X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-29X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/721623/1.jpg,https://oleks-netizen.github.io/product-images/721623/2.jpg,https://oleks-netizen.github.io/product-images/721623/3.jpg,https://oleks-netizen.github.io/product-images/721623/4.jpg,https://oleks-netizen.github.io/product-images/721623/5.jpg,https://oleks-netizen.github.io/product-images/721623/6.jpg,https://oleks-netizen.github.io/product-images/721623/7.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2421,27 +2421,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>L87891-92X</t>
+          <t>736720</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87891-92X/1.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/8.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/3.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/4.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/5.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/6.jpg,https://oleks-netizen.github.io/product-images/L87891-92X/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/736720/1.jpg,https://oleks-netizen.github.io/product-images/736720/2.jpg,https://oleks-netizen.github.io/product-images/736720/9.jpg,https://oleks-netizen.github.io/product-images/736720/3.jpg,https://oleks-netizen.github.io/product-images/736720/4.jpg,https://oleks-netizen.github.io/product-images/736720/5.jpg,https://oleks-netizen.github.io/product-images/736720/7.jpg,https://oleks-netizen.github.io/product-images/736720/8.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>L88003-1</t>
+          <t>739420</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-1/1.jpg,https://oleks-netizen.github.io/product-images/L88003-1/6.jpg,https://oleks-netizen.github.io/product-images/L88003-1/3.jpg,https://oleks-netizen.github.io/product-images/L88003-1/4.jpg,https://oleks-netizen.github.io/product-images/L88003-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/739420/1.jpg,https://oleks-netizen.github.io/product-images/739420/2.jpg,https://oleks-netizen.github.io/product-images/739420/6.jpg,https://oleks-netizen.github.io/product-images/739420/4.jpg,https://oleks-netizen.github.io/product-images/739420/5.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2451,42 +2451,42 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>L88003-24</t>
+          <t>740420</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-24/1.jpg,https://oleks-netizen.github.io/product-images/L88003-24/7.jpg,https://oleks-netizen.github.io/product-images/L88003-24/3.jpg,https://oleks-netizen.github.io/product-images/L88003-24/4.jpg,https://oleks-netizen.github.io/product-images/L88003-24/5.jpg,https://oleks-netizen.github.io/product-images/L88003-24/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/740420/1.jpg,https://oleks-netizen.github.io/product-images/740420/2.jpg,https://oleks-netizen.github.io/product-images/740420/3.jpg,https://oleks-netizen.github.io/product-images/740420/9.jpg,https://oleks-netizen.github.io/product-images/740420/4.jpg,https://oleks-netizen.github.io/product-images/740420/5.jpg,https://oleks-netizen.github.io/product-images/740420/6.jpg,https://oleks-netizen.github.io/product-images/740420/8.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>L88003-32 Бежевый</t>
+          <t>74127445</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/1.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/6.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/3.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/4.jpg,https://oleks-netizen.github.io/product-images/L88003-32 Бежевый/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/74127445/1.jpg,https://oleks-netizen.github.io/product-images/74127445/2.jpg,https://oleks-netizen.github.io/product-images/74127445/3.jpg,https://oleks-netizen.github.io/product-images/74127445/4.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>L88005-211</t>
+          <t>743660</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88005-211/1.jpg,https://oleks-netizen.github.io/product-images/L88005-211/7.jpg,https://oleks-netizen.github.io/product-images/L88005-211/3.jpg,https://oleks-netizen.github.io/product-images/L88005-211/4.jpg,https://oleks-netizen.github.io/product-images/L88005-211/5.jpg,https://oleks-netizen.github.io/product-images/L88005-211/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/743660/1.jpg,https://oleks-netizen.github.io/product-images/743660/2.jpg,https://oleks-netizen.github.io/product-images/743660/3.jpg,https://oleks-netizen.github.io/product-images/743660/7.jpg,https://oleks-netizen.github.io/product-images/743660/4.jpg,https://oleks-netizen.github.io/product-images/743660/5.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2496,102 +2496,102 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>L88005-215</t>
+          <t>756620</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88005-215/1.jpg,https://oleks-netizen.github.io/product-images/L88005-215/7.jpg,https://oleks-netizen.github.io/product-images/L88005-215/3.jpg,https://oleks-netizen.github.io/product-images/L88005-215/4.jpg,https://oleks-netizen.github.io/product-images/L88005-215/5.jpg,https://oleks-netizen.github.io/product-images/L88005-215/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/756620/1.jpg,https://oleks-netizen.github.io/product-images/756620/2.jpg,https://oleks-netizen.github.io/product-images/756620/3.jpg,https://oleks-netizen.github.io/product-images/756620/4.jpg,https://oleks-netizen.github.io/product-images/756620/5.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>L88005-216</t>
+          <t>770710</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88005-216/1.jpg,https://oleks-netizen.github.io/product-images/L88005-216/7.jpg,https://oleks-netizen.github.io/product-images/L88005-216/3.jpg,https://oleks-netizen.github.io/product-images/L88005-216/4.jpg,https://oleks-netizen.github.io/product-images/L88005-216/5.jpg,https://oleks-netizen.github.io/product-images/L88005-216/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/770710/1.jpg,https://oleks-netizen.github.io/product-images/770710/2.jpg,https://oleks-netizen.github.io/product-images/770710/3.jpg,https://oleks-netizen.github.io/product-images/770710/4.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>L88012-216</t>
+          <t>805620</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88012-216/1.jpg,https://oleks-netizen.github.io/product-images/L88012-216/6.jpg,https://oleks-netizen.github.io/product-images/L88012-216/3.jpg,https://oleks-netizen.github.io/product-images/L88012-216/4.jpg,https://oleks-netizen.github.io/product-images/L88012-216/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/805620/1.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>L88012-217</t>
+          <t>805661</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88012-217/1.jpg,https://oleks-netizen.github.io/product-images/L88012-217/7.jpg,https://oleks-netizen.github.io/product-images/L88012-217/3.jpg,https://oleks-netizen.github.io/product-images/L88012-217/4.jpg,https://oleks-netizen.github.io/product-images/L88012-217/5.jpg,https://oleks-netizen.github.io/product-images/L88012-217/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/805661/1.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>L88015-201</t>
+          <t>910110</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88015-201/1.jpg,https://oleks-netizen.github.io/product-images/L88015-201/6.jpg,https://oleks-netizen.github.io/product-images/L88015-201/3.jpg,https://oleks-netizen.github.io/product-images/L88015-201/4.jpg,https://oleks-netizen.github.io/product-images/L88015-201/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/910110/1.jpg,https://oleks-netizen.github.io/product-images/910110/2.jpg,https://oleks-netizen.github.io/product-images/910110/3.jpg,https://oleks-netizen.github.io/product-images/910110/4.jpg,https://oleks-netizen.github.io/product-images/910110/5.jpg,https://oleks-netizen.github.io/product-images/910110/6.jpg,https://oleks-netizen.github.io/product-images/910110/7.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>L88015-32</t>
+          <t>A0011XS</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88015-32/1.jpg,https://oleks-netizen.github.io/product-images/L88015-32/6.jpg,https://oleks-netizen.github.io/product-images/L88015-32/3.jpg,https://oleks-netizen.github.io/product-images/L88015-32/4.jpg,https://oleks-netizen.github.io/product-images/L88015-32/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/A0011XS/1.jpg,https://oleks-netizen.github.io/product-images/A0011XS/2.jpg,https://oleks-netizen.github.io/product-images/A0011XS/11.jpg,https://oleks-netizen.github.io/product-images/A0011XS/10.jpg,https://oleks-netizen.github.io/product-images/A0011XS/4.jpg,https://oleks-netizen.github.io/product-images/A0011XS/5.jpg,https://oleks-netizen.github.io/product-images/A0011XS/6.jpg,https://oleks-netizen.github.io/product-images/A0011XS/7.jpg,https://oleks-netizen.github.io/product-images/A0011XS/8.jpg,https://oleks-netizen.github.io/product-images/A0011XS/9.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>L88015-66</t>
+          <t>Art01638_fbordo</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88015-66/1.jpg,https://oleks-netizen.github.io/product-images/L88015-66/7.jpg,https://oleks-netizen.github.io/product-images/L88015-66/3.jpg,https://oleks-netizen.github.io/product-images/L88015-66/4.jpg,https://oleks-netizen.github.io/product-images/L88015-66/5.jpg,https://oleks-netizen.github.io/product-images/L88015-66/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Art01638_fbordo/1.jpg,https://oleks-netizen.github.io/product-images/Art01638_fbordo/2.jpg,https://oleks-netizen.github.io/product-images/Art01638_fbordo/7.jpg,https://oleks-netizen.github.io/product-images/Art01638_fbordo/4.jpg,https://oleks-netizen.github.io/product-images/Art01638_fbordo/5.jpg,https://oleks-netizen.github.io/product-images/Art01638_fbordo/6.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2601,57 +2601,57 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>L88107-70</t>
+          <t>BEI-PTL-4lx</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88107-70/1.jpg,https://oleks-netizen.github.io/product-images/L88107-70/7.jpg,https://oleks-netizen.github.io/product-images/L88107-70/3.jpg,https://oleks-netizen.github.io/product-images/L88107-70/4.jpg,https://oleks-netizen.github.io/product-images/L88107-70/5.jpg,https://oleks-netizen.github.io/product-images/L88107-70/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/1.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/3.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/9.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/4.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/5.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/6.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/7.jpg,https://oleks-netizen.github.io/product-images/BEI-PTL-4lx/8.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>L88530-1</t>
+          <t>bx1292</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88530-1/1.jpg,https://oleks-netizen.github.io/product-images/L88530-1/7.jpg,https://oleks-netizen.github.io/product-images/L88530-1/3.jpg,https://oleks-netizen.github.io/product-images/L88530-1/4.jpg,https://oleks-netizen.github.io/product-images/L88530-1/5.jpg,https://oleks-netizen.github.io/product-images/L88530-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/bx1292/1.jpg,https://oleks-netizen.github.io/product-images/bx1292/2.jpg,https://oleks-netizen.github.io/product-images/bx1292/4.jpg,https://oleks-netizen.github.io/product-images/bx1292/8.jpg,https://oleks-netizen.github.io/product-images/bx1292/3.jpg,https://oleks-netizen.github.io/product-images/bx1292/6.jpg,https://oleks-netizen.github.io/product-images/bx1292/7.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>L88530-66</t>
+          <t>bx2018</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88530-66/1.jpg,https://oleks-netizen.github.io/product-images/L88530-66/7.jpg,https://oleks-netizen.github.io/product-images/L88530-66/3.jpg,https://oleks-netizen.github.io/product-images/L88530-66/4.jpg,https://oleks-netizen.github.io/product-images/L88530-66/5.jpg,https://oleks-netizen.github.io/product-images/L88530-66/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/bx2018/1.jpg,https://oleks-netizen.github.io/product-images/bx2018/2.jpg,https://oleks-netizen.github.io/product-images/bx2018/3.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>L88542-1</t>
+          <t>CorH-7100-4lx</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88542-1/1.jpg,https://oleks-netizen.github.io/product-images/L88542-1/7.jpg,https://oleks-netizen.github.io/product-images/L88542-1/3.jpg,https://oleks-netizen.github.io/product-images/L88542-1/4.jpg,https://oleks-netizen.github.io/product-images/L88542-1/5.jpg,https://oleks-netizen.github.io/product-images/L88542-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/CorH-7100-4lx/1.jpg,https://oleks-netizen.github.io/product-images/CorH-7100-4lx/2.jpg,https://oleks-netizen.github.io/product-images/CorH-7100-4lx/3.jpg,https://oleks-netizen.github.io/product-images/CorH-7100-4lx/4.jpg,https://oleks-netizen.github.io/product-images/CorH-7100-4lx/5.jpg,https://oleks-netizen.github.io/product-images/CorH-7100-4lx/6.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2661,27 +2661,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>L88542-32</t>
+          <t>FA-6690-4lx</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88542-32/1.jpg,https://oleks-netizen.github.io/product-images/L88542-32/7.jpg,https://oleks-netizen.github.io/product-images/L88542-32/3.jpg,https://oleks-netizen.github.io/product-images/L88542-32/4.jpg,https://oleks-netizen.github.io/product-images/L88542-32/5.jpg,https://oleks-netizen.github.io/product-images/L88542-32/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-6690-4lx/1.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/2.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/3.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/10.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/4.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/5.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/6.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/7.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/8.jpg,https://oleks-netizen.github.io/product-images/FA-6690-4lx/9.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>L88542-65</t>
+          <t>FPink-8077-3md</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88542-65/1.jpg,https://oleks-netizen.github.io/product-images/L88542-65/7.jpg,https://oleks-netizen.github.io/product-images/L88542-65/3.jpg,https://oleks-netizen.github.io/product-images/L88542-65/4.jpg,https://oleks-netizen.github.io/product-images/L88542-65/5.jpg,https://oleks-netizen.github.io/product-images/L88542-65/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FPink-8077-3md/1.jpg,https://oleks-netizen.github.io/product-images/FPink-8077-3md/3.jpg,https://oleks-netizen.github.io/product-images/FPink-8077-3md/7.jpg,https://oleks-netizen.github.io/product-images/FPink-8077-3md/4.jpg,https://oleks-netizen.github.io/product-images/FPink-8077-3md/5.jpg,https://oleks-netizen.github.io/product-images/FPink-8077-3md/6.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2691,252 +2691,252 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>L88801-201</t>
+          <t>fz118505</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88801-201/1.jpg,https://oleks-netizen.github.io/product-images/L88801-201/7.jpg,https://oleks-netizen.github.io/product-images/L88801-201/3.jpg,https://oleks-netizen.github.io/product-images/L88801-201/4.jpg,https://oleks-netizen.github.io/product-images/L88801-201/5.jpg,https://oleks-netizen.github.io/product-images/L88801-201/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz118505/1.jpg,https://oleks-netizen.github.io/product-images/fz118505/2.jpg,https://oleks-netizen.github.io/product-images/fz118505/3.jpg,https://oleks-netizen.github.io/product-images/fz118505/4.jpg,https://oleks-netizen.github.io/product-images/fz118505/5.jpg,https://oleks-netizen.github.io/product-images/fz118505/6.jpg,https://oleks-netizen.github.io/product-images/fz118505/7.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>L88801-216</t>
+          <t>fz118560</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88801-216/1.jpg,https://oleks-netizen.github.io/product-images/L88801-216/6.jpg,https://oleks-netizen.github.io/product-images/L88801-216/3.jpg,https://oleks-netizen.github.io/product-images/L88801-216/4.jpg,https://oleks-netizen.github.io/product-images/L88801-216/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz118560/1.jpg,https://oleks-netizen.github.io/product-images/fz118560/2.jpg,https://oleks-netizen.github.io/product-images/fz118560/3.jpg,https://oleks-netizen.github.io/product-images/fz118560/4.jpg,https://oleks-netizen.github.io/product-images/fz118560/5.jpg,https://oleks-netizen.github.io/product-images/fz118560/6.jpg,https://oleks-netizen.github.io/product-images/fz118560/7.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>L88801-228</t>
+          <t>fz209104</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L88801-228/1.jpg,https://oleks-netizen.github.io/product-images/L88801-228/7.jpg,https://oleks-netizen.github.io/product-images/L88801-228/3.jpg,https://oleks-netizen.github.io/product-images/L88801-228/4.jpg,https://oleks-netizen.github.io/product-images/L88801-228/5.jpg,https://oleks-netizen.github.io/product-images/L88801-228/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz209104/1.jpg,https://oleks-netizen.github.io/product-images/fz209104/2.jpg,https://oleks-netizen.github.io/product-images/fz209104/3.jpg,https://oleks-netizen.github.io/product-images/fz209104/4.jpg,https://oleks-netizen.github.io/product-images/fz209104/5.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LC14012X-HT50</t>
+          <t>fz209805</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14012X-HT50/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/4.jpg,https://oleks-netizen.github.io/product-images/LC14012X-HT50/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz209805/1.jpg,https://oleks-netizen.github.io/product-images/fz209805/2.jpg,https://oleks-netizen.github.io/product-images/fz209805/3.jpg,https://oleks-netizen.github.io/product-images/fz209805/4.jpg,https://oleks-netizen.github.io/product-images/fz209805/5.jpg,https://oleks-netizen.github.io/product-images/fz209805/6.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LC14012X-YP01</t>
+          <t>fz209845</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14012X-YP01/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/8.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/4.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/5.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz209845/1.jpg,https://oleks-netizen.github.io/product-images/fz209845/2.jpg,https://oleks-netizen.github.io/product-images/fz209845/3.jpg,https://oleks-netizen.github.io/product-images/fz209845/4.jpg,https://oleks-netizen.github.io/product-images/fz209845/5.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LC14012X-YP2035</t>
+          <t>fz3752_bordo</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14012X-YP2035/1.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/9.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/2.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/3.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/5.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/6.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/7.jpg,https://oleks-netizen.github.io/product-images/LC14012X-YP2035/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz3752_bordo/1.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/2.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/8.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/3.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/4.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/5.jpg,https://oleks-netizen.github.io/product-images/fz3752_bordo/7.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>LC14016-GD152</t>
+          <t>fz382328_taup</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14016-GD152/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/7.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD152/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/fz382328_taup/1.jpg,https://oleks-netizen.github.io/product-images/fz382328_taup/2.jpg,https://oleks-netizen.github.io/product-images/fz382328_taup/6.jpg,https://oleks-netizen.github.io/product-images/fz382328_taup/3.jpg,https://oleks-netizen.github.io/product-images/fz382328_taup/4.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LC14016-GD179</t>
+          <t>GA-0062-3md</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14016-GD179/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/8.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD179/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GA-0062-3md/1.jpg,https://oleks-netizen.github.io/product-images/GA-0062-3md/2.jpg,https://oleks-netizen.github.io/product-images/GA-0062-3md/3.jpg,https://oleks-netizen.github.io/product-images/GA-0062-3md/4.jpg,https://oleks-netizen.github.io/product-images/GA-0062-3md/5.jpg</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LC14016-GD35</t>
+          <t>GA-1501-4lx</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14016-GD35/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/9.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/2.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/7.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD35/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GA-1501-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/10.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/7.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GA-1501-4lx/9.jpg</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LC14016-GD79</t>
+          <t>GA-5000-4lx</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14016-GD79/1.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/8.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/3.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/4.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/5.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/6.jpg,https://oleks-netizen.github.io/product-images/LC14016-GD79/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GA-5000-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/11.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/10.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/7.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GA-5000-4lx/9.jpg</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>LC14019-GD01</t>
+          <t>GA-7290-3md</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14019-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14019-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GA-7290-3md/1.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/2.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/3.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/10.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/4.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/5.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/7.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/8.jpg,https://oleks-netizen.github.io/product-images/GA-7290-3md/9.jpg</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LC14032-GD01</t>
+          <t>GA-8188-4lx</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14032-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GA-8188-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GA-8188-4lx/6.jpg</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LC14032-GD02</t>
+          <t>GAlc-8033-4lx</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14032-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/8.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD02/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/7.jpg,https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GAlc-8033-4lx/6.jpg</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LC14032-GD132</t>
+          <t>GAs-1905-3md</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14032-GD132/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/8.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/6.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD132/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GAs-1905-3md/1.jpg,https://oleks-netizen.github.io/product-images/GAs-1905-3md/2.jpg,https://oleks-netizen.github.io/product-images/GAs-1905-3md/5.jpg,https://oleks-netizen.github.io/product-images/GAs-1905-3md/4.jpg</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LC14032-GD175</t>
+          <t>GAstr-9552-4lx</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14032-GD175/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/3.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD175/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/10.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/7.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GAstr-9552-4lx/9.jpg</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LC14032-GD42</t>
+          <t>GBc-1537-4lx</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14032-GD42/1.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/7.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/2.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/4.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/5.jpg,https://oleks-netizen.github.io/product-images/LC14032-GD42/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GBc-1537-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GBc-1537-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GBc-1537-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GBc-1537-4lx/3.jpg</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LC14052-YP01</t>
+          <t>GBC-6402-3md</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14052-YP01/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/2.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/7.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GBC-6402-3md/1.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/2.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/3.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/4.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/5.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/6.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/7.jpg,https://oleks-netizen.github.io/product-images/GBC-6402-3md/8.jpg</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2946,87 +2946,87 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LC14052-YP02</t>
+          <t>GBcroc-hobo-4lx</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14052-YP02/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/8.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP02/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/9.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GBcroc-hobo-4lx/8.jpg</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LC14052-YP2020</t>
+          <t>GC-0042-4lx</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14052-YP2020/1.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/8.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/3.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/4.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/5.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/6.jpg,https://oleks-netizen.github.io/product-images/LC14052-YP2020/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GC-0042-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/11.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/10.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/5.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/7.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GC-0042-4lx/9.jpg</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LC14054-GD01</t>
+          <t>GC-7121-3md</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14054-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GC-7121-3md/1.jpg,https://oleks-netizen.github.io/product-images/GC-7121-3md/2.jpg,https://oleks-netizen.github.io/product-images/GC-7121-3md/6.jpg,https://oleks-netizen.github.io/product-images/GC-7121-3md/4.jpg,https://oleks-netizen.github.io/product-images/GC-7121-3md/5.jpg</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LC14054-GD02</t>
+          <t>GCof-5565-4lx</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14054-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/8.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD02/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GCof-5565-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GCof-5565-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GCof-5565-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GCof-5565-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GCof-5565-4lx/5.jpg</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LC14054-GD25</t>
+          <t>GCs-1905-3md</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14054-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/9.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14054-GD25/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GCs-1905-3md/1.jpg,https://oleks-netizen.github.io/product-images/GCs-1905-3md/2.jpg,https://oleks-netizen.github.io/product-images/GCs-1905-3md/5.jpg,https://oleks-netizen.github.io/product-images/GCs-1905-3md/4.jpg</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LC14057-GD01</t>
+          <t>GE-hobo-4lx</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14057-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GE-hobo-4lx/1.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/2.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/4.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/8.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/3.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/6.jpg,https://oleks-netizen.github.io/product-images/GE-hobo-4lx/7.jpg</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3036,372 +3036,372 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LC14057-GD147</t>
+          <t>GR-455-3md</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14057-GD147/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/3.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD147/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/GR-455-3md/1.jpg,https://oleks-netizen.github.io/product-images/GR-455-3md/2.jpg,https://oleks-netizen.github.io/product-images/GR-455-3md/5.jpg,https://oleks-netizen.github.io/product-images/GR-455-3md/4.jpg</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LC14057-GD34</t>
+          <t>HB01313</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14057-GD34/1.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/8.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/2.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/3.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/5.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/6.jpg,https://oleks-netizen.github.io/product-images/LC14057-GD34/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB01313/1.jpg,https://oleks-netizen.github.io/product-images/HB01313/2.jpg,https://oleks-netizen.github.io/product-images/HB01313/4.jpg,https://oleks-netizen.github.io/product-images/HB01313/3.jpg,https://oleks-netizen.github.io/product-images/HB01313/5.jpg</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LC14098-GD01</t>
+          <t>HB03334C</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14098-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD01/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB03334C/1.jpg,https://oleks-netizen.github.io/product-images/HB03334C/2.jpg,https://oleks-netizen.github.io/product-images/HB03334C/8.jpg,https://oleks-netizen.github.io/product-images/HB03334C/3.jpg,https://oleks-netizen.github.io/product-images/HB03334C/5.jpg,https://oleks-netizen.github.io/product-images/HB03334C/6.jpg,https://oleks-netizen.github.io/product-images/HB03334C/7.jpg</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LC14098-GD02</t>
+          <t>HB100A</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14098-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD02/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB100A/1.jpg,https://oleks-netizen.github.io/product-images/HB100A/2.jpg,https://oleks-netizen.github.io/product-images/HB100A/7.jpg,https://oleks-netizen.github.io/product-images/HB100A/8.jpg,https://oleks-netizen.github.io/product-images/HB100A/4.jpg,https://oleks-netizen.github.io/product-images/HB100A/5.jpg,https://oleks-netizen.github.io/product-images/HB100A/6.jpg</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LC14098-GD145</t>
+          <t>HB15295A</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14098-GD145/1.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/7.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/3.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/4.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/5.jpg,https://oleks-netizen.github.io/product-images/LC14098-GD145/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB15295A/1.jpg,https://oleks-netizen.github.io/product-images/HB15295A/2.jpg,https://oleks-netizen.github.io/product-images/HB15295A/3.jpg,https://oleks-netizen.github.io/product-images/HB15295A/4.jpg,https://oleks-netizen.github.io/product-images/HB15295A/5.jpg,https://oleks-netizen.github.io/product-images/HB15295A/6.jpg,https://oleks-netizen.github.io/product-images/HB15295A/7.jpg</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LC14204-GD01</t>
+          <t>HB3062</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14204-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14204-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3062/1.jpg,https://oleks-netizen.github.io/product-images/HB3062/2.jpg,https://oleks-netizen.github.io/product-images/HB3062/6.jpg,https://oleks-netizen.github.io/product-images/HB3062/4.jpg,https://oleks-netizen.github.io/product-images/HB3062/5.jpg</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LC14238-GD146</t>
+          <t>HB3076A</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14238-GD146/1.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/7.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/3.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/4.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/5.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD146/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3076A/1.jpg,https://oleks-netizen.github.io/product-images/HB3076A/2.jpg,https://oleks-netizen.github.io/product-images/HB3076A/3.jpg,https://oleks-netizen.github.io/product-images/HB3076A/4.jpg,https://oleks-netizen.github.io/product-images/HB3076A/5.jpg,https://oleks-netizen.github.io/product-images/HB3076A/6.jpg,https://oleks-netizen.github.io/product-images/HB3076A/7.jpg,https://oleks-netizen.github.io/product-images/HB3076A/8.jpg</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LC14238-GD35</t>
+          <t>HB3161</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14238-GD35/1.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/8.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/2.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/4.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/5.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/6.jpg,https://oleks-netizen.github.io/product-images/LC14238-GD35/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3161/1.jpg,https://oleks-netizen.github.io/product-images/HB3161/2.jpg,https://oleks-netizen.github.io/product-images/HB3161/5.jpg,https://oleks-netizen.github.io/product-images/HB3161/4.jpg</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LC14288-GD01</t>
+          <t>HB3183A</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14288-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3183A/1.jpg,https://oleks-netizen.github.io/product-images/HB3183A/2.jpg,https://oleks-netizen.github.io/product-images/HB3183A/6.jpg,https://oleks-netizen.github.io/product-images/HB3183A/4.jpg,https://oleks-netizen.github.io/product-images/HB3183A/5.jpg</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LC14288-GD02</t>
+          <t>HB3198A</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14288-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD02/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3198A/1.jpg,https://oleks-netizen.github.io/product-images/HB3198A/2.jpg,https://oleks-netizen.github.io/product-images/HB3198A/8.jpg,https://oleks-netizen.github.io/product-images/HB3198A/4.jpg,https://oleks-netizen.github.io/product-images/HB3198A/5.jpg,https://oleks-netizen.github.io/product-images/HB3198A/6.jpg,https://oleks-netizen.github.io/product-images/HB3198A/7.jpg</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LC14288-GD22</t>
+          <t>HB3314red</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14288-GD22/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD22/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3314red/1.jpg,https://oleks-netizen.github.io/product-images/HB3314red/2.jpg,https://oleks-netizen.github.io/product-images/HB3314red/5.jpg,https://oleks-netizen.github.io/product-images/HB3314red/4.jpg</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LC14288-GD25</t>
+          <t>HB3336B</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14288-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/3.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14288-GD25/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3336B/1.jpg,https://oleks-netizen.github.io/product-images/HB3336B/2.jpg,https://oleks-netizen.github.io/product-images/HB3336B/5.jpg,https://oleks-netizen.github.io/product-images/HB3336B/4.jpg</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LC14299-GD01</t>
+          <t>HB3338</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14299-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14299-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3338/1.jpg,https://oleks-netizen.github.io/product-images/HB3338/2.jpg,https://oleks-netizen.github.io/product-images/HB3338/5.jpg,https://oleks-netizen.github.io/product-images/HB3338/3.jpg</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LC14621-GD01</t>
+          <t>HB3338R</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD01/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB3338R/1.jpg,https://oleks-netizen.github.io/product-images/HB3338R/2.jpg,https://oleks-netizen.github.io/product-images/HB3338R/6.jpg,https://oleks-netizen.github.io/product-images/HB3338R/4.jpg,https://oleks-netizen.github.io/product-images/HB3338R/5.jpg</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>LC14621-GD02</t>
+          <t>HB4004A</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD02/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/9.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD02/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB4004A/1.jpg,https://oleks-netizen.github.io/product-images/HB4004A/2.jpg,https://oleks-netizen.github.io/product-images/HB4004A/7.jpg,https://oleks-netizen.github.io/product-images/HB4004A/4.jpg,https://oleks-netizen.github.io/product-images/HB4004A/5.jpg,https://oleks-netizen.github.io/product-images/HB4004A/6.jpg</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LC14621-GD04</t>
+          <t>HB400A</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD04/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD04/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB400A/1.jpg,https://oleks-netizen.github.io/product-images/HB400A/2.jpg,https://oleks-netizen.github.io/product-images/HB400A/8.jpg,https://oleks-netizen.github.io/product-images/HB400A/4.jpg,https://oleks-netizen.github.io/product-images/HB400A/5.jpg,https://oleks-netizen.github.io/product-images/HB400A/6.jpg,https://oleks-netizen.github.io/product-images/HB400A/7.jpg</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>LC14621-GD22</t>
+          <t>HB6101</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD22/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD22/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB6101/1.jpg,https://oleks-netizen.github.io/product-images/HB6101/2.jpg,https://oleks-netizen.github.io/product-images/HB6101/5.jpg,https://oleks-netizen.github.io/product-images/HB6101/4.jpg</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>LC14621-GD25</t>
+          <t>HB6154R</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD25/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/10.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/4.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/8.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD25/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB6154R/1.jpg,https://oleks-netizen.github.io/product-images/HB6154R/2.jpg,https://oleks-netizen.github.io/product-images/HB6154R/3.jpg,https://oleks-netizen.github.io/product-images/HB6154R/4.jpg,https://oleks-netizen.github.io/product-images/HB6154R/5.jpg,https://oleks-netizen.github.io/product-images/HB6154R/6.jpg</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>LC14621-GD70</t>
+          <t>HB6154RB</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14621-GD70/1.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/2.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/9.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/3.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/5.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/6.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/7.jpg,https://oleks-netizen.github.io/product-images/LC14621-GD70/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB6154RB/1.jpg,https://oleks-netizen.github.io/product-images/HB6154RB/2.jpg,https://oleks-netizen.github.io/product-images/HB6154RB/5.jpg,https://oleks-netizen.github.io/product-images/HB6154RB/3.jpg</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LC14805-GD01</t>
+          <t>HB9109mC</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14805-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/6.jpg,https://oleks-netizen.github.io/product-images/LC14805-GD01/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/HB9109mC/1.jpg,https://oleks-netizen.github.io/product-images/HB9109mC/2.jpg,https://oleks-netizen.github.io/product-images/HB9109mC/3.jpg,https://oleks-netizen.github.io/product-images/HB9109mC/4.jpg,https://oleks-netizen.github.io/product-images/HB9109mC/5.jpg,https://oleks-netizen.github.io/product-images/HB9109mC/6.jpg</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LC14806-GD01</t>
+          <t>JD7420A</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14806-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14806-GD01/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7420A/1.jpg,https://oleks-netizen.github.io/product-images/JD7420A/2.jpg,https://oleks-netizen.github.io/product-images/JD7420A/6.jpg,https://oleks-netizen.github.io/product-images/JD7420A/11.jpg,https://oleks-netizen.github.io/product-images/JD7420A/10.jpg,https://oleks-netizen.github.io/product-images/JD7420A/3.jpg,https://oleks-netizen.github.io/product-images/JD7420A/5.jpg,https://oleks-netizen.github.io/product-images/JD7420A/7.jpg,https://oleks-netizen.github.io/product-images/JD7420A/8.jpg,https://oleks-netizen.github.io/product-images/JD7420A/9.jpg</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LC14825-GD01</t>
+          <t>K11670bl-black</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC14825-GD01/1.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/2.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/9.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/3.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/4.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/5.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/7.jpg,https://oleks-netizen.github.io/product-images/LC14825-GD01/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K11670bl-black/1.jpg,https://oleks-netizen.github.io/product-images/K11670bl-black/2.jpg,https://oleks-netizen.github.io/product-images/K11670bl-black/6.jpg,https://oleks-netizen.github.io/product-images/K11670bl-black/4.jpg,https://oleks-netizen.github.io/product-images/K11670bl-black/5.jpg</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LC44891-3</t>
+          <t>K11670gi-ginger</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC44891-3/1.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/2.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/8.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/4.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/5.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/6.jpg,https://oleks-netizen.github.io/product-images/LC44891-3/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K11670gi-ginger/1.jpg,https://oleks-netizen.github.io/product-images/K11670gi-ginger/2.jpg,https://oleks-netizen.github.io/product-images/K11670gi-ginger/6.jpg,https://oleks-netizen.github.io/product-images/K11670gi-ginger/4.jpg,https://oleks-netizen.github.io/product-images/K11670gi-ginger/5.jpg</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LC44891-3B</t>
+          <t>KKc-1309-4lx</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC44891-3B/1.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/2.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/8.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/4.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/5.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/6.jpg,https://oleks-netizen.github.io/product-images/LC44891-3B/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/KKc-1309-4lx/1.jpg,https://oleks-netizen.github.io/product-images/KKc-1309-4lx/2.jpg,https://oleks-netizen.github.io/product-images/KKc-1309-4lx/6.jpg,https://oleks-netizen.github.io/product-images/KKc-1309-4lx/4.jpg,https://oleks-netizen.github.io/product-images/KKc-1309-4lx/5.jpg</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>LC45002X-1</t>
+          <t>lim-0127FA</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45002X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45002X-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/lim-0127FA/1.jpg,https://oleks-netizen.github.io/product-images/lim-0127FA/2.jpg,https://oleks-netizen.github.io/product-images/lim-0127FA/5.jpg,https://oleks-netizen.github.io/product-images/lim-0127FA/6.jpg,https://oleks-netizen.github.io/product-images/lim-0127FA/4.jpg</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3411,87 +3411,87 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LC45052X-1</t>
+          <t>Lim-181FA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45052X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45052X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45052X-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-181FA/1.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/2.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/5.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/8.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/3.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/4.jpg,https://oleks-netizen.github.io/product-images/Lim-181FA/6.jpg</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LC45493X-1</t>
+          <t>Lim-181RC</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45493X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45493X-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-181RC/1.jpg,https://oleks-netizen.github.io/product-images/Lim-181RC/2.jpg,https://oleks-netizen.github.io/product-images/Lim-181RC/7.jpg,https://oleks-netizen.github.io/product-images/Lim-181RC/3.jpg,https://oleks-netizen.github.io/product-images/Lim-181RC/4.jpg,https://oleks-netizen.github.io/product-images/Lim-181RC/5.jpg</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LC45665X-1</t>
+          <t>lim-7510</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45665X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45665X-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/lim-7510/1.jpg,https://oleks-netizen.github.io/product-images/lim-7510/2.jpg,https://oleks-netizen.github.io/product-images/lim-7510/3.jpg</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>LC45680X-1</t>
+          <t>lim-8510</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45680X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/6.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45680X-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/lim-8510/1.jpg,https://oleks-netizen.github.io/product-images/lim-8510/2.jpg,https://oleks-netizen.github.io/product-images/lim-8510/4.jpg</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>LC45982X-1</t>
+          <t>M110bu</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC45982X-1/1.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/2.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/7.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/4.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/5.jpg,https://oleks-netizen.github.io/product-images/LC45982X-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/M110bu/1.jpg,https://oleks-netizen.github.io/product-images/M110bu/2.jpg,https://oleks-netizen.github.io/product-images/M110bu/6.jpg,https://oleks-netizen.github.io/product-images/M110bu/4.jpg,https://oleks-netizen.github.io/product-images/M110bu/5.jpg</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LC47043-1</t>
+          <t>RA-4764-4lx</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47043-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47043-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RA-4764-4lx/1.jpg,https://oleks-netizen.github.io/product-images/RA-4764-4lx/2.jpg,https://oleks-netizen.github.io/product-images/RA-4764-4lx/5.jpg,https://oleks-netizen.github.io/product-images/RA-4764-4lx/7.jpg,https://oleks-netizen.github.io/product-images/RA-4764-4lx/3.jpg,https://oleks-netizen.github.io/product-images/RA-4764-4lx/4.jpg</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3501,42 +3501,42 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LC47099-1X</t>
+          <t>RA-6040-3md</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47099-1X/1.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/2.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/6.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/3.jpg,https://oleks-netizen.github.io/product-images/LC47099-1X/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RA-6040-3md/1.jpg,https://oleks-netizen.github.io/product-images/RA-6040-3md/2.jpg,https://oleks-netizen.github.io/product-images/RA-6040-3md/3.jpg,https://oleks-netizen.github.io/product-images/RA-6040-3md/4.jpg,https://oleks-netizen.github.io/product-images/RA-6040-3md/5.jpg,https://oleks-netizen.github.io/product-images/RA-6040-3md/6.jpg</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LC47102-1</t>
+          <t>RA-7122-3mdL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LC47102-1/1.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/2.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/7.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/3.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/5.jpg,https://oleks-netizen.github.io/product-images/LC47102-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RA-7122-3mdL/1.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/2.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/3.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/4.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/5.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/6.jpg,https://oleks-netizen.github.io/product-images/RA-7122-3mdL/7.jpg,https://oleks-netizen.github.i